--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03072D99-D732-4636-A466-14B917EF7A21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D978951-3B39-41A4-B418-F5FA6B94FF2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
   <si>
     <t>Finals Week</t>
   </si>
@@ -167,11 +167,6 @@
 Log and logit transformations </t>
   </si>
   <si>
-    <t xml:space="preserve">* Introduction to the class structure, materials, requirements, expectations and resources. 
-* Review and discuss [available research topics and data sets](https://drive.google.com/open?id=1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)
-</t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
@@ -197,9 +192,6 @@
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>Data Camp: Basic Building Blocks</t>
   </si>
   <si>
     <t>RAT: Data types</t>
@@ -396,38 +388,95 @@
 Data analysis life cycle</t>
   </si>
   <si>
-    <t xml:space="preserve">Understand how to be successful in this class
-Learn a new set of collaborative tools
-Understand the importance and need for reproducible research
-</t>
+    <t>Data Camp: Intro to basics</t>
   </si>
   <si>
     <t>[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315.html)
 [Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
-[Nature: no more excuses](https://www.nature.com/articles/d41586-018-06008-w)
-[Nature: toolkit for transparency](https://www.nature.com/articles/d41586-018-05990-5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familarize yourself with the course website organization
-Join Slack workspace: math315.slack.com 
-Aquire course materials (Open Intro textbook, Course notes packet)
-Install statistical analysis software before Wednesday
+[List of Articles](http://www.norcalbiostat.com/articles/articles.html)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Take [this survey](https://goo.gl/forms/qLBv2jMF6fBv3BTR2) to help me set my OH (Due Thu 8/30 )
+Join our [Slack team](http://math315.slack.com) and post an `#introduction` (instructions in channel) (Due Sun 9/2 )
+DC: Intro to R - Intro to Basics [BBL] (Due Sun 9/2 )
+Metacognition Awareness Inventory  [BBL] (Due Sun 9/2 )
+R Markdown test file (Due Wed 8/22 )
+HW 1 [[Template]](hw/hw01_template.Rmd)(Due Sun 9/2 )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Decide on a data set to analyze and install your software program of choice (Due Thu 8/30 )
-Take [this survey](https://goo.gl/forms/qLBv2jMF6fBv3BTR2) to help me set my OH (Due Thu 8/30 )
-Join our [Slack team](http://math315.slack.com) and post an `#introduction` (See instructions in channel) (Due Sun 9/2 )
-Data entry assignment [[HTML]](hw/01_data_entry.html)[[PDF]](hw/01_data_entry.pdf) (Due Mon 9/3 )</t>
+    </r>
+  </si>
+  <si>
+    <t>Understand how to be successful in this class
+Understand how you currently learn
+Learn a new set of collaborative tools
+Understand the importance and need for reproducible research</t>
+  </si>
+  <si>
+    <t>Familarize yourself with the course website organization and bookmark this site. 
+Join Slack workspace and Datacamp Classroom using links in Blackboard
+Aquire course materials - [Open Intro textbook](https://www.openintro.org/stat/textbook.php?stat_book=os), [Course notes packet](http://www.chicopacketpro.com/item/math-course-notes-donatello)
+Start the [reading assignments](http://www.norcalbiostat.com/articles/articles.html)
+* Learning - your first job
+* MAI and academic achievement</t>
+  </si>
+  <si>
+    <t>Introduction to the class structure, materials, requirements, expectations and resources. 
+Blackboard usage
+Online materials (data camp, google drive, website)
+Physical materials (course notes, textbook)
+New communication tools (hack, slack)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Prepare** - Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) (LaTeX can be postponed until next week)
+**Prepare** - Watch the R Markdown [Tutorial](http://rmarkdown.rstudio.com/lesson-1.html)
+**Prepare** - Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`
+Form support groups
+Learn how to use Rstudio to do and turn in homework (test markdownfile, hw1 template)
+Write down questions about class logistics and structure [[Google Form]](https://goo.gl/forms/T1aDys2sFeLlsk2A3)
+</t>
+  </si>
+  <si>
+    <t>**Prepare** - Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
+**Prepare** - Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)
+Readiness Assurance Test (RAT) on class logistics
+Introduction to the semester long project
+Form analysis pairs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -495,6 +544,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -623,123 +679,123 @@
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="77" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="78" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="81" applyFont="1" applyAlignment="1">
@@ -751,40 +807,39 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="81" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,63 +848,77 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -1274,88 +1343,92 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="49" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="56" customWidth="1"/>
-    <col min="6" max="6" width="45.875" style="56" customWidth="1"/>
-    <col min="7" max="8" width="30.125" style="56" customWidth="1"/>
-    <col min="9" max="9" width="32.875" style="56" customWidth="1"/>
-    <col min="10" max="10" width="54.75" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="14.875" style="49"/>
+    <col min="1" max="1" width="4.5" style="43" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="50" customWidth="1"/>
+    <col min="6" max="6" width="45.875" style="50" customWidth="1"/>
+    <col min="7" max="8" width="30.125" style="50" customWidth="1"/>
+    <col min="9" max="9" width="32.875" style="50" customWidth="1"/>
+    <col min="10" max="10" width="54.75" style="50" customWidth="1"/>
+    <col min="11" max="16384" width="14.875" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="50">
+    <row r="2" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="45">
         <v>41877</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="45">
         <f t="shared" ref="B3:B18" si="0">B2+7</f>
         <v>41884</v>
       </c>
@@ -1373,10 +1446,10 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="50">
+      <c r="A4" s="44">
         <v>3</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="45">
         <f t="shared" si="0"/>
         <v>41891</v>
       </c>
@@ -1392,10 +1465,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+      <c r="A5" s="44">
         <v>4</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="45">
         <f>B4+7</f>
         <v>41898</v>
       </c>
@@ -1411,10 +1484,10 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
+      <c r="A6" s="44">
         <v>5</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="45">
         <f t="shared" si="0"/>
         <v>41905</v>
       </c>
@@ -1430,10 +1503,10 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+      <c r="A7" s="44">
         <v>6</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="45">
         <f t="shared" si="0"/>
         <v>41912</v>
       </c>
@@ -1449,10 +1522,10 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="50">
+      <c r="A8" s="44">
         <v>7</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="45">
         <f t="shared" si="0"/>
         <v>41919</v>
       </c>
@@ -1468,10 +1541,10 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="50">
+      <c r="A9" s="44">
         <v>8</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="45">
         <f t="shared" si="0"/>
         <v>41926</v>
       </c>
@@ -1487,10 +1560,10 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="53">
+      <c r="A10" s="47">
         <v>9</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="45">
         <f t="shared" si="0"/>
         <v>41933</v>
       </c>
@@ -1506,10 +1579,10 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
+      <c r="A11" s="47">
         <v>10</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="45">
         <f t="shared" si="0"/>
         <v>41940</v>
       </c>
@@ -1525,10 +1598,10 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="53">
+      <c r="A12" s="47">
         <v>11</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="45">
         <f t="shared" si="0"/>
         <v>41947</v>
       </c>
@@ -1544,10 +1617,10 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="53">
+      <c r="A13" s="47">
         <v>12</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="45">
         <f t="shared" si="0"/>
         <v>41954</v>
       </c>
@@ -1563,8 +1636,8 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49">
         <f t="shared" si="0"/>
         <v>41961</v>
       </c>
@@ -1578,10 +1651,10 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="53">
+      <c r="A15" s="47">
         <v>13</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="45">
         <f t="shared" si="0"/>
         <v>41968</v>
       </c>
@@ -1597,10 +1670,10 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
+      <c r="A16" s="47">
         <v>14</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="45">
         <f t="shared" si="0"/>
         <v>41975</v>
       </c>
@@ -1616,10 +1689,10 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="53">
+      <c r="A17" s="47">
         <v>15</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="45">
         <f t="shared" si="0"/>
         <v>41982</v>
       </c>
@@ -1635,10 +1708,10 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="45">
         <f t="shared" si="0"/>
         <v>41989</v>
       </c>
@@ -1661,7 +1734,7 @@
   <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,7 +1743,7 @@
     <col min="2" max="2" width="32.25" style="18" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" style="19"/>
-    <col min="5" max="5" width="5.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="7" customWidth="1"/>
     <col min="7" max="7" width="10" style="8" customWidth="1"/>
     <col min="8" max="8" width="7.75" style="8"/>
@@ -1681,7 +1754,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>15</v>
@@ -1689,8 +1762,11 @@
       <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>17</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>16</v>
@@ -1701,31 +1777,31 @@
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="34" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1734,27 +1810,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="13">
         <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G2" s="8">
-        <f>SUMIF($C$2:$C$78,F2,$D$2:$D$78)</f>
-        <v>16</v>
+        <f t="shared" ref="G2:G8" si="0">SUMIF($C$2:$C$78,F2,$D$2:$D$78)</f>
+        <v>42</v>
       </c>
       <c r="H2" s="14">
-        <f>G2/$G$9</f>
-        <v>3.4334763948497854E-2</v>
+        <f t="shared" ref="H2:H8" si="1">G2/$G$9</f>
+        <v>9.012875536480687E-2</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="9">
         <v>16</v>
@@ -1765,7 +1841,7 @@
       <c r="N2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="30">
+      <c r="O2" s="29">
         <v>20</v>
       </c>
       <c r="P2" s="15">
@@ -1789,7 +1865,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="13">
         <v>3</v>
@@ -1798,11 +1874,11 @@
         <v>15</v>
       </c>
       <c r="G3" s="8">
-        <f>SUMIF($C$2:$C$78,F3,$D$2:$D$78)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H3" s="14">
-        <f>G3/$G$9</f>
+        <f t="shared" si="1"/>
         <v>0.12875536480686695</v>
       </c>
       <c r="J3" s="9" t="s">
@@ -1815,16 +1891,16 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="30">
+        <v>41</v>
+      </c>
+      <c r="O3" s="29">
         <v>100</v>
       </c>
       <c r="P3" s="15">
         <v>0.21978021978021978</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S3" s="10">
         <v>99</v>
@@ -1838,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>15</v>
@@ -1847,18 +1923,18 @@
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="8">
-        <f>SUMIF($C$2:$C$78,F4,$D$2:$D$78)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="H4" s="14">
-        <f>G4/$G$9</f>
+        <f t="shared" si="1"/>
         <v>0.11802575107296137</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="9">
         <v>40</v>
@@ -1867,16 +1943,16 @@
         <v>9.8765432098765427E-2</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="30">
+        <v>44</v>
+      </c>
+      <c r="O4" s="29">
         <v>25</v>
       </c>
       <c r="P4" s="15">
         <v>5.4945054945054944E-2</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S4" s="10">
         <v>20</v>
@@ -1890,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>20</v>
@@ -1898,19 +1974,9 @@
       <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="8">
-        <f>SUMIF($C$2:$C$78,F5,$D$2:$D$78)</f>
-        <v>26</v>
-      </c>
-      <c r="H5" s="14">
-        <f>G5/$G$9</f>
-        <v>5.5793991416309016E-2</v>
-      </c>
+      <c r="H5" s="14"/>
       <c r="J5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" s="9">
         <v>26</v>
@@ -1921,14 +1987,14 @@
       <c r="N5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="29">
         <v>10</v>
       </c>
       <c r="P5" s="15">
         <v>2.197802197802198E-2</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S5" s="10">
         <v>32</v>
@@ -1942,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>20</v>
@@ -1954,11 +2020,11 @@
         <v>20</v>
       </c>
       <c r="G6" s="8">
-        <f>SUMIF($C$2:$C$78,F6,$D$2:$D$78)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="H6" s="14">
-        <f>G6/$G$9</f>
+        <f t="shared" si="1"/>
         <v>6.2231759656652362E-2</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -1973,7 +2039,7 @@
       <c r="N6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="29">
         <v>150</v>
       </c>
       <c r="P6" s="15">
@@ -1994,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>15</v>
@@ -2006,11 +2072,11 @@
         <v>21</v>
       </c>
       <c r="G7" s="8">
-        <f>SUMIF($C$2:$C$78,F7,$D$2:$D$78)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="H7" s="14">
-        <f>G7/$G$9</f>
+        <f t="shared" si="1"/>
         <v>0.32188841201716739</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -2022,13 +2088,13 @@
       <c r="L7" s="15">
         <v>0.37037037037037035</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="33">
         <v>150</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="32">
         <v>0.32967032967032966</v>
       </c>
       <c r="R7" s="10" t="s">
@@ -2045,33 +2111,36 @@
       <c r="A8" s="20">
         <v>1</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>47</v>
+      <c r="B8" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>106</v>
       </c>
       <c r="D8" s="22">
         <v>2.5</v>
       </c>
+      <c r="E8" s="52">
+        <v>41883</v>
+      </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="8">
-        <f>SUMIF($C$2:$C$78,F8,$D$2:$D$78)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="H8" s="14">
-        <f>G8/$G$9</f>
+        <f t="shared" si="1"/>
         <v>0.27896995708154504</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="30">
         <v>110</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="31">
         <v>0.27160493827160492</v>
       </c>
       <c r="N8" s="17"/>
@@ -2079,13 +2148,13 @@
         <v>455</v>
       </c>
       <c r="P8" s="17"/>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8" s="34">
         <v>105</v>
       </c>
-      <c r="T8" s="36">
+      <c r="T8" s="35">
         <v>0.23127753303964757</v>
       </c>
     </row>
@@ -2094,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>20</v>
@@ -2120,10 +2189,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -2134,10 +2203,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>106</v>
       </c>
       <c r="D11" s="13">
         <v>5</v>
@@ -2148,10 +2217,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>106</v>
       </c>
       <c r="D12" s="13">
         <v>3</v>
@@ -2162,9 +2231,9 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="13">
@@ -2176,25 +2245,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="13">
         <v>10</v>
       </c>
-      <c r="F14" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="41"/>
+      <c r="F14" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>3</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>20</v>
@@ -2202,71 +2271,71 @@
       <c r="D15" s="22">
         <v>2</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="42"/>
+      <c r="F15" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>3</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>106</v>
       </c>
       <c r="D16" s="13">
         <v>2</v>
       </c>
-      <c r="F16" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="43"/>
+      <c r="F16" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>3</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="13">
         <v>2</v>
       </c>
-      <c r="F17" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="44"/>
+      <c r="F17" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
       </c>
-      <c r="F18" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="45"/>
+      <c r="F18" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>3</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>15</v>
@@ -2279,8 +2348,8 @@
       <c r="A20" s="17">
         <v>4</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>65</v>
+      <c r="B20" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>20</v>
@@ -2294,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>15</v>
@@ -2308,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>15</v>
@@ -2322,10 +2391,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="22">
         <v>4</v>
@@ -2336,7 +2405,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>20</v>
@@ -2350,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D25" s="13">
         <v>2</v>
@@ -2378,10 +2447,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="22">
         <v>4</v>
@@ -2392,9 +2461,9 @@
         <v>6</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="19">
@@ -2406,10 +2475,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="13">
         <v>2</v>
@@ -2420,7 +2489,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>22</v>
@@ -2434,7 +2503,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>22</v>
@@ -2448,22 +2517,22 @@
         <v>6</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="22">
         <v>4</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="53"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>7</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>20</v>
@@ -2477,10 +2546,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="13">
         <v>2</v>
@@ -2491,10 +2560,10 @@
         <v>7</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="D35" s="13">
         <v>5</v>
@@ -2502,10 +2571,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="46" t="s">
+      <c r="B36" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="40" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="13">
@@ -2517,10 +2586,10 @@
         <v>7</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="13">
         <v>1</v>
@@ -2531,10 +2600,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="D38" s="13">
         <v>2.5</v>
@@ -2545,10 +2614,10 @@
         <v>7</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D39" s="22">
         <v>2</v>
@@ -2559,7 +2628,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>20</v>
@@ -2567,29 +2636,29 @@
       <c r="D40" s="13">
         <v>2</v>
       </c>
-      <c r="E40" s="24"/>
+      <c r="E40" s="53"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>8</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="22">
         <v>50</v>
       </c>
-      <c r="E41" s="24"/>
+      <c r="E41" s="53"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>9</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>20</v>
@@ -2597,22 +2666,22 @@
       <c r="D42" s="13">
         <v>2</v>
       </c>
-      <c r="E42" s="24"/>
+      <c r="E42" s="53"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>9</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D43" s="13">
         <v>1</v>
       </c>
-      <c r="E43" s="24"/>
+      <c r="E43" s="53"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
@@ -2627,14 +2696,14 @@
       <c r="D44" s="22">
         <v>10</v>
       </c>
-      <c r="E44" s="24"/>
+      <c r="E44" s="53"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>10</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>20</v>
@@ -2642,44 +2711,44 @@
       <c r="D45" s="13">
         <v>2</v>
       </c>
-      <c r="E45" s="24"/>
+      <c r="E45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>10</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>47</v>
+        <v>86</v>
+      </c>
+      <c r="C46" s="56" t="s">
+        <v>106</v>
       </c>
       <c r="D46" s="13">
         <v>6</v>
       </c>
-      <c r="E46" s="24"/>
+      <c r="E46" s="53"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>10</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D47" s="22">
         <v>2</v>
       </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="53"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>11</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>22</v>
@@ -2687,14 +2756,14 @@
       <c r="D48" s="13">
         <v>20</v>
       </c>
-      <c r="E48" s="24"/>
+      <c r="E48" s="53"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>11</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>20</v>
@@ -2702,29 +2771,29 @@
       <c r="D49" s="13">
         <v>2</v>
       </c>
-      <c r="E49" s="24"/>
+      <c r="E49" s="53"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>11</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="13">
         <v>4</v>
       </c>
-      <c r="E50" s="24"/>
+      <c r="E50" s="53"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>11</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>15</v>
@@ -2732,27 +2801,27 @@
       <c r="D51" s="22">
         <v>10</v>
       </c>
-      <c r="E51" s="24"/>
+      <c r="E51" s="53"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="25">
+      <c r="A52" s="24">
         <v>12</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="26" t="s">
+      <c r="B52" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="13"/>
-      <c r="E52" s="24"/>
+      <c r="E52" s="53"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>12</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>15</v>
@@ -2760,29 +2829,29 @@
       <c r="D53" s="22">
         <v>10</v>
       </c>
-      <c r="E53" s="24"/>
+      <c r="E53" s="53"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="25">
+      <c r="A54" s="24">
         <v>13</v>
       </c>
-      <c r="B54" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="26" t="s">
+      <c r="B54" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="13">
         <v>2</v>
       </c>
-      <c r="E54" s="24"/>
+      <c r="E54" s="53"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="25">
+      <c r="A55" s="24">
         <v>13</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>96</v>
+      <c r="B55" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>22</v>
@@ -2790,67 +2859,67 @@
       <c r="D55" s="13">
         <v>20</v>
       </c>
-      <c r="E55" s="24"/>
+      <c r="E55" s="53"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="27">
+      <c r="A56" s="26">
         <v>13</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D56" s="22">
         <v>4</v>
       </c>
-      <c r="E56" s="24"/>
+      <c r="E56" s="53"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>14</v>
       </c>
-      <c r="B57" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="26" t="s">
+      <c r="B57" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="13">
         <v>10</v>
       </c>
-      <c r="E57" s="24"/>
+      <c r="E57" s="53"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
         <v>14</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D58" s="22">
         <v>2</v>
       </c>
-      <c r="E58" s="24"/>
+      <c r="E58" s="53"/>
     </row>
     <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>15</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="13">
         <v>20</v>
       </c>
-      <c r="E59" s="12"/>
+      <c r="E59" s="54"/>
       <c r="F59" s="7"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -2860,16 +2929,16 @@
       <c r="A60" s="11">
         <v>15</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>44</v>
+      <c r="B60" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="D60" s="13">
         <v>5</v>
       </c>
-      <c r="E60" s="12"/>
+      <c r="E60" s="54"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -2878,16 +2947,16 @@
       <c r="A61" s="11">
         <v>15</v>
       </c>
-      <c r="B61" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>44</v>
+      <c r="B61" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="D61" s="13">
         <v>5</v>
       </c>
-      <c r="E61" s="24"/>
+      <c r="E61" s="53"/>
       <c r="F61" s="18"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -2897,7 +2966,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>20</v>
@@ -2905,7 +2974,7 @@
       <c r="D62" s="22">
         <v>5</v>
       </c>
-      <c r="E62" s="24"/>
+      <c r="E62" s="53"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
@@ -2914,20 +2983,20 @@
       <c r="B63" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="13">
         <v>50</v>
       </c>
-      <c r="E63" s="24"/>
+      <c r="E63" s="53"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>17</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>20</v>
@@ -2935,14 +3004,14 @@
       <c r="D64" s="13">
         <v>2</v>
       </c>
-      <c r="E64" s="24"/>
+      <c r="E64" s="53"/>
     </row>
     <row r="65" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>17</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>20</v>
@@ -2950,7 +3019,7 @@
       <c r="D65" s="13">
         <v>1</v>
       </c>
-      <c r="E65" s="24"/>
+      <c r="E65" s="53"/>
       <c r="F65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -2969,15 +3038,15 @@
         <v>18</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D66" s="13">
         <v>10</v>
       </c>
-      <c r="E66" s="7"/>
+      <c r="E66" s="52"/>
       <c r="F66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -2996,7 +3065,7 @@
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="13"/>
-      <c r="E67" s="7"/>
+      <c r="E67" s="52"/>
       <c r="F67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -3015,7 +3084,7 @@
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="13"/>
-      <c r="E68" s="7"/>
+      <c r="E68" s="52"/>
       <c r="F68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -3034,7 +3103,7 @@
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="13"/>
-      <c r="E69" s="7"/>
+      <c r="E69" s="52"/>
       <c r="F69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -3053,7 +3122,7 @@
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="13"/>
-      <c r="E70" s="7"/>
+      <c r="E70" s="52"/>
       <c r="F70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -3072,7 +3141,7 @@
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="13"/>
-      <c r="E71" s="7"/>
+      <c r="E71" s="52"/>
       <c r="F71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -3091,7 +3160,7 @@
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="13"/>
-      <c r="E72" s="18"/>
+      <c r="E72" s="55"/>
       <c r="F72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -3110,7 +3179,7 @@
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="13"/>
-      <c r="E73" s="18"/>
+      <c r="E73" s="55"/>
       <c r="F73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
@@ -3129,7 +3198,7 @@
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13"/>
-      <c r="E74" s="18"/>
+      <c r="E74" s="55"/>
       <c r="F74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -3148,7 +3217,7 @@
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="13"/>
-      <c r="E75" s="7"/>
+      <c r="E75" s="52"/>
       <c r="F75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -3167,7 +3236,7 @@
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="13"/>
-      <c r="E76" s="7"/>
+      <c r="E76" s="52"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -3188,7 +3257,7 @@
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="13"/>
-      <c r="E77" s="7"/>
+      <c r="E77" s="52"/>
       <c r="F77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -3207,7 +3276,7 @@
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
-      <c r="E78" s="7"/>
+      <c r="E78" s="52"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
@@ -3228,7 +3297,7 @@
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="13"/>
-      <c r="E79" s="7"/>
+      <c r="E79" s="52"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -3249,7 +3318,7 @@
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="13"/>
-      <c r="E80" s="7"/>
+      <c r="E80" s="52"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -3270,7 +3339,7 @@
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="13"/>
-      <c r="E81" s="7"/>
+      <c r="E81" s="52"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -3291,7 +3360,7 @@
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="13"/>
-      <c r="E82" s="7"/>
+      <c r="E82" s="52"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -3312,7 +3381,7 @@
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="13"/>
-      <c r="E83" s="7"/>
+      <c r="E83" s="52"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -3333,7 +3402,7 @@
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="13"/>
-      <c r="E84" s="7"/>
+      <c r="E84" s="52"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
@@ -3354,7 +3423,7 @@
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="13"/>
-      <c r="E85" s="7"/>
+      <c r="E85" s="52"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -3375,7 +3444,7 @@
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="13"/>
-      <c r="E86" s="7"/>
+      <c r="E86" s="52"/>
       <c r="F86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -3390,8 +3459,8 @@
       <c r="T86" s="7"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="29"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D978951-3B39-41A4-B418-F5FA6B94FF2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$86</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -391,7 +390,44 @@
     <t>Data Camp: Intro to basics</t>
   </si>
   <si>
-    <t>[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315.html)
+    <t>Understand how to be successful in this class
+Understand how you currently learn
+Learn a new set of collaborative tools
+Understand the importance and need for reproducible research</t>
+  </si>
+  <si>
+    <t>Familarize yourself with the course website organization and bookmark this site. 
+Join Slack workspace and Datacamp Classroom using links in Blackboard
+Aquire course materials - [Open Intro textbook](https://www.openintro.org/stat/textbook.php?stat_book=os), [Course notes packet](http://www.chicopacketpro.com/item/math-course-notes-donatello)
+Start the [reading assignments](http://www.norcalbiostat.com/articles/articles.html)
+* Learning - your first job
+* MAI and academic achievement</t>
+  </si>
+  <si>
+    <t>Introduction to the class structure, materials, requirements, expectations and resources. 
+Blackboard usage
+Online materials (data camp, google drive, website)
+Physical materials (course notes, textbook)
+New communication tools (hack, slack)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Prepare** - Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) (LaTeX can be postponed until next week)
+**Prepare** - Watch the R Markdown [Tutorial](http://rmarkdown.rstudio.com/lesson-1.html)
+**Prepare** - Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`
+Form support groups
+Learn how to use Rstudio to do and turn in homework (test markdownfile, hw1 template)
+Write down questions about class logistics and structure [[Google Form]](https://goo.gl/forms/T1aDys2sFeLlsk2A3)
+</t>
+  </si>
+  <si>
+    <t>**Prepare** - Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
+**Prepare** - Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)
+Readiness Assurance Test (RAT) on class logistics
+Introduction to the semester long project
+Form analysis pairs</t>
+  </si>
+  <si>
+    <t>[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315_f18.html)
 [Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
 [List of Articles](http://www.norcalbiostat.com/articles/articles.html)</t>
   </si>
@@ -405,9 +441,9 @@
         <scheme val="minor"/>
       </rPr>
       <t>Take [this survey](https://goo.gl/forms/qLBv2jMF6fBv3BTR2) to help me set my OH (Due Thu 8/30 )
-Join our [Slack team](http://math315.slack.com) and post an `#introduction` (instructions in channel) (Due Sun 9/2 )
-DC: Intro to R - Intro to Basics [BBL] (Due Sun 9/2 )
-Metacognition Awareness Inventory  [BBL] (Due Sun 9/2 )
+Join our [Slack team](http://math-315.slack.com) and post an `#introduction` (instructions in channel) (Due Sun 9/2 )
+[Data Camp](https://www.datacamp.com/users/sign_in) Intro to R - Intro to Basics Chapter [BBL] (Due Sun 9/2 )
+[Metacognition Awareness Inventory](https://www.datacamp.com/users/sign_in)  [BBL] (Due Sun 9/2 )
 R Markdown test file (Due Wed 8/22 )
 HW 1 [[Template]](hw/hw01_template.Rmd)(Due Sun 9/2 )</t>
     </r>
@@ -422,48 +458,11 @@
 </t>
     </r>
   </si>
-  <si>
-    <t>Understand how to be successful in this class
-Understand how you currently learn
-Learn a new set of collaborative tools
-Understand the importance and need for reproducible research</t>
-  </si>
-  <si>
-    <t>Familarize yourself with the course website organization and bookmark this site. 
-Join Slack workspace and Datacamp Classroom using links in Blackboard
-Aquire course materials - [Open Intro textbook](https://www.openintro.org/stat/textbook.php?stat_book=os), [Course notes packet](http://www.chicopacketpro.com/item/math-course-notes-donatello)
-Start the [reading assignments](http://www.norcalbiostat.com/articles/articles.html)
-* Learning - your first job
-* MAI and academic achievement</t>
-  </si>
-  <si>
-    <t>Introduction to the class structure, materials, requirements, expectations and resources. 
-Blackboard usage
-Online materials (data camp, google drive, website)
-Physical materials (course notes, textbook)
-New communication tools (hack, slack)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Prepare** - Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) (LaTeX can be postponed until next week)
-**Prepare** - Watch the R Markdown [Tutorial](http://rmarkdown.rstudio.com/lesson-1.html)
-**Prepare** - Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`
-Form support groups
-Learn how to use Rstudio to do and turn in homework (test markdownfile, hw1 template)
-Write down questions about class logistics and structure [[Google Form]](https://goo.gl/forms/T1aDys2sFeLlsk2A3)
-</t>
-  </si>
-  <si>
-    <t>**Prepare** - Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
-**Prepare** - Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)
-Readiness Assurance Test (RAT) on class logistics
-Introduction to the semester long project
-Form analysis pairs</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
@@ -999,10 +998,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{D96B01CE-53F3-405C-BD42-C7A69BDB129B}"/>
-    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Percent 3" xfId="81" xr:uid="{A79AF224-28C6-4190-9A4B-9CFDCDF938BF}"/>
+    <cellStyle name="Normal 2" xfId="51"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Percent 2" xfId="52"/>
+    <cellStyle name="Percent 3" xfId="81"/>
     <cellStyle name="Total" xfId="78" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1339,11 +1338,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EA7367-12A6-49C9-8C78-BD96F9BB150A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,25 +1402,25 @@
         <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="H2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1730,7 +1729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B0268C-4EB4-45B9-93E9-9290B2C8D1A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$87</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="130">
   <si>
     <t>Finals Week</t>
   </si>
@@ -135,11 +135,6 @@
   </si>
   <si>
     <t>Labor day - Campus closed</t>
-  </si>
-  <si>
-    <t>No School
-Data Import
-Univariate Data Visualizations</t>
   </si>
   <si>
     <t>Exploring bivariate relationships</t>
@@ -371,9 +366,6 @@
   </si>
   <si>
     <t>BBL</t>
-  </si>
-  <si>
-    <t>HW 1: Team Formation, Reading, AdHlth</t>
   </si>
   <si>
     <t>PR Poster Prep II</t>
@@ -420,16 +412,16 @@
 </t>
   </si>
   <si>
-    <t>**Prepare** - Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
-**Prepare** - Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)
-Readiness Assurance Test (RAT) on class logistics
-Introduction to the semester long project
-Form analysis pairs</t>
-  </si>
-  <si>
-    <t>[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315_f18.html)
-[Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
-[List of Articles](http://www.norcalbiostat.com/articles/articles.html)</t>
+    <t>HW 1: Team Formation, Reading, project data</t>
+  </si>
+  <si>
+    <t>rubric</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>assign</t>
   </si>
   <si>
     <r>
@@ -444,7 +436,7 @@
 Join our [Slack team](http://math-315.slack.com) and post an `#introduction` (instructions in channel) (Due Sun 9/2 )
 [Data Camp](https://www.datacamp.com/users/sign_in) Intro to R - Intro to Basics Chapter [BBL] (Due Sun 9/2 )
 [Metacognition Awareness Inventory](https://www.datacamp.com/users/sign_in)  [BBL] (Due Sun 9/2 )
-R Markdown test file (Due Wed 8/22 )
+R Markdown test file (Due Wed 8/29 )
 HW 1 [[Template]](hw/hw01_template.Rmd)(Due Sun 9/2 )</t>
     </r>
     <r>
@@ -458,6 +450,67 @@
 </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">No School
+Data architecture and entry
+Creating research questions
+</t>
+  </si>
+  <si>
+    <t>**Prepare** - Watch PDS Video 4
+**Prepare** - Read: How to read a journal article
+**Prepare** - Read: Lecture notes on literature reviews</t>
+  </si>
+  <si>
+    <t>**Prepare** - Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
+**Prepare** - Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)
+Readiness Assurance Test (RAT) on class logistics
+Introduction to the semester long project
+Form analysis pairs - start to discuss what research topics you want to analyze</t>
+  </si>
+  <si>
+    <t>**Prepare** - Download your research data into your `project/data` folder
+**Prepare** - Start a code file called `dm.Rmd`, save into your `project/code` folder
+Import your research data into R. 
+Work with your partner to decide on what variables you will be working with. 
+Start the research question assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315_f18.html)
+[Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
+[List of Articles](http://www.norcalbiostat.com/articles/articles.html)
+[[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) </t>
+  </si>
+  <si>
+    <t>[[PDS video 2]](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
+Course Notes (CN) section 2.1
+Open Intro (OI) Section 1.2
+[[Research data]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communicate with your partner to decide which research data you want to analyze. 
+Schedule a time outside of class to work with your analysis partner on a weekly basis. </t>
+  </si>
+  <si>
+    <t>Identify and differentiate between continuous and categorical data types
+Import data into R using code</t>
+  </si>
+  <si>
+    <t>**Prepare** - Watch [PDS Video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
+**Prepare** - read Course Notes (CN) section 2.1 and Open Intro (OI) textbook section 1.2
+RAT on Data Types
+Review of how data is stored in spreadsheets
+Discuss continuous vs categorical data types</t>
+  </si>
+  <si>
+    <t>PR Personal Codebook</t>
+  </si>
+  <si>
+    <t>Problem set (PS) 2.2 (Due Sun 9/9 )
+Data Camp Open Intro - Intro to R **AND**  Intro to Data [BBL] (Due Sun 9/9 )
+Research question assignment [[HTML]](hw/hw02_research_codebook.html)[[PDF]](hw/hw02_research_codebook.html) (Due Sun 9/9 )
+Peer review of research question (Due Tue 9/11 )</t>
+  </si>
 </sst>
 </file>
 
@@ -466,9 +519,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -678,123 +738,123 @@
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="77" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="78" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="81" applyFont="1" applyAlignment="1">
@@ -806,39 +866,34 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="81" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,76 +902,78 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1341,114 +1398,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="43" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="50" customWidth="1"/>
-    <col min="6" max="6" width="45.875" style="50" customWidth="1"/>
-    <col min="7" max="8" width="30.125" style="50" customWidth="1"/>
-    <col min="9" max="9" width="32.875" style="50" customWidth="1"/>
-    <col min="10" max="10" width="54.75" style="50" customWidth="1"/>
-    <col min="11" max="16384" width="14.875" style="43"/>
+    <col min="1" max="1" width="4.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="45.875" style="45" customWidth="1"/>
+    <col min="7" max="8" width="30.125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="32.875" style="45" customWidth="1"/>
+    <col min="10" max="10" width="54.75" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="14.875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="345" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="40">
         <v>41877</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="H2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+    <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="40">
         <f t="shared" ref="B3:B18" si="0">B2+7</f>
         <v>41884</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="H3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="40">
         <f t="shared" si="0"/>
         <v>41891</v>
       </c>
@@ -1458,21 +1527,23 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="39">
         <v>4</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="40">
         <f>B4+7</f>
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1483,10 +1554,10 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="39">
         <v>5</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="40">
         <f t="shared" si="0"/>
         <v>41905</v>
       </c>
@@ -1502,15 +1573,15 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="39">
         <v>6</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="40">
         <f t="shared" si="0"/>
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1521,10 +1592,10 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="39">
         <v>7</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="40">
         <f t="shared" si="0"/>
         <v>41919</v>
       </c>
@@ -1540,15 +1611,15 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="39">
         <v>8</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="40">
         <f t="shared" si="0"/>
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1559,15 +1630,15 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
+      <c r="A10" s="42">
         <v>9</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="40">
         <f t="shared" si="0"/>
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1578,10 +1649,10 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
+      <c r="A11" s="42">
         <v>10</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="40">
         <f t="shared" si="0"/>
         <v>41940</v>
       </c>
@@ -1597,15 +1668,15 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="47">
+      <c r="A12" s="42">
         <v>11</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="40">
         <f t="shared" si="0"/>
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1616,15 +1687,15 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="47">
+      <c r="A13" s="42">
         <v>12</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="40">
         <f t="shared" si="0"/>
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1635,8 +1706,8 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44">
         <f t="shared" si="0"/>
         <v>41961</v>
       </c>
@@ -1650,10 +1721,10 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47">
+      <c r="A15" s="42">
         <v>13</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="40">
         <f t="shared" si="0"/>
         <v>41968</v>
       </c>
@@ -1669,10 +1740,10 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="47">
+      <c r="A16" s="42">
         <v>14</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="40">
         <f t="shared" si="0"/>
         <v>41975</v>
       </c>
@@ -1688,10 +1759,10 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="47">
+      <c r="A17" s="42">
         <v>15</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="40">
         <f t="shared" si="0"/>
         <v>41982</v>
       </c>
@@ -1707,10 +1778,10 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="40">
         <f t="shared" si="0"/>
         <v>41989</v>
       </c>
@@ -1730,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,18 +1813,19 @@
     <col min="2" max="2" width="32.25" style="18" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" style="19"/>
-    <col min="5" max="5" width="7.625" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10" style="8" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="8"/>
-    <col min="9" max="9" width="4.75" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="7.75" style="7"/>
+    <col min="5" max="5" width="7.625" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10" style="8" customWidth="1"/>
+    <col min="10" max="10" width="7.75" style="8"/>
+    <col min="11" max="11" width="4.75" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="7.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>15</v>
@@ -1761,159 +1833,168 @@
       <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="L1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="M1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="N1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="P1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="Q1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="R1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="T1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="U1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="V1" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="13">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="8">
-        <f t="shared" ref="G2:G8" si="0">SUMIF($C$2:$C$78,F2,$D$2:$D$78)</f>
+      <c r="H2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="8">
+        <f t="shared" ref="I2:I8" si="0">SUMIF($C$2:$C$79,H2,$D$2:$D$79)</f>
         <v>42</v>
       </c>
-      <c r="H2" s="14">
-        <f t="shared" ref="H2:H8" si="1">G2/$G$9</f>
-        <v>9.012875536480687E-2</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="9">
+      <c r="J2" s="14">
+        <f t="shared" ref="J2:J8" si="1">I2/$I$9</f>
+        <v>8.9171974522292988E-2</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="L2" s="15">
+      <c r="N2" s="15">
         <v>3.9506172839506172E-2</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="29">
+      <c r="Q2" s="26">
         <v>20</v>
       </c>
-      <c r="P2" s="15">
+      <c r="R2" s="15">
         <v>4.3956043956043959E-2</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="10">
+      <c r="U2" s="10">
         <v>14</v>
       </c>
-      <c r="T2" s="16">
+      <c r="V2" s="16">
         <v>3.0837004405286344E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="13">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="47">
+        <v>41883</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8">
+      <c r="I3" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H3" s="14">
+      <c r="J3" s="14">
         <f t="shared" si="1"/>
-        <v>0.12875536480686695</v>
-      </c>
-      <c r="J3" s="9" t="s">
+        <v>0.12738853503184713</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="9">
+      <c r="M3" s="9">
         <v>36</v>
       </c>
-      <c r="L3" s="15">
+      <c r="N3" s="15">
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="29">
+      <c r="P3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="26">
         <v>100</v>
       </c>
-      <c r="P3" s="15">
+      <c r="R3" s="15">
         <v>0.21978021978021978</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="10">
+      <c r="T3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="10">
         <v>99</v>
       </c>
-      <c r="T3" s="16">
+      <c r="V3" s="16">
         <v>0.21806167400881057</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>15</v>
@@ -1921,93 +2002,102 @@
       <c r="D4" s="13">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="47">
+        <v>41879</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.12526539278131635</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="9">
+        <v>40</v>
+      </c>
+      <c r="N4" s="15">
+        <v>9.8765432098765427E-2</v>
+      </c>
+      <c r="P4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="H4" s="14">
-        <f t="shared" si="1"/>
-        <v>0.11802575107296137</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="Q4" s="26">
+        <v>25</v>
+      </c>
+      <c r="R4" s="15">
+        <v>5.4945054945054944E-2</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="9">
-        <v>40</v>
-      </c>
-      <c r="L4" s="15">
-        <v>9.8765432098765427E-2</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="29">
-        <v>25</v>
-      </c>
-      <c r="P4" s="15">
-        <v>5.4945054945054944E-2</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="10">
+      <c r="U4" s="10">
         <v>20</v>
       </c>
-      <c r="T4" s="16">
+      <c r="V4" s="16">
         <v>4.405286343612335E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="J5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="47">
+        <v>41881</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="L5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="9">
         <v>26</v>
       </c>
-      <c r="L5" s="15">
+      <c r="N5" s="15">
         <v>6.4197530864197536E-2</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="P5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="29">
+      <c r="Q5" s="26">
         <v>10</v>
       </c>
-      <c r="P5" s="15">
+      <c r="R5" s="15">
         <v>2.197802197802198E-2</v>
       </c>
-      <c r="R5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="10">
         <v>32</v>
       </c>
-      <c r="T5" s="16">
+      <c r="V5" s="16">
         <v>6.8281938325991193E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>20</v>
@@ -2015,51 +2105,54 @@
       <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="47">
+        <v>41883</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="8">
+      <c r="I6" s="8">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="H6" s="14">
+        <v>30</v>
+      </c>
+      <c r="J6" s="14">
         <f t="shared" si="1"/>
-        <v>6.2231759656652362E-2</v>
-      </c>
-      <c r="J6" s="9" t="s">
+        <v>6.3694267515923567E-2</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="9">
+      <c r="M6" s="9">
         <v>27</v>
       </c>
-      <c r="L6" s="15">
+      <c r="N6" s="15">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="P6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="29">
+      <c r="Q6" s="26">
         <v>150</v>
       </c>
-      <c r="P6" s="15">
+      <c r="R6" s="15">
         <v>0.32967032967032966</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="T6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="10">
+      <c r="U6" s="10">
         <v>10</v>
       </c>
-      <c r="T6" s="16">
+      <c r="V6" s="16">
         <v>2.2026431718061675E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>1</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>107</v>
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>114</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>15</v>
@@ -2067,102 +2160,111 @@
       <c r="D7" s="13">
         <v>5</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="47">
+        <v>41883</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H7" s="14">
+      <c r="J7" s="14">
         <f t="shared" si="1"/>
-        <v>0.32188841201716739</v>
-      </c>
-      <c r="J7" s="9" t="s">
+        <v>0.31847133757961782</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="9">
+      <c r="M7" s="9">
         <v>150</v>
       </c>
-      <c r="L7" s="15">
+      <c r="N7" s="15">
         <v>0.37037037037037035</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="P7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="33">
+      <c r="Q7" s="30">
         <v>150</v>
       </c>
-      <c r="P7" s="32">
+      <c r="R7" s="29">
         <v>0.32967032967032966</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="T7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="10">
+      <c r="U7" s="10">
         <v>175</v>
       </c>
-      <c r="T7" s="16">
+      <c r="V7" s="16">
         <v>0.38546255506607929</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
-        <v>1</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="22">
+        <v>1.6</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="21">
         <v>2.5</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="47">
         <v>41883</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="8">
+      <c r="I8" s="8">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="H8" s="14">
+      <c r="J8" s="14">
         <f t="shared" si="1"/>
-        <v>0.27896995708154504</v>
-      </c>
-      <c r="J8" s="30" t="s">
+        <v>0.27600849256900212</v>
+      </c>
+      <c r="L8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="30">
+      <c r="M8" s="27">
         <v>110</v>
       </c>
-      <c r="L8" s="31">
+      <c r="N8" s="28">
         <v>0.27160493827160492</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
         <v>455</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="R8" s="34" t="s">
+      <c r="R8" s="17"/>
+      <c r="T8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="34">
+      <c r="U8" s="31">
         <v>105</v>
       </c>
-      <c r="T8" s="35">
+      <c r="V8" s="32">
         <v>0.23127753303964757</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>20</v>
@@ -2170,339 +2272,358 @@
       <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="G9" s="6">
-        <f>SUM(G2:G8)</f>
-        <v>466</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="E9" s="47">
+        <v>41886</v>
+      </c>
+      <c r="I9" s="6">
+        <f>SUM(I2:I8)</f>
+        <v>471</v>
+      </c>
+      <c r="M9" s="8">
         <v>405</v>
       </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17">
+      <c r="T9" s="17"/>
+      <c r="U9" s="17">
         <v>455</v>
       </c>
-      <c r="T9" s="17"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="17"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E10" s="47">
+        <v>41890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>106</v>
+        <v>48</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>105</v>
       </c>
       <c r="D11" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E11" s="47">
+        <v>41890</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>106</v>
+        <v>49</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>105</v>
       </c>
       <c r="D12" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E12" s="47">
+        <v>41890</v>
+      </c>
+      <c r="G12" s="58"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E13" s="47">
+        <v>41890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>2</v>
-      </c>
-      <c r="B14" s="12" t="s">
+        <v>2.6</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="13">
+        <v>4</v>
+      </c>
+      <c r="E14" s="47">
+        <v>41892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="13">
+        <v>10</v>
+      </c>
+      <c r="H15" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="13">
-        <v>10</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="57"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
-        <v>3</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="22">
-        <v>2</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="58"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I15" s="52"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>3</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>106</v>
+        <v>53</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="13">
         <v>2</v>
       </c>
-      <c r="F16" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="59"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="53"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>3</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>106</v>
+        <v>55</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>105</v>
       </c>
       <c r="D17" s="13">
         <v>2</v>
       </c>
-      <c r="F17" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="60"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>3</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="61" t="s">
+      <c r="I19" s="56"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="61"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="C20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="13">
         <v>3</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>4</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>4</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>4</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D23" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>4</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B24" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="C24" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="13">
         <v>4</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>5</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>5</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="D25" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>5</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>5</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D27" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>5</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="B28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>6</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>106</v>
+        <v>69</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>21</v>
       </c>
       <c r="D29" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>6</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="D30" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>6</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>22</v>
@@ -2511,544 +2632,583 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>6</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="B32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>6</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="13">
         <v>4</v>
       </c>
-      <c r="E32" s="53"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>7</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>7</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="D34" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>7</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>7</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D36" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <v>7</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>106</v>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="D37" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>7</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>7</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>7</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="13">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20">
-        <v>7</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>8</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="C40" s="12" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="D40" s="13">
         <v>2</v>
       </c>
-      <c r="E40" s="53"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>8</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="37" t="s">
+      <c r="B41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="13">
+        <v>2</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>8</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D42" s="13">
         <v>50</v>
       </c>
-      <c r="E41" s="53"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>9</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="13">
-        <v>2</v>
-      </c>
-      <c r="E42" s="53"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>9</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="D43" s="13">
+        <v>2</v>
+      </c>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>9</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="13">
         <v>1</v>
       </c>
-      <c r="E43" s="53"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20">
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
         <v>9</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B45" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C45" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D45" s="13">
         <v>10</v>
       </c>
-      <c r="E44" s="53"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>10</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="13">
-        <v>2</v>
-      </c>
-      <c r="E45" s="53"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>10</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="13">
+        <v>2</v>
+      </c>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>10</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="13">
+        <v>6</v>
+      </c>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>10</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="13">
-        <v>6</v>
-      </c>
-      <c r="E46" s="53"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20">
-        <v>10</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="22">
+      <c r="C48" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="13">
         <v>2</v>
       </c>
-      <c r="E47" s="53"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>11</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="13">
-        <v>20</v>
-      </c>
-      <c r="E48" s="53"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>11</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="13">
         <v>20</v>
       </c>
-      <c r="D49" s="13">
-        <v>2</v>
-      </c>
-      <c r="E49" s="53"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>11</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D50" s="13">
+        <v>2</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>11</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="13">
         <v>4</v>
       </c>
-      <c r="E50" s="53"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20">
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
         <v>11</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B52" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="13">
+        <v>10</v>
+      </c>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="22">
+        <v>12</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C53" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>12</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D54" s="13">
         <v>10</v>
       </c>
-      <c r="E51" s="53"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
-        <v>12</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="25" t="s">
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
+        <v>13</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="53"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20">
-        <v>12</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="22">
+      <c r="D55" s="13">
+        <v>2</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>13</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="13">
+        <v>20</v>
+      </c>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <v>13</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="13">
+        <v>4</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>14</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="13">
         <v>10</v>
       </c>
-      <c r="E53" s="53"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
-        <v>13</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="13">
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>14</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="13">
         <v>2</v>
       </c>
-      <c r="E54" s="53"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
-        <v>13</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="13">
-        <v>20</v>
-      </c>
-      <c r="E55" s="53"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="26">
-        <v>13</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="22">
-        <v>4</v>
-      </c>
-      <c r="E56" s="53"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
-        <v>14</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="13">
-        <v>10</v>
-      </c>
-      <c r="E57" s="53"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20">
-        <v>14</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="22">
-        <v>2</v>
-      </c>
-      <c r="E58" s="53"/>
-    </row>
-    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
-        <v>15</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="13">
-        <v>20</v>
-      </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="17"/>
-    </row>
-    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+    </row>
+    <row r="60" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>15</v>
       </c>
-      <c r="B60" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>43</v>
+      <c r="B60" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="D60" s="13">
-        <v>5</v>
-      </c>
-      <c r="E60" s="54"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="17"/>
+    </row>
+    <row r="61" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>15</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>43</v>
+      <c r="B61" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="D61" s="13">
         <v>5</v>
       </c>
-      <c r="E61" s="53"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20">
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
         <v>15</v>
       </c>
-      <c r="B62" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="13">
+        <v>5</v>
+      </c>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>15</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D63" s="13">
         <v>5</v>
       </c>
-      <c r="E62" s="53"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
-        <v>17</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="13">
-        <v>50</v>
-      </c>
-      <c r="E63" s="53"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>17</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>21</v>
       </c>
       <c r="D64" s="13">
-        <v>2</v>
-      </c>
-      <c r="E64" s="53"/>
-    </row>
-    <row r="65" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>17</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D65" s="13">
+        <v>2</v>
+      </c>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+    </row>
+    <row r="66" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>17</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="13">
         <v>1</v>
       </c>
-      <c r="E65" s="53"/>
-      <c r="F65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-    </row>
-    <row r="66" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11">
-        <v>18</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="13">
-        <v>10</v>
-      </c>
-      <c r="E66" s="52"/>
-      <c r="F66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
@@ -3058,16 +3218,26 @@
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
-    </row>
-    <row r="67" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+    </row>
+    <row r="67" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>18</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="13">
+        <v>10</v>
+      </c>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
@@ -3077,16 +3247,18 @@
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
-    </row>
-    <row r="68" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+    </row>
+    <row r="68" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="13"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
@@ -3096,16 +3268,18 @@
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
       <c r="T68" s="7"/>
-    </row>
-    <row r="69" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+    </row>
+    <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="13"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
@@ -3115,16 +3289,18 @@
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
-    </row>
-    <row r="70" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+    </row>
+    <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="13"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
@@ -3134,16 +3310,18 @@
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
-    </row>
-    <row r="71" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+    </row>
+    <row r="71" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="13"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
@@ -3153,16 +3331,18 @@
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
-    </row>
-    <row r="72" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+    </row>
+    <row r="72" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="13"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
@@ -3172,16 +3352,18 @@
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
-    </row>
-    <row r="73" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+    </row>
+    <row r="73" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="13"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
@@ -3191,16 +3373,18 @@
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
-    </row>
-    <row r="74" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+    </row>
+    <row r="74" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
@@ -3210,16 +3394,18 @@
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
-    </row>
-    <row r="75" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+    </row>
+    <row r="75" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="13"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
@@ -3229,18 +3415,18 @@
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
-    </row>
-    <row r="76" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+    </row>
+    <row r="76" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="13"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
       <c r="H76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
@@ -3250,16 +3436,20 @@
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
-    </row>
-    <row r="77" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+    </row>
+    <row r="77" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="13"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="7"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
@@ -3269,18 +3459,18 @@
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
-    </row>
-    <row r="78" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+    </row>
+    <row r="78" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
-      <c r="E78" s="52"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
       <c r="H78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
@@ -3290,18 +3480,20 @@
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
-    </row>
-    <row r="79" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+    </row>
+    <row r="79" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="13"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
       <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
@@ -3311,18 +3503,20 @@
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
-    </row>
-    <row r="80" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+    </row>
+    <row r="80" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="13"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
       <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
@@ -3332,18 +3526,20 @@
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
-    </row>
-    <row r="81" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+    </row>
+    <row r="81" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="13"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
       <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
       <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
@@ -3353,18 +3549,20 @@
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
-    </row>
-    <row r="82" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+    </row>
+    <row r="82" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="13"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
       <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
@@ -3374,18 +3572,20 @@
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
       <c r="T82" s="7"/>
-    </row>
-    <row r="83" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+    </row>
+    <row r="83" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="13"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
       <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
       <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
@@ -3395,18 +3595,20 @@
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
-    </row>
-    <row r="84" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+    </row>
+    <row r="84" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="13"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
       <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
@@ -3416,18 +3618,20 @@
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
       <c r="T84" s="7"/>
-    </row>
-    <row r="85" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+    </row>
+    <row r="85" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="13"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
       <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
       <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
@@ -3437,16 +3641,20 @@
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
-    </row>
-    <row r="86" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+    </row>
+    <row r="86" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="13"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="7"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
@@ -3456,20 +3664,43 @@
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
-      <c r="B87" s="28"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+    </row>
+    <row r="87" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+      <c r="B88" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
   </mergeCells>
-  <conditionalFormatting sqref="H2:H8">
+  <conditionalFormatting sqref="J2:J8">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3497,7 +3728,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H8</xm:sqref>
+          <xm:sqref>J2:J8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$90</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="133">
   <si>
     <t>Finals Week</t>
   </si>
@@ -76,17 +76,6 @@
   </si>
   <si>
     <t>Moderation</t>
-  </si>
-  <si>
-    <t>Model building/ fit</t>
-  </si>
-  <si>
-    <t>Poster Design
-Special Analysis Topics</t>
-  </si>
-  <si>
-    <t>Poster Presentations
-Final Review</t>
   </si>
   <si>
     <t>Assignment</t>
@@ -157,10 +146,6 @@
 Multiple Regression</t>
   </si>
   <si>
-    <t xml:space="preserve">Categorical Predictors
-Log and logit transformations </t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
@@ -200,12 +185,6 @@
     <t>Data Camp: OI Intro to R</t>
   </si>
   <si>
-    <t>Personal Codebook/RQ</t>
-  </si>
-  <si>
-    <t>Citation Assignment</t>
-  </si>
-  <si>
     <t>Not Started</t>
   </si>
   <si>
@@ -233,37 +212,22 @@
     <t>needs template &amp; solutions</t>
   </si>
   <si>
-    <t>DM steps preparation</t>
-  </si>
-  <si>
     <t>RAT: DM</t>
   </si>
   <si>
-    <t>DM assignment</t>
-  </si>
-  <si>
     <t>Univariate graphing</t>
   </si>
   <si>
-    <t>Peer Review univ graphics</t>
-  </si>
-  <si>
     <t>RAT: Bivariate</t>
   </si>
   <si>
     <t>PS 2.8, 2.10</t>
   </si>
   <si>
-    <t>Peer Review bivariate graphing</t>
-  </si>
-  <si>
     <t>Exam 1</t>
   </si>
   <si>
     <t>PS 3.1, 3.2</t>
-  </si>
-  <si>
-    <t>Research Plan Outline</t>
   </si>
   <si>
     <t>Poster Prep I</t>
@@ -412,9 +376,6 @@
 </t>
   </si>
   <si>
-    <t>HW 1: Team Formation, Reading, project data</t>
-  </si>
-  <si>
     <t>rubric</t>
   </si>
   <si>
@@ -422,6 +383,106 @@
   </si>
   <si>
     <t>assign</t>
+  </si>
+  <si>
+    <t>**Prepare** - Watch PDS Video 4
+**Prepare** - Read: How to read a journal article
+**Prepare** - Read: Lecture notes on literature reviews</t>
+  </si>
+  <si>
+    <t>**Prepare** - Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
+**Prepare** - Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)
+Readiness Assurance Test (RAT) on class logistics
+Introduction to the semester long project
+Form analysis pairs - start to discuss what research topics you want to analyze</t>
+  </si>
+  <si>
+    <t>**Prepare** - Download your research data into your `project/data` folder
+**Prepare** - Start a code file called `dm.Rmd`, save into your `project/code` folder
+Import your research data into R. 
+Work with your partner to decide on what variables you will be working with. 
+Start the research question assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communicate with your partner to decide which research data you want to analyze. 
+Schedule a time outside of class to work with your analysis partner on a weekly basis. </t>
+  </si>
+  <si>
+    <t>Identify and differentiate between continuous and categorical data types
+Import data into R using code</t>
+  </si>
+  <si>
+    <t>**Prepare** - Watch [PDS Video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
+**Prepare** - read Course Notes (CN) section 2.1 and Open Intro (OI) textbook section 1.2
+RAT on Data Types
+Review of how data is stored in spreadsheets
+Discuss continuous vs categorical data types</t>
+  </si>
+  <si>
+    <t>PR Personal Codebook</t>
+  </si>
+  <si>
+    <t>Campus Closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No School
+Categorical Predictors
+Log and logit transformations </t>
+  </si>
+  <si>
+    <t>Poster Presentations
+Poster Presentations
+Final Review</t>
+  </si>
+  <si>
+    <t>Model building
+Poster Design
+Open work day</t>
+  </si>
+  <si>
+    <t>Model building</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Problem set (PS) 2.2 (Due Sun 9/9 )
+Data Camp Open Intro - Intro to R **AND**  Intro to Data [BBL] (Due Sun 9/9 )
+Research question assignment [[HTML]](hw/hw02_research_codebook.html)[[PDF]](hw/hw02_research_codebook.html) (Due Sun 9/9 )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Peer review of research question (Due Tue 9/11 )</t>
+    </r>
+  </si>
+  <si>
+    <t>No School
+Data architecture and entry
+Creating research questions</t>
+  </si>
+  <si>
+    <t>[PDS video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
+Course Notes (CN) section 2.1
+Open Intro (OI) Section 1.2
+[Research data](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315_f18.html)
+[Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
+[List of Articles](http://www.norcalbiostat.com/articles/articles.html)
+[PDS video 1](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) </t>
   </si>
   <si>
     <r>
@@ -437,7 +498,7 @@
 [Data Camp](https://www.datacamp.com/users/sign_in) Intro to R - Intro to Basics Chapter [BBL] (Due Sun 9/2 )
 [Metacognition Awareness Inventory](https://www.datacamp.com/users/sign_in)  [BBL] (Due Sun 9/2 )
 R Markdown test file (Due Wed 8/29 )
-HW 1 [[Template]](hw/hw01_template.Rmd)(Due Sun 9/2 )</t>
+HW 1 [[RMD]](hw/hw01_template.Rmd)(Due Sun 9/2 )</t>
     </r>
     <r>
       <rPr>
@@ -451,65 +512,34 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">No School
-Data architecture and entry
-Creating research questions
-</t>
-  </si>
-  <si>
-    <t>**Prepare** - Watch PDS Video 4
-**Prepare** - Read: How to read a journal article
-**Prepare** - Read: Lecture notes on literature reviews</t>
-  </si>
-  <si>
-    <t>**Prepare** - Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
-**Prepare** - Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)
-Readiness Assurance Test (RAT) on class logistics
-Introduction to the semester long project
-Form analysis pairs - start to discuss what research topics you want to analyze</t>
-  </si>
-  <si>
-    <t>**Prepare** - Download your research data into your `project/data` folder
-**Prepare** - Start a code file called `dm.Rmd`, save into your `project/code` folder
-Import your research data into R. 
-Work with your partner to decide on what variables you will be working with. 
-Start the research question assignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315_f18.html)
-[Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
-[List of Articles](http://www.norcalbiostat.com/articles/articles.html)
-[[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) </t>
-  </si>
-  <si>
-    <t>[[PDS video 2]](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
-Course Notes (CN) section 2.1
-Open Intro (OI) Section 1.2
-[[Research data]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communicate with your partner to decide which research data you want to analyze. 
-Schedule a time outside of class to work with your analysis partner on a weekly basis. </t>
-  </si>
-  <si>
-    <t>Identify and differentiate between continuous and categorical data types
-Import data into R using code</t>
-  </si>
-  <si>
-    <t>**Prepare** - Watch [PDS Video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
-**Prepare** - read Course Notes (CN) section 2.1 and Open Intro (OI) textbook section 1.2
-RAT on Data Types
-Review of how data is stored in spreadsheets
-Discuss continuous vs categorical data types</t>
-  </si>
-  <si>
-    <t>PR Personal Codebook</t>
-  </si>
-  <si>
-    <t>Problem set (PS) 2.2 (Due Sun 9/9 )
-Data Camp Open Intro - Intro to R **AND**  Intro to Data [BBL] (Due Sun 9/9 )
-Research question assignment [[HTML]](hw/hw02_research_codebook.html)[[PDF]](hw/hw02_research_codebook.html) (Due Sun 9/9 )
-Peer review of research question (Due Tue 9/11 )</t>
+    <t>hw01 1: Team Formation, Reading, project data</t>
+  </si>
+  <si>
+    <t>hw02 Personal Codebook/RQ</t>
+  </si>
+  <si>
+    <t>hw03 Citation Assignment</t>
+  </si>
+  <si>
+    <t>PR citation assignment</t>
+  </si>
+  <si>
+    <t>PR DM steps</t>
+  </si>
+  <si>
+    <t>Research Proposal</t>
+  </si>
+  <si>
+    <t>hw04 DM steps preparation</t>
+  </si>
+  <si>
+    <t>hw05  DM assignment</t>
+  </si>
+  <si>
+    <t>Peer review Research Proposal</t>
+  </si>
+  <si>
+    <t>Ready to be used, % based</t>
   </si>
 </sst>
 </file>
@@ -519,9 +549,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -615,7 +659,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,6 +732,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -738,123 +806,123 @@
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="77" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="78" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="81" applyFont="1" applyAlignment="1">
@@ -866,34 +934,34 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="81" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,79 +970,102 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -1399,12 +1490,12 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="38" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="38" customWidth="1"/>
     <col min="3" max="3" width="24.625" style="38" customWidth="1"/>
     <col min="4" max="4" width="27.375" style="45" customWidth="1"/>
@@ -1436,13 +1527,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>7</v>
@@ -1456,28 +1547,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
@@ -1492,25 +1583,25 @@
         <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>129</v>
+        <v>108</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1528,7 +1619,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1543,7 +1634,7 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1581,7 +1672,7 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1619,7 +1710,7 @@
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1638,7 +1729,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1676,7 +1767,7 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1686,7 +1777,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>12</v>
       </c>
@@ -1695,12 +1786,14 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
@@ -1729,7 +1822,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1739,7 +1832,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>14</v>
       </c>
@@ -1748,7 +1841,7 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1758,7 +1851,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>15</v>
       </c>
@@ -1767,7 +1860,7 @@
         <v>41982</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1777,7 +1870,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>0</v>
       </c>
@@ -1796,15 +1889,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,61 +1919,61 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" s="27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T1" s="31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U1" s="31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V1" s="31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1887,27 +1981,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="13">
         <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I2" s="8">
-        <f t="shared" ref="I2:I8" si="0">SUMIF($C$2:$C$79,H2,$D$2:$D$79)</f>
+        <f>SUMIF($C$2:$C$82,H2,$D$2:$D$82)</f>
         <v>42</v>
       </c>
       <c r="J2" s="14">
-        <f t="shared" ref="J2:J8" si="1">I2/$I$9</f>
-        <v>8.9171974522292988E-2</v>
+        <f t="shared" ref="J2:J8" si="0">I2/$I$9</f>
+        <v>8.6065573770491802E-2</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M2" s="9">
         <v>16</v>
@@ -1916,7 +2010,7 @@
         <v>3.9506172839506172E-2</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="26">
         <v>20</v>
@@ -1925,7 +2019,7 @@
         <v>4.3956043956043959E-2</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U2" s="10">
         <v>14</v>
@@ -1939,10 +2033,10 @@
         <v>1.3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13">
         <v>3</v>
@@ -1950,19 +2044,22 @@
       <c r="E3" s="47">
         <v>41883</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
+      <c r="G3" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>12</v>
       </c>
       <c r="I3" s="8">
+        <f>SUMIF($C$2:$C$82,H3,$D$2:$D$82)</f>
+        <v>52</v>
+      </c>
+      <c r="J3" s="14">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="J3" s="14">
-        <f t="shared" si="1"/>
-        <v>0.12738853503184713</v>
+        <v>0.10655737704918032</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M3" s="9">
         <v>36</v>
@@ -1971,7 +2068,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="26">
         <v>100</v>
@@ -1980,7 +2077,7 @@
         <v>0.21978021978021978</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U3" s="10">
         <v>99</v>
@@ -1994,10 +2091,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="13">
         <v>2</v>
@@ -2005,22 +2102,22 @@
       <c r="E4" s="47">
         <v>41879</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>116</v>
+      <c r="G4" s="52" t="s">
+        <v>104</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I4" s="8">
+        <f>SUMIF($C$2:$C$82,H4,$D$2:$D$82)</f>
+        <v>64</v>
+      </c>
+      <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="J4" s="14">
-        <f t="shared" si="1"/>
-        <v>0.12526539278131635</v>
+        <v>0.13114754098360656</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M4" s="9">
         <v>40</v>
@@ -2029,7 +2126,7 @@
         <v>9.8765432098765427E-2</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="26">
         <v>25</v>
@@ -2038,7 +2135,7 @@
         <v>5.4945054945054944E-2</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U4" s="10">
         <v>20</v>
@@ -2052,10 +2149,10 @@
         <v>1.2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
@@ -2063,9 +2160,12 @@
       <c r="E5" s="47">
         <v>41881</v>
       </c>
+      <c r="G5" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="J5" s="14"/>
       <c r="L5" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M5" s="9">
         <v>26</v>
@@ -2074,7 +2174,7 @@
         <v>6.4197530864197536E-2</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="26">
         <v>10</v>
@@ -2083,7 +2183,7 @@
         <v>2.197802197802198E-2</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U5" s="10">
         <v>32</v>
@@ -2097,10 +2197,10 @@
         <v>1.4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
@@ -2108,19 +2208,22 @@
       <c r="E6" s="47">
         <v>41883</v>
       </c>
+      <c r="G6" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="H6" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6" s="8">
+        <f>SUMIF($C$2:$C$82,H6,$D$2:$D$82)</f>
+        <v>30</v>
+      </c>
+      <c r="J6" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="J6" s="14">
-        <f t="shared" si="1"/>
-        <v>6.3694267515923567E-2</v>
+        <v>6.1475409836065573E-2</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M6" s="9">
         <v>27</v>
@@ -2129,7 +2232,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="26">
         <v>150</v>
@@ -2138,7 +2241,7 @@
         <v>0.32967032967032966</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="U6" s="10">
         <v>10</v>
@@ -2151,11 +2254,11 @@
       <c r="A7" s="11">
         <v>1.5</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>15</v>
+      <c r="B7" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="13">
         <v>5</v>
@@ -2163,22 +2266,22 @@
       <c r="E7" s="47">
         <v>41883</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>116</v>
+      <c r="G7" s="52" t="s">
+        <v>104</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I7" s="8">
+        <f>SUMIF($C$2:$C$82,H7,$D$2:$D$82)</f>
+        <v>150</v>
+      </c>
+      <c r="J7" s="14">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="J7" s="14">
-        <f t="shared" si="1"/>
-        <v>0.31847133757961782</v>
+        <v>0.30737704918032788</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M7" s="9">
         <v>150</v>
@@ -2187,7 +2290,7 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="30">
         <v>150</v>
@@ -2196,7 +2299,7 @@
         <v>0.32967032967032966</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U7" s="10">
         <v>175</v>
@@ -2210,10 +2313,10 @@
         <v>1.6</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D8" s="21">
         <v>2.5</v>
@@ -2221,22 +2324,22 @@
       <c r="E8" s="47">
         <v>41883</v>
       </c>
-      <c r="G8" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>22</v>
+      <c r="G8" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>19</v>
       </c>
       <c r="I8" s="8">
+        <f>SUMIF($C$2:$C$82,H8,$D$2:$D$82)</f>
+        <v>150</v>
+      </c>
+      <c r="J8" s="14">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="1"/>
-        <v>0.27600849256900212</v>
+        <v>0.30737704918032788</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M8" s="27">
         <v>110</v>
@@ -2250,7 +2353,7 @@
       </c>
       <c r="R8" s="17"/>
       <c r="T8" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U8" s="31">
         <v>105</v>
@@ -2264,10 +2367,10 @@
         <v>2.1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -2275,9 +2378,12 @@
       <c r="E9" s="47">
         <v>41886</v>
       </c>
+      <c r="G9" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="I9" s="6">
         <f>SUM(I2:I8)</f>
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="M9" s="8">
         <v>405</v>
@@ -2293,16 +2399,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
       </c>
       <c r="E10" s="47">
         <v>41890</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2310,16 +2419,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D11" s="13">
         <v>5</v>
       </c>
       <c r="E11" s="47">
         <v>41890</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2327,10 +2439,10 @@
         <v>2.4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D12" s="13">
         <v>3</v>
@@ -2338,17 +2450,19 @@
       <c r="E12" s="47">
         <v>41890</v>
       </c>
-      <c r="G12" s="58"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G12" s="53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2.5</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>22</v>
+      <c r="B13" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>19</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
@@ -2356,224 +2470,228 @@
       <c r="E13" s="47">
         <v>41890</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="F13" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
         <v>2.6</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="B14" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="21">
         <v>4</v>
       </c>
       <c r="E14" s="47">
         <v>41892</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>3</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>22</v>
+      <c r="B15" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
       </c>
-      <c r="H15" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="52"/>
+      <c r="H15" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>3</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>20</v>
+      <c r="B16" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>38</v>
       </c>
       <c r="D16" s="13">
-        <v>2</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="53"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>3</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>105</v>
+        <v>47</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D17" s="13">
         <v>2</v>
       </c>
-      <c r="H17" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="54"/>
+      <c r="H17" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>105</v>
+        <v>49</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>94</v>
       </c>
       <c r="D18" s="13">
         <v>2</v>
       </c>
-      <c r="H18" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="55"/>
+      <c r="H18" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>3</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D19" s="13">
-        <v>1</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="56"/>
+        <v>2</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="60"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>3</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="D20" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>4</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>20</v>
+      <c r="B21" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>19</v>
       </c>
       <c r="D21" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>4</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>15</v>
+      <c r="B22" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>38</v>
       </c>
       <c r="D22" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>4</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>64</v>
+      <c r="B23" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>4</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>42</v>
+      <c r="B24" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>19</v>
       </c>
       <c r="D24" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="B25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="13">
         <v>5</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="13">
-        <v>2</v>
+      <c r="F25" s="75" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>5</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="13">
-        <v>2</v>
-      </c>
+      <c r="A26" s="11"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>5</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2581,55 +2699,47 @@
         <v>5</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D28" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>12</v>
       </c>
       <c r="D29" s="13">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>6</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="13">
-        <v>2</v>
-      </c>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>6</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>22</v>
+        <v>59</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="D31" s="13">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2637,84 +2747,86 @@
         <v>6</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D32" s="13">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>6</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>42</v>
+      <c r="B33" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>19</v>
       </c>
       <c r="D33" s="13">
-        <v>4</v>
-      </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>7</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>38</v>
       </c>
       <c r="D34" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>105</v>
+        <v>61</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>19</v>
       </c>
       <c r="D35" s="13">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
+        <v>6</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="13">
+        <v>4</v>
+      </c>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <v>7</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>15</v>
+      <c r="B37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D37" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2722,13 +2834,13 @@
         <v>7</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D38" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2736,92 +2848,81 @@
         <v>7</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D39" s="13">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>7</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>105</v>
+      <c r="A40" s="11"/>
+      <c r="B40" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>12</v>
       </c>
       <c r="D40" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D41" s="13">
-        <v>2</v>
-      </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>21</v>
+        <v>67</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="D42" s="13">
-        <v>50</v>
-      </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D43" s="13">
         <v>2</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D44" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="48"/>
       <c r="F44" s="48"/>
@@ -2829,16 +2930,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="D45" s="13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E45" s="48"/>
       <c r="F45" s="48"/>
@@ -2846,13 +2947,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D46" s="13">
         <v>2</v>
@@ -2863,50 +2964,52 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>105</v>
+        <v>72</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="D47" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
+        <v>9</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="13">
         <v>10</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="13">
-        <v>2</v>
-      </c>
       <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
+      <c r="F48" s="75" t="s">
+        <v>132</v>
+      </c>
       <c r="G48" s="48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D49" s="13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
@@ -2914,16 +3017,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>94</v>
       </c>
       <c r="D50" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
@@ -2931,333 +3034,323 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D51" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>11</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="C52" s="68" t="s">
+        <v>19</v>
       </c>
       <c r="D52" s="13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
+      <c r="F52" s="75" t="s">
+        <v>132</v>
+      </c>
       <c r="G52" s="48"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
-        <v>12</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="13"/>
+      <c r="A53" s="11">
+        <v>11</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="13">
+        <v>2</v>
+      </c>
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
-        <v>12</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="73" t="s">
+        <v>38</v>
       </c>
       <c r="D54" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
-        <v>13</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>20</v>
+    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>11</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>12</v>
       </c>
       <c r="D55" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
+      <c r="F55" s="75" t="s">
+        <v>132</v>
+      </c>
       <c r="G55" s="48"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="13">
-        <v>20</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="13"/>
       <c r="E56" s="48"/>
       <c r="F56" s="48"/>
       <c r="G56" s="48"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
-        <v>13</v>
+      <c r="A57" s="11">
+        <v>12</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>42</v>
+        <v>80</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>12</v>
       </c>
       <c r="D57" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E57" s="48"/>
       <c r="F57" s="48"/>
       <c r="G57" s="48"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
-        <v>14</v>
+      <c r="A58" s="22">
+        <v>13</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D58" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E58" s="48"/>
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
+    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
+        <v>13</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="13">
+        <v>20</v>
+      </c>
+      <c r="E59" s="48"/>
+      <c r="F59" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" s="48"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <v>13</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="13">
+        <v>4</v>
+      </c>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
         <v>14</v>
       </c>
-      <c r="B59" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="13">
+      <c r="B61" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="13">
+        <v>10</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+    </row>
+    <row r="62" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>14</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="13">
         <v>2</v>
-      </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-    </row>
-    <row r="60" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
-        <v>15</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="13">
-        <v>20</v>
-      </c>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="17"/>
-    </row>
-    <row r="61" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
-        <v>15</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="13">
-        <v>5</v>
-      </c>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
-        <v>15</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="13">
-        <v>5</v>
       </c>
       <c r="E62" s="48"/>
       <c r="F62" s="48"/>
       <c r="G62" s="48"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H62" s="7"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="17"/>
+    </row>
+    <row r="63" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>15</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="13">
         <v>20</v>
       </c>
-      <c r="D63" s="13">
-        <v>5</v>
-      </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
-        <v>17</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="74" t="s">
+        <v>38</v>
       </c>
       <c r="D64" s="13">
-        <v>50</v>
-      </c>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
+        <v>5</v>
+      </c>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
-        <v>17</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="D65" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E65" s="48"/>
       <c r="F65" s="48"/>
       <c r="G65" s="48"/>
     </row>
-    <row r="66" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
+        <v>15</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="D66" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66" s="48"/>
       <c r="F66" s="48"/>
       <c r="G66" s="48"/>
-      <c r="H66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-    </row>
-    <row r="67" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
+        <v>17</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="D67" s="13">
-        <v>10</v>
-      </c>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
     </row>
     <row r="68" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
+      <c r="A68" s="11">
+        <v>17</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="13">
+        <v>2</v>
+      </c>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
       <c r="H68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -3272,13 +3365,21 @@
       <c r="V68" s="7"/>
     </row>
     <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
+      <c r="A69" s="11">
+        <v>17</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="13">
+        <v>1</v>
+      </c>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
       <c r="H69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -3293,10 +3394,18 @@
       <c r="V69" s="7"/>
     </row>
     <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
+      <c r="A70" s="11">
+        <v>18</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="13">
+        <v>10</v>
+      </c>
       <c r="E70" s="47"/>
       <c r="F70" s="47"/>
       <c r="G70" s="47"/>
@@ -3360,9 +3469,9 @@
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="13"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
       <c r="H73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
@@ -3381,9 +3490,9 @@
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
       <c r="H74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -3402,9 +3511,9 @@
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="13"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
       <c r="H75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -3423,9 +3532,9 @@
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="13"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
       <c r="H76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -3444,12 +3553,10 @@
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="13"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
@@ -3467,9 +3574,9 @@
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
       <c r="H78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -3515,8 +3622,6 @@
       <c r="F80" s="47"/>
       <c r="G80" s="47"/>
       <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
@@ -3676,6 +3781,8 @@
       <c r="F87" s="47"/>
       <c r="G87" s="47"/>
       <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
@@ -3688,9 +3795,59 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
-      <c r="B88" s="25"/>
+    <row r="88" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+    </row>
+    <row r="89" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
+      <c r="B91" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158CA5E7-EDD7-449D-94A2-FFD5012A9991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$90</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="142">
   <si>
     <t>Finals Week</t>
   </si>
@@ -61,10 +62,6 @@
   </si>
   <si>
     <t>Assignments</t>
-  </si>
-  <si>
-    <t>Preparing your data for analysis
-Recoding, data editing and transformations</t>
   </si>
   <si>
     <t>Writing about empirical research
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t>Labor day - Campus closed</t>
-  </si>
-  <si>
-    <t>Exploring bivariate relationships</t>
   </si>
   <si>
     <t>Probability &amp; Confidence Intervals
@@ -367,15 +361,6 @@
 New communication tools (hack, slack)</t>
   </si>
   <si>
-    <t xml:space="preserve">**Prepare** - Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) (LaTeX can be postponed until next week)
-**Prepare** - Watch the R Markdown [Tutorial](http://rmarkdown.rstudio.com/lesson-1.html)
-**Prepare** - Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`
-Form support groups
-Learn how to use Rstudio to do and turn in homework (test markdownfile, hw1 template)
-Write down questions about class logistics and structure [[Google Form]](https://goo.gl/forms/T1aDys2sFeLlsk2A3)
-</t>
-  </si>
-  <si>
     <t>rubric</t>
   </si>
   <si>
@@ -383,11 +368,6 @@
   </si>
   <si>
     <t>assign</t>
-  </si>
-  <si>
-    <t>**Prepare** - Watch PDS Video 4
-**Prepare** - Read: How to read a journal article
-**Prepare** - Read: Lecture notes on literature reviews</t>
   </si>
   <si>
     <t>**Prepare** - Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
@@ -422,9 +402,6 @@
     <t>PR Personal Codebook</t>
   </si>
   <si>
-    <t>Campus Closed</t>
-  </si>
-  <si>
     <t xml:space="preserve">No School
 Categorical Predictors
 Log and logit transformations </t>
@@ -441,31 +418,6 @@
   </si>
   <si>
     <t>Model building</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Problem set (PS) 2.2 (Due Sun 9/9 )
-Data Camp Open Intro - Intro to R **AND**  Intro to Data [BBL] (Due Sun 9/9 )
-Research question assignment [[HTML]](hw/hw02_research_codebook.html)[[PDF]](hw/hw02_research_codebook.html) (Due Sun 9/9 )
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Peer review of research question (Due Tue 9/11 )</t>
-    </r>
   </si>
   <si>
     <t>No School
@@ -479,10 +431,46 @@
 [Research data](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)</t>
   </si>
   <si>
-    <t xml:space="preserve">[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315_f18.html)
-[Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
-[List of Articles](http://www.norcalbiostat.com/articles/articles.html)
-[PDS video 1](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) </t>
+    <t>hw01 1: Team Formation, Reading, project data</t>
+  </si>
+  <si>
+    <t>hw02 Personal Codebook/RQ</t>
+  </si>
+  <si>
+    <t>hw03 Citation Assignment</t>
+  </si>
+  <si>
+    <t>PR citation assignment</t>
+  </si>
+  <si>
+    <t>PR DM steps</t>
+  </si>
+  <si>
+    <t>Research Proposal</t>
+  </si>
+  <si>
+    <t>hw04 DM steps preparation</t>
+  </si>
+  <si>
+    <t>hw05  DM assignment</t>
+  </si>
+  <si>
+    <t>Peer review Research Proposal</t>
+  </si>
+  <si>
+    <t>Ready to be used, % based</t>
+  </si>
+  <si>
+    <t>in used, % based</t>
+  </si>
+  <si>
+    <t>Campus closed</t>
+  </si>
+  <si>
+    <t>Problem set (PS) 2.2 (Due Sun 9/9 )
+Data Camp Open Intro - Intro to R **AND**  Intro to Data [BBL] (Due Sun 9/9 )
+hw02 Research question and codebook assignment [[HTML]](hw/hw02_research_codebook.html)[[PDF]](hw/hw02_research_codebook.html) (Due Sun 9/9 )
+Peer review of research question (Due Tue 9/11 )</t>
   </si>
   <si>
     <r>
@@ -498,7 +486,7 @@
 [Data Camp](https://www.datacamp.com/users/sign_in) Intro to R - Intro to Basics Chapter [BBL] (Due Sun 9/2 )
 [Metacognition Awareness Inventory](https://www.datacamp.com/users/sign_in)  [BBL] (Due Sun 9/2 )
 R Markdown test file (Due Wed 8/29 )
-HW 1 [[RMD]](hw/hw01_template.Rmd)(Due Sun 9/2 )</t>
+hw01 Introductions [[HTML]](hw/hw01_introductions.html)[[PDF]](hw/hw01_introductions.pdf)(Due Sun 9/2 )</t>
     </r>
     <r>
       <rPr>
@@ -512,46 +500,102 @@
     </r>
   </si>
   <si>
-    <t>hw01 1: Team Formation, Reading, project data</t>
-  </si>
-  <si>
-    <t>hw02 Personal Codebook/RQ</t>
-  </si>
-  <si>
-    <t>hw03 Citation Assignment</t>
-  </si>
-  <si>
-    <t>PR citation assignment</t>
-  </si>
-  <si>
-    <t>PR DM steps</t>
-  </si>
-  <si>
-    <t>Research Proposal</t>
-  </si>
-  <si>
-    <t>hw04 DM steps preparation</t>
-  </si>
-  <si>
-    <t>hw05  DM assignment</t>
-  </si>
-  <si>
-    <t>Peer review Research Proposal</t>
-  </si>
-  <si>
-    <t>Ready to be used, % based</t>
+    <t>Watch PDS Video 4 &amp; 6
+Reading:
+* How to read a journal article
+* Lecture notes on literature reviews
+* Citation assignment
+* Course notes section 2.2, 2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refining your research question
+Describing univariate numerical data
+Describing univariate categorical data
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Prepare** Watch PDS Video 6
+The PDS video uses an R script instead of a RMD file. That's OK. I want you to use a Rmarkdown file. 
+We will discuss how to summarize categorical data using tables, charts and words. 
+We will be working through the course packet section 2.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT on Univariate numerical data (CN 2.2)
+Discuss how to summarize numerical data using summary statistics, plots and words. 
+We will be working through the course packet section 2.2 </t>
+  </si>
+  <si>
+    <t>**Prepare** - Watch PDS Video 4
+**Prepare** - Read: How to read a journal article, lecture notes on literature reviews, citation assignment. 
+Learn more about your topic area by conducting a literature review. 
+What is already known, what questions have not yet been explored? 
+The idea is to find an area where you can contribute to new research. 
+You will learn how to conduct a literature review without burning yourself out or getting lost</t>
+  </si>
+  <si>
+    <t>[PDS Video 4](http://passiondrivenstatistics.com/2015/09/16/chapter-04/)
+[PDS Video 6](http://passiondrivenstatistics.com/2015/12/18/r-chapter-6/)
+Course notes Section 2.2, 2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hw03 Citation Assignment [[HTML]](hw/hw03_citation.html) [[PDF]](hw/hw03_citation.pdf) (Due Sun 9/16 )
+PS 2.4, 2.5, 2.7 [BBL] (Due Sun 9/16 )
+Data Camp: Intro to ggplot (Due Sun 9/16)
+</t>
+  </si>
+  <si>
+    <t>Data Management
+Creating visualizations in R
+Open work time</t>
+  </si>
+  <si>
+    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
+Data Visualization Lab from [[Math 130]](https://norcalbiostat.github.io/MATH130/07_graphs.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Prepare** - Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) 
+**Prepare** - Watch the R Markdown [Tutorial](http://rmarkdown.rstudio.com/lesson-1.html)
+**Prepare** - Read the Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
+**Prepare** - Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`
+Form support groups
+Learn how to use Rstudio to do and turn in homework (test markdownfile, hw1 template)
+Write down questions about class logistics and structure [[Google Form]](https://goo.gl/forms/T1aDys2sFeLlsk2A3)
+</t>
+  </si>
+  <si>
+    <t>[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315_f18.html)
+[Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
+[List of Articles](http://www.norcalbiostat.com/articles/articles.html)
+[PDS video 1](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) 
+Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install the `ggplot2` package
+Read the Applied Stats Course Notes [Chapter 1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">More often than not you will have to do some level of data transformation or cleaning before you can conduct an analysis.
+We will walk through the material in the AS course notes 1.2-1.6 during class. 
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -658,8 +702,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +807,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -806,123 +863,123 @@
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="77" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="78" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="81" applyFont="1" applyAlignment="1">
@@ -934,34 +991,34 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="81" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,102 +1027,108 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -1146,10 +1209,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Percent 2" xfId="52"/>
-    <cellStyle name="Percent 3" xfId="81"/>
+    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Percent 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
     <cellStyle name="Total" xfId="78" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1486,11 +1549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,19 +1590,19 @@
         <v>6</v>
       </c>
       <c r="G1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>26</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="405" x14ac:dyDescent="0.25">
       <c r="A2" s="39">
         <v>1</v>
       </c>
@@ -1547,28 +1610,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
@@ -1580,31 +1643,31 @@
         <v>41884</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>114</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -1613,19 +1676,29 @@
         <v>41891</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -1634,12 +1707,18 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="2"/>
@@ -1653,7 +1732,7 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1672,7 +1751,7 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1691,7 +1770,7 @@
         <v>41919</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1710,7 +1789,7 @@
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1729,7 +1808,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1748,7 +1827,7 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1767,7 +1846,7 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1786,13 +1865,13 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="1" t="s">
-        <v>113</v>
+      <c r="G13" s="77" t="s">
+        <v>126</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1822,7 +1901,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1841,7 +1920,7 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1860,7 +1939,7 @@
         <v>41982</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1894,11 +1973,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,61 +1998,61 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="27" t="s">
+      <c r="P1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="27" t="s">
+      <c r="T1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="V1" s="31" t="s">
         <v>14</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1981,16 +2060,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="13">
         <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I2" s="8">
         <f>SUMIF($C$2:$C$82,H2,$D$2:$D$82)</f>
@@ -2001,7 +2080,7 @@
         <v>8.6065573770491802E-2</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M2" s="9">
         <v>16</v>
@@ -2010,7 +2089,7 @@
         <v>3.9506172839506172E-2</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="26">
         <v>20</v>
@@ -2019,7 +2098,7 @@
         <v>4.3956043956043959E-2</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U2" s="10">
         <v>14</v>
@@ -2033,10 +2112,10 @@
         <v>1.3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="13">
         <v>3</v>
@@ -2045,10 +2124,10 @@
         <v>41883</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>12</v>
+        <v>101</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>11</v>
       </c>
       <c r="I3" s="8">
         <f>SUMIF($C$2:$C$82,H3,$D$2:$D$82)</f>
@@ -2059,7 +2138,7 @@
         <v>0.10655737704918032</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M3" s="9">
         <v>36</v>
@@ -2068,7 +2147,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="26">
         <v>100</v>
@@ -2077,7 +2156,7 @@
         <v>0.21978021978021978</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U3" s="10">
         <v>99</v>
@@ -2091,10 +2170,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="13">
         <v>2</v>
@@ -2103,10 +2182,10 @@
         <v>41879</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" s="8">
         <f>SUMIF($C$2:$C$82,H4,$D$2:$D$82)</f>
@@ -2117,7 +2196,7 @@
         <v>0.13114754098360656</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M4" s="9">
         <v>40</v>
@@ -2126,7 +2205,7 @@
         <v>9.8765432098765427E-2</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="26">
         <v>25</v>
@@ -2135,7 +2214,7 @@
         <v>5.4945054945054944E-2</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U4" s="10">
         <v>20</v>
@@ -2149,10 +2228,10 @@
         <v>1.2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
@@ -2161,11 +2240,11 @@
         <v>41881</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J5" s="14"/>
       <c r="L5" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M5" s="9">
         <v>26</v>
@@ -2174,7 +2253,7 @@
         <v>6.4197530864197536E-2</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="26">
         <v>10</v>
@@ -2183,7 +2262,7 @@
         <v>2.197802197802198E-2</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U5" s="10">
         <v>32</v>
@@ -2197,10 +2276,10 @@
         <v>1.4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
@@ -2209,10 +2288,10 @@
         <v>41883</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="8">
         <f>SUMIF($C$2:$C$82,H6,$D$2:$D$82)</f>
@@ -2223,7 +2302,7 @@
         <v>6.1475409836065573E-2</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" s="9">
         <v>27</v>
@@ -2232,7 +2311,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="26">
         <v>150</v>
@@ -2241,7 +2320,7 @@
         <v>0.32967032967032966</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U6" s="10">
         <v>10</v>
@@ -2254,11 +2333,11 @@
       <c r="A7" s="11">
         <v>1.5</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>12</v>
+      <c r="B7" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="13">
         <v>5</v>
@@ -2267,10 +2346,10 @@
         <v>41883</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8">
         <f>SUMIF($C$2:$C$82,H7,$D$2:$D$82)</f>
@@ -2281,7 +2360,7 @@
         <v>0.30737704918032788</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" s="9">
         <v>150</v>
@@ -2290,7 +2369,7 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="30">
         <v>150</v>
@@ -2299,7 +2378,7 @@
         <v>0.32967032967032966</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U7" s="10">
         <v>175</v>
@@ -2313,10 +2392,10 @@
         <v>1.6</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" s="21">
         <v>2.5</v>
@@ -2325,10 +2404,10 @@
         <v>41883</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>19</v>
+        <v>101</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>18</v>
       </c>
       <c r="I8" s="8">
         <f>SUMIF($C$2:$C$82,H8,$D$2:$D$82)</f>
@@ -2339,7 +2418,7 @@
         <v>0.30737704918032788</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="27">
         <v>110</v>
@@ -2353,7 +2432,7 @@
       </c>
       <c r="R8" s="17"/>
       <c r="T8" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U8" s="31">
         <v>105</v>
@@ -2367,10 +2446,10 @@
         <v>2.1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -2379,7 +2458,7 @@
         <v>41886</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I9" s="6">
         <f>SUM(I2:I8)</f>
@@ -2399,10 +2478,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -2411,7 +2490,7 @@
         <v>41890</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2419,10 +2498,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11" s="13">
         <v>5</v>
@@ -2431,7 +2510,7 @@
         <v>41890</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2439,10 +2518,10 @@
         <v>2.4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="13">
         <v>3</v>
@@ -2451,18 +2530,18 @@
         <v>41890</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2.5</v>
       </c>
-      <c r="B13" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>19</v>
+      <c r="B13" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
@@ -2470,11 +2549,11 @@
       <c r="E13" s="47">
         <v>41890</v>
       </c>
-      <c r="F13" s="75" t="s">
-        <v>132</v>
+      <c r="F13" s="70" t="s">
+        <v>125</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2482,10 +2561,10 @@
         <v>2.6</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>38</v>
+        <v>108</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="21">
         <v>4</v>
@@ -2494,108 +2573,111 @@
         <v>41892</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>3</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>19</v>
+      <c r="B15" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
       </c>
-      <c r="H15" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="56"/>
+      <c r="G15" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="71"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>3</v>
       </c>
-      <c r="B16" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>38</v>
+      <c r="B16" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="D16" s="13">
         <v>4</v>
       </c>
-      <c r="H16" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="57"/>
+      <c r="H16" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>3</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="13">
         <v>2</v>
       </c>
-      <c r="H17" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="58"/>
+      <c r="H17" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="13">
         <v>2</v>
       </c>
-      <c r="H18" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="59"/>
+      <c r="H18" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>3</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="13">
         <v>2</v>
       </c>
-      <c r="H19" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="60"/>
+      <c r="H19" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>3</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -2605,11 +2687,11 @@
       <c r="A21" s="11">
         <v>4</v>
       </c>
-      <c r="B21" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>19</v>
+      <c r="B21" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="13">
         <v>10</v>
@@ -2619,11 +2701,11 @@
       <c r="A22" s="11">
         <v>4</v>
       </c>
-      <c r="B22" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>38</v>
+      <c r="B22" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="D22" s="13">
         <v>4</v>
@@ -2634,10 +2716,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="13">
         <v>2</v>
@@ -2647,11 +2729,11 @@
       <c r="A24" s="11">
         <v>4</v>
       </c>
-      <c r="B24" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>19</v>
+      <c r="B24" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="13">
         <v>10</v>
@@ -2662,21 +2744,21 @@
         <v>4</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>11</v>
       </c>
       <c r="D25" s="13">
         <v>5</v>
       </c>
-      <c r="F25" s="75" t="s">
-        <v>132</v>
+      <c r="F25" s="70" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="61"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="23"/>
       <c r="D26" s="13"/>
     </row>
@@ -2685,10 +2767,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="13">
         <v>2</v>
@@ -2699,10 +2781,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D28" s="13">
         <v>2</v>
@@ -2713,10 +2795,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>11</v>
       </c>
       <c r="D29" s="13">
         <v>5</v>
@@ -2733,10 +2815,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="13">
         <v>50</v>
@@ -2747,10 +2829,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="13">
         <v>2</v>
@@ -2760,11 +2842,11 @@
       <c r="A33" s="11">
         <v>6</v>
       </c>
-      <c r="B33" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="68" t="s">
-        <v>19</v>
+      <c r="B33" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>18</v>
       </c>
       <c r="D33" s="13">
         <v>20</v>
@@ -2774,11 +2856,11 @@
       <c r="A34" s="11">
         <v>6</v>
       </c>
-      <c r="B34" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="73" t="s">
-        <v>38</v>
+      <c r="B34" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>36</v>
       </c>
       <c r="D34" s="13">
         <v>5</v>
@@ -2789,10 +2871,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="68" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>18</v>
       </c>
       <c r="D35" s="13">
         <v>20</v>
@@ -2803,10 +2885,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="73" t="s">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>36</v>
       </c>
       <c r="D36" s="13">
         <v>4</v>
@@ -2820,10 +2902,10 @@
         <v>7</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="13">
         <v>2</v>
@@ -2834,10 +2916,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="13">
         <v>2</v>
@@ -2848,10 +2930,10 @@
         <v>7</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D39" s="13">
         <v>5</v>
@@ -2860,10 +2942,10 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="66" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>11</v>
       </c>
       <c r="D40" s="13">
         <v>5</v>
@@ -2874,10 +2956,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
@@ -2888,10 +2970,10 @@
         <v>7</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" s="13">
         <v>2.5</v>
@@ -2902,10 +2984,10 @@
         <v>7</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" s="13">
         <v>2</v>
@@ -2916,10 +2998,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" s="13">
         <v>2</v>
@@ -2933,10 +3015,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="13">
         <v>50</v>
@@ -2950,10 +3032,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="13">
         <v>2</v>
@@ -2967,10 +3049,10 @@
         <v>9</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" s="13">
         <v>1</v>
@@ -2984,17 +3066,17 @@
         <v>9</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>11</v>
       </c>
       <c r="D48" s="13">
         <v>10</v>
       </c>
       <c r="E48" s="48"/>
-      <c r="F48" s="75" t="s">
-        <v>132</v>
+      <c r="F48" s="70" t="s">
+        <v>124</v>
       </c>
       <c r="G48" s="48"/>
     </row>
@@ -3003,10 +3085,10 @@
         <v>10</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" s="13">
         <v>2</v>
@@ -3020,10 +3102,10 @@
         <v>10</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D50" s="13">
         <v>6</v>
@@ -3037,10 +3119,10 @@
         <v>10</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D51" s="13">
         <v>2</v>
@@ -3054,17 +3136,17 @@
         <v>11</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="68" t="s">
-        <v>19</v>
+        <v>74</v>
+      </c>
+      <c r="C52" s="63" t="s">
+        <v>18</v>
       </c>
       <c r="D52" s="13">
         <v>20</v>
       </c>
       <c r="E52" s="48"/>
-      <c r="F52" s="75" t="s">
-        <v>132</v>
+      <c r="F52" s="70" t="s">
+        <v>124</v>
       </c>
       <c r="G52" s="48"/>
     </row>
@@ -3073,10 +3155,10 @@
         <v>11</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" s="13">
         <v>2</v>
@@ -3090,10 +3172,10 @@
         <v>11</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="73" t="s">
-        <v>38</v>
+        <v>93</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>36</v>
       </c>
       <c r="D54" s="13">
         <v>4</v>
@@ -3107,17 +3189,17 @@
         <v>11</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="65" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>11</v>
       </c>
       <c r="D55" s="13">
         <v>10</v>
       </c>
       <c r="E55" s="48"/>
-      <c r="F55" s="75" t="s">
-        <v>132</v>
+      <c r="F55" s="70" t="s">
+        <v>124</v>
       </c>
       <c r="G55" s="48"/>
     </row>
@@ -3126,10 +3208,10 @@
         <v>12</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="48"/>
@@ -3141,10 +3223,10 @@
         <v>12</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="65" t="s">
-        <v>12</v>
+        <v>78</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>11</v>
       </c>
       <c r="D57" s="13">
         <v>10</v>
@@ -3158,10 +3240,10 @@
         <v>13</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" s="13">
         <v>2</v>
@@ -3175,17 +3257,17 @@
         <v>13</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="68" t="s">
-        <v>19</v>
+        <v>80</v>
+      </c>
+      <c r="C59" s="63" t="s">
+        <v>18</v>
       </c>
       <c r="D59" s="13">
         <v>20</v>
       </c>
       <c r="E59" s="48"/>
-      <c r="F59" s="75" t="s">
-        <v>132</v>
+      <c r="F59" s="70" t="s">
+        <v>124</v>
       </c>
       <c r="G59" s="48"/>
     </row>
@@ -3194,10 +3276,10 @@
         <v>13</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="73" t="s">
-        <v>38</v>
+        <v>81</v>
+      </c>
+      <c r="C60" s="68" t="s">
+        <v>36</v>
       </c>
       <c r="D60" s="13">
         <v>4</v>
@@ -3211,10 +3293,10 @@
         <v>14</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="67" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="C61" s="62" t="s">
+        <v>18</v>
       </c>
       <c r="D61" s="13">
         <v>10</v>
@@ -3228,10 +3310,10 @@
         <v>14</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="73" t="s">
-        <v>38</v>
+        <v>83</v>
+      </c>
+      <c r="C62" s="68" t="s">
+        <v>36</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -3249,10 +3331,10 @@
         <v>15</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="67" t="s">
-        <v>19</v>
+        <v>84</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>18</v>
       </c>
       <c r="D63" s="13">
         <v>20</v>
@@ -3269,10 +3351,10 @@
         <v>15</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="74" t="s">
-        <v>38</v>
+        <v>85</v>
+      </c>
+      <c r="C64" s="69" t="s">
+        <v>36</v>
       </c>
       <c r="D64" s="13">
         <v>5</v>
@@ -3289,10 +3371,10 @@
         <v>15</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D65" s="13">
         <v>5</v>
@@ -3306,10 +3388,10 @@
         <v>15</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66" s="13">
         <v>5</v>
@@ -3323,10 +3405,10 @@
         <v>17</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" s="13">
         <v>50</v>
@@ -3340,10 +3422,10 @@
         <v>17</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" s="13">
         <v>2</v>
@@ -3369,10 +3451,10 @@
         <v>17</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69" s="13">
         <v>1</v>
@@ -3398,10 +3480,10 @@
         <v>18</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D70" s="13">
         <v>10</v>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158CA5E7-EDD7-449D-94A2-FFD5012A9991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5348207F-0D15-481F-BADD-60AE87D6F15F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="156">
   <si>
     <t>Finals Week</t>
   </si>
@@ -64,17 +64,6 @@
     <t>Assignments</t>
   </si>
   <si>
-    <t>Writing about empirical research
-Research proposal preparation</t>
-  </si>
-  <si>
-    <t>Midterm
-Normality and Hypothesis Testing</t>
-  </si>
-  <si>
-    <t>Moderation</t>
-  </si>
-  <si>
     <t>Assignment</t>
   </si>
   <si>
@@ -121,23 +110,6 @@
   </si>
   <si>
     <t>Labor day - Campus closed</t>
-  </si>
-  <si>
-    <t>Probability &amp; Confidence Intervals
-Foundations for inference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two sample tests
-ANOVA
-</t>
-  </si>
-  <si>
-    <t>Chi-squared analysis
-Correlation and Regression</t>
-  </si>
-  <si>
-    <t>Study Design
-Multiple Regression</t>
   </si>
   <si>
     <t>Week</t>
@@ -344,14 +316,6 @@
 Understand how you currently learn
 Learn a new set of collaborative tools
 Understand the importance and need for reproducible research</t>
-  </si>
-  <si>
-    <t>Familarize yourself with the course website organization and bookmark this site. 
-Join Slack workspace and Datacamp Classroom using links in Blackboard
-Aquire course materials - [Open Intro textbook](https://www.openintro.org/stat/textbook.php?stat_book=os), [Course notes packet](http://www.chicopacketpro.com/item/math-course-notes-donatello)
-Start the [reading assignments](http://www.norcalbiostat.com/articles/articles.html)
-* Learning - your first job
-* MAI and academic achievement</t>
   </si>
   <si>
     <t>Introduction to the class structure, materials, requirements, expectations and resources. 
@@ -392,32 +356,7 @@
 Import data into R using code</t>
   </si>
   <si>
-    <t>**Prepare** - Watch [PDS Video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
-**Prepare** - read Course Notes (CN) section 2.1 and Open Intro (OI) textbook section 1.2
-RAT on Data Types
-Review of how data is stored in spreadsheets
-Discuss continuous vs categorical data types</t>
-  </si>
-  <si>
     <t>PR Personal Codebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No School
-Categorical Predictors
-Log and logit transformations </t>
-  </si>
-  <si>
-    <t>Poster Presentations
-Poster Presentations
-Final Review</t>
-  </si>
-  <si>
-    <t>Model building
-Poster Design
-Open work day</t>
-  </si>
-  <si>
-    <t>Model building</t>
   </si>
   <si>
     <t>No School
@@ -425,12 +364,6 @@
 Creating research questions</t>
   </si>
   <si>
-    <t>[PDS video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
-Course Notes (CN) section 2.1
-Open Intro (OI) Section 1.2
-[Research data](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)</t>
-  </si>
-  <si>
     <t>hw01 1: Team Formation, Reading, project data</t>
   </si>
   <si>
@@ -462,9 +395,6 @@
   </si>
   <si>
     <t>in used, % based</t>
-  </si>
-  <si>
-    <t>Campus closed</t>
   </si>
   <si>
     <t>Problem set (PS) 2.2 (Due Sun 9/9 )
@@ -500,57 +430,10 @@
     </r>
   </si>
   <si>
-    <t>Watch PDS Video 4 &amp; 6
-Reading:
-* How to read a journal article
-* Lecture notes on literature reviews
-* Citation assignment
-* Course notes section 2.2, 2.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refining your research question
 Describing univariate numerical data
 Describing univariate categorical data
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Prepare** Watch PDS Video 6
-The PDS video uses an R script instead of a RMD file. That's OK. I want you to use a Rmarkdown file. 
-We will discuss how to summarize categorical data using tables, charts and words. 
-We will be working through the course packet section 2.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAT on Univariate numerical data (CN 2.2)
-Discuss how to summarize numerical data using summary statistics, plots and words. 
-We will be working through the course packet section 2.2 </t>
-  </si>
-  <si>
-    <t>**Prepare** - Watch PDS Video 4
-**Prepare** - Read: How to read a journal article, lecture notes on literature reviews, citation assignment. 
-Learn more about your topic area by conducting a literature review. 
-What is already known, what questions have not yet been explored? 
-The idea is to find an area where you can contribute to new research. 
-You will learn how to conduct a literature review without burning yourself out or getting lost</t>
-  </si>
-  <si>
-    <t>[PDS Video 4](http://passiondrivenstatistics.com/2015/09/16/chapter-04/)
-[PDS Video 6](http://passiondrivenstatistics.com/2015/12/18/r-chapter-6/)
-Course notes Section 2.2, 2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hw03 Citation Assignment [[HTML]](hw/hw03_citation.html) [[PDF]](hw/hw03_citation.pdf) (Due Sun 9/16 )
-PS 2.4, 2.5, 2.7 [BBL] (Due Sun 9/16 )
-Data Camp: Intro to ggplot (Due Sun 9/16)
-</t>
-  </si>
-  <si>
-    <t>Data Management
-Creating visualizations in R
-Open work time</t>
-  </si>
-  <si>
-    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
-Data Visualization Lab from [[Math 130]](https://norcalbiostat.github.io/MATH130/07_graphs.html)</t>
   </si>
   <si>
     <t xml:space="preserve">**Prepare** - Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) 
@@ -570,13 +453,229 @@
 Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)</t>
   </si>
   <si>
-    <t xml:space="preserve">Install the `ggplot2` package
-Read the Applied Stats Course Notes [Chapter 1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) </t>
-  </si>
-  <si>
     <t xml:space="preserve">More often than not you will have to do some level of data transformation or cleaning before you can conduct an analysis.
 We will walk through the material in the AS course notes 1.2-1.6 during class. 
 </t>
+  </si>
+  <si>
+    <t>Moderation assignment (Sun 11/11)</t>
+  </si>
+  <si>
+    <t>Regression Assignment (Fri 11/30)</t>
+  </si>
+  <si>
+    <t>Final Review
+Poster Presentations
+Poster Presentations</t>
+  </si>
+  <si>
+    <t>Poster Draft (Due Thu 12/6 )
+Peer Review Poster Draft (Due Sat 12/8 )</t>
+  </si>
+  <si>
+    <t>Final posters as printed (Due Tue 12/11 )
+Final poster scoring [Link] (Due Sun 12/16 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster Prep Stage III (Due </t>
+  </si>
+  <si>
+    <t>Veterans Day -  Campus closed</t>
+  </si>
+  <si>
+    <t>Moderation
+Study Design
+Multiple Regression</t>
+  </si>
+  <si>
+    <t>Poster Design
+Open work day
+Open work day</t>
+  </si>
+  <si>
+    <t>Logistic Regression
+Model building
+Open work day</t>
+  </si>
+  <si>
+    <t>No School
+Categorical Predictors
+Confounders</t>
+  </si>
+  <si>
+    <t>Foundations for Inference
+Confidence Intervals
+Hypothesis Testing</t>
+  </si>
+  <si>
+    <t>Describing bivariate relationships
+Creating  bivariate graphics
+Open work time</t>
+  </si>
+  <si>
+    <t>Conducting Inference using R
+Bivariate inference: T-tests
+Bivariate inference: ANOVA</t>
+  </si>
+  <si>
+    <t>Bivariate inference: Chi-squared
+Bivariate Inference - Correlation
+Bivariate Infernece - Linear Regression</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hw03 Citation Assignment [[HTML]](hw/hw03_citation.html) [[PDF]](hw/hw03_citation.pdf) (Due Sun 9/16 )
+PS 2.4, 2.5, 2.7 [BBL] (Due Sun 9/16 )
+Data Camp: Intro to ggplot (Due Sun 9/16)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data management prep questions</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Management Assignment (Due Sun 9/23 )
+Univariate Graphing Assignment (Due Sun 9/23 )</t>
+  </si>
+  <si>
+    <t>Open work day - Finish Bivariate inference
+Open work day - poster prep
+Exam 2</t>
+  </si>
+  <si>
+    <t>Poster prep stage II (Due Sun 11/4 )
+Peer Review poster prep stage II (Due Tue 11/6 )</t>
+  </si>
+  <si>
+    <t>Bivariate Graphics Assignment (Due Sun 9/30 )</t>
+  </si>
+  <si>
+    <t>Research Proposal (Due Sun 10/7 )
+Peer Review Research Proposal (Due Tue 10/9 )</t>
+  </si>
+  <si>
+    <t>Foundations Worksheet (Due Tue 10/16 )</t>
+  </si>
+  <si>
+    <t>Bivariate Inference Assignment (Due Mon 10/29 )</t>
+  </si>
+  <si>
+    <t>Data cleaning
+Data visualization
+Open work day</t>
+  </si>
+  <si>
+    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
+Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)</t>
+  </si>
+  <si>
+    <t>Week 3 &amp; 4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install the `ggplot2` and `dplyr` packages in R. 
+Read the Applied Stats Course Notes [Chapter 1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) </t>
+  </si>
+  <si>
+    <t>Reading:
+* Writing about empirical research</t>
+  </si>
+  <si>
+    <t>Learn more about your topic area by conducting a literature review. 
+What is already known, what questions have not yet been explored? 
+The idea is to find an area where you can contribute to new research. 
+You will learn how to conduct a literature review without burning yourself out or getting lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PDS video 6 uses an R script instead of a RMD file. That's OK. I want you to use a Rmarkdown file. 
+We will discuss how to summarize categorical data using tables, charts and words. 
+We will be working through the course packet section 2.3 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[PDS Video 4](http://passiondrivenstatistics.com/2015/09/16/chapter-04/)
+[PDS Video 6](http://passiondrivenstatistics.com/2015/12/18/r-chapter-6/)
+Course packet section 2.2, 2.3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lecture notes on conducting a [literature review]()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watch PDS Video 4 for Monday &amp; Video 6 for Friday 
+Reading:
+* Citation assignment
+* How to read a journal article
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* Conducting a literature review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* Course packet  section 2.2, 2.3</t>
+    </r>
+  </si>
+  <si>
+    <t>**Prepare** - Watch [PDS Video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
+**Prepare** - read Course Packet (CP) section 2.1 and Open Intro (OI) textbook section 1.2
+RAT on Data Types
+Review of how data is stored in spreadsheets
+Discuss continuous vs categorical data types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT on Univariate numerical data (CP 2.2)
+Discuss how to summarize numerical data using summary statistics, plots and words. 
+We will be working through the course packet section 2.2 </t>
+  </si>
+  <si>
+    <t>Familarize yourself with the course website organization and bookmark this site. 
+Join Slack workspace and Datacamp Classroom using links in Blackboard
+Aquire course materials - [Open Intro textbook](https://www.openintro.org/stat/textbook.php?stat_book=os), [Course notes packet](http://www.chicopacketpro.com/item/math-course-notes-donatello)
+Start the [reading assignments](notes.html)
+* Learning - your first job
+* MAI and academic achievement</t>
+  </si>
+  <si>
+    <t>[PDS video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
+Course Packet (CP) section 2.1
+Open Intro (OI) Section 1.2</t>
+  </si>
+  <si>
+    <t>(Optional) Error Assessment [PDF]</t>
+  </si>
+  <si>
+    <t>Writing about empirical research
+Exam 1 Descriptive Statistics
+Probability</t>
   </si>
 </sst>
 </file>
@@ -945,7 +1044,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1109,6 +1208,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1124,10 +1229,10 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1552,19 +1657,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.125" style="38" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="33.75" style="38" customWidth="1"/>
     <col min="4" max="4" width="27.375" style="45" customWidth="1"/>
     <col min="5" max="5" width="31.875" style="45" customWidth="1"/>
     <col min="6" max="6" width="45.875" style="45" customWidth="1"/>
-    <col min="7" max="8" width="30.125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="38" style="45" customWidth="1"/>
     <col min="9" max="9" width="32.875" style="45" customWidth="1"/>
     <col min="10" max="10" width="54.75" style="45" customWidth="1"/>
     <col min="11" max="16384" width="14.875" style="38"/>
@@ -1590,19 +1697,19 @@
         <v>6</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="A2" s="39">
         <v>1</v>
       </c>
@@ -1610,31 +1717,31 @@
         <v>41877</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>2</v>
       </c>
@@ -1643,31 +1750,31 @@
         <v>41884</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>26</v>
+        <v>153</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -1676,26 +1783,26 @@
         <v>41891</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1707,23 +1814,25 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J5" s="78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -1732,15 +1841,19 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="78" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
@@ -1751,15 +1864,21 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="78" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
@@ -1770,7 +1889,7 @@
         <v>41919</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1778,7 +1897,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
@@ -1789,7 +1910,7 @@
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1797,9 +1918,11 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J9" s="78" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>9</v>
       </c>
@@ -1808,7 +1931,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1816,9 +1939,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="78"/>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>10</v>
       </c>
@@ -1827,7 +1950,7 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1835,9 +1958,11 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J11" s="78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>11</v>
       </c>
@@ -1846,7 +1971,7 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1854,7 +1979,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="78" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
@@ -1865,17 +1992,19 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="77" t="s">
-        <v>126</v>
+      <c r="G13" s="72" t="s">
+        <v>124</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="78" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
@@ -1890,9 +2019,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="79"/>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>13</v>
       </c>
@@ -1901,7 +2030,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1909,7 +2038,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="78" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
@@ -1920,7 +2051,7 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1928,7 +2059,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="78" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
@@ -1939,7 +2072,7 @@
         <v>41982</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1947,7 +2080,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="78" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
@@ -1968,7 +2103,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1998,61 +2133,61 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T1" s="31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U1" s="31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V1" s="31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2060,16 +2195,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D2" s="13">
         <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I2" s="8">
         <f>SUMIF($C$2:$C$82,H2,$D$2:$D$82)</f>
@@ -2080,7 +2215,7 @@
         <v>8.6065573770491802E-2</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M2" s="9">
         <v>16</v>
@@ -2089,7 +2224,7 @@
         <v>3.9506172839506172E-2</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="26">
         <v>20</v>
@@ -2098,7 +2233,7 @@
         <v>4.3956043956043959E-2</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U2" s="10">
         <v>14</v>
@@ -2112,10 +2247,10 @@
         <v>1.3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D3" s="13">
         <v>3</v>
@@ -2124,10 +2259,10 @@
         <v>41883</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I3" s="8">
         <f>SUMIF($C$2:$C$82,H3,$D$2:$D$82)</f>
@@ -2138,7 +2273,7 @@
         <v>0.10655737704918032</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M3" s="9">
         <v>36</v>
@@ -2147,7 +2282,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="26">
         <v>100</v>
@@ -2156,7 +2291,7 @@
         <v>0.21978021978021978</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="U3" s="10">
         <v>99</v>
@@ -2170,10 +2305,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13">
         <v>2</v>
@@ -2182,10 +2317,10 @@
         <v>41879</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I4" s="8">
         <f>SUMIF($C$2:$C$82,H4,$D$2:$D$82)</f>
@@ -2196,7 +2331,7 @@
         <v>0.13114754098360656</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M4" s="9">
         <v>40</v>
@@ -2205,7 +2340,7 @@
         <v>9.8765432098765427E-2</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="26">
         <v>25</v>
@@ -2214,7 +2349,7 @@
         <v>5.4945054945054944E-2</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="U4" s="10">
         <v>20</v>
@@ -2228,10 +2363,10 @@
         <v>1.2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
@@ -2240,11 +2375,11 @@
         <v>41881</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J5" s="14"/>
       <c r="L5" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M5" s="9">
         <v>26</v>
@@ -2253,7 +2388,7 @@
         <v>6.4197530864197536E-2</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="26">
         <v>10</v>
@@ -2262,7 +2397,7 @@
         <v>2.197802197802198E-2</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U5" s="10">
         <v>32</v>
@@ -2276,10 +2411,10 @@
         <v>1.4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
@@ -2288,10 +2423,10 @@
         <v>41883</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I6" s="8">
         <f>SUMIF($C$2:$C$82,H6,$D$2:$D$82)</f>
@@ -2302,7 +2437,7 @@
         <v>6.1475409836065573E-2</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M6" s="9">
         <v>27</v>
@@ -2311,7 +2446,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="26">
         <v>150</v>
@@ -2320,7 +2455,7 @@
         <v>0.32967032967032966</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U6" s="10">
         <v>10</v>
@@ -2334,10 +2469,10 @@
         <v>1.5</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="13">
         <v>5</v>
@@ -2346,10 +2481,10 @@
         <v>41883</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I7" s="8">
         <f>SUMIF($C$2:$C$82,H7,$D$2:$D$82)</f>
@@ -2360,7 +2495,7 @@
         <v>0.30737704918032788</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M7" s="9">
         <v>150</v>
@@ -2369,7 +2504,7 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="30">
         <v>150</v>
@@ -2378,7 +2513,7 @@
         <v>0.32967032967032966</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U7" s="10">
         <v>175</v>
@@ -2392,10 +2527,10 @@
         <v>1.6</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D8" s="21">
         <v>2.5</v>
@@ -2404,10 +2539,10 @@
         <v>41883</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I8" s="8">
         <f>SUMIF($C$2:$C$82,H8,$D$2:$D$82)</f>
@@ -2418,7 +2553,7 @@
         <v>0.30737704918032788</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M8" s="27">
         <v>110</v>
@@ -2432,7 +2567,7 @@
       </c>
       <c r="R8" s="17"/>
       <c r="T8" s="31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U8" s="31">
         <v>105</v>
@@ -2446,10 +2581,10 @@
         <v>2.1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -2458,7 +2593,7 @@
         <v>41886</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I9" s="6">
         <f>SUM(I2:I8)</f>
@@ -2478,10 +2613,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -2490,7 +2625,7 @@
         <v>41890</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2498,10 +2633,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D11" s="13">
         <v>5</v>
@@ -2510,7 +2645,7 @@
         <v>41890</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2518,10 +2653,10 @@
         <v>2.4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D12" s="13">
         <v>3</v>
@@ -2530,7 +2665,7 @@
         <v>41890</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2538,10 +2673,10 @@
         <v>2.5</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
@@ -2550,10 +2685,10 @@
         <v>41890</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2561,10 +2696,10 @@
         <v>2.6</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D14" s="21">
         <v>4</v>
@@ -2573,7 +2708,7 @@
         <v>41892</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -2581,103 +2716,103 @@
         <v>3</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
       </c>
-      <c r="G15" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="71"/>
+      <c r="G15" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="73"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>3</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D16" s="13">
         <v>4</v>
       </c>
-      <c r="H16" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="72"/>
+      <c r="H16" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="74"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>3</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" s="13">
         <v>2</v>
       </c>
-      <c r="H17" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="73"/>
+      <c r="H17" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D18" s="13">
         <v>2</v>
       </c>
-      <c r="H18" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="74"/>
+      <c r="H18" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>3</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D19" s="13">
         <v>2</v>
       </c>
-      <c r="H19" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="75"/>
+      <c r="H19" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>3</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -2688,10 +2823,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21" s="13">
         <v>10</v>
@@ -2702,10 +2837,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D22" s="13">
         <v>4</v>
@@ -2716,10 +2851,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" s="13">
         <v>2</v>
@@ -2730,10 +2865,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D24" s="13">
         <v>10</v>
@@ -2744,16 +2879,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" s="13">
         <v>5</v>
       </c>
       <c r="F25" s="70" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2767,10 +2902,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" s="13">
         <v>2</v>
@@ -2781,10 +2916,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D28" s="13">
         <v>2</v>
@@ -2795,10 +2930,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D29" s="13">
         <v>5</v>
@@ -2815,10 +2950,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D31" s="13">
         <v>50</v>
@@ -2829,10 +2964,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D32" s="13">
         <v>2</v>
@@ -2843,10 +2978,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D33" s="13">
         <v>20</v>
@@ -2857,10 +2992,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C34" s="68" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D34" s="13">
         <v>5</v>
@@ -2871,10 +3006,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C35" s="63" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D35" s="13">
         <v>20</v>
@@ -2885,10 +3020,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D36" s="13">
         <v>4</v>
@@ -2902,10 +3037,10 @@
         <v>7</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D37" s="13">
         <v>2</v>
@@ -2916,10 +3051,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D38" s="13">
         <v>2</v>
@@ -2930,10 +3065,10 @@
         <v>7</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D39" s="13">
         <v>5</v>
@@ -2942,10 +3077,10 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="35" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D40" s="13">
         <v>5</v>
@@ -2956,10 +3091,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
@@ -2970,10 +3105,10 @@
         <v>7</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D42" s="13">
         <v>2.5</v>
@@ -2984,10 +3119,10 @@
         <v>7</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D43" s="13">
         <v>2</v>
@@ -2998,10 +3133,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D44" s="13">
         <v>2</v>
@@ -3015,10 +3150,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D45" s="13">
         <v>50</v>
@@ -3032,10 +3167,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D46" s="13">
         <v>2</v>
@@ -3049,10 +3184,10 @@
         <v>9</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D47" s="13">
         <v>1</v>
@@ -3066,17 +3201,17 @@
         <v>9</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D48" s="13">
         <v>10</v>
       </c>
       <c r="E48" s="48"/>
       <c r="F48" s="70" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G48" s="48"/>
     </row>
@@ -3085,10 +3220,10 @@
         <v>10</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D49" s="13">
         <v>2</v>
@@ -3102,10 +3237,10 @@
         <v>10</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D50" s="13">
         <v>6</v>
@@ -3119,10 +3254,10 @@
         <v>10</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D51" s="13">
         <v>2</v>
@@ -3136,17 +3271,17 @@
         <v>11</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D52" s="13">
         <v>20</v>
       </c>
       <c r="E52" s="48"/>
       <c r="F52" s="70" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G52" s="48"/>
     </row>
@@ -3155,10 +3290,10 @@
         <v>11</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D53" s="13">
         <v>2</v>
@@ -3172,10 +3307,10 @@
         <v>11</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C54" s="68" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D54" s="13">
         <v>4</v>
@@ -3189,17 +3324,17 @@
         <v>11</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D55" s="13">
         <v>10</v>
       </c>
       <c r="E55" s="48"/>
       <c r="F55" s="70" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G55" s="48"/>
     </row>
@@ -3208,10 +3343,10 @@
         <v>12</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="48"/>
@@ -3223,10 +3358,10 @@
         <v>12</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C57" s="60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D57" s="13">
         <v>10</v>
@@ -3240,10 +3375,10 @@
         <v>13</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D58" s="13">
         <v>2</v>
@@ -3257,17 +3392,17 @@
         <v>13</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C59" s="63" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D59" s="13">
         <v>20</v>
       </c>
       <c r="E59" s="48"/>
       <c r="F59" s="70" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G59" s="48"/>
     </row>
@@ -3276,10 +3411,10 @@
         <v>13</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C60" s="68" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D60" s="13">
         <v>4</v>
@@ -3293,10 +3428,10 @@
         <v>14</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C61" s="62" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D61" s="13">
         <v>10</v>
@@ -3310,10 +3445,10 @@
         <v>14</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C62" s="68" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -3331,10 +3466,10 @@
         <v>15</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C63" s="62" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D63" s="13">
         <v>20</v>
@@ -3351,10 +3486,10 @@
         <v>15</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D64" s="13">
         <v>5</v>
@@ -3371,10 +3506,10 @@
         <v>15</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D65" s="13">
         <v>5</v>
@@ -3388,10 +3523,10 @@
         <v>15</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D66" s="13">
         <v>5</v>
@@ -3405,10 +3540,10 @@
         <v>17</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D67" s="13">
         <v>50</v>
@@ -3422,10 +3557,10 @@
         <v>17</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D68" s="13">
         <v>2</v>
@@ -3451,10 +3586,10 @@
         <v>17</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D69" s="13">
         <v>1</v>
@@ -3480,10 +3615,10 @@
         <v>18</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D70" s="13">
         <v>10</v>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5348207F-0D15-481F-BADD-60AE87D6F15F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06281AB6-3BFB-4A00-9A22-B71E0CDAD07D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,24 +334,6 @@
     <t>assign</t>
   </si>
   <si>
-    <t>**Prepare** - Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
-**Prepare** - Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)
-Readiness Assurance Test (RAT) on class logistics
-Introduction to the semester long project
-Form analysis pairs - start to discuss what research topics you want to analyze</t>
-  </si>
-  <si>
-    <t>**Prepare** - Download your research data into your `project/data` folder
-**Prepare** - Start a code file called `dm.Rmd`, save into your `project/code` folder
-Import your research data into R. 
-Work with your partner to decide on what variables you will be working with. 
-Start the research question assignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communicate with your partner to decide which research data you want to analyze. 
-Schedule a time outside of class to work with your analysis partner on a weekly basis. </t>
-  </si>
-  <si>
     <t>Identify and differentiate between continuous and categorical data types
 Import data into R using code</t>
   </si>
@@ -403,54 +385,10 @@
 Peer review of research question (Due Tue 9/11 )</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Take [this survey](https://goo.gl/forms/qLBv2jMF6fBv3BTR2) to help me set my OH (Due Thu 8/30 )
-Join our [Slack team](http://math-315.slack.com) and post an `#introduction` (instructions in channel) (Due Sun 9/2 )
-[Data Camp](https://www.datacamp.com/users/sign_in) Intro to R - Intro to Basics Chapter [BBL] (Due Sun 9/2 )
-[Metacognition Awareness Inventory](https://www.datacamp.com/users/sign_in)  [BBL] (Due Sun 9/2 )
-R Markdown test file (Due Wed 8/29 )
-hw01 Introductions [[HTML]](hw/hw01_introductions.html)[[PDF]](hw/hw01_introductions.pdf)(Due Sun 9/2 )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Refining your research question
 Describing univariate numerical data
 Describing univariate categorical data
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Prepare** - Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) 
-**Prepare** - Watch the R Markdown [Tutorial](http://rmarkdown.rstudio.com/lesson-1.html)
-**Prepare** - Read the Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
-**Prepare** - Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`
-Form support groups
-Learn how to use Rstudio to do and turn in homework (test markdownfile, hw1 template)
-Write down questions about class logistics and structure [[Google Form]](https://goo.gl/forms/T1aDys2sFeLlsk2A3)
-</t>
-  </si>
-  <si>
-    <t>[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315_f18.html)
-[Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
-[List of Articles](http://www.norcalbiostat.com/articles/articles.html)
-[PDS video 1](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) 
-Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)</t>
   </si>
   <si>
     <t xml:space="preserve">More often than not you will have to do some level of data transformation or cleaning before you can conduct an analysis.
@@ -598,40 +536,109 @@
 We will be working through the course packet section 2.3 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[PDS Video 4](http://passiondrivenstatistics.com/2015/09/16/chapter-04/)
+    <t xml:space="preserve">RAT on Univariate numerical data (CP 2.2)
+Discuss how to summarize numerical data using summary statistics, plots and words. 
+We will be working through the course packet section 2.2 </t>
+  </si>
+  <si>
+    <t>[PDS video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
+Course Packet (CP) section 2.1
+Open Intro (OI) Section 1.2</t>
+  </si>
+  <si>
+    <t>(Optional) Error Assessment [PDF]</t>
+  </si>
+  <si>
+    <t>Writing about empirical research
+Exam 1 Descriptive Statistics
+Probability</t>
+  </si>
+  <si>
+    <t>Readiness Assurance Test (RAT) on class logistics
+Introduction to the semester long project
+Form analysis pairs - start to discuss what research topics you want to analyze</t>
+  </si>
+  <si>
+    <t>For Monday
+* Familarize yourself with the course website organization and bookmark this site. 
+* Join Slack workspace and Datacamp Classroom using links in Blackboard
+* Aquire course materials - [Open Intro textbook](https://www.openintro.org/stat/textbook.php?stat_book=os), [Course notes packet](http://www.chicopacketpro.com/item/math-course-notes-donatello)
+For Wednesday 
+* Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) 
+* Watch the R Markdown [Tutorial](http://rmarkdown.rstudio.com/lesson-1.html)
+* Read the Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
+* Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`
+For Friday 
+* Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
+* Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)
+Throughout the week
+* Start the [reading assignments](notes.html)
+* Learning - your first job
+* MAI and academic achievement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form support groups
+Learn how to use Rstudio to do and turn in homework (test markdownfile, hw1 template)
+Write down questions about class logistics and structure [[Google Form]](https://goo.gl/forms/T1aDys2sFeLlsk2A3)
+</t>
+  </si>
+  <si>
+    <t>RAT on Data Types
+Review of how data is stored in spreadsheets
+Discuss continuous vs categorical data types</t>
+  </si>
+  <si>
+    <t>Import your research data into R. 
+Work with your partner to decide on what variables you will be working with. 
+Start the research question assignment</t>
+  </si>
+  <si>
+    <t>Communicate with your partner to decide which research data you want to analyze. 
+Schedule a time outside of class to work with your analysis partner on a weekly basis. 
+For Wednesday
+* Watch [PDS Video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
+* Course Packet (CP) section 2.1 and Open Intro (OI) textbook section 1.2
+For Friday
+* Download your research data into your `project/data` folder
+* Start a code file called `dm.Rmd`, save into your `project/code` folder</t>
+  </si>
+  <si>
+    <t>[PDS Video 4](http://passiondrivenstatistics.com/2015/09/16/chapter-04/)
 [PDS Video 6](http://passiondrivenstatistics.com/2015/12/18/r-chapter-6/)
 Course packet section 2.2, 2.3
-</t>
-    </r>
+Lecture notes on conducting a literature review [[HTML]](lecture/literature_review.html)[[PDF]](lecture/literature_review.pdf)</t>
+  </si>
+  <si>
+    <t>Watch PDS Video 4 for Monday &amp; Video 6 for Friday 
+Reading:
+* Citation assignment
+* How to read a journal article
+* Conducting a literature review
+* Course packet  section 2.2, 2.3</t>
+  </si>
+  <si>
+    <t>[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315_f18.html)
+[Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
+[List of Articles](http://www.norcalbiostat.com/articles/articles.html)
+[PDS video 1](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) 
+Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)
+[Software installation overview](https://norcalbiostat.netlify.com/post/software-overview/)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Lecture notes on conducting a [literature review]()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Watch PDS Video 4 for Monday &amp; Video 6 for Friday 
-Reading:
-* Citation assignment
-* How to read a journal article
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* Conducting a literature review</t>
+      <t>Take [this survey](https://goo.gl/forms/qLBv2jMF6fBv3BTR2) to help me set my OH (Due Thu 8/30 )
+Join our [Slack team](http://math-315.slack.com) and post an `#introduction` (instructions in channel) (Due Sun 9/2 )
+[Data Camp](https://www.datacamp.com/users/sign_in) Intro to R - Intro to Basics Chapter [BBL] (Due Sun 9/2 )
+Metacognition Awareness Inventory [BBL] (Due Sun 9/2 )
+R Markdown test file (Due Wed 8/29 )
+hw01 Introductions [[HTML]](hw/hw01_introductions.html)[[PDF]](hw/hw01_introductions.pdf)(Due Sun 9/2 )</t>
     </r>
     <r>
       <rPr>
@@ -641,41 +648,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-* Course packet  section 2.2, 2.3</t>
+</t>
     </r>
-  </si>
-  <si>
-    <t>**Prepare** - Watch [PDS Video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
-**Prepare** - read Course Packet (CP) section 2.1 and Open Intro (OI) textbook section 1.2
-RAT on Data Types
-Review of how data is stored in spreadsheets
-Discuss continuous vs categorical data types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAT on Univariate numerical data (CP 2.2)
-Discuss how to summarize numerical data using summary statistics, plots and words. 
-We will be working through the course packet section 2.2 </t>
-  </si>
-  <si>
-    <t>Familarize yourself with the course website organization and bookmark this site. 
-Join Slack workspace and Datacamp Classroom using links in Blackboard
-Aquire course materials - [Open Intro textbook](https://www.openintro.org/stat/textbook.php?stat_book=os), [Course notes packet](http://www.chicopacketpro.com/item/math-course-notes-donatello)
-Start the [reading assignments](notes.html)
-* Learning - your first job
-* MAI and academic achievement</t>
-  </si>
-  <si>
-    <t>[PDS video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
-Course Packet (CP) section 2.1
-Open Intro (OI) Section 1.2</t>
-  </si>
-  <si>
-    <t>(Optional) Error Assessment [PDF]</t>
-  </si>
-  <si>
-    <t>Writing about empirical research
-Exam 1 Descriptive Statistics
-Probability</t>
   </si>
 </sst>
 </file>
@@ -1214,6 +1188,12 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1228,12 +1208,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -1658,8 +1632,8 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39">
         <v>1</v>
       </c>
@@ -1723,25 +1697,25 @@
         <v>90</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>2</v>
       </c>
@@ -1750,28 +1724,28 @@
         <v>41884</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G3" s="72" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="J3" s="55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="150" x14ac:dyDescent="0.25">
@@ -1783,26 +1757,26 @@
         <v>41891</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1814,22 +1788,22 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="78" t="s">
-        <v>134</v>
+      <c r="J5" s="73" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1841,18 +1815,18 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="78" t="s">
-        <v>137</v>
+      <c r="J6" s="73" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1864,20 +1838,20 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="78" t="s">
-        <v>138</v>
+      <c r="J7" s="73" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1889,7 +1863,7 @@
         <v>41919</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1897,8 +1871,8 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="78" t="s">
-        <v>139</v>
+      <c r="J8" s="73" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1910,7 +1884,7 @@
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1918,8 +1892,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="78" t="s">
-        <v>140</v>
+      <c r="J9" s="73" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1931,7 +1905,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1939,7 +1913,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="78"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
@@ -1950,7 +1924,7 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1958,8 +1932,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="78" t="s">
-        <v>136</v>
+      <c r="J11" s="73" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1971,7 +1945,7 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1979,8 +1953,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="78" t="s">
-        <v>118</v>
+      <c r="J12" s="73" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1992,18 +1966,18 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="72" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="78" t="s">
-        <v>119</v>
+      <c r="J13" s="73" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2019,7 +1993,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="79"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
@@ -2030,7 +2004,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2038,8 +2012,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="78" t="s">
-        <v>123</v>
+      <c r="J15" s="73" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2051,7 +2025,7 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2059,8 +2033,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="78" t="s">
-        <v>121</v>
+      <c r="J16" s="73" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2072,7 +2046,7 @@
         <v>41982</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2080,8 +2054,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="78" t="s">
-        <v>122</v>
+      <c r="J17" s="73" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2469,7 +2443,7 @@
         <v>1.5</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>8</v>
@@ -2673,7 +2647,7 @@
         <v>2.5</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" s="64" t="s">
         <v>15</v>
@@ -2685,7 +2659,7 @@
         <v>41890</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G13" s="53" t="s">
         <v>93</v>
@@ -2696,7 +2670,7 @@
         <v>2.6</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C14" s="67" t="s">
         <v>29</v>
@@ -2716,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="64" t="s">
         <v>15</v>
@@ -2727,17 +2701,17 @@
       <c r="G15" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="73" t="s">
+      <c r="H15" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="73"/>
+      <c r="I15" s="75"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>3</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C16" s="58" t="s">
         <v>29</v>
@@ -2745,10 +2719,10 @@
       <c r="D16" s="13">
         <v>4</v>
       </c>
-      <c r="H16" s="74" t="s">
+      <c r="H16" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -2763,10 +2737,10 @@
       <c r="D17" s="13">
         <v>2</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="75"/>
+      <c r="I17" s="77"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -2781,10 +2755,10 @@
       <c r="D18" s="13">
         <v>2</v>
       </c>
-      <c r="H18" s="76" t="s">
+      <c r="H18" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="76"/>
+      <c r="I18" s="78"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
@@ -2799,10 +2773,10 @@
       <c r="D19" s="13">
         <v>2</v>
       </c>
-      <c r="H19" s="77" t="s">
+      <c r="H19" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="77"/>
+      <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
@@ -2823,7 +2797,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>15</v>
@@ -2837,7 +2811,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>29</v>
@@ -2865,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>15</v>
@@ -2888,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2978,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C33" s="63" t="s">
         <v>15</v>
@@ -2992,7 +2966,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C34" s="68" t="s">
         <v>29</v>
@@ -3211,7 +3185,7 @@
       </c>
       <c r="E48" s="48"/>
       <c r="F48" s="70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G48" s="48"/>
     </row>
@@ -3281,7 +3255,7 @@
       </c>
       <c r="E52" s="48"/>
       <c r="F52" s="70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G52" s="48"/>
     </row>
@@ -3334,7 +3308,7 @@
       </c>
       <c r="E55" s="48"/>
       <c r="F55" s="70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" s="48"/>
     </row>
@@ -3402,7 +3376,7 @@
       </c>
       <c r="E59" s="48"/>
       <c r="F59" s="70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G59" s="48"/>
     </row>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06281AB6-3BFB-4A00-9A22-B71E0CDAD07D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A896129F-26E8-4397-A332-C02795A23270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="160">
   <si>
     <t>Finals Week</t>
   </si>
@@ -379,23 +379,6 @@
     <t>in used, % based</t>
   </si>
   <si>
-    <t>Problem set (PS) 2.2 (Due Sun 9/9 )
-Data Camp Open Intro - Intro to R **AND**  Intro to Data [BBL] (Due Sun 9/9 )
-hw02 Research question and codebook assignment [[HTML]](hw/hw02_research_codebook.html)[[PDF]](hw/hw02_research_codebook.html) (Due Sun 9/9 )
-Peer review of research question (Due Tue 9/11 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refining your research question
-Describing univariate numerical data
-Describing univariate categorical data
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More often than not you will have to do some level of data transformation or cleaning before you can conduct an analysis.
-We will walk through the material in the AS course notes 1.2-1.6 during class. 
-</t>
-  </si>
-  <si>
     <t>Moderation assignment (Sun 11/11)</t>
   </si>
   <si>
@@ -461,24 +444,6 @@
 Bivariate Infernece - Linear Regression</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">hw03 Citation Assignment [[HTML]](hw/hw03_citation.html) [[PDF]](hw/hw03_citation.pdf) (Due Sun 9/16 )
-PS 2.4, 2.5, 2.7 [BBL] (Due Sun 9/16 )
-Data Camp: Intro to ggplot (Due Sun 9/16)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data management prep questions</t>
-    </r>
-  </si>
-  <si>
     <t>Data Management Assignment (Due Sun 9/23 )
 Univariate Graphing Assignment (Due Sun 9/23 )</t>
   </si>
@@ -510,15 +475,7 @@
 Open work day</t>
   </si>
   <si>
-    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
-Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)</t>
-  </si>
-  <si>
     <t>Week 3 &amp; 4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Install the `ggplot2` and `dplyr` packages in R. 
-Read the Applied Stats Course Notes [Chapter 1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) </t>
   </si>
   <si>
     <t>Reading:
@@ -531,16 +488,6 @@
 You will learn how to conduct a literature review without burning yourself out or getting lost</t>
   </si>
   <si>
-    <t xml:space="preserve">The PDS video 6 uses an R script instead of a RMD file. That's OK. I want you to use a Rmarkdown file. 
-We will discuss how to summarize categorical data using tables, charts and words. 
-We will be working through the course packet section 2.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAT on Univariate numerical data (CP 2.2)
-Discuss how to summarize numerical data using summary statistics, plots and words. 
-We will be working through the course packet section 2.2 </t>
-  </si>
-  <si>
     <t>[PDS video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
 Course Packet (CP) section 2.1
 Open Intro (OI) Section 1.2</t>
@@ -557,24 +504,6 @@
     <t>Readiness Assurance Test (RAT) on class logistics
 Introduction to the semester long project
 Form analysis pairs - start to discuss what research topics you want to analyze</t>
-  </si>
-  <si>
-    <t>For Monday
-* Familarize yourself with the course website organization and bookmark this site. 
-* Join Slack workspace and Datacamp Classroom using links in Blackboard
-* Aquire course materials - [Open Intro textbook](https://www.openintro.org/stat/textbook.php?stat_book=os), [Course notes packet](http://www.chicopacketpro.com/item/math-course-notes-donatello)
-For Wednesday 
-* Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) 
-* Watch the R Markdown [Tutorial](http://rmarkdown.rstudio.com/lesson-1.html)
-* Read the Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
-* Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`
-For Friday 
-* Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
-* Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)
-Throughout the week
-* Start the [reading assignments](notes.html)
-* Learning - your first job
-* MAI and academic achievement</t>
   </si>
   <si>
     <t xml:space="preserve">Form support groups
@@ -603,26 +532,12 @@
 * Start a code file called `dm.Rmd`, save into your `project/code` folder</t>
   </si>
   <si>
-    <t>[PDS Video 4](http://passiondrivenstatistics.com/2015/09/16/chapter-04/)
-[PDS Video 6](http://passiondrivenstatistics.com/2015/12/18/r-chapter-6/)
-Course packet section 2.2, 2.3
-Lecture notes on conducting a literature review [[HTML]](lecture/literature_review.html)[[PDF]](lecture/literature_review.pdf)</t>
-  </si>
-  <si>
     <t>Watch PDS Video 4 for Monday &amp; Video 6 for Friday 
 Reading:
 * Citation assignment
 * How to read a journal article
 * Conducting a literature review
 * Course packet  section 2.2, 2.3</t>
-  </si>
-  <si>
-    <t>[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315_f18.html)
-[Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
-[List of Articles](http://www.norcalbiostat.com/articles/articles.html)
-[PDS video 1](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) 
-Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)
-[Software installation overview](https://norcalbiostat.netlify.com/post/software-overview/)</t>
   </si>
   <si>
     <r>
@@ -651,6 +566,107 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Problem set 2.2 (Due Sun 9/9 )
+Data Camp Open Intro - Intro to R [BBL] (Due Sun 9/9 )
+Data Camp Open Intro - Intro to Data [BBL] (Due Sun 9/9 )
+hw02 Research question and codebook assignment [[HTML]](hw/hw02_research_codebook.html)[[PDF]](hw/hw02_research_codebook.html) (Due Sun 9/9 )
+Peer review of research question (Due Tue 9/11 )</t>
+  </si>
+  <si>
+    <t>Refining your research question
+Describing univariate numerical data
+Describing univariate categorical data</t>
+  </si>
+  <si>
+    <t>Identify data that needs to be recoded or edited for clarity
+Perform basic data management tasks such as creating new variables, renaming and recoding existing variables
+Create appropriate visualizations for a single variable in R
+Calculate appropriate summary statistics for a single variable in R</t>
+  </si>
+  <si>
+    <t>Describe the relationship between two variables in plain english
+Calculate appropriate grouped summary statistics</t>
+  </si>
+  <si>
+    <t>Describe how empirical research is different than other types of writing
+Identify the typical five sections of a research proposal
+Explain the basic concepts of probability</t>
+  </si>
+  <si>
+    <t>Form a testable hypothesis out of a research area
+Properly cite relevant research
+Describe the distribution of a quantitative numeric variable
+Describe the distribution of a categorical variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT on Univariate numerical data and APA citation styles 
+Discuss how to summarize numerical data using summary statistics, plots and words. 
+We will be working through the course packet section 2.2 </t>
+  </si>
+  <si>
+    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
+Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)
+Lecture notes on data management prep questions (notes.html)</t>
+  </si>
+  <si>
+    <t>[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315_f18.html)
+[Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
+[List of Articles](notes.html)
+[PDS video 1](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) 
+Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)
+[Software installation overview](https://norcalbiostat.netlify.com/post/software-overview/)</t>
+  </si>
+  <si>
+    <t>For Monday
+* Familarize yourself with the course website organization and bookmark this site. 
+* Join Slack workspace and Datacamp Classroom using links in Blackboard
+* Aquire course materials - [Open Intro textbook](https://www.openintro.org/stat/textbook.php?stat_book=os), [Course notes packet](http://www.chicopacketpro.com/item/math-course-notes-donatello)
+For Wednesday 
+* Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) 
+* Watch the R Markdown [Tutorial](http://rmarkdown.rstudio.com/lesson-1.html)
+* Read the Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
+* Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`
+For Friday 
+* Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
+* Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)
+Throughout the week read the following articles [[Reading list]](notes.html)
+* Learning - your first job
+* MAI and academic achievement</t>
+  </si>
+  <si>
+    <t>hw03 Citation Assignment [[HTML]](hw/hw03_citation.html) [[PDF]](hw/hw03_citation.pdf) (Due Sun 9/16 )
+Peer review of Citation assignment (Due Tue 9/18 )
+PS 2.4, 2.5, 2.7 [BBL] (Due Sun 9/16 )
+Data Camp: Intro to ggplot (Due Sun 9/16)</t>
+  </si>
+  <si>
+    <t>Install the `ggplot2` and `dplyr` packages in R. 
+Read the Applied Stats Course Notes [Chapter 1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
+Start to answer the data management prep questions (notes.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT on Data Management
+More often than not you will have to do some level of data transformation or cleaning before you can conduct an analysis.
+We will walk through the material in the AS course notes 1.2-1.6 during class. 
+What do -you- need to do to prepare your data for analysis? We'll walk through some data management preparation questions that you should start to answer. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PDS video 6 uses an R script instead of a RMD file. That's OK. I want you to use a Rmarkdown file. 
+* It is suggested that you follow along with the code in the PDS video 6 by installing the `descr` package and downloading the NESARC project data and codebook. This is one of those things that will help you to achieve an "A" in this class. Not by points, but by putting effort into learning and practicing. `install.packages("descr")`
+We will discuss how to summarize categorical data using tables, charts and words. 
+We will be working through the course packet section 2.3 
+</t>
+  </si>
+  <si>
+    <t>[PDS Video 4](http://passiondrivenstatistics.com/2015/09/16/chapter-04/)
+[PDS Video 6](http://passiondrivenstatistics.com/2015/12/18/r-chapter-6/)
+[Course packet section 2.2, 2.3](reading/RAD_course_notes.pdf)
+Lecture notes on [conducting a literature review](notes.html)
+[Help using the library](http://library.csuchico.edu/help)
+[Connecting to Meriam library from off campus](http://library.csuchico.edu/connecting-off-campus)</t>
+  </si>
 </sst>
 </file>
 
@@ -659,9 +675,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -783,7 +806,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,6 +909,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -936,123 +965,123 @@
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="77" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="78" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="81" applyFont="1" applyAlignment="1">
@@ -1064,34 +1093,34 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="81" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1100,113 +1129,123 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1632,8 +1671,8 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,22 +1736,22 @@
         <v>90</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="255" x14ac:dyDescent="0.25">
@@ -1730,25 +1769,25 @@
         <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G3" s="72" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -1757,29 +1796,31 @@
         <v>41891</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -1788,25 +1829,27 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="73" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -1815,21 +1858,23 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="73" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>6</v>
       </c>
@@ -1838,20 +1883,22 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="73" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1863,7 +1910,7 @@
         <v>41919</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1872,7 +1919,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="73" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1884,7 +1931,7 @@
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1893,7 +1940,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="73" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1905,7 +1952,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1924,7 +1971,7 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1933,7 +1980,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="73" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1945,7 +1992,7 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1954,7 +2001,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1966,18 +2013,18 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="72" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2004,7 +2051,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2013,7 +2060,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="73" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2025,7 +2072,7 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2034,7 +2081,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="73" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2046,7 +2093,7 @@
         <v>41982</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2055,7 +2102,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="73" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2086,7 +2133,7 @@
   <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,6 +2745,10 @@
       <c r="D15" s="13">
         <v>10</v>
       </c>
+      <c r="E15" s="47">
+        <v>41897</v>
+      </c>
+      <c r="F15" s="83"/>
       <c r="G15" s="71" t="s">
         <v>93</v>
       </c>
@@ -2719,6 +2770,12 @@
       <c r="D16" s="13">
         <v>4</v>
       </c>
+      <c r="E16" s="47">
+        <v>41899</v>
+      </c>
+      <c r="G16" s="80" t="s">
+        <v>93</v>
+      </c>
       <c r="H16" s="76" t="s">
         <v>39</v>
       </c>
@@ -2737,6 +2794,12 @@
       <c r="D17" s="13">
         <v>2</v>
       </c>
+      <c r="E17" s="47">
+        <v>41893</v>
+      </c>
+      <c r="G17" s="80" t="s">
+        <v>93</v>
+      </c>
       <c r="H17" s="77" t="s">
         <v>41</v>
       </c>
@@ -2755,6 +2818,12 @@
       <c r="D18" s="13">
         <v>2</v>
       </c>
+      <c r="E18" s="47">
+        <v>41897</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>93</v>
+      </c>
       <c r="H18" s="78" t="s">
         <v>43</v>
       </c>
@@ -2773,23 +2842,35 @@
       <c r="D19" s="13">
         <v>2</v>
       </c>
+      <c r="E19" s="47">
+        <v>41897</v>
+      </c>
+      <c r="G19" s="80" t="s">
+        <v>93</v>
+      </c>
       <c r="H19" s="79" t="s">
         <v>45</v>
       </c>
       <c r="I19" s="79"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
         <v>3</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="21">
         <v>1</v>
+      </c>
+      <c r="E20" s="82">
+        <v>41897</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2832,6 +2913,9 @@
       </c>
       <c r="D23" s="13">
         <v>2</v>
+      </c>
+      <c r="E23" s="47">
+        <v>41898</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A896129F-26E8-4397-A332-C02795A23270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E35164-F3E7-4C77-BE1E-7486EF82B90A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$88</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="161">
   <si>
     <t>Finals Week</t>
   </si>
@@ -318,13 +318,6 @@
 Understand the importance and need for reproducible research</t>
   </si>
   <si>
-    <t>Introduction to the class structure, materials, requirements, expectations and resources. 
-Blackboard usage
-Online materials (data camp, google drive, website)
-Physical materials (course notes, textbook)
-New communication tools (hack, slack)</t>
-  </si>
-  <si>
     <t>rubric</t>
   </si>
   <si>
@@ -364,12 +357,6 @@
     <t>Research Proposal</t>
   </si>
   <si>
-    <t>hw04 DM steps preparation</t>
-  </si>
-  <si>
-    <t>hw05  DM assignment</t>
-  </si>
-  <si>
     <t>Peer review Research Proposal</t>
   </si>
   <si>
@@ -439,15 +426,6 @@
 Bivariate inference: ANOVA</t>
   </si>
   <si>
-    <t>Bivariate inference: Chi-squared
-Bivariate Inference - Correlation
-Bivariate Infernece - Linear Regression</t>
-  </si>
-  <si>
-    <t>Data Management Assignment (Due Sun 9/23 )
-Univariate Graphing Assignment (Due Sun 9/23 )</t>
-  </si>
-  <si>
     <t>Open work day - Finish Bivariate inference
 Open work day - poster prep
 Exam 2</t>
@@ -455,13 +433,6 @@
   <si>
     <t>Poster prep stage II (Due Sun 11/4 )
 Peer Review poster prep stage II (Due Tue 11/6 )</t>
-  </si>
-  <si>
-    <t>Bivariate Graphics Assignment (Due Sun 9/30 )</t>
-  </si>
-  <si>
-    <t>Research Proposal (Due Sun 10/7 )
-Peer Review Research Proposal (Due Tue 10/9 )</t>
   </si>
   <si>
     <t>Foundations Worksheet (Due Tue 10/16 )</t>
@@ -499,17 +470,6 @@
     <t>Writing about empirical research
 Exam 1 Descriptive Statistics
 Probability</t>
-  </si>
-  <si>
-    <t>Readiness Assurance Test (RAT) on class logistics
-Introduction to the semester long project
-Form analysis pairs - start to discuss what research topics you want to analyze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form support groups
-Learn how to use Rstudio to do and turn in homework (test markdownfile, hw1 template)
-Write down questions about class logistics and structure [[Google Form]](https://goo.gl/forms/T1aDys2sFeLlsk2A3)
-</t>
   </si>
   <si>
     <t>RAT on Data Types
@@ -579,16 +539,6 @@
 Describing univariate categorical data</t>
   </si>
   <si>
-    <t>Identify data that needs to be recoded or edited for clarity
-Perform basic data management tasks such as creating new variables, renaming and recoding existing variables
-Create appropriate visualizations for a single variable in R
-Calculate appropriate summary statistics for a single variable in R</t>
-  </si>
-  <si>
-    <t>Describe the relationship between two variables in plain english
-Calculate appropriate grouped summary statistics</t>
-  </si>
-  <si>
     <t>Describe how empirical research is different than other types of writing
 Identify the typical five sections of a research proposal
 Explain the basic concepts of probability</t>
@@ -603,11 +553,6 @@
     <t xml:space="preserve">RAT on Univariate numerical data and APA citation styles 
 Discuss how to summarize numerical data using summary statistics, plots and words. 
 We will be working through the course packet section 2.2 </t>
-  </si>
-  <si>
-    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
-Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)
-Lecture notes on data management prep questions (notes.html)</t>
   </si>
   <si>
     <t>[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315_f18.html)
@@ -618,39 +563,10 @@
 [Software installation overview](https://norcalbiostat.netlify.com/post/software-overview/)</t>
   </si>
   <si>
-    <t>For Monday
-* Familarize yourself with the course website organization and bookmark this site. 
-* Join Slack workspace and Datacamp Classroom using links in Blackboard
-* Aquire course materials - [Open Intro textbook](https://www.openintro.org/stat/textbook.php?stat_book=os), [Course notes packet](http://www.chicopacketpro.com/item/math-course-notes-donatello)
-For Wednesday 
-* Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) 
-* Watch the R Markdown [Tutorial](http://rmarkdown.rstudio.com/lesson-1.html)
-* Read the Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
-* Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`
-For Friday 
-* Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
-* Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY)
-Throughout the week read the following articles [[Reading list]](notes.html)
-* Learning - your first job
-* MAI and academic achievement</t>
-  </si>
-  <si>
     <t>hw03 Citation Assignment [[HTML]](hw/hw03_citation.html) [[PDF]](hw/hw03_citation.pdf) (Due Sun 9/16 )
 Peer review of Citation assignment (Due Tue 9/18 )
 PS 2.4, 2.5, 2.7 [BBL] (Due Sun 9/16 )
 Data Camp: Intro to ggplot (Due Sun 9/16)</t>
-  </si>
-  <si>
-    <t>Install the `ggplot2` and `dplyr` packages in R. 
-Read the Applied Stats Course Notes [Chapter 1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
-Start to answer the data management prep questions (notes.html)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAT on Data Management
-More often than not you will have to do some level of data transformation or cleaning before you can conduct an analysis.
-We will walk through the material in the AS course notes 1.2-1.6 during class. 
-What do -you- need to do to prepare your data for analysis? We'll walk through some data management preparation questions that you should start to answer. 
-</t>
   </si>
   <si>
     <t xml:space="preserve">The PDS video 6 uses an R script instead of a RMD file. That's OK. I want you to use a Rmarkdown file. 
@@ -666,6 +582,142 @@
 Lecture notes on [conducting a literature review](notes.html)
 [Help using the library](http://library.csuchico.edu/help)
 [Connecting to Meriam library from off campus](http://library.csuchico.edu/connecting-off-campus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain why data preparation takes the majority of your time, but is crucially important
+Identify mistakes and missing data in data using tables and summaries
+Perform basic data management tasks such as creating new variables, renaming and recoding existing variables
+Learn how to create univariate data graphics and summary statistics in R
+Describe the distribution of a single variable in sentence form using summary statistics and pointing out specific features of the graphics as evidence to support your interpretation
+</t>
+  </si>
+  <si>
+    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
+[PDS Video 8](http://passiondrivenstatistics.com/2016/01/20/r-chapter-8/)
+Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)
+Applied Stats Course Notes [1.2-1.7](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
+Lecture notes on data management prep questions (notes.html)
+R Cookbook http://www.cookbook-r.com/
+Quick-R http://www.statmethods.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT on Data Management
+More often than not you will have to do some level of data transformation or cleaning before you can conduct an analysis.
+We will walk through the material in the AS course notes 1.2-1.7 during class. 
+What do -you- need to do to prepare your data for analysis? Start to answer questions in the Data management assignment. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We already talked about what visualizations are appropriate to create for different quantitative and categorical variable types last week. 
+Now it's time to build them in R. 
+After a quick recap on how to use ggplot syntax, and where you can find resources you're on your own to work with your team on the Univariate graphing assignment. </t>
+  </si>
+  <si>
+    <t>Readiness Assurance Test (RAT) on class logistics
+Introduction to the semester long project
+Form support groups and analysis pairs - start to discuss what research topics you want to analyze
+* I want all 4 members of a team to be analyzing different research questions from the same data set</t>
+  </si>
+  <si>
+    <t>Introduction to the instructor, class structure, materials, requirements, expectations and resources. 
+* Blackboard usage (grading)
+* Online materials (data camp, google drive, website)
+* Physical materials (course notes, textbook)
+* New collaboration tools (hack, slack)
+* Learning Techniques (metacognition, RAT, error assessments, peer reviews)
+* Support structures (tutoring, community coding, slack, TA, OH, Math 130)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will briefly talk about the issue with factor variables, and data management using the `dplyr` package. 
+The point is to orient you to what you should be looking for, and point you to resources on how to fix the problems you need to fix. 
+It is completely impossible for me to lecture/demonstrate how to fix every single one of the problems you are going to encounter. All I can do is guide you to potential solutions. 
+Today is an open work day for you to finish the two assignments due this week. Take advantage of it, this is a HEAVY coding week and some of you may still be using training wheels. Get as much as you can done in class, and take the weekend off. This has been a HECK of a week! 
+And yes, I anticipate ya'all being pissed off at me by this week because you've hit that wall with coding. This is normal! Yes you really are in a sense teaching yourself how to code. That's how this crap works! I **promise** it will get better after week 5, as long as you make a serious attempt to learn R, **you will** get better and it will get easier. </t>
+  </si>
+  <si>
+    <t>Bivariate Graphics Assignment (Due Sun 9/30 )
+Problem Set 2.8, 2.10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Research Proposal (Due Sun 10/7 )
+Peer Review Research Proposal (Due Tue 10/9 )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Error Assessment (Due Fri 10/26 )</t>
+    </r>
+  </si>
+  <si>
+    <t>hw04 data management</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Management Assignment [[HTML]](hw/hw04_data_management.html] [[PDF]](hw/hw04_data_management.pdf](Due Sun 9/23 )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Univariate Graphing Assignment (Due Sun 9/23 )</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch PDS Video 7 and 8. As always, follow along on your computer for the best results. 
+Install the `ggplot2` and `dplyr` packages in R. 
+Read the Applied Stats Course Notes [Chapter 1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
+Start to think about and answer the data management prep questions in the homework assignment
+Start a data management code file in HackMD. Make sure you and your analysis partner both have editing capabilities. </t>
+  </si>
+  <si>
+    <t>Describe the relationship between two variables in plain English
+Calculate appropriate grouped summary statistics</t>
+  </si>
+  <si>
+    <t>Bivariate inference: Chi-squared
+Bivariate Inference - Correlation
+Bivariate Inference - Linear Regression</t>
+  </si>
+  <si>
+    <t>For Monday
+* Familiarize yourself with the course website organization and bookmark this site. 
+* Join Slack workspace and Datacamp Classroom using links in Blackboard
+* Make a HackMD account. This is essential for collaboration on code without implementing version control.
+* Acquire course materials - [Open Intro textbook](https://www.openintro.org/stat/textbook.php?stat_book=os), [Course notes packet](http://www.chicopacketpro.com/item/math-course-notes-donatello)
+For Wednesday
+* Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
+* Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY) and pick a data set that you want to work with. 
+For Friday 
+* Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) 
+* Watch the R Markdown [Tutorial](http://rmarkdown.rstudio.com/lesson-1.html) 
+* Create and compile a test markdown document. 
+* Read the Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
+Throughout the week read the following articles [[Reading list]](notes.html)
+* Learning - your first job
+* MAI and academic achievement
+* Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn how to use RStudio to do and turn in homework (test markdown file, hw1 template)
+Write down questions about class logistics and structure [[Google Form]](https://goo.gl/forms/T1aDys2sFeLlsk2A3)
+</t>
   </si>
 </sst>
 </file>
@@ -675,9 +727,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -965,123 +1024,123 @@
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="77" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="78" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="81" applyFont="1" applyAlignment="1">
@@ -1093,34 +1152,34 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="81" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1129,125 +1188,127 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="82">
     <cellStyle name="20% - Accent6" xfId="79" builtinId="50"/>
@@ -1668,11 +1729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,16 +1742,15 @@
     <col min="2" max="2" width="10.125" style="38" customWidth="1"/>
     <col min="3" max="3" width="33.75" style="38" customWidth="1"/>
     <col min="4" max="4" width="27.375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="47.75" style="45" customWidth="1"/>
     <col min="6" max="6" width="45.875" style="45" customWidth="1"/>
     <col min="7" max="7" width="30.125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="38" style="45" customWidth="1"/>
-    <col min="9" max="9" width="32.875" style="45" customWidth="1"/>
-    <col min="10" max="10" width="54.75" style="45" customWidth="1"/>
+    <col min="8" max="9" width="38" style="45" customWidth="1"/>
+    <col min="10" max="10" width="46.5" style="45" customWidth="1"/>
     <col min="11" max="16384" width="14.875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
@@ -1722,7 +1782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39">
         <v>1</v>
       </c>
@@ -1736,25 +1796,26 @@
         <v>90</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>2</v>
       </c>
@@ -1763,31 +1824,31 @@
         <v>41884</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G3" s="72" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -1796,31 +1857,31 @@
         <v>41891</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -1829,27 +1890,31 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="J5" s="73" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -1858,23 +1923,23 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="73" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>6</v>
       </c>
@@ -1883,25 +1948,25 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="73" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -1910,7 +1975,7 @@
         <v>41919</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1919,10 +1984,10 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="73" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -1931,7 +1996,7 @@
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1940,10 +2005,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="73" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>9</v>
       </c>
@@ -1952,7 +2017,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1962,7 +2027,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="73"/>
     </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>10</v>
       </c>
@@ -1971,7 +2036,7 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1980,10 +2045,10 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>11</v>
       </c>
@@ -1992,7 +2057,7 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2001,10 +2066,10 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>12</v>
       </c>
@@ -2013,21 +2078,21 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="72" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="44">
         <f t="shared" si="0"/>
@@ -2042,7 +2107,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="74"/>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>13</v>
       </c>
@@ -2051,7 +2116,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2060,10 +2125,10 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>14</v>
       </c>
@@ -2072,7 +2137,7 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2081,7 +2146,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2093,7 +2158,7 @@
         <v>41982</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2102,7 +2167,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2130,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,10 +2234,10 @@
         <v>85</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>9</v>
@@ -2228,12 +2293,12 @@
         <v>85</v>
       </c>
       <c r="I2" s="8">
-        <f>SUMIF($C$2:$C$82,H2,$D$2:$D$82)</f>
+        <f>SUMIF($C$2:$C$80,H2,$D$2:$D$80)</f>
         <v>42</v>
       </c>
       <c r="J2" s="14">
         <f t="shared" ref="J2:J8" si="0">I2/$I$9</f>
-        <v>8.6065573770491802E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>25</v>
@@ -2265,33 +2330,33 @@
     </row>
     <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="47">
-        <v>41883</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>93</v>
+        <v>41879</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="H3" s="66" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="8">
-        <f>SUMIF($C$2:$C$82,H3,$D$2:$D$82)</f>
+        <f>SUMIF($C$2:$C$80,H3,$D$2:$D$80)</f>
         <v>52</v>
       </c>
       <c r="J3" s="14">
         <f t="shared" si="0"/>
-        <v>0.10655737704918032</v>
+        <v>0.10766045548654245</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>8</v>
@@ -2323,33 +2388,33 @@
     </row>
     <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="47">
-        <v>41879</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>93</v>
+        <v>41881</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>92</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="8">
-        <f>SUMIF($C$2:$C$82,H4,$D$2:$D$82)</f>
+        <f>SUMIF($C$2:$C$80,H4,$D$2:$D$80)</f>
         <v>64</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>0.13114754098360656</v>
+        <v>0.13250517598343686</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>29</v>
@@ -2381,22 +2446,22 @@
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D5" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="47">
-        <v>41881</v>
+        <v>41883</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" s="14"/>
       <c r="L5" s="9" t="s">
@@ -2444,18 +2509,18 @@
         <v>41883</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="8">
-        <f>SUMIF($C$2:$C$82,H6,$D$2:$D$82)</f>
+        <f>SUMIF($C$2:$C$80,H6,$D$2:$D$80)</f>
         <v>30</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="0"/>
-        <v>6.1475409836065573E-2</v>
+        <v>6.2111801242236024E-2</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>13</v>
@@ -2490,7 +2555,7 @@
         <v>1.5</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>8</v>
@@ -2502,18 +2567,18 @@
         <v>41883</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="8">
-        <f>SUMIF($C$2:$C$82,H7,$D$2:$D$82)</f>
+        <f>SUMIF($C$2:$C$80,H7,$D$2:$D$80)</f>
         <v>150</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="0"/>
-        <v>0.30737704918032788</v>
+        <v>0.3105590062111801</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>14</v>
@@ -2560,18 +2625,18 @@
         <v>41883</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="65" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="8">
-        <f>SUMIF($C$2:$C$82,H8,$D$2:$D$82)</f>
-        <v>150</v>
+        <f>SUMIF($C$2:$C$80,H8,$D$2:$D$80)</f>
+        <v>145</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" si="0"/>
-        <v>0.30737704918032788</v>
+        <v>0.30020703933747411</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>15</v>
@@ -2614,11 +2679,11 @@
         <v>41886</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" s="6">
         <f>SUM(I2:I8)</f>
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M9" s="8">
         <v>405</v>
@@ -2646,7 +2711,7 @@
         <v>41890</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2666,7 +2731,7 @@
         <v>41890</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2686,7 +2751,7 @@
         <v>41890</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2694,7 +2759,7 @@
         <v>2.5</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="64" t="s">
         <v>15</v>
@@ -2706,10 +2771,10 @@
         <v>41890</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2717,7 +2782,7 @@
         <v>2.6</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="67" t="s">
         <v>29</v>
@@ -2729,85 +2794,84 @@
         <v>41892</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>3</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>15</v>
+        <v>3.1</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D15" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E15" s="47">
-        <v>41897</v>
-      </c>
-      <c r="F15" s="83"/>
-      <c r="G15" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="75" t="s">
+        <v>41893</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="75"/>
+      <c r="I15" s="78"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>3</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>29</v>
+        <v>3.2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D16" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="47">
-        <v>41899</v>
-      </c>
-      <c r="G16" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="76" t="s">
+        <v>41897</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="76"/>
+      <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D17" s="13">
-        <v>2</v>
-      </c>
-      <c r="E17" s="47">
-        <v>41893</v>
-      </c>
-      <c r="G17" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="48">
+        <v>41897</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="77"/>
+      <c r="I17" s="80"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>40</v>
@@ -2821,200 +2885,223 @@
       <c r="E18" s="47">
         <v>41897</v>
       </c>
-      <c r="G18" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="78" t="s">
+      <c r="G18" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>3</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>85</v>
+        <v>3.5</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>15</v>
       </c>
       <c r="D19" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E19" s="47">
         <v>41897</v>
       </c>
-      <c r="G19" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="79" t="s">
+      <c r="F19" s="77"/>
+      <c r="G19" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="79"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
-        <v>3</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>85</v>
+        <v>3.6</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="21">
-        <v>1</v>
-      </c>
-      <c r="E20" s="82">
-        <v>41897</v>
-      </c>
-      <c r="G20" s="80" t="s">
-        <v>93</v>
+        <v>4</v>
+      </c>
+      <c r="E20" s="76">
+        <v>41899</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>4</v>
-      </c>
-      <c r="B21" s="59" t="s">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2</v>
+      </c>
+      <c r="E21" s="47">
+        <v>41898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="13">
+        <v>5</v>
+      </c>
+      <c r="F22" s="70" t="s">
         <v>104</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>4</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="13">
-        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>4</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>13</v>
+        <v>4.3</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>15</v>
       </c>
       <c r="D23" s="13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E23" s="47">
-        <v>41898</v>
+        <v>41904</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="13">
         <v>4</v>
       </c>
-      <c r="B24" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="47">
+        <v>41906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>5</v>
       </c>
-      <c r="F25" s="70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>5</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>8</v>
       </c>
       <c r="D27" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>85</v>
+        <v>50</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="D28" s="13">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D29" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="11">
+        <v>6</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>6</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>14</v>
+      <c r="B31" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>29</v>
       </c>
       <c r="D31" s="13">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3022,86 +3109,86 @@
         <v>6</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>85</v>
+        <v>52</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>15</v>
       </c>
       <c r="D32" s="13">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>6</v>
       </c>
-      <c r="B33" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>15</v>
+      <c r="B33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>29</v>
       </c>
       <c r="D33" s="13">
-        <v>20</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>6</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="68" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D34" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D35" s="13">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>29</v>
+        <v>56</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D36" s="13">
-        <v>4</v>
-      </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>7</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D37" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3109,13 +3196,13 @@
         <v>7</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D38" s="13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3123,98 +3210,114 @@
         <v>7</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="61" t="s">
+      <c r="A40" s="11">
         <v>8</v>
       </c>
+      <c r="B40" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="D40" s="13">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>85</v>
+        <v>61</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="D41" s="13">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D42" s="13">
-        <v>2.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D43" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
+        <v>9</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="D44" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
+      <c r="F44" s="70" t="s">
+        <v>104</v>
+      </c>
       <c r="G44" s="48"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>14</v>
+        <v>64</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D45" s="13">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E45" s="48"/>
       <c r="F45" s="48"/>
@@ -3222,16 +3325,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="D46" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="48"/>
@@ -3239,16 +3342,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D47" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
@@ -3256,29 +3359,29 @@
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>8</v>
+        <v>67</v>
+      </c>
+      <c r="C48" s="63" t="s">
+        <v>15</v>
       </c>
       <c r="D48" s="13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E48" s="48"/>
       <c r="F48" s="70" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G48" s="48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>13</v>
@@ -3292,134 +3395,134 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>29</v>
       </c>
       <c r="D50" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
+        <v>11</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="13">
         <v>10</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="13">
-        <v>2</v>
-      </c>
       <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
+      <c r="F51" s="70" t="s">
+        <v>104</v>
+      </c>
       <c r="G51" s="48"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
-        <v>11</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="13">
-        <v>20</v>
-      </c>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
+        <v>12</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="13"/>
       <c r="E52" s="48"/>
-      <c r="F52" s="70" t="s">
-        <v>107</v>
-      </c>
+      <c r="F52" s="48"/>
       <c r="G52" s="48"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
-        <v>11</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>8</v>
       </c>
       <c r="D53" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
-        <v>11</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>29</v>
+      <c r="A54" s="22">
+        <v>13</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="D54" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
-        <v>11</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="60" t="s">
-        <v>8</v>
+      <c r="A55" s="22">
+        <v>13</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="63" t="s">
+        <v>15</v>
       </c>
       <c r="D55" s="13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E55" s="48"/>
       <c r="F55" s="70" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G55" s="48"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="13">
+        <v>4</v>
+      </c>
       <c r="E56" s="48"/>
       <c r="F56" s="48"/>
       <c r="G56" s="48"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="60" t="s">
-        <v>8</v>
+        <v>75</v>
+      </c>
+      <c r="C57" s="62" t="s">
+        <v>15</v>
       </c>
       <c r="D57" s="13">
         <v>10</v>
@@ -3429,14 +3532,14 @@
       <c r="G57" s="48"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
-        <v>13</v>
+      <c r="A58" s="11">
+        <v>14</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="C58" s="68" t="s">
+        <v>29</v>
       </c>
       <c r="D58" s="13">
         <v>2</v>
@@ -3445,187 +3548,199 @@
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
     </row>
-    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="22">
-        <v>13</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="63" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>15</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="62" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="13">
         <v>20</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="G59" s="48"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
-        <v>13</v>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+    </row>
+    <row r="60" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>15</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="69" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="13">
-        <v>4</v>
-      </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="17"/>
+    </row>
+    <row r="61" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="62" t="s">
-        <v>15</v>
+        <v>79</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="D61" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E61" s="48"/>
       <c r="F61" s="48"/>
       <c r="G61" s="48"/>
-    </row>
-    <row r="62" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
-        <v>14</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="68" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D62" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E62" s="48"/>
       <c r="F62" s="48"/>
       <c r="G62" s="48"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="17"/>
-    </row>
-    <row r="63" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="18"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="62" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="D63" s="13">
-        <v>20</v>
-      </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
-        <v>15</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="69" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D64" s="13">
-        <v>5</v>
-      </c>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
-        <v>15</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D65" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65" s="48"/>
       <c r="F65" s="48"/>
       <c r="G65" s="48"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D66" s="13">
+        <v>10</v>
+      </c>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+    </row>
+    <row r="67" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+    </row>
+    <row r="68" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="13">
         <v>5</v>
       </c>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="11">
-        <v>17</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="13">
-        <v>50</v>
-      </c>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-    </row>
-    <row r="68" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>17</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="13">
-        <v>2</v>
-      </c>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
       <c r="H68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -3640,21 +3755,13 @@
       <c r="V68" s="7"/>
     </row>
     <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
-        <v>17</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="13">
-        <v>1</v>
-      </c>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
       <c r="H69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -3669,18 +3776,10 @@
       <c r="V69" s="7"/>
     </row>
     <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>18</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70" s="13">
-        <v>10</v>
-      </c>
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
       <c r="E70" s="47"/>
       <c r="F70" s="47"/>
       <c r="G70" s="47"/>
@@ -3765,9 +3864,9 @@
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
       <c r="H74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -3786,9 +3885,9 @@
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="13"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
       <c r="H75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -3828,10 +3927,12 @@
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="13"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
       <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
@@ -3849,9 +3950,9 @@
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
       <c r="H78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -3897,6 +3998,8 @@
       <c r="F80" s="47"/>
       <c r="G80" s="47"/>
       <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
@@ -4056,8 +4159,6 @@
       <c r="F87" s="47"/>
       <c r="G87" s="47"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
@@ -4070,61 +4171,20 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
     </row>
-    <row r="88" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
-    </row>
-    <row r="89" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
-      <c r="B91" s="25"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" s="25"/>
     </row>
   </sheetData>
+  <sortState ref="A2:G89">
+    <sortCondition ref="A2:A89"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E35164-F3E7-4C77-BE1E-7486EF82B90A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CF1202-A8A3-4A6D-A17D-B09530E438A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="162">
   <si>
     <t>Finals Week</t>
   </si>
@@ -302,11 +302,6 @@
   </si>
   <si>
     <t>Foundations Worksheet</t>
-  </si>
-  <si>
-    <t>Introduction to the class, logistics
-Reproducible research
-Data analysis life cycle</t>
   </si>
   <si>
     <t>Data Camp: Intro to basics</t>
@@ -500,33 +495,6 @@
 * Course packet  section 2.2, 2.3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Take [this survey](https://goo.gl/forms/qLBv2jMF6fBv3BTR2) to help me set my OH (Due Thu 8/30 )
-Join our [Slack team](http://math-315.slack.com) and post an `#introduction` (instructions in channel) (Due Sun 9/2 )
-[Data Camp](https://www.datacamp.com/users/sign_in) Intro to R - Intro to Basics Chapter [BBL] (Due Sun 9/2 )
-Metacognition Awareness Inventory [BBL] (Due Sun 9/2 )
-R Markdown test file (Due Wed 8/29 )
-hw01 Introductions [[HTML]](hw/hw01_introductions.html)[[PDF]](hw/hw01_introductions.pdf)(Due Sun 9/2 )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>Problem set 2.2 (Due Sun 9/9 )
 Data Camp Open Intro - Intro to R [BBL] (Due Sun 9/9 )
 Data Camp Open Intro - Intro to Data [BBL] (Due Sun 9/9 )
@@ -611,12 +579,6 @@
     <t xml:space="preserve">We already talked about what visualizations are appropriate to create for different quantitative and categorical variable types last week. 
 Now it's time to build them in R. 
 After a quick recap on how to use ggplot syntax, and where you can find resources you're on your own to work with your team on the Univariate graphing assignment. </t>
-  </si>
-  <si>
-    <t>Readiness Assurance Test (RAT) on class logistics
-Introduction to the semester long project
-Form support groups and analysis pairs - start to discuss what research topics you want to analyze
-* I want all 4 members of a team to be analyzing different research questions from the same data set</t>
   </si>
   <si>
     <t>Introduction to the instructor, class structure, materials, requirements, expectations and resources. 
@@ -718,6 +680,68 @@
     <t xml:space="preserve">Learn how to use RStudio to do and turn in homework (test markdown file, hw1 template)
 Write down questions about class logistics and structure [[Google Form]](https://goo.gl/forms/T1aDys2sFeLlsk2A3)
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to the class, logistics
+Data analysis life cycle
+Reproducible research
+</t>
+  </si>
+  <si>
+    <t>Readiness Assurance Test (RAT) on class logistics
+Introduction to the semester long project
+Form support groups and analysis pairs - start to discuss what research topics you want to analyze
+* I want all 4 members of a group to be analyzing different research questions from the same data set</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Take [this survey](https://goo.gl/forms/qLBv2jMF6fBv3BTR2) to help me set my OH (Due Thu 8/30 )
+Join our [Slack team](http://math-315.slack.com) and post an `#introduction` (instructions in channel) (Due Sun 9/2 )
+[Data Camp](https://www.datacamp.com/users/sign_in) Intro to R - Intro to Basics Chapter [BBL] (Due Thu 9/6 )
+Metacognition Awareness Inventory [BBL] (Due Sun 9/2 )
+R Markdown test file (Due Wed 8/29 )
+hw01 Introductions [[HTML]](hw/hw01_introductions.html)[[PDF]](hw/hw01_introductions.pdf)(Due Sun 9/2 )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Management Assignment [[HTML]](hw/hw04_data_management.html] [[PDF]](hw/hw04_data_management.pdf](Due Sun 9/23 )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Univariate Graphing Assignment (Due Sun 9/23 )</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1291,24 +1315,24 @@
     <xf numFmtId="164" fontId="9" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="82">
     <cellStyle name="20% - Accent6" xfId="79" builtinId="50"/>
@@ -1732,8 +1756,8 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,32 +1814,32 @@
         <v>41877</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>2</v>
       </c>
@@ -1824,31 +1848,31 @@
         <v>41884</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="72" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="J3" s="55" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -1857,28 +1881,28 @@
         <v>41891</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="55" t="s">
         <v>140</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.25">
@@ -1890,28 +1914,28 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="J5" s="73" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1923,20 +1947,20 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="73" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -1948,22 +1972,22 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="73" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1975,7 +1999,7 @@
         <v>41919</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1984,7 +2008,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1996,7 +2020,7 @@
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2005,7 +2029,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2017,7 +2041,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2036,7 +2060,7 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2045,7 +2069,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2057,7 +2081,7 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2066,7 +2090,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2078,18 +2102,18 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2116,7 +2140,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2125,7 +2149,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2137,7 +2161,7 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2146,7 +2170,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2158,7 +2182,7 @@
         <v>41982</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2167,7 +2191,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2234,10 +2258,10 @@
         <v>85</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>9</v>
@@ -2345,7 +2369,7 @@
         <v>41879</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="66" t="s">
         <v>8</v>
@@ -2403,7 +2427,7 @@
         <v>41881</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>29</v>
@@ -2461,7 +2485,7 @@
         <v>41883</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J5" s="14"/>
       <c r="L5" s="9" t="s">
@@ -2509,7 +2533,7 @@
         <v>41883</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>13</v>
@@ -2555,7 +2579,7 @@
         <v>1.5</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>8</v>
@@ -2567,7 +2591,7 @@
         <v>41883</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
@@ -2613,7 +2637,7 @@
         <v>1.6</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>85</v>
@@ -2625,7 +2649,7 @@
         <v>41883</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="65" t="s">
         <v>15</v>
@@ -2679,7 +2703,7 @@
         <v>41886</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I9" s="6">
         <f>SUM(I2:I8)</f>
@@ -2711,7 +2735,7 @@
         <v>41890</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2731,7 +2755,7 @@
         <v>41890</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2751,7 +2775,7 @@
         <v>41890</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2759,7 +2783,7 @@
         <v>2.5</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="64" t="s">
         <v>15</v>
@@ -2771,10 +2795,10 @@
         <v>41890</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2782,7 +2806,7 @@
         <v>2.6</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="67" t="s">
         <v>29</v>
@@ -2794,7 +2818,7 @@
         <v>41892</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -2814,12 +2838,12 @@
         <v>41893</v>
       </c>
       <c r="G15" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="78"/>
+      <c r="I15" s="81"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -2838,12 +2862,12 @@
         <v>41897</v>
       </c>
       <c r="G16" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="79"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -2862,12 +2886,12 @@
         <v>41897</v>
       </c>
       <c r="G17" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="80"/>
+      <c r="I17" s="83"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -2886,19 +2910,19 @@
         <v>41897</v>
       </c>
       <c r="G18" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="81"/>
+      <c r="I18" s="84"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>3.5</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="64" t="s">
         <v>15</v>
@@ -2911,21 +2935,21 @@
       </c>
       <c r="F19" s="77"/>
       <c r="G19" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="82"/>
+      <c r="I19" s="85"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>3.6</v>
       </c>
-      <c r="B20" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="85" t="s">
+      <c r="B20" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="80" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="21">
@@ -2935,7 +2959,7 @@
         <v>41899</v>
       </c>
       <c r="G20" s="75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2969,15 +2993,15 @@
         <v>5</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>4.3</v>
       </c>
-      <c r="B23" s="83" t="s">
-        <v>154</v>
+      <c r="B23" s="78" t="s">
+        <v>151</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>15</v>
@@ -2994,7 +3018,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="58" t="s">
         <v>29</v>
@@ -3081,7 +3105,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>15</v>
@@ -3095,7 +3119,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>29</v>
@@ -3302,7 +3326,7 @@
       </c>
       <c r="E44" s="48"/>
       <c r="F44" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G44" s="48"/>
     </row>
@@ -3372,7 +3396,7 @@
       </c>
       <c r="E48" s="48"/>
       <c r="F48" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G48" s="48"/>
     </row>
@@ -3425,7 +3449,7 @@
       </c>
       <c r="E51" s="48"/>
       <c r="F51" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G51" s="48"/>
     </row>
@@ -3493,7 +3517,7 @@
       </c>
       <c r="E55" s="48"/>
       <c r="F55" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G55" s="48"/>
     </row>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CF1202-A8A3-4A6D-A17D-B09530E438A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$88</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="161">
   <si>
     <t>Finals Week</t>
   </si>
@@ -521,14 +520,6 @@
     <t xml:space="preserve">RAT on Univariate numerical data and APA citation styles 
 Discuss how to summarize numerical data using summary statistics, plots and words. 
 We will be working through the course packet section 2.2 </t>
-  </si>
-  <si>
-    <t>[Syllabus](https://norcalbiostat.github.io/MATH615/syllabus_315_f18.html)
-[Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
-[List of Articles](notes.html)
-[PDS video 1](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) 
-Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)
-[Software installation overview](https://norcalbiostat.netlify.com/post/software-overview/)</t>
   </si>
   <si>
     <t>hw03 Citation Assignment [[HTML]](hw/hw03_citation.html) [[PDF]](hw/hw03_citation.pdf) (Due Sun 9/16 )
@@ -618,28 +609,6 @@
   </si>
   <si>
     <t>hw04 data management</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data Management Assignment [[HTML]](hw/hw04_data_management.html] [[PDF]](hw/hw04_data_management.pdf](Due Sun 9/23 )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Univariate Graphing Assignment (Due Sun 9/23 )</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Watch PDS Video 7 and 8. As always, follow along on your computer for the best results. 
@@ -743,11 +712,19 @@
 Univariate Graphing Assignment (Due Sun 9/23 )</t>
     </r>
   </si>
+  <si>
+    <t>[Syllabus](https://norcalbiostat.github.io/MATH315/syllabus_315_f18.html)
+[Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
+[List of Articles](notes.html)
+[PDS video 1](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) 
+Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)
+[Software installation overview](https://norcalbiostat.netlify.com/post/software-overview/)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
@@ -1412,10 +1389,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Percent 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 2" xfId="51"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Percent 2" xfId="52"/>
+    <cellStyle name="Percent 3" xfId="81"/>
     <cellStyle name="Total" xfId="78" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1752,12 +1729,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,28 +1791,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K2" s="1"/>
     </row>
@@ -1890,7 +1867,7 @@
         <v>133</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>126</v>
@@ -1899,10 +1876,10 @@
         <v>138</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.25">
@@ -1917,25 +1894,25 @@
         <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J5" s="73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1950,7 +1927,7 @@
         <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -1960,7 +1937,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -1987,7 +1964,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2041,7 +2018,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2218,7 +2195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3001,7 +2978,7 @@
         <v>4.3</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>15</v>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/MATH315/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F98498-26E9-2C4B-BC4C-1C70ECBFA0D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -24,11 +25,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -535,29 +531,12 @@
 </t>
   </si>
   <si>
-    <t>[PDS Video 4](http://passiondrivenstatistics.com/2015/09/16/chapter-04/)
-[PDS Video 6](http://passiondrivenstatistics.com/2015/12/18/r-chapter-6/)
-[Course packet section 2.2, 2.3](reading/RAD_course_notes.pdf)
-Lecture notes on [conducting a literature review](notes.html)
-[Help using the library](http://library.csuchico.edu/help)
-[Connecting to Meriam library from off campus](http://library.csuchico.edu/connecting-off-campus)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Explain why data preparation takes the majority of your time, but is crucially important
 Identify mistakes and missing data in data using tables and summaries
 Perform basic data management tasks such as creating new variables, renaming and recoding existing variables
 Learn how to create univariate data graphics and summary statistics in R
 Describe the distribution of a single variable in sentence form using summary statistics and pointing out specific features of the graphics as evidence to support your interpretation
 </t>
-  </si>
-  <si>
-    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
-[PDS Video 8](http://passiondrivenstatistics.com/2016/01/20/r-chapter-8/)
-Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)
-Applied Stats Course Notes [1.2-1.7](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
-Lecture notes on data management prep questions (notes.html)
-R Cookbook http://www.cookbook-r.com/
-Quick-R http://www.statmethods.net/</t>
   </si>
   <si>
     <t xml:space="preserve">RAT on Data Management
@@ -715,20 +694,37 @@
   <si>
     <t>[Syllabus](https://norcalbiostat.github.io/MATH315/syllabus_315_f18.html)
 [Passion Driven Statistics](reading/PDS_Intro_Stat.pdf)
-[List of Articles](notes.html)
+[List of Articles](https://norcalbiostat.github.io/MATH315/notes.html)
 [PDS video 1](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) 
 Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)
 [Software installation overview](https://norcalbiostat.netlify.com/post/software-overview/)</t>
+  </si>
+  <si>
+    <t>[PDS Video 4](http://passiondrivenstatistics.com/2015/09/16/chapter-04/)
+[PDS Video 6](http://passiondrivenstatistics.com/2015/12/18/r-chapter-6/)
+[Course packet section 2.2, 2.3](reading/RAD_course_notes.pdf)
+Lecture notes on [conducting a literature review](https://norcalbiostat.github.io/MATH315/notes.html)
+[Help using the library](http://library.csuchico.edu/help)
+[Connecting to Meriam library from off campus](http://library.csuchico.edu/connecting-off-campus)</t>
+  </si>
+  <si>
+    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
+[PDS Video 8](http://passiondrivenstatistics.com/2016/01/20/r-chapter-8/)
+Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)
+Applied Stats Course Notes [1.2-1.7](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
+Lecture notes on data management prep questions (https://norcalbiostat.github.io/MATH315/notes.html)
+R Cookbook http://www.cookbook-r.com/
+Quick-R http://www.statmethods.net/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1389,10 +1385,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Percent 2" xfId="52"/>
-    <cellStyle name="Percent 3" xfId="81"/>
+    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Percent 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
     <cellStyle name="Total" xfId="78" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1729,29 +1725,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="33.75" style="38" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="47.75" style="45" customWidth="1"/>
-    <col min="6" max="6" width="45.875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="45" customWidth="1"/>
     <col min="8" max="9" width="38" style="45" customWidth="1"/>
     <col min="10" max="10" width="46.5" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="14.875" style="38"/>
+    <col min="11" max="16384" width="14.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
@@ -1783,7 +1779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="409.6">
       <c r="A2" s="39">
         <v>1</v>
       </c>
@@ -1791,32 +1787,32 @@
         <v>41877</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="240">
       <c r="A3" s="39">
         <v>2</v>
       </c>
@@ -1849,7 +1845,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="256">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -1867,7 +1863,7 @@
         <v>133</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>126</v>
@@ -1882,7 +1878,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="395">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -1894,28 +1890,28 @@
         <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="J5" s="73" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="64">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -1927,7 +1923,7 @@
         <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -1937,10 +1933,10 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="73" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="112">
       <c r="A7" s="39">
         <v>6</v>
       </c>
@@ -1964,10 +1960,10 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="73" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="48">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -1988,7 +1984,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="48">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -2009,7 +2005,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="48">
       <c r="A10" s="42">
         <v>9</v>
       </c>
@@ -2018,7 +2014,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2028,7 +2024,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="73"/>
     </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="48">
       <c r="A11" s="42">
         <v>10</v>
       </c>
@@ -2049,7 +2045,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="48">
       <c r="A12" s="42">
         <v>11</v>
       </c>
@@ -2070,7 +2066,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="48">
       <c r="A13" s="42">
         <v>12</v>
       </c>
@@ -2093,7 +2089,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="43"/>
       <c r="B14" s="44">
         <f t="shared" si="0"/>
@@ -2108,7 +2104,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="74"/>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="48">
       <c r="A15" s="42">
         <v>13</v>
       </c>
@@ -2129,7 +2125,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="48">
       <c r="A16" s="42">
         <v>14</v>
       </c>
@@ -2150,7 +2146,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="48">
       <c r="A17" s="42">
         <v>15</v>
       </c>
@@ -2171,7 +2167,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="32">
       <c r="A18" s="42" t="s">
         <v>0</v>
       </c>
@@ -2195,30 +2191,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="17"/>
-    <col min="2" max="2" width="32.25" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="19"/>
-    <col min="5" max="5" width="7.625" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="17"/>
+    <col min="2" max="2" width="32.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="19"/>
+    <col min="5" max="5" width="7.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.6640625" style="47" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="10" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" style="8"/>
-    <col min="11" max="11" width="4.75" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="7.75" style="7"/>
+    <col min="10" max="10" width="7.6640625" style="8"/>
+    <col min="11" max="11" width="4.6640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="7.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2277,7 +2273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="17" thickTop="1">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -2329,7 +2325,7 @@
         <v>3.0837004405286344E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="16">
       <c r="A3" s="11">
         <v>1.1000000000000001</v>
       </c>
@@ -2387,7 +2383,7 @@
         <v>0.21806167400881057</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="16">
       <c r="A4" s="11">
         <v>1.2</v>
       </c>
@@ -2445,7 +2441,7 @@
         <v>4.405286343612335E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="16">
       <c r="A5" s="11">
         <v>1.3</v>
       </c>
@@ -2493,7 +2489,7 @@
         <v>6.8281938325991193E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="16">
       <c r="A6" s="17">
         <v>1.4</v>
       </c>
@@ -2551,7 +2547,7 @@
         <v>2.2026431718061675E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="16">
       <c r="A7" s="11">
         <v>1.5</v>
       </c>
@@ -2609,7 +2605,7 @@
         <v>0.38546255506607929</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="17" thickBot="1">
       <c r="A8" s="20">
         <v>1.6</v>
       </c>
@@ -2663,7 +2659,7 @@
         <v>0.23127753303964757</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="16" thickBot="1">
       <c r="A9" s="11">
         <v>2.1</v>
       </c>
@@ -2695,7 +2691,7 @@
       </c>
       <c r="V9" s="17"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="16" thickTop="1">
       <c r="A10" s="11">
         <v>2.2000000000000002</v>
       </c>
@@ -2715,7 +2711,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="11">
         <v>2.2999999999999998</v>
       </c>
@@ -2735,7 +2731,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="11">
         <v>2.4</v>
       </c>
@@ -2755,7 +2751,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="16">
       <c r="A13" s="11">
         <v>2.5</v>
       </c>
@@ -2778,7 +2774,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="16" thickBot="1">
       <c r="A14" s="20">
         <v>2.6</v>
       </c>
@@ -2798,7 +2794,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="11">
         <v>3.1</v>
       </c>
@@ -2822,7 +2818,7 @@
       </c>
       <c r="I15" s="81"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="11">
         <v>3.2</v>
       </c>
@@ -2846,7 +2842,7 @@
       </c>
       <c r="I16" s="82"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>3.3</v>
       </c>
@@ -2870,7 +2866,7 @@
       </c>
       <c r="I17" s="83"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="11">
         <v>3.4</v>
       </c>
@@ -2894,7 +2890,7 @@
       </c>
       <c r="I18" s="84"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>3.5</v>
       </c>
@@ -2919,7 +2915,7 @@
       </c>
       <c r="I19" s="85"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16" thickBot="1">
       <c r="A20" s="20">
         <v>3.6</v>
       </c>
@@ -2939,7 +2935,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>4.0999999999999996</v>
       </c>
@@ -2956,7 +2952,7 @@
         <v>41898</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16">
       <c r="A22" s="11">
         <v>4.2</v>
       </c>
@@ -2973,12 +2969,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="11">
         <v>4.3</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>15</v>
@@ -2990,7 +2986,7 @@
         <v>41904</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="11">
         <v>4.4000000000000004</v>
       </c>
@@ -3007,7 +3003,7 @@
         <v>41906</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="11">
         <v>5</v>
       </c>
@@ -3021,7 +3017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="11">
         <v>5</v>
       </c>
@@ -3035,7 +3031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="11">
         <v>5</v>
       </c>
@@ -3049,7 +3045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="11">
         <v>6</v>
       </c>
@@ -3063,7 +3059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="11">
         <v>6</v>
       </c>
@@ -3077,7 +3073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="11">
         <v>6</v>
       </c>
@@ -3091,7 +3087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="11">
         <v>6</v>
       </c>
@@ -3105,7 +3101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="11">
         <v>6</v>
       </c>
@@ -3119,7 +3115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="11">
         <v>6</v>
       </c>
@@ -3136,7 +3132,7 @@
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="11">
         <v>7</v>
       </c>
@@ -3150,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="11">
         <v>7</v>
       </c>
@@ -3164,7 +3160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="11">
         <v>7</v>
       </c>
@@ -3178,7 +3174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="11">
         <v>7</v>
       </c>
@@ -3192,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="11">
         <v>7</v>
       </c>
@@ -3206,7 +3202,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="11">
         <v>7</v>
       </c>
@@ -3220,7 +3216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="11">
         <v>8</v>
       </c>
@@ -3237,7 +3233,7 @@
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="11">
         <v>8</v>
       </c>
@@ -3254,7 +3250,7 @@
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="11">
         <v>9</v>
       </c>
@@ -3271,7 +3267,7 @@
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="11">
         <v>9</v>
       </c>
@@ -3288,7 +3284,7 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="16">
       <c r="A44" s="11">
         <v>9</v>
       </c>
@@ -3307,7 +3303,7 @@
       </c>
       <c r="G44" s="48"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="11">
         <v>10</v>
       </c>
@@ -3324,7 +3320,7 @@
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="11">
         <v>10</v>
       </c>
@@ -3341,7 +3337,7 @@
       <c r="F46" s="48"/>
       <c r="G46" s="48"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="11">
         <v>10</v>
       </c>
@@ -3358,7 +3354,7 @@
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="16">
       <c r="A48" s="11">
         <v>11</v>
       </c>
@@ -3377,7 +3373,7 @@
       </c>
       <c r="G48" s="48"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="11">
         <v>11</v>
       </c>
@@ -3394,7 +3390,7 @@
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="11">
         <v>11</v>
       </c>
@@ -3411,7 +3407,7 @@
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16">
       <c r="A51" s="11">
         <v>11</v>
       </c>
@@ -3430,7 +3426,7 @@
       </c>
       <c r="G51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="22">
         <v>12</v>
       </c>
@@ -3445,7 +3441,7 @@
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="11">
         <v>12</v>
       </c>
@@ -3462,7 +3458,7 @@
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="22">
         <v>13</v>
       </c>
@@ -3479,7 +3475,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="16">
       <c r="A55" s="22">
         <v>13</v>
       </c>
@@ -3498,7 +3494,7 @@
       </c>
       <c r="G55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="22">
         <v>13</v>
       </c>
@@ -3515,7 +3511,7 @@
       <c r="F56" s="48"/>
       <c r="G56" s="48"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="11">
         <v>14</v>
       </c>
@@ -3532,7 +3528,7 @@
       <c r="F57" s="48"/>
       <c r="G57" s="48"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="11">
         <v>14</v>
       </c>
@@ -3549,7 +3545,7 @@
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="11">
         <v>15</v>
       </c>
@@ -3566,7 +3562,7 @@
       <c r="F59" s="49"/>
       <c r="G59" s="49"/>
     </row>
-    <row r="60" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="18" customFormat="1">
       <c r="A60" s="11">
         <v>15</v>
       </c>
@@ -3587,7 +3583,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="17"/>
     </row>
-    <row r="61" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="18" customFormat="1">
       <c r="A61" s="11">
         <v>15</v>
       </c>
@@ -3607,7 +3603,7 @@
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="11">
         <v>15</v>
       </c>
@@ -3627,7 +3623,7 @@
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="11">
         <v>17</v>
       </c>
@@ -3644,7 +3640,7 @@
       <c r="F63" s="48"/>
       <c r="G63" s="48"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="11">
         <v>17</v>
       </c>
@@ -3661,7 +3657,7 @@
       <c r="F64" s="48"/>
       <c r="G64" s="48"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65" s="11">
         <v>17</v>
       </c>
@@ -3678,7 +3674,7 @@
       <c r="F65" s="48"/>
       <c r="G65" s="48"/>
     </row>
-    <row r="66" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" s="8" customFormat="1">
       <c r="A66" s="11">
         <v>18</v>
       </c>
@@ -3707,7 +3703,7 @@
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
     </row>
-    <row r="67" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" s="8" customFormat="1">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3728,7 +3724,7 @@
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
     </row>
-    <row r="68" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" s="8" customFormat="1">
       <c r="A68" s="11"/>
       <c r="B68" s="35" t="s">
         <v>87</v>
@@ -3755,7 +3751,7 @@
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
     </row>
-    <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" s="8" customFormat="1">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -3776,7 +3772,7 @@
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
     </row>
-    <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" s="8" customFormat="1">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3797,7 +3793,7 @@
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
     </row>
-    <row r="71" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" s="8" customFormat="1">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -3818,7 +3814,7 @@
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
     </row>
-    <row r="72" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" s="8" customFormat="1">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3839,7 +3835,7 @@
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
     </row>
-    <row r="73" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" s="8" customFormat="1">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -3860,7 +3856,7 @@
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
     </row>
-    <row r="74" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" s="8" customFormat="1">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3881,7 +3877,7 @@
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
     </row>
-    <row r="75" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" s="8" customFormat="1">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -3902,7 +3898,7 @@
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
     </row>
-    <row r="76" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" s="8" customFormat="1">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -3923,7 +3919,7 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
     </row>
-    <row r="77" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" s="8" customFormat="1">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -3946,7 +3942,7 @@
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
     </row>
-    <row r="78" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" s="8" customFormat="1">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3967,7 +3963,7 @@
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
     </row>
-    <row r="79" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" s="8" customFormat="1">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3990,7 +3986,7 @@
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
     </row>
-    <row r="80" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" s="8" customFormat="1">
       <c r="A80" s="11"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -4013,7 +4009,7 @@
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
     </row>
-    <row r="81" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" s="8" customFormat="1">
       <c r="A81" s="11"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4036,7 +4032,7 @@
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
     </row>
-    <row r="82" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" s="8" customFormat="1">
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4059,7 +4055,7 @@
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
     </row>
-    <row r="83" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" s="8" customFormat="1">
       <c r="A83" s="11"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4082,7 +4078,7 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
     </row>
-    <row r="84" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" s="8" customFormat="1">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4105,7 +4101,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
     </row>
-    <row r="85" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" s="8" customFormat="1">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4128,7 +4124,7 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
     </row>
-    <row r="86" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" s="8" customFormat="1">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4151,7 +4147,7 @@
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
     </row>
-    <row r="87" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" s="8" customFormat="1">
       <c r="A87" s="11"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4172,13 +4168,13 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22">
       <c r="A89" s="24"/>
       <c r="B89" s="25"/>
     </row>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/MATH315/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F98498-26E9-2C4B-BC4C-1C70ECBFA0D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA60D3C-01A0-4041-8664-89506C82381B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,25 +606,6 @@
 Bivariate Inference - Linear Regression</t>
   </si>
   <si>
-    <t>For Monday
-* Familiarize yourself with the course website organization and bookmark this site. 
-* Join Slack workspace and Datacamp Classroom using links in Blackboard
-* Make a HackMD account. This is essential for collaboration on code without implementing version control.
-* Acquire course materials - [Open Intro textbook](https://www.openintro.org/stat/textbook.php?stat_book=os), [Course notes packet](http://www.chicopacketpro.com/item/math-course-notes-donatello)
-For Wednesday
-* Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
-* Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY) and pick a data set that you want to work with. 
-For Friday 
-* Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) 
-* Watch the R Markdown [Tutorial](http://rmarkdown.rstudio.com/lesson-1.html) 
-* Create and compile a test markdown document. 
-* Read the Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
-Throughout the week read the following articles [[Reading list]](notes.html)
-* Learning - your first job
-* MAI and academic achievement
-* Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`</t>
-  </si>
-  <si>
     <t xml:space="preserve">Learn how to use RStudio to do and turn in homework (test markdown file, hw1 template)
 Write down questions about class logistics and structure [[Google Form]](https://goo.gl/forms/T1aDys2sFeLlsk2A3)
 </t>
@@ -715,6 +696,25 @@
 Lecture notes on data management prep questions (https://norcalbiostat.github.io/MATH315/notes.html)
 R Cookbook http://www.cookbook-r.com/
 Quick-R http://www.statmethods.net/</t>
+  </si>
+  <si>
+    <t>For Monday
+* Familiarize yourself with the course website organization and bookmark this site. 
+* Join Slack workspace and Datacamp Classroom using links in Blackboard
+* Make a HackMD account. This is essential for collaboration on code without implementing version control.
+* Acquire course materials - [Open Intro textbook](https://www.openintro.org/stat/textbook.php?stat_book=os), [Course notes packet](http://www.chicopacketpro.com/item/math-course-notes-donatello)
+For Wednesday
+* Watch [[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) (6 min)
+* Look through the [[research data available]](https://drive.google.com/drive/u/3/folders/1jULudBjRbHdW-uLIvmMbxRBEJJkq9crY) and pick a data set that you want to work with. 
+For Friday 
+* Install R, R Studio and LaTeX software before Wednesday [[Walkthrough]](https://norcalbiostat.netlify.com/post/software-overview/) 
+* Watch the R Markdown [Tutorial](http://rmarkdown.rstudio.com/lesson-1.html) 
+* Create and compile a test markdown document. 
+* Read the Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
+Throughout the week read the following articles [[Reading list]](https://norcalbiostat.github.io/MATH315/notes.html)
+* Learning - your first job
+* MAI and academic achievement
+* Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1730,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15"/>
@@ -1787,28 +1787,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>144</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="K2" s="1"/>
     </row>
@@ -1863,7 +1863,7 @@
         <v>133</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>126</v>
@@ -1878,7 +1878,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="395">
+    <row r="5" spans="1:11" ht="380">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>149</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>142</v>
@@ -1908,7 +1908,7 @@
         <v>145</v>
       </c>
       <c r="J5" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="64">

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/MATH315/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA60D3C-01A0-4041-8664-89506C82381B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -631,33 +630,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Take [this survey](https://goo.gl/forms/qLBv2jMF6fBv3BTR2) to help me set my OH (Due Thu 8/30 )
-Join our [Slack team](http://math-315.slack.com) and post an `#introduction` (instructions in channel) (Due Sun 9/2 )
-[Data Camp](https://www.datacamp.com/users/sign_in) Intro to R - Intro to Basics Chapter [BBL] (Due Thu 9/6 )
-Metacognition Awareness Inventory [BBL] (Due Sun 9/2 )
-R Markdown test file (Due Wed 8/29 )
-hw01 Introductions [[HTML]](hw/hw01_introductions.html)[[PDF]](hw/hw01_introductions.pdf)(Due Sun 9/2 )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Data Management Assignment [[HTML]](hw/hw04_data_management.html] [[PDF]](hw/hw04_data_management.pdf](Due Sun 9/23 )</t>
     </r>
     <r>
@@ -716,15 +688,42 @@
 * MAI and academic achievement
 * Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Take [this survey](https://goo.gl/forms/qLBv2jMF6fBv3BTR2) to help me set my OH (Due Thu 8/30 )
+Join our [Slack team](http://math-315.slack.com) and post an `#introduction` (instructions in channel) (Due Sun 9/2 )
+[Data Camp](https://www.datacamp.com/users/sign_in) Intro to R - Intro to Basics Chapter [BBL] (Due Thu 9/6 )
+Metacognition Awareness Inventory [BBL] (Due Sun 9/2 )
+R Markdown test file (Due Fri 8/31 )
+hw01 Introductions [[HTML]](hw/hw01_introductions.html)[[PDF]](hw/hw01_introductions.pdf)(Due Sun 9/2 )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1385,10 +1384,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Percent 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 2" xfId="51"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Percent 2" xfId="52"/>
+    <cellStyle name="Percent 3" xfId="81"/>
     <cellStyle name="Total" xfId="78" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1725,29 +1724,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="45.83203125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="47.625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="45.875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="45" customWidth="1"/>
     <col min="8" max="9" width="38" style="45" customWidth="1"/>
     <col min="10" max="10" width="46.5" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="14.83203125" style="38"/>
+    <col min="11" max="16384" width="14.875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.6">
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39">
         <v>1</v>
       </c>
@@ -1793,10 +1792,10 @@
         <v>89</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>144</v>
@@ -1808,11 +1807,11 @@
         <v>152</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="240">
+    <row r="3" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>2</v>
       </c>
@@ -1845,7 +1844,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="256">
+    <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>133</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>126</v>
@@ -1878,7 +1877,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="380">
+    <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -1896,7 +1895,7 @@
         <v>149</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>142</v>
@@ -1908,10 +1907,10 @@
         <v>145</v>
       </c>
       <c r="J5" s="73" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="64">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="112">
+    <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>6</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -1984,7 +1983,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="48">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -2005,7 +2004,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="48">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>9</v>
       </c>
@@ -2024,7 +2023,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="73"/>
     </row>
-    <row r="11" spans="1:11" ht="48">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>10</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="48">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>11</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="48">
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>12</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="44">
         <f t="shared" si="0"/>
@@ -2104,7 +2103,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="74"/>
     </row>
-    <row r="15" spans="1:11" ht="48">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>13</v>
       </c>
@@ -2125,7 +2124,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="48">
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>14</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="48">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>15</v>
       </c>
@@ -2167,7 +2166,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="32">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>0</v>
       </c>
@@ -2191,30 +2190,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="17"/>
-    <col min="2" max="2" width="32.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="19"/>
-    <col min="5" max="5" width="7.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.6640625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="17"/>
+    <col min="2" max="2" width="32.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="19"/>
+    <col min="5" max="5" width="7.625" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.625" style="47" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="10" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="8"/>
-    <col min="11" max="11" width="4.6640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="7.6640625" style="7"/>
+    <col min="10" max="10" width="7.625" style="8"/>
+    <col min="11" max="11" width="4.625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="7.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" thickBot="1">
+    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="17" thickTop="1">
+    <row r="2" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -2295,7 +2294,7 @@
       </c>
       <c r="J2" s="14">
         <f t="shared" ref="J2:J8" si="0">I2/$I$9</f>
-        <v>8.6956521739130432E-2</v>
+        <v>8.7136929460580909E-2</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>25</v>
@@ -2325,7 +2324,7 @@
         <v>3.0837004405286344E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16">
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.1000000000000001</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="47">
-        <v>41879</v>
+        <v>41881</v>
       </c>
       <c r="G3" s="52" t="s">
         <v>91</v>
@@ -2353,7 +2352,7 @@
       </c>
       <c r="J3" s="14">
         <f t="shared" si="0"/>
-        <v>0.10766045548654245</v>
+        <v>0.1078838174273859</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>8</v>
@@ -2383,7 +2382,7 @@
         <v>0.21806167400881057</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1.2</v>
       </c>
@@ -2394,10 +2393,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="47">
-        <v>41881</v>
+        <v>41879</v>
       </c>
       <c r="G4" s="53" t="s">
         <v>91</v>
@@ -2411,7 +2410,7 @@
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>0.13250517598343686</v>
+        <v>0.13278008298755187</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>29</v>
@@ -2441,7 +2440,7 @@
         <v>4.405286343612335E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1.3</v>
       </c>
@@ -2489,7 +2488,7 @@
         <v>6.8281938325991193E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1.4</v>
       </c>
@@ -2513,11 +2512,11 @@
       </c>
       <c r="I6" s="8">
         <f>SUMIF($C$2:$C$80,H6,$D$2:$D$80)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="0"/>
-        <v>6.2111801242236024E-2</v>
+        <v>6.0165975103734441E-2</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>13</v>
@@ -2547,7 +2546,7 @@
         <v>2.2026431718061675E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1.5</v>
       </c>
@@ -2575,7 +2574,7 @@
       </c>
       <c r="J7" s="14">
         <f t="shared" si="0"/>
-        <v>0.3105590062111801</v>
+        <v>0.31120331950207469</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>14</v>
@@ -2605,7 +2604,7 @@
         <v>0.38546255506607929</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="17" thickBot="1">
+    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>1.6</v>
       </c>
@@ -2633,7 +2632,7 @@
       </c>
       <c r="J8" s="14">
         <f t="shared" si="0"/>
-        <v>0.30020703933747411</v>
+        <v>0.30082987551867219</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>15</v>
@@ -2659,7 +2658,7 @@
         <v>0.23127753303964757</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16" thickBot="1">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>2.1</v>
       </c>
@@ -2680,7 +2679,7 @@
       </c>
       <c r="I9" s="6">
         <f>SUM(I2:I8)</f>
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M9" s="8">
         <v>405</v>
@@ -2691,7 +2690,7 @@
       </c>
       <c r="V9" s="17"/>
     </row>
-    <row r="10" spans="1:22" ht="16" thickTop="1">
+    <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2.2000000000000002</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2.2999999999999998</v>
       </c>
@@ -2731,7 +2730,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2.4</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="16">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2.5</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="16" thickBot="1">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>2.6</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>3.1</v>
       </c>
@@ -2818,7 +2817,7 @@
       </c>
       <c r="I15" s="81"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>3.2</v>
       </c>
@@ -2842,7 +2841,7 @@
       </c>
       <c r="I16" s="82"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>3.3</v>
       </c>
@@ -2866,7 +2865,7 @@
       </c>
       <c r="I17" s="83"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>3.4</v>
       </c>
@@ -2890,7 +2889,7 @@
       </c>
       <c r="I18" s="84"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>3.5</v>
       </c>
@@ -2915,7 +2914,7 @@
       </c>
       <c r="I19" s="85"/>
     </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>3.6</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>4.0999999999999996</v>
       </c>
@@ -2952,7 +2951,7 @@
         <v>41898</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>4.2</v>
       </c>
@@ -2969,7 +2968,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>4.3</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>41904</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>4.4000000000000004</v>
       </c>
@@ -3003,7 +3002,7 @@
         <v>41906</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>5</v>
       </c>
@@ -3017,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>5</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>5</v>
       </c>
@@ -3045,7 +3044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>6</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>6</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>6</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>6</v>
       </c>
@@ -3101,7 +3100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>6</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>6</v>
       </c>
@@ -3132,7 +3131,7 @@
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>7</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>7</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>7</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>7</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>7</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>7</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>8</v>
       </c>
@@ -3233,7 +3232,7 @@
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>8</v>
       </c>
@@ -3250,7 +3249,7 @@
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>9</v>
       </c>
@@ -3267,7 +3266,7 @@
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>9</v>
       </c>
@@ -3284,7 +3283,7 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
     </row>
-    <row r="44" spans="1:7" ht="16">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>9</v>
       </c>
@@ -3303,7 +3302,7 @@
       </c>
       <c r="G44" s="48"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>10</v>
       </c>
@@ -3320,7 +3319,7 @@
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>10</v>
       </c>
@@ -3337,7 +3336,7 @@
       <c r="F46" s="48"/>
       <c r="G46" s="48"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>10</v>
       </c>
@@ -3354,7 +3353,7 @@
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
     </row>
-    <row r="48" spans="1:7" ht="16">
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>11</v>
       </c>
@@ -3373,7 +3372,7 @@
       </c>
       <c r="G48" s="48"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>11</v>
       </c>
@@ -3390,7 +3389,7 @@
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>11</v>
       </c>
@@ -3407,7 +3406,7 @@
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
     </row>
-    <row r="51" spans="1:11" ht="16">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>11</v>
       </c>
@@ -3426,7 +3425,7 @@
       </c>
       <c r="G51" s="48"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>12</v>
       </c>
@@ -3441,7 +3440,7 @@
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>12</v>
       </c>
@@ -3458,7 +3457,7 @@
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>13</v>
       </c>
@@ -3475,7 +3474,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
     </row>
-    <row r="55" spans="1:11" ht="16">
+    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>13</v>
       </c>
@@ -3494,7 +3493,7 @@
       </c>
       <c r="G55" s="48"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>13</v>
       </c>
@@ -3511,7 +3510,7 @@
       <c r="F56" s="48"/>
       <c r="G56" s="48"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>14</v>
       </c>
@@ -3528,7 +3527,7 @@
       <c r="F57" s="48"/>
       <c r="G57" s="48"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>14</v>
       </c>
@@ -3545,7 +3544,7 @@
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>15</v>
       </c>
@@ -3562,7 +3561,7 @@
       <c r="F59" s="49"/>
       <c r="G59" s="49"/>
     </row>
-    <row r="60" spans="1:11" s="18" customFormat="1">
+    <row r="60" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>15</v>
       </c>
@@ -3583,7 +3582,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="17"/>
     </row>
-    <row r="61" spans="1:11" s="18" customFormat="1">
+    <row r="61" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>15</v>
       </c>
@@ -3603,7 +3602,7 @@
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>15</v>
       </c>
@@ -3623,7 +3622,7 @@
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>17</v>
       </c>
@@ -3640,7 +3639,7 @@
       <c r="F63" s="48"/>
       <c r="G63" s="48"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>17</v>
       </c>
@@ -3657,7 +3656,7 @@
       <c r="F64" s="48"/>
       <c r="G64" s="48"/>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>17</v>
       </c>
@@ -3674,7 +3673,7 @@
       <c r="F65" s="48"/>
       <c r="G65" s="48"/>
     </row>
-    <row r="66" spans="1:22" s="8" customFormat="1">
+    <row r="66" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>18</v>
       </c>
@@ -3703,7 +3702,7 @@
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
     </row>
-    <row r="67" spans="1:22" s="8" customFormat="1">
+    <row r="67" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3724,7 +3723,7 @@
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
     </row>
-    <row r="68" spans="1:22" s="8" customFormat="1">
+    <row r="68" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="35" t="s">
         <v>87</v>
@@ -3751,7 +3750,7 @@
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
     </row>
-    <row r="69" spans="1:22" s="8" customFormat="1">
+    <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -3772,7 +3771,7 @@
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
     </row>
-    <row r="70" spans="1:22" s="8" customFormat="1">
+    <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3793,7 +3792,7 @@
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
     </row>
-    <row r="71" spans="1:22" s="8" customFormat="1">
+    <row r="71" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -3814,7 +3813,7 @@
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
     </row>
-    <row r="72" spans="1:22" s="8" customFormat="1">
+    <row r="72" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3835,7 +3834,7 @@
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
     </row>
-    <row r="73" spans="1:22" s="8" customFormat="1">
+    <row r="73" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -3856,7 +3855,7 @@
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
     </row>
-    <row r="74" spans="1:22" s="8" customFormat="1">
+    <row r="74" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3877,7 +3876,7 @@
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
     </row>
-    <row r="75" spans="1:22" s="8" customFormat="1">
+    <row r="75" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -3898,7 +3897,7 @@
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
     </row>
-    <row r="76" spans="1:22" s="8" customFormat="1">
+    <row r="76" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -3919,7 +3918,7 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
     </row>
-    <row r="77" spans="1:22" s="8" customFormat="1">
+    <row r="77" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -3942,7 +3941,7 @@
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
     </row>
-    <row r="78" spans="1:22" s="8" customFormat="1">
+    <row r="78" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3963,7 +3962,7 @@
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
     </row>
-    <row r="79" spans="1:22" s="8" customFormat="1">
+    <row r="79" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3986,7 +3985,7 @@
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
     </row>
-    <row r="80" spans="1:22" s="8" customFormat="1">
+    <row r="80" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -4009,7 +4008,7 @@
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
     </row>
-    <row r="81" spans="1:22" s="8" customFormat="1">
+    <row r="81" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4032,7 +4031,7 @@
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
     </row>
-    <row r="82" spans="1:22" s="8" customFormat="1">
+    <row r="82" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4055,7 +4054,7 @@
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
     </row>
-    <row r="83" spans="1:22" s="8" customFormat="1">
+    <row r="83" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4078,7 +4077,7 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
     </row>
-    <row r="84" spans="1:22" s="8" customFormat="1">
+    <row r="84" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4101,7 +4100,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
     </row>
-    <row r="85" spans="1:22" s="8" customFormat="1">
+    <row r="85" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4124,7 +4123,7 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
     </row>
-    <row r="86" spans="1:22" s="8" customFormat="1">
+    <row r="86" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4147,7 +4146,7 @@
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
     </row>
-    <row r="87" spans="1:22" s="8" customFormat="1">
+    <row r="87" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4168,13 +4167,13 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13"/>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="25"/>
     </row>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97453ACA-E214-45D8-AB9A-5A8D36772033}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -18,11 +19,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$88</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -175,9 +181,6 @@
     <t>RAT: DM</t>
   </si>
   <si>
-    <t>Univariate graphing</t>
-  </si>
-  <si>
     <t>RAT: Bivariate</t>
   </si>
   <si>
@@ -316,18 +319,9 @@
     <t>assign</t>
   </si>
   <si>
-    <t>Identify and differentiate between continuous and categorical data types
-Import data into R using code</t>
-  </si>
-  <si>
     <t>PR Personal Codebook</t>
   </si>
   <si>
-    <t>No School
-Data architecture and entry
-Creating research questions</t>
-  </si>
-  <si>
     <t>hw01 1: Team Formation, Reading, project data</t>
   </si>
   <si>
@@ -338,9 +332,6 @@
   </si>
   <si>
     <t>PR citation assignment</t>
-  </si>
-  <si>
-    <t>PR DM steps</t>
   </si>
   <si>
     <t>Research Proposal</t>
@@ -459,11 +450,6 @@
     <t>Writing about empirical research
 Exam 1 Descriptive Statistics
 Probability</t>
-  </si>
-  <si>
-    <t>RAT on Data Types
-Review of how data is stored in spreadsheets
-Discuss continuous vs categorical data types</t>
   </si>
   <si>
     <t>Import your research data into R. 
@@ -512,11 +498,6 @@
 Describe the distribution of a categorical variable</t>
   </si>
   <si>
-    <t xml:space="preserve">RAT on Univariate numerical data and APA citation styles 
-Discuss how to summarize numerical data using summary statistics, plots and words. 
-We will be working through the course packet section 2.2 </t>
-  </si>
-  <si>
     <t>hw03 Citation Assignment [[HTML]](hw/hw03_citation.html) [[PDF]](hw/hw03_citation.pdf) (Due Sun 9/16 )
 Peer review of Citation assignment (Due Tue 9/18 )
 PS 2.4, 2.5, 2.7 [BBL] (Due Sun 9/16 )
@@ -535,13 +516,6 @@
 Perform basic data management tasks such as creating new variables, renaming and recoding existing variables
 Learn how to create univariate data graphics and summary statistics in R
 Describe the distribution of a single variable in sentence form using summary statistics and pointing out specific features of the graphics as evidence to support your interpretation
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAT on Data Management
-More often than not you will have to do some level of data transformation or cleaning before you can conduct an analysis.
-We will walk through the material in the AS course notes 1.2-1.7 during class. 
-What do -you- need to do to prepare your data for analysis? Start to answer questions in the Data management assignment. 
 </t>
   </si>
   <si>
@@ -610,39 +584,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction to the class, logistics
-Data analysis life cycle
-Reproducible research
-</t>
-  </si>
-  <si>
     <t>Readiness Assurance Test (RAT) on class logistics
 Introduction to the semester long project
 Form support groups and analysis pairs - start to discuss what research topics you want to analyze
 * I want all 4 members of a group to be analyzing different research questions from the same data set</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data Management Assignment [[HTML]](hw/hw04_data_management.html] [[PDF]](hw/hw04_data_management.pdf](Due Sun 9/23 )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Univariate Graphing Assignment (Due Sun 9/23 )</t>
-    </r>
   </si>
   <si>
     <t>[Syllabus](https://norcalbiostat.github.io/MATH315/syllabus_315_f18.html)
@@ -659,15 +604,6 @@
 Lecture notes on [conducting a literature review](https://norcalbiostat.github.io/MATH315/notes.html)
 [Help using the library](http://library.csuchico.edu/help)
 [Connecting to Meriam library from off campus](http://library.csuchico.edu/connecting-off-campus)</t>
-  </si>
-  <si>
-    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
-[PDS Video 8](http://passiondrivenstatistics.com/2016/01/20/r-chapter-8/)
-Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)
-Applied Stats Course Notes [1.2-1.7](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
-Lecture notes on data management prep questions (https://norcalbiostat.github.io/MATH315/notes.html)
-R Cookbook http://www.cookbook-r.com/
-Quick-R http://www.statmethods.net/</t>
   </si>
   <si>
     <t>For Monday
@@ -715,17 +651,80 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>RAT on Data Types (Course packet (CP) 2.1)
+Review of how data is stored in spreadsheets
+Discuss continuous vs categorical data types</t>
+  </si>
+  <si>
+    <t>Identify and differentiate between continuous and categorical data types
+Import data into R using code
+Formulate a testable research hypothesis</t>
+  </si>
+  <si>
+    <t>No School Monday
+Data architecture and entry
+Creating research questions</t>
+  </si>
+  <si>
+    <t>Introduction to the class, logistics
+Data analysis life cycle
+Reproducible research</t>
+  </si>
+  <si>
+    <t>hw05 Univariate graphing</t>
+  </si>
+  <si>
+    <t>PR Data management</t>
+  </si>
+  <si>
+    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
+[PDS Video 8](http://passiondrivenstatistics.com/2016/01/20/r-chapter-8/)
+Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)
+Lecture notes on [data management prep questions](https://norcalbiostat.github.io/MATH315/notes.html)
+Data management example resources
+* Applied Stats Course Notes [1.2-1.7](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
+* [Raw data examples from the data page on my website](https://norcalbiostat.netlify.com/data/raw_data/ ). 
+* [R Cookbook](http://www.cookbook-r.com/)
+* [Quick-R](http://www.statmethods.net/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT on Data Management
+More often than not you will have to do some level of data transformation or cleaning before you can conduct an analysis.
+We will walk through the material in the AS course notes 1.2-1.7 during class. 
+What do -you- need to do to prepare your data for analysis? Start to answer questions in the Data management assignment. 
+Every data set is different. Variables within data sets can be quite different. 
+Your focus should be on identifying what needs to be changed, why does it need to be changed, and what does it need to be changed to. 
+Then you find an example of that particular change and apply it to your current situation. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT on Univariate numerical data
+Discuss how to summarize numerical data using summary statistics, plots and words. 
+We will be working through the course packet section 2.2 </t>
+  </si>
+  <si>
+    <t>Data Management Assignment [[HTML]](hw/hw04_data_management.html) [[PDF]](hw/hw04_data_management.pdf)(Due Sun 9/23 )
+Univariate Graphing Assignment [[HTML]](hw/hw05_ univ_graphing.html)[[PDF]](hw/hw05_ univ_graphing.pdf)(Due Sun 9/23 )</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1020,123 +1019,123 @@
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="77" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="78" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="81" applyFont="1" applyAlignment="1">
@@ -1148,34 +1147,34 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="81" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,126 +1183,130 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -1384,10 +1387,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Percent 2" xfId="52"/>
-    <cellStyle name="Percent 3" xfId="81"/>
+    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Percent 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
     <cellStyle name="Total" xfId="78" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1724,12 +1727,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,28 +1789,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K2" s="1"/>
     </row>
@@ -1820,28 +1823,28 @@
         <v>41884</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G3" s="72" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
@@ -1853,28 +1856,28 @@
         <v>41891</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="55" t="s">
         <v>133</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.25">
@@ -1886,28 +1889,28 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="73" t="s">
-        <v>155</v>
+        <v>138</v>
+      </c>
+      <c r="J5" s="87" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1919,20 +1922,20 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="73" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -1944,22 +1947,22 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="73" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1971,7 +1974,7 @@
         <v>41919</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1980,7 +1983,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="73" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1992,7 +1995,7 @@
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2001,7 +2004,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="73" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2013,7 +2016,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2032,7 +2035,7 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2041,7 +2044,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="73" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2053,7 +2056,7 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2062,7 +2065,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="73" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2074,18 +2077,18 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="72" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="73" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2112,7 +2115,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2121,7 +2124,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="73" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2133,7 +2136,7 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2142,7 +2145,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="73" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2154,7 +2157,7 @@
         <v>41982</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2163,7 +2166,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="73" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2190,11 +2193,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X39" sqref="X39"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,13 +2230,13 @@
         <v>10</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>9</v>
@@ -2277,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>29</v>
@@ -2286,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="8">
         <f>SUMIF($C$2:$C$80,H2,$D$2:$D$80)</f>
@@ -2341,7 +2344,7 @@
         <v>41881</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" s="66" t="s">
         <v>8</v>
@@ -2399,7 +2402,7 @@
         <v>41879</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>29</v>
@@ -2457,7 +2460,7 @@
         <v>41883</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5" s="14"/>
       <c r="L5" s="9" t="s">
@@ -2505,7 +2508,7 @@
         <v>41883</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>13</v>
@@ -2551,7 +2554,7 @@
         <v>1.5</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>8</v>
@@ -2563,7 +2566,7 @@
         <v>41883</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
@@ -2609,10 +2612,10 @@
         <v>1.6</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="21">
         <v>2.5</v>
@@ -2621,7 +2624,7 @@
         <v>41883</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="65" t="s">
         <v>15</v>
@@ -2675,7 +2678,7 @@
         <v>41886</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="6">
         <f>SUM(I2:I8)</f>
@@ -2698,7 +2701,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -2707,7 +2710,7 @@
         <v>41890</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2718,7 +2721,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="13">
         <v>5</v>
@@ -2727,7 +2730,7 @@
         <v>41890</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2738,7 +2741,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="13">
         <v>3</v>
@@ -2747,7 +2750,7 @@
         <v>41890</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2755,7 +2758,7 @@
         <v>2.5</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C13" s="64" t="s">
         <v>15</v>
@@ -2767,10 +2770,10 @@
         <v>41890</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2778,7 +2781,7 @@
         <v>2.6</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C14" s="67" t="s">
         <v>29</v>
@@ -2790,7 +2793,7 @@
         <v>41892</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -2810,7 +2813,7 @@
         <v>41893</v>
       </c>
       <c r="G15" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="81" t="s">
         <v>37</v>
@@ -2825,7 +2828,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="13">
         <v>2</v>
@@ -2834,7 +2837,7 @@
         <v>41897</v>
       </c>
       <c r="G16" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" s="82" t="s">
         <v>39</v>
@@ -2849,7 +2852,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -2858,7 +2861,7 @@
         <v>41897</v>
       </c>
       <c r="G17" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="83" t="s">
         <v>41</v>
@@ -2873,7 +2876,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="13">
         <v>2</v>
@@ -2882,7 +2885,7 @@
         <v>41897</v>
       </c>
       <c r="G18" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="84" t="s">
         <v>43</v>
@@ -2894,7 +2897,7 @@
         <v>3.5</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C19" s="64" t="s">
         <v>15</v>
@@ -2907,7 +2910,7 @@
       </c>
       <c r="F19" s="77"/>
       <c r="G19" s="71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H19" s="85" t="s">
         <v>45</v>
@@ -2919,7 +2922,7 @@
         <v>3.6</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>29</v>
@@ -2931,7 +2934,7 @@
         <v>41899</v>
       </c>
       <c r="G20" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2955,8 +2958,8 @@
       <c r="A22" s="11">
         <v>4.2</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>47</v>
+      <c r="B22" s="86" t="s">
+        <v>155</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>8</v>
@@ -2965,7 +2968,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2973,7 +2976,7 @@
         <v>4.3</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>15</v>
@@ -2989,8 +2992,8 @@
       <c r="A24" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B24" s="56" t="s">
-        <v>100</v>
+      <c r="B24" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="C24" s="58" t="s">
         <v>29</v>
@@ -3007,7 +3010,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>13</v>
@@ -3021,10 +3024,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="13">
         <v>2</v>
@@ -3049,7 +3052,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>14</v>
@@ -3063,10 +3066,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="13">
         <v>2</v>
@@ -3077,7 +3080,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>15</v>
@@ -3091,7 +3094,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>29</v>
@@ -3105,7 +3108,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="63" t="s">
         <v>15</v>
@@ -3119,7 +3122,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="68" t="s">
         <v>29</v>
@@ -3136,7 +3139,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>13</v>
@@ -3150,10 +3153,10 @@
         <v>7</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="13">
         <v>2</v>
@@ -3164,10 +3167,10 @@
         <v>7</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="13">
         <v>5</v>
@@ -3178,10 +3181,10 @@
         <v>7</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" s="13">
         <v>1</v>
@@ -3192,10 +3195,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="13">
         <v>2.5</v>
@@ -3206,10 +3209,10 @@
         <v>7</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39" s="13">
         <v>2</v>
@@ -3220,7 +3223,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>13</v>
@@ -3237,7 +3240,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>14</v>
@@ -3254,7 +3257,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>13</v>
@@ -3271,10 +3274,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="13">
         <v>1</v>
@@ -3298,7 +3301,7 @@
       </c>
       <c r="E44" s="48"/>
       <c r="F44" s="70" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G44" s="48"/>
     </row>
@@ -3307,7 +3310,7 @@
         <v>10</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>13</v>
@@ -3324,10 +3327,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" s="13">
         <v>6</v>
@@ -3341,10 +3344,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" s="13">
         <v>2</v>
@@ -3358,7 +3361,7 @@
         <v>11</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="63" t="s">
         <v>15</v>
@@ -3368,7 +3371,7 @@
       </c>
       <c r="E48" s="48"/>
       <c r="F48" s="70" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G48" s="48"/>
     </row>
@@ -3377,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>13</v>
@@ -3394,7 +3397,7 @@
         <v>11</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="68" t="s">
         <v>29</v>
@@ -3411,7 +3414,7 @@
         <v>11</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="60" t="s">
         <v>8</v>
@@ -3421,7 +3424,7 @@
       </c>
       <c r="E51" s="48"/>
       <c r="F51" s="70" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G51" s="48"/>
     </row>
@@ -3430,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>13</v>
@@ -3445,7 +3448,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" s="60" t="s">
         <v>8</v>
@@ -3462,7 +3465,7 @@
         <v>13</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>13</v>
@@ -3479,7 +3482,7 @@
         <v>13</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="63" t="s">
         <v>15</v>
@@ -3489,7 +3492,7 @@
       </c>
       <c r="E55" s="48"/>
       <c r="F55" s="70" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G55" s="48"/>
     </row>
@@ -3498,7 +3501,7 @@
         <v>13</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="68" t="s">
         <v>29</v>
@@ -3515,7 +3518,7 @@
         <v>14</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="62" t="s">
         <v>15</v>
@@ -3532,7 +3535,7 @@
         <v>14</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="68" t="s">
         <v>29</v>
@@ -3549,7 +3552,7 @@
         <v>15</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="62" t="s">
         <v>15</v>
@@ -3566,7 +3569,7 @@
         <v>15</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="69" t="s">
         <v>29</v>
@@ -3587,7 +3590,7 @@
         <v>15</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>29</v>
@@ -3607,7 +3610,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>13</v>
@@ -3644,7 +3647,7 @@
         <v>17</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>13</v>
@@ -3661,7 +3664,7 @@
         <v>17</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>13</v>
@@ -3678,7 +3681,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>29</v>
@@ -3726,7 +3729,7 @@
     <row r="68" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" s="61" t="s">
         <v>8</v>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97453ACA-E214-45D8-AB9A-5A8D36772033}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9903BC63-6C54-40E1-BB56-FEDC5D509D2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="165">
   <si>
     <t>Finals Week</t>
   </si>
@@ -531,17 +531,6 @@
 * New collaboration tools (hack, slack)
 * Learning Techniques (metacognition, RAT, error assessments, peer reviews)
 * Support structures (tutoring, community coding, slack, TA, OH, Math 130)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We will briefly talk about the issue with factor variables, and data management using the `dplyr` package. 
-The point is to orient you to what you should be looking for, and point you to resources on how to fix the problems you need to fix. 
-It is completely impossible for me to lecture/demonstrate how to fix every single one of the problems you are going to encounter. All I can do is guide you to potential solutions. 
-Today is an open work day for you to finish the two assignments due this week. Take advantage of it, this is a HEAVY coding week and some of you may still be using training wheels. Get as much as you can done in class, and take the weekend off. This has been a HECK of a week! 
-And yes, I anticipate ya'all being pissed off at me by this week because you've hit that wall with coding. This is normal! Yes you really are in a sense teaching yourself how to code. That's how this crap works! I **promise** it will get better after week 5, as long as you make a serious attempt to learn R, **you will** get better and it will get easier. </t>
-  </si>
-  <si>
-    <t>Bivariate Graphics Assignment (Due Sun 9/30 )
-Problem Set 2.8, 2.10</t>
   </si>
   <si>
     <r>
@@ -707,6 +696,41 @@
     <t>Data Management Assignment [[HTML]](hw/hw04_data_management.html) [[PDF]](hw/hw04_data_management.pdf)(Due Sun 9/23 )
 Univariate Graphing Assignment [[HTML]](hw/hw05_ univ_graphing.html)[[PDF]](hw/hw05_ univ_graphing.pdf)(Due Sun 9/23 )</t>
   </si>
+  <si>
+    <t>RAT on Bivariate associations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bivariate Graphics Assignment (Due Sun 9/30 )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Problem Set 2.8, 2.10 (Due Sun 9/30 )</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Recap on probability, hopefully with some exploding kittens. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important pieces to remember about writing empirical research.
+Exam 1 review. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use `dplyr` to calculate grouped summary statistics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will briefly talk about the issue with factor variables, and data management using the `dplyr` package. 
+The point is to orient you to what you should be looking for, and point you to resources on how to fix the problems you need to fix. 
+It is completely impossible for me to lecture/demonstrate how to fix every single one of the problems you are going to encounter. All I can do is guide you to potential solutions. 
+Today is an open work day for you to finish the two assignments due this week. Take advantage of it, this is a HEAVY coding week and some of you may still be using training wheels. Get as much as you can done in class where you can get in person help. </t>
+  </si>
 </sst>
 </file>
 
@@ -715,9 +739,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1019,123 +1050,123 @@
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="77" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="78" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="81" applyFont="1" applyAlignment="1">
@@ -1147,34 +1178,34 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="81" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,130 +1214,133 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -1732,7 +1766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,28 +1823,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>137</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K2" s="1"/>
     </row>
@@ -1823,10 +1857,10 @@
         <v>41884</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>127</v>
@@ -1838,7 +1872,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>126</v>
@@ -1865,13 +1899,13 @@
         <v>128</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>134</v>
@@ -1880,7 +1914,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -1895,22 +1929,22 @@
         <v>135</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>136</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="87" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="J5" s="82" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1925,17 +1959,21 @@
         <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="73" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -1958,11 +1996,17 @@
       <c r="F7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J7" s="73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2016,7 +2060,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2197,7 +2241,7 @@
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2815,10 +2859,10 @@
       <c r="G15" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="81"/>
+      <c r="I15" s="84"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -2839,10 +2883,10 @@
       <c r="G16" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="82" t="s">
+      <c r="H16" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="82"/>
+      <c r="I16" s="85"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -2863,10 +2907,10 @@
       <c r="G17" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="83" t="s">
+      <c r="H17" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="83"/>
+      <c r="I17" s="86"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -2887,10 +2931,10 @@
       <c r="G18" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="84" t="s">
+      <c r="H18" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="84"/>
+      <c r="I18" s="87"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
@@ -2912,10 +2956,10 @@
       <c r="G19" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="85" t="s">
+      <c r="H19" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="85"/>
+      <c r="I19" s="88"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
@@ -2953,13 +2997,16 @@
       <c r="E21" s="47">
         <v>41898</v>
       </c>
+      <c r="G21" s="83" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>4.2</v>
       </c>
-      <c r="B22" s="86" t="s">
-        <v>155</v>
+      <c r="B22" s="81" t="s">
+        <v>153</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>8</v>
@@ -2967,8 +3014,14 @@
       <c r="D22" s="13">
         <v>5</v>
       </c>
+      <c r="E22" s="47">
+        <v>41904</v>
+      </c>
       <c r="F22" s="70" t="s">
         <v>99</v>
+      </c>
+      <c r="G22" s="83" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2976,7 +3029,7 @@
         <v>4.3</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>15</v>
@@ -2986,14 +3039,17 @@
       </c>
       <c r="E23" s="47">
         <v>41904</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B24" s="86" t="s">
-        <v>156</v>
+      <c r="B24" s="81" t="s">
+        <v>154</v>
       </c>
       <c r="C24" s="58" t="s">
         <v>29</v>
@@ -3003,6 +3059,9 @@
       </c>
       <c r="E24" s="47">
         <v>41906</v>
+      </c>
+      <c r="G24" s="83" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9903BC63-6C54-40E1-BB56-FEDC5D509D2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7ED2A2-AC53-4EAF-9122-9202A9A4D116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,22 +439,12 @@
 You will learn how to conduct a literature review without burning yourself out or getting lost</t>
   </si>
   <si>
-    <t>[PDS video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
-Course Packet (CP) section 2.1
-Open Intro (OI) Section 1.2</t>
-  </si>
-  <si>
     <t>(Optional) Error Assessment [PDF]</t>
   </si>
   <si>
     <t>Writing about empirical research
 Exam 1 Descriptive Statistics
 Probability</t>
-  </si>
-  <si>
-    <t>Import your research data into R. 
-Work with your partner to decide on what variables you will be working with. 
-Start the research question assignment</t>
   </si>
   <si>
     <t>Communicate with your partner to decide which research data you want to analyze. 
@@ -475,13 +465,6 @@
 * Course packet  section 2.2, 2.3</t>
   </si>
   <si>
-    <t>Problem set 2.2 (Due Sun 9/9 )
-Data Camp Open Intro - Intro to R [BBL] (Due Sun 9/9 )
-Data Camp Open Intro - Intro to Data [BBL] (Due Sun 9/9 )
-hw02 Research question and codebook assignment [[HTML]](hw/hw02_research_codebook.html)[[PDF]](hw/hw02_research_codebook.html) (Due Sun 9/9 )
-Peer review of research question (Due Tue 9/11 )</t>
-  </si>
-  <si>
     <t>Refining your research question
 Describing univariate numerical data
 Describing univariate categorical data</t>
@@ -496,12 +479,6 @@
 Properly cite relevant research
 Describe the distribution of a quantitative numeric variable
 Describe the distribution of a categorical variable</t>
-  </si>
-  <si>
-    <t>hw03 Citation Assignment [[HTML]](hw/hw03_citation.html) [[PDF]](hw/hw03_citation.pdf) (Due Sun 9/16 )
-Peer review of Citation assignment (Due Tue 9/18 )
-PS 2.4, 2.5, 2.7 [BBL] (Due Sun 9/16 )
-Data Camp: Intro to ggplot (Due Sun 9/16)</t>
   </si>
   <si>
     <t xml:space="preserve">The PDS video 6 uses an R script instead of a RMD file. That's OK. I want you to use a Rmarkdown file. 
@@ -614,6 +591,113 @@
 * Create a `MATH315` folder on your computer in an easy to find spot. Create subfolders for `hw`, `project`</t>
   </si>
   <si>
+    <t>RAT on Data Types (Course packet (CP) 2.1)
+Review of how data is stored in spreadsheets
+Discuss continuous vs categorical data types</t>
+  </si>
+  <si>
+    <t>Identify and differentiate between continuous and categorical data types
+Import data into R using code
+Formulate a testable research hypothesis</t>
+  </si>
+  <si>
+    <t>No School Monday
+Data architecture and entry
+Creating research questions</t>
+  </si>
+  <si>
+    <t>Introduction to the class, logistics
+Data analysis life cycle
+Reproducible research</t>
+  </si>
+  <si>
+    <t>hw05 Univariate graphing</t>
+  </si>
+  <si>
+    <t>PR Data management</t>
+  </si>
+  <si>
+    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
+[PDS Video 8](http://passiondrivenstatistics.com/2016/01/20/r-chapter-8/)
+Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)
+Lecture notes on [data management prep questions](https://norcalbiostat.github.io/MATH315/notes.html)
+Data management example resources
+* Applied Stats Course Notes [1.2-1.7](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
+* [Raw data examples from the data page on my website](https://norcalbiostat.netlify.com/data/raw_data/ ). 
+* [R Cookbook](http://www.cookbook-r.com/)
+* [Quick-R](http://www.statmethods.net/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT on Data Management
+More often than not you will have to do some level of data transformation or cleaning before you can conduct an analysis.
+We will walk through the material in the AS course notes 1.2-1.7 during class. 
+What do -you- need to do to prepare your data for analysis? Start to answer questions in the Data management assignment. 
+Every data set is different. Variables within data sets can be quite different. 
+Your focus should be on identifying what needs to be changed, why does it need to be changed, and what does it need to be changed to. 
+Then you find an example of that particular change and apply it to your current situation. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT on Univariate numerical data
+Discuss how to summarize numerical data using summary statistics, plots and words. 
+We will be working through the course packet section 2.2 </t>
+  </si>
+  <si>
+    <t>Data Management Assignment [[HTML]](hw/hw04_data_management.html) [[PDF]](hw/hw04_data_management.pdf)(Due Sun 9/23 )
+Univariate Graphing Assignment [[HTML]](hw/hw05_ univ_graphing.html)[[PDF]](hw/hw05_ univ_graphing.pdf)(Due Sun 9/23 )</t>
+  </si>
+  <si>
+    <t>RAT on Bivariate associations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bivariate Graphics Assignment (Due Sun 9/30 )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Problem Set 2.8, 2.10 (Due Sun 9/30 )</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Recap on probability, hopefully with some exploding kittens. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important pieces to remember about writing empirical research.
+Exam 1 review. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use `dplyr` to calculate grouped summary statistics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will briefly talk about the issue with factor variables, and data management using the `dplyr` package. 
+The point is to orient you to what you should be looking for, and point you to resources on how to fix the problems you need to fix. 
+It is completely impossible for me to lecture/demonstrate how to fix every single one of the problems you are going to encounter. All I can do is guide you to potential solutions. 
+Today is an open work day for you to finish the two assignments due this week. Take advantage of it, this is a HEAVY coding week and some of you may still be using training wheels. Get as much as you can done in class where you can get in person help. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import your research data into R. -- See Hack MD notes for help and code on importing. 
+Read instructions under **prepare** careful to make sure your data goes in the right folder. 
+Use HackMD to create a shared R code file within the team. 
+Work with your partner to decide on what variables you will be working with. 
+How to conduct a peer review
+Start the research question assignment 
+</t>
+  </si>
+  <si>
+    <t>[PDS video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
+Course Packet (CP) section 2.1
+Open Intro (OI) Section 1.2
+[Collaborative R notes: Importing data into R](https://hackmd.io/Ue0ojg6xRWC4fP3Xg3Tveg)
+[Conducting a peer review](https://norcalbiostat.github.io/MATH315/project.html)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -624,7 +708,7 @@
       </rPr>
       <t>Take [this survey](https://goo.gl/forms/qLBv2jMF6fBv3BTR2) to help me set my OH (Due Thu 8/30 )
 Join our [Slack team](http://math-315.slack.com) and post an `#introduction` (instructions in channel) (Due Sun 9/2 )
-[Data Camp](https://www.datacamp.com/users/sign_in) Intro to R - Intro to Basics Chapter [BBL] (Due Thu 9/6 )
+[Data Camp](https://www.datacamp.com/users/sign_in) Intro to Basics  [BBL] (Due Thu 9/6 )
 Metacognition Awareness Inventory [BBL] (Due Sun 9/2 )
 R Markdown test file (Due Fri 8/31 )
 hw01 Introductions [[HTML]](hw/hw01_introductions.html)[[PDF]](hw/hw01_introductions.pdf)(Due Sun 9/2 )</t>
@@ -641,95 +725,17 @@
     </r>
   </si>
   <si>
-    <t>RAT on Data Types (Course packet (CP) 2.1)
-Review of how data is stored in spreadsheets
-Discuss continuous vs categorical data types</t>
-  </si>
-  <si>
-    <t>Identify and differentiate between continuous and categorical data types
-Import data into R using code
-Formulate a testable research hypothesis</t>
-  </si>
-  <si>
-    <t>No School Monday
-Data architecture and entry
-Creating research questions</t>
-  </si>
-  <si>
-    <t>Introduction to the class, logistics
-Data analysis life cycle
-Reproducible research</t>
-  </si>
-  <si>
-    <t>hw05 Univariate graphing</t>
-  </si>
-  <si>
-    <t>PR Data management</t>
-  </si>
-  <si>
-    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
-[PDS Video 8](http://passiondrivenstatistics.com/2016/01/20/r-chapter-8/)
-Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)
-Lecture notes on [data management prep questions](https://norcalbiostat.github.io/MATH315/notes.html)
-Data management example resources
-* Applied Stats Course Notes [1.2-1.7](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
-* [Raw data examples from the data page on my website](https://norcalbiostat.netlify.com/data/raw_data/ ). 
-* [R Cookbook](http://www.cookbook-r.com/)
-* [Quick-R](http://www.statmethods.net/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAT on Data Management
-More often than not you will have to do some level of data transformation or cleaning before you can conduct an analysis.
-We will walk through the material in the AS course notes 1.2-1.7 during class. 
-What do -you- need to do to prepare your data for analysis? Start to answer questions in the Data management assignment. 
-Every data set is different. Variables within data sets can be quite different. 
-Your focus should be on identifying what needs to be changed, why does it need to be changed, and what does it need to be changed to. 
-Then you find an example of that particular change and apply it to your current situation. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAT on Univariate numerical data
-Discuss how to summarize numerical data using summary statistics, plots and words. 
-We will be working through the course packet section 2.2 </t>
-  </si>
-  <si>
-    <t>Data Management Assignment [[HTML]](hw/hw04_data_management.html) [[PDF]](hw/hw04_data_management.pdf)(Due Sun 9/23 )
-Univariate Graphing Assignment [[HTML]](hw/hw05_ univ_graphing.html)[[PDF]](hw/hw05_ univ_graphing.pdf)(Due Sun 9/23 )</t>
-  </si>
-  <si>
-    <t>RAT on Bivariate associations</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bivariate Graphics Assignment (Due Sun 9/30 )
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Problem Set 2.8, 2.10 (Due Sun 9/30 )</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Recap on probability, hopefully with some exploding kittens. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Important pieces to remember about writing empirical research.
-Exam 1 review. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to use `dplyr` to calculate grouped summary statistics. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We will briefly talk about the issue with factor variables, and data management using the `dplyr` package. 
-The point is to orient you to what you should be looking for, and point you to resources on how to fix the problems you need to fix. 
-It is completely impossible for me to lecture/demonstrate how to fix every single one of the problems you are going to encounter. All I can do is guide you to potential solutions. 
-Today is an open work day for you to finish the two assignments due this week. Take advantage of it, this is a HEAVY coding week and some of you may still be using training wheels. Get as much as you can done in class where you can get in person help. </t>
+    <t>Problem set 2.2 (Due Sun 9/9 )
+Data Camp: Intro to R [BBL] (Due Sun 9/9 )
+Data Camp: Intro to Data [BBL] (Due Sun 9/9 )
+hw02 Research question and codebook assignment [[HTML]](hw/hw02_research_codebook.html)[[PDF]](hw/hw02_research_codebook.html) (Due Sun 9/9 )
+Peer review of research question (Due Tue 9/11 )</t>
+  </si>
+  <si>
+    <t>hw03 Citation Assignment [[HTML]](hw/hw03_citation.html) [[PDF]](hw/hw03_citation.pdf) (Due Sun 9/16 )
+Peer review of Citation assignment (Due Tue 9/18 )
+PS 2.4, 2.5, 2.7 [BBL] (Due Sun 9/16 )
+Data Camp: Introduction (to ggplot) (Due Sun 9/16 )</t>
   </si>
 </sst>
 </file>
@@ -891,7 +897,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,6 +1003,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,7 +1144,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1239,9 +1251,6 @@
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1326,6 +1335,21 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1766,7 +1790,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,12 +1798,12 @@
     <col min="1" max="1" width="8.125" style="38" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="38" customWidth="1"/>
     <col min="3" max="3" width="33.625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="47.625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="45.875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="38" style="45" customWidth="1"/>
-    <col min="10" max="10" width="46.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="47.625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="45.875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="44" customWidth="1"/>
+    <col min="8" max="9" width="38" style="44" customWidth="1"/>
+    <col min="10" max="10" width="46.5" style="44" customWidth="1"/>
     <col min="11" max="16384" width="14.875" style="38"/>
   </cols>
   <sheetData>
@@ -1815,38 +1839,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
+    <row r="2" spans="1:11" s="87" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="83">
         <v>1</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="84">
         <v>41877</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="E2" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K2" s="1"/>
+      <c r="F2" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
@@ -1857,28 +1881,28 @@
         <v>41884</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="71" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>129</v>
+        <v>160</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
@@ -1890,28 +1914,28 @@
         <v>41891</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="345" x14ac:dyDescent="0.25">
@@ -1926,25 +1950,25 @@
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="82" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="J5" s="81" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1959,21 +1983,21 @@
         <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="73" t="s">
-        <v>160</v>
+      <c r="J6" s="72" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -1985,28 +2009,28 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J7" s="73" t="s">
-        <v>138</v>
+        <v>156</v>
+      </c>
+      <c r="J7" s="72" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2026,7 +2050,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="73" t="s">
+      <c r="J8" s="72" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2047,12 +2071,12 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="72" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
+      <c r="A10" s="41">
         <v>9</v>
       </c>
       <c r="B10" s="40">
@@ -2060,7 +2084,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2068,10 +2092,10 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="73"/>
+      <c r="J10" s="72"/>
     </row>
     <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
+      <c r="A11" s="41">
         <v>10</v>
       </c>
       <c r="B11" s="40">
@@ -2087,12 +2111,12 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="73" t="s">
+      <c r="J11" s="72" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+      <c r="A12" s="41">
         <v>11</v>
       </c>
       <c r="B12" s="40">
@@ -2108,12 +2132,12 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="73" t="s">
+      <c r="J12" s="72" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
+      <c r="A13" s="41">
         <v>12</v>
       </c>
       <c r="B13" s="40">
@@ -2126,18 +2150,18 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="71" t="s">
         <v>107</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="72" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43">
         <f t="shared" si="0"/>
         <v>41961</v>
       </c>
@@ -2148,10 +2172,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="74"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
       <c r="B15" s="40">
@@ -2167,12 +2191,12 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="73" t="s">
+      <c r="J15" s="72" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
       <c r="B16" s="40">
@@ -2188,12 +2212,12 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="73" t="s">
+      <c r="J16" s="72" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
       <c r="B17" s="40">
@@ -2209,12 +2233,12 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="73" t="s">
+      <c r="J17" s="72" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="40">
@@ -2250,8 +2274,8 @@
     <col min="2" max="2" width="32.125" style="18" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="19"/>
-    <col min="5" max="5" width="7.625" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.625" style="46" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="10" style="8" customWidth="1"/>
     <col min="10" max="10" width="7.625" style="8"/>
@@ -2378,19 +2402,19 @@
       <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="13">
         <v>2</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <v>41881</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="65" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="8">
@@ -2442,10 +2466,10 @@
       <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <v>41879</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="52" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -2500,10 +2524,10 @@
       <c r="D5" s="13">
         <v>3</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>41883</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="52" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="14"/>
@@ -2548,10 +2572,10 @@
       <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <v>41883</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="52" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2597,19 +2621,19 @@
       <c r="A7" s="11">
         <v>1.5</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="13">
         <v>5</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="46">
         <v>41883</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="51" t="s">
         <v>90</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2655,22 +2679,22 @@
       <c r="A8" s="20">
         <v>1.6</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="21">
         <v>2.5</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="46">
         <v>41883</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="64" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="8">
@@ -2718,10 +2742,10 @@
       <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <v>41886</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="52" t="s">
         <v>90</v>
       </c>
       <c r="I9" s="6">
@@ -2750,10 +2774,10 @@
       <c r="D10" s="13">
         <v>1</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="46">
         <v>41890</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="52" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2764,16 +2788,16 @@
       <c r="B11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="50" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="13">
         <v>5</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="46">
         <v>41890</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="52" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2784,16 +2808,16 @@
       <c r="B12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="50" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="13">
         <v>3</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="46">
         <v>41890</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="52" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2801,22 +2825,22 @@
       <c r="A13" s="11">
         <v>2.5</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="63" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="46">
         <v>41890</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="52" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2824,19 +2848,19 @@
       <c r="A14" s="20">
         <v>2.6</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="66" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="21">
         <v>4</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="46">
         <v>41892</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="52" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2853,16 +2877,16 @@
       <c r="D15" s="13">
         <v>2</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="46">
         <v>41893</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="84" t="s">
+      <c r="H15" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="84"/>
+      <c r="I15" s="88"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -2877,16 +2901,16 @@
       <c r="D16" s="13">
         <v>2</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="46">
         <v>41897</v>
       </c>
-      <c r="G16" s="75" t="s">
+      <c r="G16" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="85" t="s">
+      <c r="H16" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="85"/>
+      <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -2901,16 +2925,16 @@
       <c r="D17" s="13">
         <v>1</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="47">
         <v>41897</v>
       </c>
-      <c r="G17" s="75" t="s">
+      <c r="G17" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="86"/>
+      <c r="I17" s="90"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -2919,65 +2943,65 @@
       <c r="B18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="50" t="s">
         <v>84</v>
       </c>
       <c r="D18" s="13">
         <v>2</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="46">
         <v>41897</v>
       </c>
-      <c r="G18" s="75" t="s">
+      <c r="G18" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="87" t="s">
+      <c r="H18" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="87"/>
+      <c r="I18" s="91"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>3.5</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="63" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="13">
         <v>10</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="46">
         <v>41897</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="71" t="s">
+      <c r="F19" s="76"/>
+      <c r="G19" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="88" t="s">
+      <c r="H19" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="88"/>
+      <c r="I19" s="92"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>3.6</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="79" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="21">
         <v>4</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="75">
         <v>41899</v>
       </c>
-      <c r="G20" s="75" t="s">
+      <c r="G20" s="74" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2994,10 +3018,10 @@
       <c r="D21" s="13">
         <v>2</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="46">
         <v>41898</v>
       </c>
-      <c r="G21" s="83" t="s">
+      <c r="G21" s="82" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3005,22 +3029,22 @@
       <c r="A22" s="11">
         <v>4.2</v>
       </c>
-      <c r="B22" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="60" t="s">
+      <c r="B22" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="13">
         <v>5</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="46">
         <v>41904</v>
       </c>
-      <c r="F22" s="70" t="s">
+      <c r="F22" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="83" t="s">
+      <c r="G22" s="82" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3028,19 +3052,19 @@
       <c r="A23" s="11">
         <v>4.3</v>
       </c>
-      <c r="B23" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="57" t="s">
+      <c r="B23" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="13">
         <v>15</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="46">
         <v>41904</v>
       </c>
-      <c r="G23" s="83" t="s">
+      <c r="G23" s="82" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3048,19 +3072,19 @@
       <c r="A24" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B24" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="58" t="s">
+      <c r="B24" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="13">
         <v>4</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="46">
         <v>41906</v>
       </c>
-      <c r="G24" s="83" t="s">
+      <c r="G24" s="82" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3099,7 +3123,7 @@
       <c r="B27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="13">
@@ -3138,10 +3162,10 @@
       <c r="A30" s="11">
         <v>6</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="13">
@@ -3152,10 +3176,10 @@
       <c r="A31" s="11">
         <v>6</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="67" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="13">
@@ -3169,7 +3193,7 @@
       <c r="B32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="62" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="13">
@@ -3183,15 +3207,15 @@
       <c r="B33" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="67" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="13">
         <v>4</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
@@ -3290,9 +3314,9 @@
       <c r="D40" s="13">
         <v>2</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
@@ -3307,9 +3331,9 @@
       <c r="D41" s="13">
         <v>50</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
@@ -3324,9 +3348,9 @@
       <c r="D42" s="13">
         <v>2</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
@@ -3341,9 +3365,9 @@
       <c r="D43" s="13">
         <v>1</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
@@ -3352,17 +3376,17 @@
       <c r="B44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="13">
         <v>10</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="70" t="s">
+      <c r="E44" s="47"/>
+      <c r="F44" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="48"/>
+      <c r="G44" s="47"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
@@ -3377,9 +3401,9 @@
       <c r="D45" s="13">
         <v>2</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
@@ -3388,15 +3412,15 @@
       <c r="B46" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="50" t="s">
         <v>84</v>
       </c>
       <c r="D46" s="13">
         <v>6</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
@@ -3411,9 +3435,9 @@
       <c r="D47" s="13">
         <v>2</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
@@ -3422,17 +3446,17 @@
       <c r="B48" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="62" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="13">
         <v>20</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="70" t="s">
+      <c r="E48" s="47"/>
+      <c r="F48" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="48"/>
+      <c r="G48" s="47"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
@@ -3447,9 +3471,9 @@
       <c r="D49" s="13">
         <v>2</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
@@ -3458,15 +3482,15 @@
       <c r="B50" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="67" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="13">
         <v>4</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
@@ -3475,17 +3499,17 @@
       <c r="B51" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="13">
         <v>10</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="70" t="s">
+      <c r="E51" s="47"/>
+      <c r="F51" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="48"/>
+      <c r="G51" s="47"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
@@ -3498,9 +3522,9 @@
         <v>13</v>
       </c>
       <c r="D52" s="13"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
@@ -3509,15 +3533,15 @@
       <c r="B53" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="13">
         <v>10</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
@@ -3532,9 +3556,9 @@
       <c r="D54" s="13">
         <v>2</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
@@ -3543,17 +3567,17 @@
       <c r="B55" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="62" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="13">
         <v>20</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="70" t="s">
+      <c r="E55" s="47"/>
+      <c r="F55" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G55" s="48"/>
+      <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
@@ -3562,15 +3586,15 @@
       <c r="B56" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="68" t="s">
+      <c r="C56" s="67" t="s">
         <v>29</v>
       </c>
       <c r="D56" s="13">
         <v>4</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
@@ -3579,15 +3603,15 @@
       <c r="B57" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="13">
         <v>10</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
@@ -3596,15 +3620,15 @@
       <c r="B58" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="68" t="s">
+      <c r="C58" s="67" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="13">
         <v>2</v>
       </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
@@ -3613,15 +3637,15 @@
       <c r="B59" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="13">
         <v>20</v>
       </c>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
     </row>
     <row r="60" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
@@ -3630,15 +3654,15 @@
       <c r="B60" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="69" t="s">
+      <c r="C60" s="68" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="13">
         <v>5</v>
       </c>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
       <c r="H60" s="7"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -3657,9 +3681,9 @@
       <c r="D61" s="13">
         <v>5</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
@@ -3677,9 +3701,9 @@
       <c r="D62" s="13">
         <v>5</v>
       </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
       <c r="H62" s="18"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
@@ -3697,9 +3721,9 @@
       <c r="D63" s="13">
         <v>50</v>
       </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
@@ -3714,9 +3738,9 @@
       <c r="D64" s="13">
         <v>2</v>
       </c>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
@@ -3731,9 +3755,9 @@
       <c r="D65" s="13">
         <v>1</v>
       </c>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
     </row>
     <row r="66" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
@@ -3748,9 +3772,9 @@
       <c r="D66" s="13">
         <v>10</v>
       </c>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
       <c r="H66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -3769,9 +3793,9 @@
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="13"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
       <c r="H67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
@@ -3790,15 +3814,15 @@
       <c r="B68" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="61" t="s">
+      <c r="C68" s="60" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="13">
         <v>5</v>
       </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
       <c r="H68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -3817,9 +3841,9 @@
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="13"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
       <c r="H69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -3838,9 +3862,9 @@
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="13"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
       <c r="H70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -3859,9 +3883,9 @@
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="13"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
       <c r="H71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
@@ -3880,9 +3904,9 @@
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="13"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
       <c r="H72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -3901,9 +3925,9 @@
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="13"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
       <c r="H73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
@@ -3922,9 +3946,9 @@
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
       <c r="H74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -3943,9 +3967,9 @@
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="13"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
       <c r="H75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -3964,9 +3988,9 @@
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="13"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
       <c r="H76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -3985,9 +4009,9 @@
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="13"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -4008,9 +4032,9 @@
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
       <c r="H78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -4029,9 +4053,9 @@
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="13"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -4052,9 +4076,9 @@
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="13"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
@@ -4075,9 +4099,9 @@
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="13"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
@@ -4098,9 +4122,9 @@
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="13"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -4121,9 +4145,9 @@
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="13"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -4144,9 +4168,9 @@
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="13"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -4167,9 +4191,9 @@
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="13"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -4190,9 +4214,9 @@
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="13"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -4213,9 +4237,9 @@
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="13"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
       <c r="H87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7ED2A2-AC53-4EAF-9122-9202A9A4D116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07FD6CC-C4AE-49E5-ABD6-8D7A12D45995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,34 +617,9 @@
     <t>PR Data management</t>
   </si>
   <si>
-    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
-[PDS Video 8](http://passiondrivenstatistics.com/2016/01/20/r-chapter-8/)
-Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)
-Lecture notes on [data management prep questions](https://norcalbiostat.github.io/MATH315/notes.html)
-Data management example resources
-* Applied Stats Course Notes [1.2-1.7](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
-* [Raw data examples from the data page on my website](https://norcalbiostat.netlify.com/data/raw_data/ ). 
-* [R Cookbook](http://www.cookbook-r.com/)
-* [Quick-R](http://www.statmethods.net/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAT on Data Management
-More often than not you will have to do some level of data transformation or cleaning before you can conduct an analysis.
-We will walk through the material in the AS course notes 1.2-1.7 during class. 
-What do -you- need to do to prepare your data for analysis? Start to answer questions in the Data management assignment. 
-Every data set is different. Variables within data sets can be quite different. 
-Your focus should be on identifying what needs to be changed, why does it need to be changed, and what does it need to be changed to. 
-Then you find an example of that particular change and apply it to your current situation. 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">RAT on Univariate numerical data
 Discuss how to summarize numerical data using summary statistics, plots and words. 
 We will be working through the course packet section 2.2 </t>
-  </si>
-  <si>
-    <t>Data Management Assignment [[HTML]](hw/hw04_data_management.html) [[PDF]](hw/hw04_data_management.pdf)(Due Sun 9/23 )
-Univariate Graphing Assignment [[HTML]](hw/hw05_ univ_graphing.html)[[PDF]](hw/hw05_ univ_graphing.pdf)(Due Sun 9/23 )</t>
   </si>
   <si>
     <t>RAT on Bivariate associations</t>
@@ -674,12 +649,6 @@
   </si>
   <si>
     <t xml:space="preserve">How to use `dplyr` to calculate grouped summary statistics. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We will briefly talk about the issue with factor variables, and data management using the `dplyr` package. 
-The point is to orient you to what you should be looking for, and point you to resources on how to fix the problems you need to fix. 
-It is completely impossible for me to lecture/demonstrate how to fix every single one of the problems you are going to encounter. All I can do is guide you to potential solutions. 
-Today is an open work day for you to finish the two assignments due this week. Take advantage of it, this is a HEAVY coding week and some of you may still be using training wheels. Get as much as you can done in class where you can get in person help. </t>
   </si>
   <si>
     <t xml:space="preserve">Import your research data into R. -- See Hack MD notes for help and code on importing. 
@@ -736,6 +705,30 @@
 Peer review of Citation assignment (Due Tue 9/18 )
 PS 2.4, 2.5, 2.7 [BBL] (Due Sun 9/16 )
 Data Camp: Introduction (to ggplot) (Due Sun 9/16 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT on Data Management
+More often than not you will have to do some level of data transformation or cleaning before you can conduct an analysis.
+What do -you- need to do to prepare your data for analysis? Start to answer questions in the Data management assignment. 
+Every data set is different. Variables within data sets can be quite different. 
+Your focus should be on identifying what needs to be changed, why does it need to be changed, and what does it need to be changed to. 
+Then you find an example of that particular change and apply it to your current situation. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will briefly talk about the issue with factor variables, and data management using the `dplyr` package. 
+The point is to orient you to what you should be looking for, and point you to resources on how to fix the problems you need to fix. 
+It is completely impossible for me to lecture/demonstrate how to fix every single one of the problems you are going to encounter. All I can do is guide you to potential solutions. </t>
+  </si>
+  <si>
+    <t>Data Management Assignment [[HTML]](hw/hw04_data_management.html) [[PDF]](hw/hw04_data_management.pdf) (Draft due Sun 9/23 ) (PR due Tue 9/25 ) (Final due Thu 9/27 )
+Univariate Graphing Assignment [[HTML]](hw/hw05_univ_graphing.html)[[PDF]](hw/hw05_univ_graphing.pdf) (Draft due Sun 9/23 ) (PR due Tue 9/25 ) (Final due Thu 9/27 )</t>
+  </si>
+  <si>
+    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
+[PDS Video 8](http://passiondrivenstatistics.com/2016/01/20/r-chapter-8/)
+Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)
+Lecture notes on [data management prep questions](https://norcalbiostat.github.io/MATH315/notes.html)</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1783,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,7 +1861,7 @@
         <v>139</v>
       </c>
       <c r="J2" s="85" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K2" s="85"/>
     </row>
@@ -1890,7 +1883,7 @@
         <v>125</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G3" s="71" t="s">
         <v>23</v>
@@ -1899,10 +1892,10 @@
         <v>144</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
@@ -1929,16 +1922,16 @@
         <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>130</v>
       </c>
       <c r="J4" s="54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="345" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -1956,19 +1949,19 @@
         <v>136</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J5" s="81" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1990,14 +1983,14 @@
         <v>120</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="72" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -2021,13 +2014,13 @@
         <v>123</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J7" s="72" t="s">
         <v>134</v>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07FD6CC-C4AE-49E5-ABD6-8D7A12D45995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C687C220-2E4A-42D4-AC1F-5530504FCB5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,14 +488,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain why data preparation takes the majority of your time, but is crucially important
-Identify mistakes and missing data in data using tables and summaries
-Perform basic data management tasks such as creating new variables, renaming and recoding existing variables
-Learn how to create univariate data graphics and summary statistics in R
-Describe the distribution of a single variable in sentence form using summary statistics and pointing out specific features of the graphics as evidence to support your interpretation
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">We already talked about what visualizations are appropriate to create for different quantitative and categorical variable types last week. 
 Now it's time to build them in R. 
 After a quick recap on how to use ggplot syntax, and where you can find resources you're on your own to work with your team on the Univariate graphing assignment. </t>
@@ -729,6 +721,13 @@
 [PDS Video 8](http://passiondrivenstatistics.com/2016/01/20/r-chapter-8/)
 Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)
 Lecture notes on [data management prep questions](https://norcalbiostat.github.io/MATH315/notes.html)</t>
+  </si>
+  <si>
+    <t>Explain why data preparation takes the majority of your time, but is crucially important
+Identify mistakes and missing data in data using tables and summaries
+Perform basic data management tasks such as creating new variables, renaming and recoding existing variables
+Learn how to create univariate data graphics and summary statistics in R
+Describe the distribution of a single variable in sentence form using summary statistics and pointing out specific features of the graphics as evidence to support your interpretation</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1782,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,28 +1839,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="85" t="s">
         <v>88</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" s="85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I2" s="85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J2" s="85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K2" s="85"/>
     </row>
@@ -1874,28 +1873,28 @@
         <v>41884</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" s="71" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
@@ -1916,19 +1915,19 @@
         <v>126</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>130</v>
       </c>
       <c r="J4" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
@@ -1943,25 +1942,25 @@
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="81" t="s">
         <v>162</v>
-      </c>
-      <c r="J5" s="81" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1976,21 +1975,21 @@
         <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -2014,16 +2013,16 @@
         <v>123</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J7" s="72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2077,7 +2076,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3023,7 +3022,7 @@
         <v>4.2</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="59" t="s">
         <v>8</v>
@@ -3046,7 +3045,7 @@
         <v>4.3</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="56" t="s">
         <v>15</v>
@@ -3066,7 +3065,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B24" s="80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>29</v>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C687C220-2E4A-42D4-AC1F-5530504FCB5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$88</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -733,7 +732,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
@@ -1136,7 +1135,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1277,9 +1276,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1357,6 +1353,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -1437,10 +1439,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Percent 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 2" xfId="51"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Percent 2" xfId="52"/>
+    <cellStyle name="Percent 3" xfId="81"/>
     <cellStyle name="Total" xfId="78" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1777,12 +1779,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,102 +1833,102 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="87" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="83">
+    <row r="2" spans="1:11" s="86" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="82">
         <v>1</v>
       </c>
-      <c r="B2" s="84">
+      <c r="B2" s="83">
         <v>41877</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="85"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="A3" s="82">
         <v>2</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="83">
         <f t="shared" ref="B3:B18" si="0">B2+7</f>
         <v>41884</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="93" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="A4" s="82">
         <v>3</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="83">
         <f t="shared" si="0"/>
         <v>41891</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="93" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1959,7 +1961,7 @@
       <c r="I5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="80" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1988,7 +1990,7 @@
         <v>154</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="71" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2021,7 +2023,7 @@
       <c r="I7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="71" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2042,7 +2044,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="71" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2063,7 +2065,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="71" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2084,7 +2086,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="72"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -2103,7 +2105,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="71" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2124,7 +2126,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="71" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2142,12 +2144,12 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="70" t="s">
         <v>107</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="71" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2164,7 +2166,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="73"/>
+      <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
@@ -2183,7 +2185,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="71" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2204,7 +2206,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="71" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2225,7 +2227,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="71" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2253,7 +2255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2394,7 +2396,7 @@
       <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="13">
@@ -2406,7 +2408,7 @@
       <c r="G3" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="64" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="8">
@@ -2613,10 +2615,10 @@
       <c r="A7" s="11">
         <v>1.5</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="13">
@@ -2686,7 +2688,7 @@
       <c r="G8" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="63" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="8">
@@ -2817,10 +2819,10 @@
       <c r="A13" s="11">
         <v>2.5</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="62" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="13">
@@ -2829,7 +2831,7 @@
       <c r="E13" s="46">
         <v>41890</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="68" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
@@ -2843,7 +2845,7 @@
       <c r="B14" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="65" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="21">
@@ -2872,13 +2874,13 @@
       <c r="E15" s="46">
         <v>41893</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="88" t="s">
+      <c r="H15" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="88"/>
+      <c r="I15" s="87"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -2896,13 +2898,13 @@
       <c r="E16" s="46">
         <v>41897</v>
       </c>
-      <c r="G16" s="74" t="s">
+      <c r="G16" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="89" t="s">
+      <c r="H16" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="89"/>
+      <c r="I16" s="88"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -2920,13 +2922,13 @@
       <c r="E17" s="47">
         <v>41897</v>
       </c>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="90" t="s">
+      <c r="H17" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="90"/>
+      <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -2944,22 +2946,22 @@
       <c r="E18" s="46">
         <v>41897</v>
       </c>
-      <c r="G18" s="74" t="s">
+      <c r="G18" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="91" t="s">
+      <c r="H18" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="91"/>
+      <c r="I18" s="90"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>3.5</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="62" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="13">
@@ -2968,32 +2970,32 @@
       <c r="E19" s="46">
         <v>41897</v>
       </c>
-      <c r="F19" s="76"/>
-      <c r="G19" s="70" t="s">
+      <c r="F19" s="75"/>
+      <c r="G19" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="92" t="s">
+      <c r="H19" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="92"/>
+      <c r="I19" s="91"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>3.6</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="78" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="21">
         <v>4</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="74">
         <v>41899</v>
       </c>
-      <c r="G20" s="74" t="s">
+      <c r="G20" s="73" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3013,7 +3015,7 @@
       <c r="E21" s="46">
         <v>41898</v>
       </c>
-      <c r="G21" s="82" t="s">
+      <c r="G21" s="81" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3021,10 +3023,10 @@
       <c r="A22" s="11">
         <v>4.2</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="13">
@@ -3033,10 +3035,10 @@
       <c r="E22" s="46">
         <v>41904</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="82" t="s">
+      <c r="G22" s="81" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3044,10 +3046,10 @@
       <c r="A23" s="11">
         <v>4.3</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="13">
@@ -3056,7 +3058,7 @@
       <c r="E23" s="46">
         <v>41904</v>
       </c>
-      <c r="G23" s="82" t="s">
+      <c r="G23" s="81" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3064,10 +3066,10 @@
       <c r="A24" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="56" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="13">
@@ -3076,7 +3078,7 @@
       <c r="E24" s="46">
         <v>41906</v>
       </c>
-      <c r="G24" s="82" t="s">
+      <c r="G24" s="81" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3115,7 +3117,7 @@
       <c r="B27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="13">
@@ -3154,10 +3156,10 @@
       <c r="A30" s="11">
         <v>6</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="13">
@@ -3168,10 +3170,10 @@
       <c r="A31" s="11">
         <v>6</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="66" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="13">
@@ -3185,7 +3187,7 @@
       <c r="B32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="13">
@@ -3199,7 +3201,7 @@
       <c r="B33" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="66" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="13">
@@ -3368,14 +3370,14 @@
       <c r="B44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="13">
         <v>10</v>
       </c>
       <c r="E44" s="47"/>
-      <c r="F44" s="69" t="s">
+      <c r="F44" s="68" t="s">
         <v>99</v>
       </c>
       <c r="G44" s="47"/>
@@ -3438,14 +3440,14 @@
       <c r="B48" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="13">
         <v>20</v>
       </c>
       <c r="E48" s="47"/>
-      <c r="F48" s="69" t="s">
+      <c r="F48" s="68" t="s">
         <v>99</v>
       </c>
       <c r="G48" s="47"/>
@@ -3474,7 +3476,7 @@
       <c r="B50" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="66" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="13">
@@ -3491,14 +3493,14 @@
       <c r="B51" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="13">
         <v>10</v>
       </c>
       <c r="E51" s="47"/>
-      <c r="F51" s="69" t="s">
+      <c r="F51" s="68" t="s">
         <v>99</v>
       </c>
       <c r="G51" s="47"/>
@@ -3525,7 +3527,7 @@
       <c r="B53" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="13">
@@ -3559,14 +3561,14 @@
       <c r="B55" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="13">
         <v>20</v>
       </c>
       <c r="E55" s="47"/>
-      <c r="F55" s="69" t="s">
+      <c r="F55" s="68" t="s">
         <v>99</v>
       </c>
       <c r="G55" s="47"/>
@@ -3578,7 +3580,7 @@
       <c r="B56" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="66" t="s">
         <v>29</v>
       </c>
       <c r="D56" s="13">
@@ -3595,7 +3597,7 @@
       <c r="B57" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="60" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="13">
@@ -3612,7 +3614,7 @@
       <c r="B58" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="67" t="s">
+      <c r="C58" s="66" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="13">
@@ -3629,7 +3631,7 @@
       <c r="B59" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="60" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="13">
@@ -3646,7 +3648,7 @@
       <c r="B60" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="67" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="13">
@@ -3806,7 +3808,7 @@
       <c r="B68" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="60" t="s">
+      <c r="C68" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="13">

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EC4BBC-9EA3-4879-9D46-1350E70EF043}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$90</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="168">
   <si>
     <t>Finals Week</t>
   </si>
@@ -85,9 +86,6 @@
   </si>
   <si>
     <t>Project</t>
-  </si>
-  <si>
-    <t>Bivariate graphing</t>
   </si>
   <si>
     <t>Bivariate Inference</t>
@@ -423,9 +421,6 @@
     <t>Data cleaning
 Data visualization
 Open work day</t>
-  </si>
-  <si>
-    <t>Week 3 &amp; 4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)</t>
   </si>
   <si>
     <t>Reading:
@@ -499,22 +494,6 @@
 * New collaboration tools (hack, slack)
 * Learning Techniques (metacognition, RAT, error assessments, peer reviews)
 * Support structures (tutoring, community coding, slack, TA, OH, Math 130)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Research Proposal (Due Sun 10/7 )
-Peer Review Research Proposal (Due Tue 10/9 )
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Error Assessment (Due Fri 10/26 )</t>
-    </r>
   </si>
   <si>
     <t>hw04 data management</t>
@@ -613,33 +592,11 @@
 We will be working through the course packet section 2.2 </t>
   </si>
   <si>
-    <t>RAT on Bivariate associations</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bivariate Graphics Assignment (Due Sun 9/30 )
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Problem Set 2.8, 2.10 (Due Sun 9/30 )</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Recap on probability, hopefully with some exploding kittens. </t>
   </si>
   <si>
     <t xml:space="preserve">Important pieces to remember about writing empirical research.
 Exam 1 review. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to use `dplyr` to calculate grouped summary statistics. </t>
   </si>
   <si>
     <t xml:space="preserve">Import your research data into R. -- See Hack MD notes for help and code on importing. 
@@ -716,29 +673,81 @@
 Univariate Graphing Assignment [[HTML]](hw/hw05_univ_graphing.html)[[PDF]](hw/hw05_univ_graphing.pdf) (Draft due Sun 9/23 ) (PR due Tue 9/25 ) (Final due Thu 9/27 )</t>
   </si>
   <si>
-    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
-[PDS Video 8](http://passiondrivenstatistics.com/2016/01/20/r-chapter-8/)
-Week 2-4 from [[Math 130]](https://norcalbiostat.github.io/MATH130/)
-Lecture notes on [data management prep questions](https://norcalbiostat.github.io/MATH315/notes.html)</t>
-  </si>
-  <si>
     <t>Explain why data preparation takes the majority of your time, but is crucially important
 Identify mistakes and missing data in data using tables and summaries
 Perform basic data management tasks such as creating new variables, renaming and recoding existing variables
 Learn how to create univariate data graphics and summary statistics in R
 Describe the distribution of a single variable in sentence form using summary statistics and pointing out specific features of the graphics as evidence to support your interpretation</t>
   </si>
+  <si>
+    <t>[PDS Video 7](http://passiondrivenstatistics.com/2016/01/08/r-chapter-7/)
+[PDS Video 8](http://passiondrivenstatistics.com/2016/01/20/r-chapter-8/)
+Applied Stats Course Notes [Chapter 1, 2](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)
+Lecture notes on [data management prep questions](https://norcalbiostat.github.io/MATH315/notes.html)</t>
+  </si>
+  <si>
+    <t>Applied Stats Course Notes [Chapter 2](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)</t>
+  </si>
+  <si>
+    <t>RAT on Bivariate associations
+Overview of Homework
+Discuss C~C and Q~Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss associations between quantitative and categorical variables
+How to use `dplyr` to calculate grouped summary statistics. </t>
+  </si>
+  <si>
+    <t>open work day</t>
+  </si>
+  <si>
+    <t>Research Proposal (Due Sun 10/7 ) (PR Due Tue 10/9 ) (Final due Thu 10/11 )
+Poster Prep Stage I (Due Sun 10/7 ) (PR Due Tue 10/9 ) (Final due Thu 10/11 )
+Error Assessment (Due Fri 10/26 )</t>
+  </si>
+  <si>
+    <t>PR Univariate Graphing</t>
+  </si>
+  <si>
+    <t>hw06 Bivariate graphing</t>
+  </si>
+  <si>
+    <t>PR bivariate graphing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bivariate Graphics Assignment (Due Sun 9/30 ) (PR Due Tue 10/2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Problem Set 2.8, 2.10 (Due Sun 9/30 )</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1053,123 +1062,123 @@
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="77" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="78" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="81" applyFont="1" applyAlignment="1">
@@ -1181,34 +1190,34 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="81" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1217,148 +1226,160 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -1439,10 +1460,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Percent 2" xfId="52"/>
-    <cellStyle name="Percent 3" xfId="81"/>
+    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Percent 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
     <cellStyle name="Total" xfId="78" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1779,12 +1800,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,13 +1842,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>22</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>7</v>
@@ -1841,28 +1862,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F2" s="84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I2" s="84" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J2" s="84" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K2" s="84"/>
     </row>
@@ -1875,28 +1896,28 @@
         <v>41884</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="92" t="s">
-        <v>23</v>
+        <v>150</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="84" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I3" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="J3" s="93" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="J3" s="88" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
@@ -1908,28 +1929,28 @@
         <v>41891</v>
       </c>
       <c r="C4" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="84" t="s">
-        <v>129</v>
-      </c>
       <c r="E4" s="84" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="J4" s="93" t="s">
-        <v>159</v>
+        <v>128</v>
+      </c>
+      <c r="J4" s="88" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
@@ -1941,28 +1962,28 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J5" s="80" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1974,24 +1995,26 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J6" s="71" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -2003,28 +2026,28 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2036,7 +2059,7 @@
         <v>41919</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2045,7 +2068,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2057,7 +2080,7 @@
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2066,7 +2089,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2078,7 +2101,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2097,7 +2120,7 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2106,7 +2129,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2118,7 +2141,7 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2127,7 +2150,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2139,18 +2162,18 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2177,7 +2200,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2186,7 +2209,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2198,7 +2221,7 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2207,7 +2230,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2219,7 +2242,7 @@
         <v>41982</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2228,7 +2251,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2255,11 +2278,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,7 +2303,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -2292,13 +2315,13 @@
         <v>10</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>9</v>
@@ -2342,27 +2365,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="13">
         <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="8">
-        <f>SUMIF($C$2:$C$80,H2,$D$2:$D$80)</f>
+        <f>SUMIF($C$2:$C$82,H2,$D$2:$D$82)</f>
         <v>42</v>
       </c>
       <c r="J2" s="14">
         <f t="shared" ref="J2:J8" si="0">I2/$I$9</f>
-        <v>8.7136929460580909E-2</v>
+        <v>8.5889570552147243E-2</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="9">
         <v>16</v>
@@ -2371,7 +2394,7 @@
         <v>3.9506172839506172E-2</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="26">
         <v>20</v>
@@ -2380,7 +2403,7 @@
         <v>4.3956043956043959E-2</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U2" s="10">
         <v>14</v>
@@ -2394,7 +2417,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>8</v>
@@ -2406,18 +2429,18 @@
         <v>41881</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H3" s="64" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="8">
-        <f>SUMIF($C$2:$C$80,H3,$D$2:$D$80)</f>
+        <f>SUMIF($C$2:$C$82,H3,$D$2:$D$82)</f>
         <v>52</v>
       </c>
       <c r="J3" s="14">
         <f t="shared" si="0"/>
-        <v>0.1078838174273859</v>
+        <v>0.10633946830265849</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>8</v>
@@ -2429,7 +2452,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="26">
         <v>100</v>
@@ -2438,7 +2461,7 @@
         <v>0.21978021978021978</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U3" s="10">
         <v>99</v>
@@ -2452,7 +2475,7 @@
         <v>1.2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>13</v>
@@ -2464,21 +2487,21 @@
         <v>41879</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="8">
-        <f>SUMIF($C$2:$C$80,H4,$D$2:$D$80)</f>
-        <v>64</v>
+        <f>SUMIF($C$2:$C$82,H4,$D$2:$D$82)</f>
+        <v>71</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>0.13278008298755187</v>
+        <v>0.14519427402862986</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" s="9">
         <v>40</v>
@@ -2487,7 +2510,7 @@
         <v>9.8765432098765427E-2</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="26">
         <v>25</v>
@@ -2496,7 +2519,7 @@
         <v>5.4945054945054944E-2</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U4" s="10">
         <v>20</v>
@@ -2513,7 +2536,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>3</v>
@@ -2522,11 +2545,11 @@
         <v>41883</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="14"/>
       <c r="L5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="9">
         <v>26</v>
@@ -2544,7 +2567,7 @@
         <v>2.197802197802198E-2</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U5" s="10">
         <v>32</v>
@@ -2558,7 +2581,7 @@
         <v>1.4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>13</v>
@@ -2570,18 +2593,18 @@
         <v>41883</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="8">
-        <f>SUMIF($C$2:$C$80,H6,$D$2:$D$80)</f>
+        <f>SUMIF($C$2:$C$82,H6,$D$2:$D$82)</f>
         <v>29</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="0"/>
-        <v>6.0165975103734441E-2</v>
+        <v>5.9304703476482618E-2</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>13</v>
@@ -2616,7 +2639,7 @@
         <v>1.5</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>8</v>
@@ -2628,18 +2651,18 @@
         <v>41883</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="8">
-        <f>SUMIF($C$2:$C$80,H7,$D$2:$D$80)</f>
+        <f>SUMIF($C$2:$C$82,H7,$D$2:$D$82)</f>
         <v>150</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="0"/>
-        <v>0.31120331950207469</v>
+        <v>0.30674846625766872</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>14</v>
@@ -2674,10 +2697,10 @@
         <v>1.6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="21">
         <v>2.5</v>
@@ -2686,18 +2709,18 @@
         <v>41883</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="8">
-        <f>SUMIF($C$2:$C$80,H8,$D$2:$D$80)</f>
+        <f>SUMIF($C$2:$C$82,H8,$D$2:$D$82)</f>
         <v>145</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" si="0"/>
-        <v>0.30082987551867219</v>
+        <v>0.29652351738241312</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>15</v>
@@ -2728,7 +2751,7 @@
         <v>2.1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
@@ -2740,11 +2763,11 @@
         <v>41886</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="6">
         <f>SUM(I2:I8)</f>
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="M9" s="8">
         <v>405</v>
@@ -2760,10 +2783,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -2772,7 +2795,7 @@
         <v>41890</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2780,10 +2803,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="13">
         <v>5</v>
@@ -2792,7 +2815,7 @@
         <v>41890</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2800,10 +2823,10 @@
         <v>2.4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="13">
         <v>3</v>
@@ -2812,7 +2835,7 @@
         <v>41890</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2820,7 +2843,7 @@
         <v>2.5</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>15</v>
@@ -2832,10 +2855,10 @@
         <v>41890</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2843,10 +2866,10 @@
         <v>2.6</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="21">
         <v>4</v>
@@ -2855,7 +2878,7 @@
         <v>41892</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -2863,7 +2886,7 @@
         <v>3.1</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>13</v>
@@ -2875,22 +2898,22 @@
         <v>41893</v>
       </c>
       <c r="G15" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="H15" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="89"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>3.2</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="13">
         <v>2</v>
@@ -2899,22 +2922,22 @@
         <v>41897</v>
       </c>
       <c r="G16" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="88"/>
+        <v>89</v>
+      </c>
+      <c r="H16" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="90"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>3.3</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -2923,22 +2946,22 @@
         <v>41897</v>
       </c>
       <c r="G17" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="89"/>
+        <v>89</v>
+      </c>
+      <c r="H17" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="91"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>3.4</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="13">
         <v>2</v>
@@ -2947,19 +2970,19 @@
         <v>41897</v>
       </c>
       <c r="G18" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="90"/>
+        <v>89</v>
+      </c>
+      <c r="H18" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="92"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>3.5</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="62" t="s">
         <v>15</v>
@@ -2972,22 +2995,22 @@
       </c>
       <c r="F19" s="75"/>
       <c r="G19" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="91"/>
+        <v>89</v>
+      </c>
+      <c r="H19" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="93"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>3.6</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="21">
         <v>4</v>
@@ -2996,7 +3019,7 @@
         <v>41899</v>
       </c>
       <c r="G20" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3004,7 +3027,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>13</v>
@@ -3016,7 +3039,7 @@
         <v>41898</v>
       </c>
       <c r="G21" s="81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3024,7 +3047,7 @@
         <v>4.2</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>8</v>
@@ -3036,156 +3059,186 @@
         <v>41904</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="81" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>4.3</v>
       </c>
-      <c r="B23" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>15</v>
+      <c r="B23" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>28</v>
       </c>
       <c r="D23" s="13">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E23" s="46">
-        <v>41904</v>
-      </c>
-      <c r="G23" s="81" t="s">
-        <v>90</v>
+        <v>41906</v>
+      </c>
+      <c r="F23" s="68"/>
+      <c r="G23" s="97" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B24" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>29</v>
+      <c r="B24" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>15</v>
       </c>
       <c r="D24" s="13">
+        <v>15</v>
+      </c>
+      <c r="E24" s="46">
+        <v>41904</v>
+      </c>
+      <c r="G24" s="81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="21">
         <v>4</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E25" s="74">
         <v>41906</v>
       </c>
-      <c r="G24" s="81" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>5</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="13">
-        <v>2</v>
+      <c r="F25" s="74"/>
+      <c r="G25" s="96" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D26" s="13">
         <v>2</v>
       </c>
+      <c r="E26" s="46">
+        <v>41905</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D27" s="13">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E27" s="46">
+        <v>41911</v>
+      </c>
+      <c r="G27" s="97" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>6</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>14</v>
+        <v>5.3</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>8</v>
       </c>
       <c r="D28" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>6</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="13">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E28" s="46">
+        <v>41911</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
+        <v>5.4</v>
+      </c>
+      <c r="B29" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="21">
+        <v>4</v>
+      </c>
+      <c r="E29" s="74">
+        <v>41913</v>
+      </c>
+      <c r="F29" s="74"/>
+      <c r="G29" s="99" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>6</v>
       </c>
-      <c r="B30" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>15</v>
+      <c r="B30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="D30" s="13">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="E30" s="46">
+        <v>41914</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>6</v>
       </c>
-      <c r="B31" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>29</v>
+      <c r="B31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D31" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>6</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>51</v>
+      <c r="B32" s="54" t="s">
+        <v>96</v>
       </c>
       <c r="C32" s="61" t="s">
         <v>15</v>
@@ -3198,59 +3251,59 @@
       <c r="A33" s="11">
         <v>6</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>52</v>
+      <c r="B33" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="13">
         <v>4</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="D34" s="13">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>84</v>
+        <v>51</v>
+      </c>
+      <c r="C35" s="66" t="s">
+        <v>28</v>
       </c>
       <c r="D35" s="13">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>7</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D36" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3258,13 +3311,13 @@
         <v>7</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3272,13 +3325,13 @@
         <v>7</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="13">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3286,55 +3339,49 @@
         <v>7</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D40" s="13">
-        <v>2</v>
-      </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D41" s="13">
-        <v>50</v>
-      </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>13</v>
@@ -3348,72 +3395,72 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="D43" s="13">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E43" s="47"/>
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>9</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D44" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E44" s="47"/>
-      <c r="F44" s="68" t="s">
-        <v>99</v>
-      </c>
+      <c r="F44" s="47"/>
       <c r="G44" s="47"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D45" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
+        <v>9</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="13">
         <v>10</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="13">
-        <v>6</v>
-      </c>
       <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
+      <c r="F46" s="68" t="s">
+        <v>98</v>
+      </c>
       <c r="G46" s="47"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3421,10 +3468,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D47" s="13">
         <v>2</v>
@@ -3433,34 +3480,32 @@
       <c r="F47" s="47"/>
       <c r="G47" s="47"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="D48" s="13">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E48" s="47"/>
-      <c r="F48" s="68" t="s">
-        <v>99</v>
-      </c>
+      <c r="F48" s="47"/>
       <c r="G48" s="47"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D49" s="13">
         <v>2</v>
@@ -3469,63 +3514,65 @@
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>11</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="66" t="s">
-        <v>29</v>
+        <v>65</v>
+      </c>
+      <c r="C50" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="D50" s="13">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
+      <c r="F50" s="68" t="s">
+        <v>98</v>
+      </c>
       <c r="G50" s="47"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>11</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D51" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E51" s="47"/>
-      <c r="F51" s="68" t="s">
-        <v>99</v>
-      </c>
+      <c r="F51" s="47"/>
       <c r="G51" s="47"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="22">
-        <v>12</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="13"/>
+      <c r="A52" s="11">
+        <v>11</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="13">
+        <v>4</v>
+      </c>
       <c r="E52" s="47"/>
       <c r="F52" s="47"/>
       <c r="G52" s="47"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
-        <v>12</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>70</v>
+        <v>11</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C53" s="58" t="s">
         <v>8</v>
@@ -3534,43 +3581,41 @@
         <v>10</v>
       </c>
       <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
+      <c r="F53" s="68" t="s">
+        <v>98</v>
+      </c>
       <c r="G53" s="47"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="13">
-        <v>2</v>
-      </c>
+      <c r="D54" s="13"/>
       <c r="E54" s="47"/>
       <c r="F54" s="47"/>
       <c r="G54" s="47"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
-        <v>13</v>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>12</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="61" t="s">
-        <v>15</v>
+        <v>69</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>8</v>
       </c>
       <c r="D55" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E55" s="47"/>
-      <c r="F55" s="68" t="s">
-        <v>99</v>
-      </c>
+      <c r="F55" s="47"/>
       <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3578,47 +3623,49 @@
         <v>13</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="66" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="D56" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56" s="47"/>
       <c r="F56" s="47"/>
       <c r="G56" s="47"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
-        <v>14</v>
+    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <v>13</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
+      <c r="F57" s="68" t="s">
+        <v>98</v>
+      </c>
       <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
-        <v>14</v>
+      <c r="A58" s="22">
+        <v>13</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58" s="47"/>
       <c r="F58" s="47"/>
@@ -3626,193 +3673,179 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
-        <v>15</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="C59" s="60" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="13">
-        <v>20</v>
-      </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-    </row>
-    <row r="60" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="67" t="s">
-        <v>29</v>
+        <v>74</v>
+      </c>
+      <c r="C60" s="66" t="s">
+        <v>28</v>
       </c>
       <c r="D60" s="13">
-        <v>5</v>
-      </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="17"/>
-    </row>
-    <row r="61" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>15</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>29</v>
+      <c r="B61" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>15</v>
       </c>
       <c r="D61" s="13">
-        <v>5</v>
-      </c>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+    </row>
+    <row r="62" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>15</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>13</v>
+      <c r="B62" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="67" t="s">
+        <v>28</v>
       </c>
       <c r="D62" s="13">
         <v>5</v>
       </c>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="17"/>
+    </row>
+    <row r="63" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
-        <v>17</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="D63" s="13">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E63" s="47"/>
       <c r="F63" s="47"/>
       <c r="G63" s="47"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E64" s="47"/>
       <c r="F64" s="47"/>
       <c r="G64" s="47"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>17</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="D65" s="13">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E65" s="47"/>
       <c r="F65" s="47"/>
       <c r="G65" s="47"/>
     </row>
-    <row r="66" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
+        <v>17</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="13">
+        <v>2</v>
+      </c>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>17</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="13">
+        <v>1</v>
+      </c>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+    </row>
+    <row r="68" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
         <v>18</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="13">
+      <c r="B68" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="13">
         <v>10</v>
-      </c>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-    </row>
-    <row r="67" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-    </row>
-    <row r="68" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="13">
-        <v>5</v>
       </c>
       <c r="E68" s="46"/>
       <c r="F68" s="46"/>
@@ -3853,9 +3886,15 @@
     </row>
     <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
+      <c r="B70" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="13">
+        <v>5</v>
+      </c>
       <c r="E70" s="46"/>
       <c r="F70" s="46"/>
       <c r="G70" s="46"/>
@@ -3940,9 +3979,9 @@
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
       <c r="H74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -3961,9 +4000,9 @@
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="13"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
       <c r="H75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -4003,12 +4042,10 @@
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="13"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
@@ -4026,9 +4063,9 @@
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
       <c r="H78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -4074,8 +4111,6 @@
       <c r="F80" s="46"/>
       <c r="G80" s="46"/>
       <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
@@ -4235,6 +4270,8 @@
       <c r="F87" s="46"/>
       <c r="G87" s="46"/>
       <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
@@ -4247,19 +4284,63 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
-      <c r="B89" s="25"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+    </row>
+    <row r="89" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
+      <c r="B91" s="25"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G89">
-    <sortCondition ref="A2:A89"/>
+  <sortState ref="A2:G91">
+    <sortCondition ref="A2:A91"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="H15:I15"/>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EC4BBC-9EA3-4879-9D46-1350E70EF043}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF7E77-5064-4210-8B13-CC8C09785DF7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="169">
   <si>
     <t>Finals Week</t>
   </si>
@@ -393,11 +393,6 @@
 Hypothesis Testing</t>
   </si>
   <si>
-    <t>Describing bivariate relationships
-Creating  bivariate graphics
-Open work time</t>
-  </si>
-  <si>
     <t>Conducting Inference using R
 Bivariate inference: T-tests
 Bivariate inference: ANOVA</t>
@@ -431,9 +426,6 @@
 What is already known, what questions have not yet been explored? 
 The idea is to find an area where you can contribute to new research. 
 You will learn how to conduct a literature review without burning yourself out or getting lost</t>
-  </si>
-  <si>
-    <t>(Optional) Error Assessment [PDF]</t>
   </si>
   <si>
     <t>Writing about empirical research
@@ -504,10 +496,6 @@
 Read the Applied Stats Course Notes [Chapter 1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html) 
 Start to think about and answer the data management prep questions in the homework assignment
 Start a data management code file in HackMD. Make sure you and your analysis partner both have editing capabilities. </t>
-  </si>
-  <si>
-    <t>Describe the relationship between two variables in plain English
-Calculate appropriate grouped summary statistics</t>
   </si>
   <si>
     <t>Bivariate inference: Chi-squared
@@ -593,10 +581,6 @@
   </si>
   <si>
     <t xml:space="preserve">Recap on probability, hopefully with some exploding kittens. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Important pieces to remember about writing empirical research.
-Exam 1 review. </t>
   </si>
   <si>
     <t xml:space="preserve">Import your research data into R. -- See Hack MD notes for help and code on importing. 
@@ -686,21 +670,6 @@
 Lecture notes on [data management prep questions](https://norcalbiostat.github.io/MATH315/notes.html)</t>
   </si>
   <si>
-    <t>Applied Stats Course Notes [Chapter 2](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)</t>
-  </si>
-  <si>
-    <t>RAT on Bivariate associations
-Overview of Homework
-Discuss C~C and Q~Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discuss associations between quantitative and categorical variables
-How to use `dplyr` to calculate grouped summary statistics. </t>
-  </si>
-  <si>
-    <t>open work day</t>
-  </si>
-  <si>
     <t>Research Proposal (Due Sun 10/7 ) (PR Due Tue 10/9 ) (Final due Thu 10/11 )
 Poster Prep Stage I (Due Sun 10/7 ) (PR Due Tue 10/9 ) (Final due Thu 10/11 )
 Error Assessment (Due Fri 10/26 )</t>
@@ -715,8 +684,49 @@
     <t>PR bivariate graphing</t>
   </si>
   <si>
+    <t>Describing bivariate relationships between two categorical variables
+.. between a categorical and continuous variable
+.. between two categorical variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create appropriate plots to visualize the relationship between two variables 
+Calculate appropriate grouped summary statistics
+Describe the relationship between two variables in plain English
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss how to quantify and describe associations between two quantitative variables
+Explore the Datasaurus dozen - or, why you should always plot your data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read through the course notes section 2.4. 
+Start your peer review of the graphing assignment, this will help you on the homework for this week. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How is writing about empirical research different than other types of writing like essays? 
+Exam 1 review - What do you want to know? Collaborative document in Google Drive. </t>
+  </si>
+  <si>
+    <t>(Optional) Error Assessment [PDF](https://norcalbiostat.github.io/MATH315/notes.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT on Bivariate associations (Course notes section 2.4)
+Discuss how to assess and describe the association between a continuous variable and a categorical variable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduce Bivariate graphics assignment
+Discuss methods to visualize associations between two categorical variables
+Introduce how to use `dplyr` to calculate grouped summary statistics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bivariate graphing - Applied Stats Course Notes [Chapter 2](https://norcalbiostat.github.io/AppliedStatistics_notes/data-viz.html)
+[Course packet section 2.4](reading/RAD_course_notes.pdf)
+Using dplyr to calculate summary statistics -- See HackMD
+</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Bivariate Graphics Assignment (Due Sun 9/30 ) (PR Due Tue 10/2)
+      <t xml:space="preserve">Bivariate Graphics Assignment [[HTML]](hw/hw06_biv_graphing.html) [[PDF]](hw/hw06_biv_graphing.pdf)  (Due Sun 9/30 ) (PR Due Tue 10/2)
 </t>
     </r>
     <r>
@@ -727,7 +737,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Problem Set 2.8, 2.10 (Due Sun 9/30 )</t>
+      <t>Problem Set 2.8, 2.10 [BBL] (Due Sun 9/30 )</t>
     </r>
   </si>
 </sst>
@@ -1354,21 +1364,6 @@
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1379,6 +1374,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1804,8 +1814,8 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,28 +1872,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>87</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F2" s="84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I2" s="84" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J2" s="84" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K2" s="84"/>
     </row>
@@ -1896,28 +1906,28 @@
         <v>41884</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F3" s="84" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G3" s="87" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I3" s="84" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J3" s="88" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
@@ -1929,28 +1939,28 @@
         <v>41891</v>
       </c>
       <c r="C4" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="84" t="s">
-        <v>127</v>
-      </c>
       <c r="E4" s="84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J4" s="88" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
@@ -1962,31 +1972,31 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J5" s="80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -1995,26 +2005,28 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="J6" s="71" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -2026,28 +2038,28 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2068,7 +2080,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2080,7 +2092,7 @@
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2089,7 +2101,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2101,7 +2113,7 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2120,7 +2132,7 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2129,7 +2141,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2900,10 +2912,10 @@
       <c r="G15" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="89" t="s">
+      <c r="H15" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="89"/>
+      <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -2924,10 +2936,10 @@
       <c r="G16" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="90" t="s">
+      <c r="H16" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="90"/>
+      <c r="I16" s="96"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -2948,10 +2960,10 @@
       <c r="G17" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="91" t="s">
+      <c r="H17" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="91"/>
+      <c r="I17" s="97"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -2972,10 +2984,10 @@
       <c r="G18" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="92" t="s">
+      <c r="H18" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="92"/>
+      <c r="I18" s="98"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
@@ -2997,10 +3009,10 @@
       <c r="G19" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="93" t="s">
+      <c r="H19" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="93"/>
+      <c r="I19" s="99"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
@@ -3047,7 +3059,7 @@
         <v>4.2</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>8</v>
@@ -3069,8 +3081,8 @@
       <c r="A23" s="11">
         <v>4.3</v>
       </c>
-      <c r="B23" s="94" t="s">
-        <v>164</v>
+      <c r="B23" s="89" t="s">
+        <v>156</v>
       </c>
       <c r="C23" s="56" t="s">
         <v>28</v>
@@ -3082,7 +3094,7 @@
         <v>41906</v>
       </c>
       <c r="F23" s="68"/>
-      <c r="G23" s="97" t="s">
+      <c r="G23" s="92" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3091,7 +3103,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="55" t="s">
         <v>15</v>
@@ -3110,8 +3122,8 @@
       <c r="A25" s="20">
         <v>4.5</v>
       </c>
-      <c r="B25" s="95" t="s">
-        <v>145</v>
+      <c r="B25" s="90" t="s">
+        <v>142</v>
       </c>
       <c r="C25" s="78" t="s">
         <v>28</v>
@@ -3123,7 +3135,7 @@
         <v>41906</v>
       </c>
       <c r="F25" s="74"/>
-      <c r="G25" s="96" t="s">
+      <c r="G25" s="91" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3160,7 +3172,7 @@
       <c r="E27" s="46">
         <v>41911</v>
       </c>
-      <c r="G27" s="97" t="s">
+      <c r="G27" s="92" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3168,8 +3180,8 @@
       <c r="A28" s="11">
         <v>5.3</v>
       </c>
-      <c r="B28" s="94" t="s">
-        <v>165</v>
+      <c r="B28" s="89" t="s">
+        <v>157</v>
       </c>
       <c r="C28" s="58" t="s">
         <v>8</v>
@@ -3185,8 +3197,8 @@
       <c r="A29" s="20">
         <v>5.4</v>
       </c>
-      <c r="B29" s="98" t="s">
-        <v>166</v>
+      <c r="B29" s="93" t="s">
+        <v>158</v>
       </c>
       <c r="C29" s="78" t="s">
         <v>28</v>
@@ -3198,7 +3210,7 @@
         <v>41913</v>
       </c>
       <c r="F29" s="74"/>
-      <c r="G29" s="99" t="s">
+      <c r="G29" s="94" t="s">
         <v>89</v>
       </c>
     </row>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF7E77-5064-4210-8B13-CC8C09785DF7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3BE149-992B-45A4-829D-9652F871C1A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$91</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="172">
   <si>
     <t>Finals Week</t>
   </si>
@@ -416,10 +416,6 @@
     <t>Data cleaning
 Data visualization
 Open work day</t>
-  </si>
-  <si>
-    <t>Reading:
-* Writing about empirical research</t>
   </si>
   <si>
     <t>Learn more about your topic area by conducting a literature review. 
@@ -578,9 +574,6 @@
     <t xml:space="preserve">RAT on Univariate numerical data
 Discuss how to summarize numerical data using summary statistics, plots and words. 
 We will be working through the course packet section 2.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recap on probability, hopefully with some exploding kittens. </t>
   </si>
   <si>
     <t xml:space="preserve">Import your research data into R. -- See Hack MD notes for help and code on importing. 
@@ -670,11 +663,6 @@
 Lecture notes on [data management prep questions](https://norcalbiostat.github.io/MATH315/notes.html)</t>
   </si>
   <si>
-    <t>Research Proposal (Due Sun 10/7 ) (PR Due Tue 10/9 ) (Final due Thu 10/11 )
-Poster Prep Stage I (Due Sun 10/7 ) (PR Due Tue 10/9 ) (Final due Thu 10/11 )
-Error Assessment (Due Fri 10/26 )</t>
-  </si>
-  <si>
     <t>PR Univariate Graphing</t>
   </si>
   <si>
@@ -703,13 +691,6 @@
 Start your peer review of the graphing assignment, this will help you on the homework for this week. </t>
   </si>
   <si>
-    <t xml:space="preserve">How is writing about empirical research different than other types of writing like essays? 
-Exam 1 review - What do you want to know? Collaborative document in Google Drive. </t>
-  </si>
-  <si>
-    <t>(Optional) Error Assessment [PDF](https://norcalbiostat.github.io/MATH315/notes.html)</t>
-  </si>
-  <si>
     <t xml:space="preserve">RAT on Bivariate associations (Course notes section 2.4)
 Discuss how to assess and describe the association between a continuous variable and a categorical variable. </t>
   </si>
@@ -719,26 +700,51 @@
 Introduce how to use `dplyr` to calculate grouped summary statistics. </t>
   </si>
   <si>
-    <t xml:space="preserve">Bivariate graphing - Applied Stats Course Notes [Chapter 2](https://norcalbiostat.github.io/AppliedStatistics_notes/data-viz.html)
+    <t>Bivariate Graphics Assignment [[HTML]](hw/hw06_biv_graphing.html) [[PDF]](hw/hw06_biv_graphing.pdf)  (Due Sun 9/30 ) (PR Due Tue 10/2)
+Problem Set 2.8, 2.10 [BBL] (Due Sun 9/30 )</t>
+  </si>
+  <si>
+    <t>Poster Prep Stage I (Due Sun 10/7 ) (PR Due Tue 10/9 ) (Final due Thu 10/11 )
+Error Assessment (Due Fri 10/26 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction of probability by means of exploding kittens. </t>
+  </si>
+  <si>
+    <t>How is writing about empirical research different than other types of writing like essays? 
+Introduce the Poster prep assignments
+Exam 1 review - go over sample exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PDS Video 9](http://passiondrivenstatistics.com/2016/01/20/r-chapter-8/)
+Bivariate graphing - Applied Stats Course Notes [Chapter 2](https://norcalbiostat.github.io/AppliedStatistics_notes/data-viz.html)
 [Course packet section 2.4](reading/RAD_course_notes.pdf)
 Using dplyr to calculate summary statistics -- See HackMD
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Bivariate Graphics Assignment [[HTML]](hw/hw06_biv_graphing.html) [[PDF]](hw/hw06_biv_graphing.pdf)  (Due Sun 9/30 ) (PR Due Tue 10/2)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Problem Set 2.8, 2.10 [BBL] (Due Sun 9/30 )</t>
-    </r>
+    <t>[PDS Video 10](http://passiondrivenstatistics.com/2015/07/15/chapter-10/)
+Lecture notes on [writing empirical research](https://norcalbiostat.github.io/MATH315/notes.html)
+Sample Exam [[PDF]](reading/sample_exam_1.pdf)
+(Optional) Error Assessment [PDF](https://norcalbiostat.github.io/MATH315/notes.html)</t>
+  </si>
+  <si>
+    <t>Read lectue notes on writing about empirical research
+Read instructions for first poster prep assignment
+Print out and take the sample exam. 
+Watch the PDS video 10 before Friday</t>
+  </si>
+  <si>
+    <t>OI Video on the [[CLT]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=lsCc_pS3O28) (5 min)
+OI Video on [[Confidence Intervals]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=FUaXoKdCre4) (6 min)
+OI Video on [[Hypothesis testing]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=NVbPE1_Cbx8) (8 min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PDS video 11](http://passiondrivenstatistics.com/2016/05/11/r-chapter-11/) 
+[PDS video 12](http://passiondrivenstatistics.com/2016/06/29/r-chapter-12/) </t>
+  </si>
+  <si>
+    <t>PDS [[Correlation]](https://www.youtube.com/watch?v=qBwjKfytls8&amp;list=PLDEF0B9CBD27AD37E&amp;index=60) video</t>
   </si>
 </sst>
 </file>
@@ -748,9 +754,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1072,123 +1085,123 @@
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="77" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="78" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="81" applyFont="1" applyAlignment="1">
@@ -1200,34 +1213,34 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="81" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1236,159 +1249,162 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1813,15 +1829,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="38" customWidth="1"/>
     <col min="3" max="3" width="33.625" style="38" customWidth="1"/>
     <col min="4" max="4" width="27.375" style="44" customWidth="1"/>
     <col min="5" max="5" width="47.625" style="44" customWidth="1"/>
@@ -1872,28 +1888,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>87</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I2" s="84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J2" s="84" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K2" s="84"/>
     </row>
@@ -1906,28 +1922,28 @@
         <v>41884</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="84" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G3" s="87" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I3" s="84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J3" s="88" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
@@ -1939,28 +1955,28 @@
         <v>41891</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="84" t="s">
-        <v>126</v>
-      </c>
       <c r="J4" s="88" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
@@ -1975,28 +1991,28 @@
         <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="80" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -2005,31 +2021,31 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="I6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>6</v>
       </c>
@@ -2038,31 +2054,31 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -2075,7 +2091,9 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2083,7 +2101,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -2096,7 +2114,9 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2113,11 +2133,13 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2291,10 +2313,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2389,12 +2411,12 @@
         <v>83</v>
       </c>
       <c r="I2" s="8">
-        <f>SUMIF($C$2:$C$82,H2,$D$2:$D$82)</f>
+        <f>SUMIF($C$2:$C$83,H2,$D$2:$D$83)</f>
         <v>42</v>
       </c>
       <c r="J2" s="14">
         <f t="shared" ref="J2:J8" si="0">I2/$I$9</f>
-        <v>8.5889570552147243E-2</v>
+        <v>8.6597938144329895E-2</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>24</v>
@@ -2447,12 +2469,12 @@
         <v>8</v>
       </c>
       <c r="I3" s="8">
-        <f>SUMIF($C$2:$C$82,H3,$D$2:$D$82)</f>
-        <v>52</v>
+        <f>SUMIF($C$2:$C$83,H3,$D$2:$D$83)</f>
+        <v>72</v>
       </c>
       <c r="J3" s="14">
         <f t="shared" si="0"/>
-        <v>0.10633946830265849</v>
+        <v>0.14845360824742268</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>8</v>
@@ -2505,12 +2527,12 @@
         <v>28</v>
       </c>
       <c r="I4" s="8">
-        <f>SUMIF($C$2:$C$82,H4,$D$2:$D$82)</f>
-        <v>71</v>
+        <f>SUMIF($C$2:$C$83,H4,$D$2:$D$83)</f>
+        <v>67</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>0.14519427402862986</v>
+        <v>0.13814432989690723</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>28</v>
@@ -2611,12 +2633,12 @@
         <v>13</v>
       </c>
       <c r="I6" s="8">
-        <f>SUMIF($C$2:$C$82,H6,$D$2:$D$82)</f>
+        <f>SUMIF($C$2:$C$83,H6,$D$2:$D$83)</f>
         <v>29</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="0"/>
-        <v>5.9304703476482618E-2</v>
+        <v>5.9793814432989693E-2</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>13</v>
@@ -2669,12 +2691,12 @@
         <v>14</v>
       </c>
       <c r="I7" s="8">
-        <f>SUMIF($C$2:$C$82,H7,$D$2:$D$82)</f>
+        <f>SUMIF($C$2:$C$83,H7,$D$2:$D$83)</f>
         <v>150</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="0"/>
-        <v>0.30674846625766872</v>
+        <v>0.30927835051546393</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>14</v>
@@ -2727,12 +2749,12 @@
         <v>15</v>
       </c>
       <c r="I8" s="8">
-        <f>SUMIF($C$2:$C$82,H8,$D$2:$D$82)</f>
-        <v>145</v>
+        <f>SUMIF($C$2:$C$83,H8,$D$2:$D$83)</f>
+        <v>125</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" si="0"/>
-        <v>0.29652351738241312</v>
+        <v>0.25773195876288657</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>15</v>
@@ -2779,7 +2801,7 @@
       </c>
       <c r="I9" s="6">
         <f>SUM(I2:I8)</f>
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M9" s="8">
         <v>405</v>
@@ -2912,10 +2934,10 @@
       <c r="G15" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="95" t="s">
+      <c r="H15" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="95"/>
+      <c r="I15" s="96"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -2936,10 +2958,10 @@
       <c r="G16" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="96"/>
+      <c r="I16" s="97"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -2960,10 +2982,10 @@
       <c r="G17" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="97" t="s">
+      <c r="H17" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="97"/>
+      <c r="I17" s="98"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -2984,10 +3006,10 @@
       <c r="G18" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="98" t="s">
+      <c r="H18" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="98"/>
+      <c r="I18" s="99"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
@@ -3009,10 +3031,10 @@
       <c r="G19" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="99" t="s">
+      <c r="H19" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="99"/>
+      <c r="I19" s="100"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
@@ -3059,7 +3081,7 @@
         <v>4.2</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>8</v>
@@ -3082,7 +3104,7 @@
         <v>4.3</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C23" s="56" t="s">
         <v>28</v>
@@ -3103,7 +3125,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="55" t="s">
         <v>15</v>
@@ -3123,7 +3145,7 @@
         <v>4.5</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" s="78" t="s">
         <v>28</v>
@@ -3155,6 +3177,9 @@
       <c r="E26" s="46">
         <v>41905</v>
       </c>
+      <c r="G26" s="95" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
@@ -3181,7 +3206,7 @@
         <v>5.3</v>
       </c>
       <c r="B28" s="89" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C28" s="58" t="s">
         <v>8</v>
@@ -3191,6 +3216,9 @@
       </c>
       <c r="E28" s="46">
         <v>41911</v>
+      </c>
+      <c r="G28" s="95" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3198,7 +3226,7 @@
         <v>5.4</v>
       </c>
       <c r="B29" s="93" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C29" s="78" t="s">
         <v>28</v>
@@ -3255,9 +3283,7 @@
       <c r="C32" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="13">
-        <v>20</v>
-      </c>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
@@ -3269,9 +3295,7 @@
       <c r="C33" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="13">
-        <v>4</v>
-      </c>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
@@ -3390,33 +3414,30 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
+        <v>7</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="D42" s="13">
-        <v>2</v>
-      </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>8</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D43" s="13">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E43" s="47"/>
       <c r="F43" s="47"/>
@@ -3424,16 +3445,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="D44" s="13">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E44" s="47"/>
       <c r="F44" s="47"/>
@@ -3444,52 +3465,52 @@
         <v>9</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D45" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>9</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>9</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C47" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="13">
-        <v>10</v>
-      </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="68" t="s">
+      <c r="D47" s="13">
+        <v>15</v>
+      </c>
+      <c r="E47" s="47"/>
+      <c r="F47" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="47"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>10</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="13">
-        <v>2</v>
-      </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
       <c r="G47" s="47"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3497,13 +3518,13 @@
         <v>10</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>83</v>
+        <v>62</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D48" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="47"/>
@@ -3514,52 +3535,52 @@
         <v>10</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="50" t="s">
         <v>83</v>
       </c>
       <c r="D49" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="61" t="s">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D50" s="13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E50" s="47"/>
-      <c r="F50" s="68" t="s">
-        <v>98</v>
-      </c>
+      <c r="F50" s="47"/>
       <c r="G50" s="47"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>11</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="C51" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="D51" s="13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
+      <c r="F51" s="68" t="s">
+        <v>98</v>
+      </c>
       <c r="G51" s="47"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3567,134 +3588,134 @@
         <v>11</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="66" t="s">
-        <v>28</v>
+        <v>66</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D52" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E52" s="47"/>
       <c r="F52" s="47"/>
       <c r="G52" s="47"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>11</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="13">
+        <v>4</v>
+      </c>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>11</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C54" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="13">
-        <v>10</v>
-      </c>
-      <c r="E53" s="47"/>
-      <c r="F53" s="68" t="s">
+      <c r="D54" s="13">
+        <v>15</v>
+      </c>
+      <c r="E54" s="47"/>
+      <c r="F54" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="G53" s="47"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+      <c r="G54" s="47"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
         <v>12</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B55" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C55" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
-        <v>12</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="13">
-        <v>10</v>
-      </c>
+      <c r="D55" s="13"/>
       <c r="E55" s="47"/>
       <c r="F55" s="47"/>
       <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
-        <v>13</v>
+      <c r="A56" s="11">
+        <v>12</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>13</v>
+        <v>69</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>8</v>
       </c>
       <c r="D56" s="13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E56" s="47"/>
       <c r="F56" s="47"/>
       <c r="G56" s="47"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>13</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="61" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="D57" s="13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E57" s="47"/>
-      <c r="F57" s="68" t="s">
-        <v>98</v>
-      </c>
+      <c r="F57" s="47"/>
       <c r="G57" s="47"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>13</v>
       </c>
       <c r="B58" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="13">
+        <v>20</v>
+      </c>
+      <c r="E58" s="47"/>
+      <c r="F58" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="47"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
+        <v>13</v>
+      </c>
+      <c r="B59" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C59" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <v>4</v>
-      </c>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
-        <v>14</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="13">
-        <v>10</v>
       </c>
       <c r="E59" s="47"/>
       <c r="F59" s="47"/>
@@ -3705,13 +3726,13 @@
         <v>14</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="66" t="s">
-        <v>28</v>
+        <v>73</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>15</v>
       </c>
       <c r="D60" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E60" s="47"/>
       <c r="F60" s="47"/>
@@ -3719,71 +3740,68 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
-        <v>15</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="60" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="66" t="s">
+        <v>28</v>
       </c>
       <c r="D61" s="13">
-        <v>20</v>
-      </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-    </row>
-    <row r="62" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>15</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="67" t="s">
-        <v>28</v>
+      <c r="B62" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="60" t="s">
+        <v>15</v>
       </c>
       <c r="D62" s="13">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E62" s="48"/>
       <c r="F62" s="48"/>
       <c r="G62" s="48"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="17"/>
     </row>
     <row r="63" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>15</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="67" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="13">
         <v>5</v>
       </c>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
       <c r="K63" s="17"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>15</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>13</v>
+      <c r="B64" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="D64" s="13">
         <v>5</v>
@@ -3791,39 +3809,42 @@
       <c r="E64" s="47"/>
       <c r="F64" s="47"/>
       <c r="G64" s="47"/>
-      <c r="H64" s="18"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>14</v>
+        <v>78</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D65" s="13">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E65" s="47"/>
       <c r="F65" s="47"/>
       <c r="G65" s="47"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>17</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="D66" s="13">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E66" s="47"/>
       <c r="F66" s="47"/>
@@ -3834,52 +3855,48 @@
         <v>17</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="47"/>
       <c r="F67" s="47"/>
       <c r="G67" s="47"/>
     </row>
-    <row r="68" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
+        <v>17</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="13">
+        <v>1</v>
+      </c>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+    </row>
+    <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
         <v>18</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B69" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <v>10</v>
       </c>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-    </row>
-    <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
       <c r="E69" s="46"/>
       <c r="F69" s="46"/>
       <c r="G69" s="46"/>
@@ -3898,15 +3915,9 @@
     </row>
     <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="13">
-        <v>5</v>
-      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
       <c r="E70" s="46"/>
       <c r="F70" s="46"/>
       <c r="G70" s="46"/>
@@ -3925,9 +3936,6 @@
     </row>
     <row r="71" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
       <c r="E71" s="46"/>
       <c r="F71" s="46"/>
       <c r="G71" s="46"/>
@@ -4033,9 +4041,9 @@
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="13"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
       <c r="H76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -4096,12 +4104,10 @@
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="13"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
@@ -4123,6 +4129,8 @@
       <c r="F80" s="46"/>
       <c r="G80" s="46"/>
       <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
@@ -4144,8 +4152,6 @@
       <c r="F81" s="46"/>
       <c r="G81" s="46"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
@@ -4328,6 +4334,8 @@
       <c r="F89" s="46"/>
       <c r="G89" s="46"/>
       <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
@@ -4340,19 +4348,40 @@
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="13"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
-      <c r="B91" s="25"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="13"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A92" s="24"/>
+      <c r="B92" s="25"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G91">
-    <sortCondition ref="A2:A91"/>
+  <sortState ref="A2:G92">
+    <sortCondition ref="A2:A92"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="H15:I15"/>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3BE149-992B-45A4-829D-9652F871C1A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE9672-1D3E-47F7-BE39-095B0E2E369E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="178">
   <si>
     <t>Finals Week</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>Data Camp: Confidence Intervals</t>
-  </si>
-  <si>
-    <t>PS 4.7, 4.8</t>
   </si>
   <si>
     <t>RAT: Hypothesis Testing</t>
@@ -343,39 +340,16 @@
     <t>in used, % based</t>
   </si>
   <si>
-    <t>Moderation assignment (Sun 11/11)</t>
-  </si>
-  <si>
-    <t>Regression Assignment (Fri 11/30)</t>
-  </si>
-  <si>
     <t>Final Review
 Poster Presentations
 Poster Presentations</t>
   </si>
   <si>
-    <t>Poster Draft (Due Thu 12/6 )
-Peer Review Poster Draft (Due Sat 12/8 )</t>
-  </si>
-  <si>
     <t>Final posters as printed (Due Tue 12/11 )
 Final poster scoring [Link] (Due Sun 12/16 )</t>
   </si>
   <si>
-    <t xml:space="preserve">Poster Prep Stage III (Due </t>
-  </si>
-  <si>
     <t>Veterans Day -  Campus closed</t>
-  </si>
-  <si>
-    <t>Moderation
-Study Design
-Multiple Regression</t>
-  </si>
-  <si>
-    <t>Poster Design
-Open work day
-Open work day</t>
   </si>
   <si>
     <t>Logistic Regression
@@ -383,11 +357,6 @@
 Open work day</t>
   </si>
   <si>
-    <t>No School
-Categorical Predictors
-Confounders</t>
-  </si>
-  <si>
     <t>Foundations for Inference
 Confidence Intervals
 Hypothesis Testing</t>
@@ -396,18 +365,6 @@
     <t>Conducting Inference using R
 Bivariate inference: T-tests
 Bivariate inference: ANOVA</t>
-  </si>
-  <si>
-    <t>Open work day - Finish Bivariate inference
-Open work day - poster prep
-Exam 2</t>
-  </si>
-  <si>
-    <t>Poster prep stage II (Due Sun 11/4 )
-Peer Review poster prep stage II (Due Tue 11/6 )</t>
-  </si>
-  <si>
-    <t>Foundations Worksheet (Due Tue 10/16 )</t>
   </si>
   <si>
     <t>Bivariate Inference Assignment (Due Mon 10/29 )</t>
@@ -704,10 +661,6 @@
 Problem Set 2.8, 2.10 [BBL] (Due Sun 9/30 )</t>
   </si>
   <si>
-    <t>Poster Prep Stage I (Due Sun 10/7 ) (PR Due Tue 10/9 ) (Final due Thu 10/11 )
-Error Assessment (Due Fri 10/26 )</t>
-  </si>
-  <si>
     <t xml:space="preserve">Introduction of probability by means of exploding kittens. </t>
   </si>
   <si>
@@ -723,12 +676,6 @@
 </t>
   </si>
   <si>
-    <t>[PDS Video 10](http://passiondrivenstatistics.com/2015/07/15/chapter-10/)
-Lecture notes on [writing empirical research](https://norcalbiostat.github.io/MATH315/notes.html)
-Sample Exam [[PDF]](reading/sample_exam_1.pdf)
-(Optional) Error Assessment [PDF](https://norcalbiostat.github.io/MATH315/notes.html)</t>
-  </si>
-  <si>
     <t>Read lectue notes on writing about empirical research
 Read instructions for first poster prep assignment
 Print out and take the sample exam. 
@@ -745,6 +692,96 @@
   </si>
   <si>
     <t>PDS [[Correlation]](https://www.youtube.com/watch?v=qBwjKfytls8&amp;list=PLDEF0B9CBD27AD37E&amp;index=60) video</t>
+  </si>
+  <si>
+    <t>Poster Prep Stage I (Draft Due Sun 10/7 ) (PR Due Tue 10/9 ) (Final due Thu 10/11 )
+Optional Analyzing Exam Errors  (Due Fri 10/26 )</t>
+  </si>
+  <si>
+    <t>[PDS Video 10](http://passiondrivenstatistics.com/2015/07/15/chapter-10/)
+Lecture notes on [writing empirical research](https://norcalbiostat.github.io/MATH315/notes.html)
+Sample Exam [[PDF]](reading/sample_exam_1.pdf)
+(Optional) Analyzing Exam Errors [PDF](https://norcalbiostat.github.io/MATH315/notes.html)</t>
+  </si>
+  <si>
+    <t>Identify one binary and one continuous variable in your data set of interest. 
+Come prepared with summary statistics for each (n, # missing values, #yes, mean, sd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate a point estimate on a data set
+Describe the behavior of a point estimate as sample size increases
+Construct and interpret a confidence interval
+Calculate and explain what the Margin of Error is
+Calculate and explain what the standard error of the mean is, and explain how it is different from a standard deviation
+Explain what can make the width of a confidence interval larger or smaller
+Conduct a full 5 step hypothesis test
+Explain the differnece between practical and statistical significance
+Explain the concept of p-hacking
+</t>
+  </si>
+  <si>
+    <t>Go through a full 5 step hypothesis is</t>
+  </si>
+  <si>
+    <t>**RAT on 4.1-4-4**
+How is an interval estimate different from a point estimate? 
+How is an interval estimate created?
+Define the margin of error</t>
+  </si>
+  <si>
+    <t>Start the foundations worksheet
+Introduce point estimates such as the sample mean and proportion as estimates of a population
+Visualize through simulation what happens to these point estimates as sample sizes get large
+Define sampling distributions, and standard errors</t>
+  </si>
+  <si>
+    <t>Poster Draft (Due Fri 12/7 )(PR Due Sun 12/9 )</t>
+  </si>
+  <si>
+    <t>Poster Design
+Poster work time
+Poster work time</t>
+  </si>
+  <si>
+    <t>Study Design
+Multiple Regression
+Categorical Predictors</t>
+  </si>
+  <si>
+    <t>No School
+Confounders
+Logistic Regression</t>
+  </si>
+  <si>
+    <t>Poster Prep Stage III (Draft Due 11/29 ) (PR Due 12/1 )(Final Due 12/3 )</t>
+  </si>
+  <si>
+    <t>Regression Assignment (Due Tue  11/27)</t>
+  </si>
+  <si>
+    <t>Moderation assignment (Due Tue 11/6 )</t>
+  </si>
+  <si>
+    <t>Poster prep stage II (Due Wed 10/31 ) (PR Due Fri 11/2 )(Final Due Sun 11/4 )
+Optional Analyzing Exam Errors  (Due Fri 11/30 )</t>
+  </si>
+  <si>
+    <t>Open work day - Finish Bivariate inference
+Moderation
+Exam 2</t>
+  </si>
+  <si>
+    <t>PS 4.8</t>
+  </si>
+  <si>
+    <t>PS 3.1, 3.2 [BBL] (Due Mon 10/8 )
+PS 4.1, 4.2 [BBL] (Due Thu 10/11 )
+Data Camp: Confidence Intervals [BBL] (Due Sun 10/14 )
+PS 4.4, 4.8 [BBL] (Due Sun 10/14 )
+Foundations Worksheet (Due Mon 10/15 )</t>
+  </si>
+  <si>
+    <t>PS 7.1, 7.3 [BBL] (Due Sun 10/28 )</t>
   </si>
 </sst>
 </file>
@@ -754,9 +791,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1085,123 +1129,123 @@
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="77" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="78" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="81" applyFont="1" applyAlignment="1">
@@ -1213,34 +1257,34 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="81" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,162 +1293,169 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1829,9 +1880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,28 +1939,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F2" s="84" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I2" s="84" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="J2" s="84" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K2" s="84"/>
     </row>
@@ -1922,28 +1973,28 @@
         <v>41884</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F3" s="84" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G3" s="87" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="84" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I3" s="84" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="J3" s="88" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
@@ -1955,28 +2006,28 @@
         <v>41891</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J4" s="88" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
@@ -1988,28 +2039,28 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="J5" s="80" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
@@ -2021,28 +2072,28 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J6" s="80" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -2054,31 +2105,31 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J7" s="71" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -2087,18 +2138,28 @@
         <v>41919</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="J8" s="71" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -2110,18 +2171,18 @@
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="71" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2133,17 +2194,19 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="71"/>
+      <c r="J10" s="71" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -2154,7 +2217,7 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2162,8 +2225,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="71" t="s">
-        <v>114</v>
+      <c r="J11" s="80" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2175,7 +2238,7 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2184,7 +2247,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="71" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2196,18 +2259,18 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="70" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="71" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2234,7 +2297,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2242,8 +2305,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="71" t="s">
-        <v>105</v>
+      <c r="J15" s="80" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2255,7 +2318,7 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2263,8 +2326,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="71" t="s">
-        <v>103</v>
+      <c r="J16" s="80" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2276,7 +2339,7 @@
         <v>41982</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2284,8 +2347,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="71" t="s">
-        <v>104</v>
+      <c r="J17" s="80" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2315,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2388,7 @@
     <col min="2" max="2" width="32.125" style="18" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="19"/>
-    <col min="5" max="5" width="7.625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="46" customWidth="1"/>
     <col min="6" max="7" width="7.625" style="46" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="10" style="8" customWidth="1"/>
@@ -2349,13 +2412,13 @@
         <v>10</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>9</v>
@@ -2399,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>28</v>
@@ -2408,15 +2471,15 @@
         <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="8">
         <f>SUMIF($C$2:$C$83,H2,$D$2:$D$83)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="14">
         <f t="shared" ref="J2:J8" si="0">I2/$I$9</f>
-        <v>8.6597938144329895E-2</v>
+        <v>8.4710743801652888E-2</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>24</v>
@@ -2463,7 +2526,7 @@
         <v>41881</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="64" t="s">
         <v>8</v>
@@ -2474,7 +2537,7 @@
       </c>
       <c r="J3" s="14">
         <f t="shared" si="0"/>
-        <v>0.14845360824742268</v>
+        <v>0.1487603305785124</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>8</v>
@@ -2521,7 +2584,7 @@
         <v>41879</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>28</v>
@@ -2532,7 +2595,7 @@
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>0.13814432989690723</v>
+        <v>0.13842975206611571</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>28</v>
@@ -2579,7 +2642,7 @@
         <v>41883</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" s="14"/>
       <c r="L5" s="9" t="s">
@@ -2627,7 +2690,7 @@
         <v>41883</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>13</v>
@@ -2638,7 +2701,7 @@
       </c>
       <c r="J6" s="14">
         <f t="shared" si="0"/>
-        <v>5.9793814432989693E-2</v>
+        <v>5.9917355371900828E-2</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>13</v>
@@ -2673,7 +2736,7 @@
         <v>1.5</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>8</v>
@@ -2685,7 +2748,7 @@
         <v>41883</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
@@ -2696,7 +2759,7 @@
       </c>
       <c r="J7" s="14">
         <f t="shared" si="0"/>
-        <v>0.30927835051546393</v>
+        <v>0.30991735537190085</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>14</v>
@@ -2731,10 +2794,10 @@
         <v>1.6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="21">
         <v>2.5</v>
@@ -2743,7 +2806,7 @@
         <v>41883</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>15</v>
@@ -2754,7 +2817,7 @@
       </c>
       <c r="J8" s="14">
         <f t="shared" si="0"/>
-        <v>0.25773195876288657</v>
+        <v>0.25826446280991733</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>15</v>
@@ -2797,11 +2860,11 @@
         <v>41886</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="6">
         <f>SUM(I2:I8)</f>
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M9" s="8">
         <v>405</v>
@@ -2820,7 +2883,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -2829,7 +2892,7 @@
         <v>41890</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2840,7 +2903,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="13">
         <v>5</v>
@@ -2849,7 +2912,7 @@
         <v>41890</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2860,7 +2923,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="13">
         <v>3</v>
@@ -2869,7 +2932,7 @@
         <v>41890</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2877,7 +2940,7 @@
         <v>2.5</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>15</v>
@@ -2889,10 +2952,10 @@
         <v>41890</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2900,7 +2963,7 @@
         <v>2.6</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>28</v>
@@ -2912,7 +2975,7 @@
         <v>41892</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -2932,12 +2995,12 @@
         <v>41893</v>
       </c>
       <c r="G15" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="96"/>
+      <c r="I15" s="99"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -2947,7 +3010,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="13">
         <v>2</v>
@@ -2956,12 +3019,12 @@
         <v>41897</v>
       </c>
       <c r="G16" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="97"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -2971,7 +3034,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -2980,12 +3043,12 @@
         <v>41897</v>
       </c>
       <c r="G17" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="98"/>
+      <c r="I17" s="101"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -2995,7 +3058,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="13">
         <v>2</v>
@@ -3004,19 +3067,19 @@
         <v>41897</v>
       </c>
       <c r="G18" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="99"/>
+      <c r="I18" s="102"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>3.5</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="62" t="s">
         <v>15</v>
@@ -3029,19 +3092,19 @@
       </c>
       <c r="F19" s="75"/>
       <c r="G19" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="100"/>
+      <c r="I19" s="103"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>3.6</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="78" t="s">
         <v>28</v>
@@ -3053,7 +3116,7 @@
         <v>41899</v>
       </c>
       <c r="G20" s="73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3073,7 +3136,7 @@
         <v>41898</v>
       </c>
       <c r="G21" s="81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3081,7 +3144,7 @@
         <v>4.2</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>8</v>
@@ -3093,10 +3156,10 @@
         <v>41904</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" s="81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3104,7 +3167,7 @@
         <v>4.3</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C23" s="56" t="s">
         <v>28</v>
@@ -3117,7 +3180,7 @@
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3125,7 +3188,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C24" s="55" t="s">
         <v>15</v>
@@ -3137,7 +3200,7 @@
         <v>41904</v>
       </c>
       <c r="G24" s="81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3145,7 +3208,7 @@
         <v>4.5</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C25" s="78" t="s">
         <v>28</v>
@@ -3158,7 +3221,7 @@
       </c>
       <c r="F25" s="74"/>
       <c r="G25" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3178,7 +3241,7 @@
         <v>41905</v>
       </c>
       <c r="G26" s="95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3189,7 +3252,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="13">
         <v>2</v>
@@ -3198,7 +3261,7 @@
         <v>41911</v>
       </c>
       <c r="G27" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3206,7 +3269,7 @@
         <v>5.3</v>
       </c>
       <c r="B28" s="89" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C28" s="58" t="s">
         <v>8</v>
@@ -3218,7 +3281,7 @@
         <v>41911</v>
       </c>
       <c r="G28" s="95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3226,7 +3289,7 @@
         <v>5.4</v>
       </c>
       <c r="B29" s="93" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C29" s="78" t="s">
         <v>28</v>
@@ -3239,7 +3302,7 @@
       </c>
       <c r="F29" s="74"/>
       <c r="G29" s="94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3267,7 +3330,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" s="13">
         <v>2</v>
@@ -3278,7 +3341,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="61" t="s">
         <v>15</v>
@@ -3290,7 +3353,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="66" t="s">
         <v>28</v>
@@ -3310,6 +3373,9 @@
       <c r="D34" s="13">
         <v>20</v>
       </c>
+      <c r="E34" s="46">
+        <v>41918</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
@@ -3324,7 +3390,9 @@
       <c r="D35" s="13">
         <v>4</v>
       </c>
-      <c r="E35" s="47"/>
+      <c r="E35" s="47">
+        <v>41920</v>
+      </c>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
     </row>
@@ -3341,6 +3409,9 @@
       <c r="D36" s="13">
         <v>2</v>
       </c>
+      <c r="E36" s="46">
+        <v>41921</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
@@ -3350,7 +3421,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D37" s="13">
         <v>2</v>
@@ -3364,7 +3435,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="13">
         <v>5</v>
@@ -3378,7 +3449,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
@@ -3392,7 +3463,7 @@
         <v>56</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D40" s="13">
         <v>2.5</v>
@@ -3402,14 +3473,14 @@
       <c r="A41" s="11">
         <v>7</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>57</v>
+      <c r="B41" s="98" t="s">
+        <v>175</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3417,7 +3488,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="59" t="s">
         <v>8</v>
@@ -3431,7 +3502,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>13</v>
@@ -3448,7 +3519,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>14</v>
@@ -3465,7 +3536,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>13</v>
@@ -3482,10 +3553,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" s="13">
         <v>1</v>
@@ -3508,8 +3579,8 @@
         <v>15</v>
       </c>
       <c r="E47" s="47"/>
-      <c r="F47" s="68" t="s">
-        <v>98</v>
+      <c r="F47" s="96" t="s">
+        <v>97</v>
       </c>
       <c r="G47" s="47"/>
     </row>
@@ -3518,7 +3589,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>13</v>
@@ -3527,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
+      <c r="F48" s="97"/>
       <c r="G48" s="47"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3535,16 +3606,16 @@
         <v>10</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="13">
         <v>6</v>
       </c>
       <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
+      <c r="F49" s="97"/>
       <c r="G49" s="47"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3552,16 +3623,16 @@
         <v>10</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50" s="13">
         <v>2</v>
       </c>
       <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
+      <c r="F50" s="97"/>
       <c r="G50" s="47"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -3569,7 +3640,7 @@
         <v>11</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="61" t="s">
         <v>15</v>
@@ -3578,8 +3649,8 @@
         <v>20</v>
       </c>
       <c r="E51" s="47"/>
-      <c r="F51" s="68" t="s">
-        <v>98</v>
+      <c r="F51" s="96" t="s">
+        <v>97</v>
       </c>
       <c r="G51" s="47"/>
     </row>
@@ -3588,7 +3659,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>13</v>
@@ -3597,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
+      <c r="F52" s="97"/>
       <c r="G52" s="47"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3605,7 +3676,7 @@
         <v>11</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="66" t="s">
         <v>28</v>
@@ -3614,7 +3685,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
+      <c r="F53" s="97"/>
       <c r="G53" s="47"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -3622,7 +3693,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="58" t="s">
         <v>8</v>
@@ -3631,8 +3702,8 @@
         <v>15</v>
       </c>
       <c r="E54" s="47"/>
-      <c r="F54" s="68" t="s">
-        <v>98</v>
+      <c r="F54" s="96" t="s">
+        <v>97</v>
       </c>
       <c r="G54" s="47"/>
     </row>
@@ -3641,14 +3712,14 @@
         <v>12</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
+      <c r="F55" s="97"/>
       <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3656,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="58" t="s">
         <v>8</v>
@@ -3665,7 +3736,7 @@
         <v>15</v>
       </c>
       <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
+      <c r="F56" s="97"/>
       <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3673,7 +3744,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>13</v>
@@ -3682,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
+      <c r="F57" s="97"/>
       <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -3690,7 +3761,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="61" t="s">
         <v>15</v>
@@ -3699,8 +3770,8 @@
         <v>20</v>
       </c>
       <c r="E58" s="47"/>
-      <c r="F58" s="68" t="s">
-        <v>98</v>
+      <c r="F58" s="96" t="s">
+        <v>97</v>
       </c>
       <c r="G58" s="47"/>
     </row>
@@ -3709,7 +3780,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" s="66" t="s">
         <v>28</v>
@@ -3726,7 +3797,7 @@
         <v>14</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="60" t="s">
         <v>15</v>
@@ -3743,7 +3814,7 @@
         <v>14</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="66" t="s">
         <v>28</v>
@@ -3760,7 +3831,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="60" t="s">
         <v>15</v>
@@ -3768,7 +3839,9 @@
       <c r="D62" s="13">
         <v>20</v>
       </c>
-      <c r="E62" s="48"/>
+      <c r="E62" s="48">
+        <v>41986</v>
+      </c>
       <c r="F62" s="48"/>
       <c r="G62" s="48"/>
     </row>
@@ -3777,7 +3850,7 @@
         <v>15</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="67" t="s">
         <v>28</v>
@@ -3785,7 +3858,9 @@
       <c r="D63" s="13">
         <v>5</v>
       </c>
-      <c r="E63" s="48"/>
+      <c r="E63" s="48">
+        <v>41988</v>
+      </c>
       <c r="F63" s="48"/>
       <c r="G63" s="48"/>
       <c r="H63" s="7"/>
@@ -3798,7 +3873,7 @@
         <v>15</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>28</v>
@@ -3818,7 +3893,7 @@
         <v>15</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>13</v>
@@ -3855,7 +3930,7 @@
         <v>17</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>13</v>
@@ -3872,7 +3947,7 @@
         <v>17</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>13</v>
@@ -3889,7 +3964,7 @@
         <v>18</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>28</v>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/MATH315/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE9672-1D3E-47F7-BE39-095B0E2E369E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C129AB2A-11CB-D848-A99F-6EFC5A578476}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -19,16 +19,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$91</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="182">
   <si>
     <t>Finals Week</t>
   </si>
@@ -365,9 +360,6 @@
     <t>Conducting Inference using R
 Bivariate inference: T-tests
 Bivariate inference: ANOVA</t>
-  </si>
-  <si>
-    <t>Bivariate Inference Assignment (Due Mon 10/29 )</t>
   </si>
   <si>
     <t>Data cleaning
@@ -723,12 +715,6 @@
     <t>Go through a full 5 step hypothesis is</t>
   </si>
   <si>
-    <t>**RAT on 4.1-4-4**
-How is an interval estimate different from a point estimate? 
-How is an interval estimate created?
-Define the margin of error</t>
-  </si>
-  <si>
     <t>Start the foundations worksheet
 Introduce point estimates such as the sample mean and proportion as estimates of a population
 Visualize through simulation what happens to these point estimates as sample sizes get large
@@ -754,12 +740,6 @@
   </si>
   <si>
     <t>Poster Prep Stage III (Draft Due 11/29 ) (PR Due 12/1 )(Final Due 12/3 )</t>
-  </si>
-  <si>
-    <t>Regression Assignment (Due Tue  11/27)</t>
-  </si>
-  <si>
-    <t>Moderation assignment (Due Tue 11/6 )</t>
   </si>
   <si>
     <t>Poster prep stage II (Due Wed 10/31 ) (PR Due Fri 11/2 )(Final Due Sun 11/4 )
@@ -782,6 +762,33 @@
   </si>
   <si>
     <t>PS 7.1, 7.3 [BBL] (Due Sun 10/28 )</t>
+  </si>
+  <si>
+    <t>**RAT on Hypothesis Testing**</t>
+  </si>
+  <si>
+    <t>Bivariate Inference Assignment  [[HTML]](hw/hw08_bivariate_inference.html) [[PDF]](hw/hw08_bivariate_inference.pdf) (Due Mon 10/29 )</t>
+  </si>
+  <si>
+    <t>Moderation assignment [[HTML]](hw/hw09_moderation.html) [[PDF]](hw/hw09_moderation.pdf) (Due Tue 11/6 )</t>
+  </si>
+  <si>
+    <t>Regression Assignment [[HTML]](hw/hw10_regression.html) [[PDF]](hw/hw10_regression.pdf)(Due Tue  11/27)</t>
+  </si>
+  <si>
+    <t>**RAT on Foundations for Inference**
+How is an interval estimate different from a point estimate? 
+How is an interval estimate created?
+Define the margin of error</t>
+  </si>
+  <si>
+    <t>**RAT** on Linear Regression</t>
+  </si>
+  <si>
+    <t>**RAT** on Confounding</t>
+  </si>
+  <si>
+    <t>**RAT** on Study Design</t>
   </si>
 </sst>
 </file>
@@ -791,7 +798,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1881,25 +1888,25 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="38" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="47.625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="45.875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="44" customWidth="1"/>
     <col min="8" max="9" width="38" style="44" customWidth="1"/>
     <col min="10" max="10" width="46.5" style="44" customWidth="1"/>
-    <col min="11" max="16384" width="14.875" style="38"/>
+    <col min="11" max="16384" width="14.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
@@ -1931,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="86" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="86" customFormat="1" ht="409.6">
       <c r="A2" s="82">
         <v>1</v>
       </c>
@@ -1939,32 +1946,32 @@
         <v>41877</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>86</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I2" s="84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J2" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K2" s="84"/>
     </row>
-    <row r="3" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="240">
       <c r="A3" s="82">
         <v>2</v>
       </c>
@@ -1973,31 +1980,31 @@
         <v>41884</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="87" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" s="84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" s="88" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="256">
       <c r="A4" s="82">
         <v>3</v>
       </c>
@@ -2006,31 +2013,31 @@
         <v>41891</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" s="84" t="s">
-        <v>114</v>
-      </c>
       <c r="J4" s="88" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="320">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -2039,31 +2046,31 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="J5" s="80" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" ht="160">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -2072,31 +2079,31 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="80" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" ht="160">
       <c r="A7" s="39">
         <v>6</v>
       </c>
@@ -2105,31 +2112,31 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J7" s="80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="360" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="365">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -2141,28 +2148,28 @@
         <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J8" s="71" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="J8" s="80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="96">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -2176,16 +2183,18 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J9" s="80" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="48">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -2194,21 +2203,23 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="J10" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="48">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -2217,7 +2228,7 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2226,10 +2237,10 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="80" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="48">
       <c r="A12" s="41">
         <v>11</v>
       </c>
@@ -2238,19 +2249,21 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="71" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="48">
       <c r="A13" s="41">
         <v>12</v>
       </c>
@@ -2259,7 +2272,7 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2267,13 +2280,15 @@
       <c r="G13" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="71" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="42"/>
       <c r="B14" s="43">
         <f t="shared" si="0"/>
@@ -2288,7 +2303,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="72"/>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="48">
       <c r="A15" s="41">
         <v>13</v>
       </c>
@@ -2306,10 +2321,10 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="80" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="48">
       <c r="A16" s="41">
         <v>14</v>
       </c>
@@ -2318,7 +2333,7 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2327,10 +2342,10 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="80" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="48">
       <c r="A17" s="41">
         <v>15</v>
       </c>
@@ -2351,7 +2366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="32">
       <c r="A18" s="41" t="s">
         <v>0</v>
       </c>
@@ -2378,27 +2393,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="17"/>
-    <col min="2" max="2" width="32.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="19"/>
+    <col min="1" max="1" width="7.6640625" style="17"/>
+    <col min="2" max="2" width="32.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="19"/>
     <col min="5" max="5" width="10.5" style="46" customWidth="1"/>
-    <col min="6" max="7" width="7.625" style="46" customWidth="1"/>
+    <col min="6" max="7" width="7.6640625" style="46" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="10" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="8"/>
-    <col min="11" max="11" width="4.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="7.625" style="7"/>
+    <col min="10" max="10" width="7.6640625" style="8"/>
+    <col min="11" max="11" width="4.6640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="7.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2457,7 +2472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="17" thickTop="1">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -2475,11 +2490,11 @@
       </c>
       <c r="I2" s="8">
         <f>SUMIF($C$2:$C$83,H2,$D$2:$D$83)</f>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J2" s="14">
         <f t="shared" ref="J2:J8" si="0">I2/$I$9</f>
-        <v>8.4710743801652888E-2</v>
+        <v>7.5156576200417533E-2</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>24</v>
@@ -2509,7 +2524,7 @@
         <v>3.0837004405286344E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="16">
       <c r="A3" s="11">
         <v>1.1000000000000001</v>
       </c>
@@ -2537,7 +2552,7 @@
       </c>
       <c r="J3" s="14">
         <f t="shared" si="0"/>
-        <v>0.1487603305785124</v>
+        <v>0.15031315240083507</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>8</v>
@@ -2567,7 +2582,7 @@
         <v>0.21806167400881057</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="16">
       <c r="A4" s="11">
         <v>1.2</v>
       </c>
@@ -2595,7 +2610,7 @@
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>0.13842975206611571</v>
+        <v>0.13987473903966596</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>28</v>
@@ -2625,7 +2640,7 @@
         <v>4.405286343612335E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="16">
       <c r="A5" s="11">
         <v>1.3</v>
       </c>
@@ -2673,7 +2688,7 @@
         <v>6.8281938325991193E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="16">
       <c r="A6" s="17">
         <v>1.4</v>
       </c>
@@ -2701,7 +2716,7 @@
       </c>
       <c r="J6" s="14">
         <f t="shared" si="0"/>
-        <v>5.9917355371900828E-2</v>
+        <v>6.0542797494780795E-2</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>13</v>
@@ -2731,7 +2746,7 @@
         <v>2.2026431718061675E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="16">
       <c r="A7" s="11">
         <v>1.5</v>
       </c>
@@ -2759,7 +2774,7 @@
       </c>
       <c r="J7" s="14">
         <f t="shared" si="0"/>
-        <v>0.30991735537190085</v>
+        <v>0.31315240083507306</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>14</v>
@@ -2789,7 +2804,7 @@
         <v>0.38546255506607929</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="17" thickBot="1">
       <c r="A8" s="20">
         <v>1.6</v>
       </c>
@@ -2817,7 +2832,7 @@
       </c>
       <c r="J8" s="14">
         <f t="shared" si="0"/>
-        <v>0.25826446280991733</v>
+        <v>0.26096033402922758</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>15</v>
@@ -2843,7 +2858,7 @@
         <v>0.23127753303964757</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="16" thickBot="1">
       <c r="A9" s="11">
         <v>2.1</v>
       </c>
@@ -2864,7 +2879,7 @@
       </c>
       <c r="I9" s="6">
         <f>SUM(I2:I8)</f>
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M9" s="8">
         <v>405</v>
@@ -2875,7 +2890,7 @@
       </c>
       <c r="V9" s="17"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="16" thickTop="1">
       <c r="A10" s="11">
         <v>2.2000000000000002</v>
       </c>
@@ -2895,7 +2910,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="11">
         <v>2.2999999999999998</v>
       </c>
@@ -2915,7 +2930,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="11">
         <v>2.4</v>
       </c>
@@ -2935,7 +2950,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="16">
       <c r="A13" s="11">
         <v>2.5</v>
       </c>
@@ -2958,7 +2973,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="16" thickBot="1">
       <c r="A14" s="20">
         <v>2.6</v>
       </c>
@@ -2978,7 +2993,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="11">
         <v>3.1</v>
       </c>
@@ -3002,7 +3017,7 @@
       </c>
       <c r="I15" s="99"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="11">
         <v>3.2</v>
       </c>
@@ -3026,7 +3041,7 @@
       </c>
       <c r="I16" s="100"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>3.3</v>
       </c>
@@ -3050,7 +3065,7 @@
       </c>
       <c r="I17" s="101"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="11">
         <v>3.4</v>
       </c>
@@ -3074,7 +3089,7 @@
       </c>
       <c r="I18" s="102"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>3.5</v>
       </c>
@@ -3099,7 +3114,7 @@
       </c>
       <c r="I19" s="103"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16" thickBot="1">
       <c r="A20" s="20">
         <v>3.6</v>
       </c>
@@ -3119,7 +3134,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>4.0999999999999996</v>
       </c>
@@ -3139,12 +3154,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16">
       <c r="A22" s="11">
         <v>4.2</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>8</v>
@@ -3162,12 +3177,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16">
       <c r="A23" s="11">
         <v>4.3</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="56" t="s">
         <v>28</v>
@@ -3183,12 +3198,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="55" t="s">
         <v>15</v>
@@ -3203,12 +3218,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="16" thickBot="1">
       <c r="A25" s="20">
         <v>4.5</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="78" t="s">
         <v>28</v>
@@ -3224,7 +3239,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="11">
         <v>5.0999999999999996</v>
       </c>
@@ -3244,7 +3259,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="11">
         <v>5.2</v>
       </c>
@@ -3264,12 +3279,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="11">
         <v>5.3</v>
       </c>
       <c r="B28" s="89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" s="58" t="s">
         <v>8</v>
@@ -3284,12 +3299,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16" thickBot="1">
       <c r="A29" s="20">
         <v>5.4</v>
       </c>
       <c r="B29" s="93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="78" t="s">
         <v>28</v>
@@ -3305,7 +3320,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="11">
         <v>6</v>
       </c>
@@ -3322,7 +3337,7 @@
         <v>41914</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="11">
         <v>6</v>
       </c>
@@ -3336,7 +3351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="11">
         <v>6</v>
       </c>
@@ -3348,7 +3363,7 @@
       </c>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="11">
         <v>6</v>
       </c>
@@ -3360,7 +3375,7 @@
       </c>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="11">
         <v>6</v>
       </c>
@@ -3377,7 +3392,7 @@
         <v>41918</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="11">
         <v>6</v>
       </c>
@@ -3396,7 +3411,7 @@
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="11">
         <v>7</v>
       </c>
@@ -3413,7 +3428,7 @@
         <v>41921</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="11">
         <v>7</v>
       </c>
@@ -3427,7 +3442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="11">
         <v>7</v>
       </c>
@@ -3437,11 +3452,9 @@
       <c r="C38" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="11">
         <v>7</v>
       </c>
@@ -3455,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="11">
         <v>7</v>
       </c>
@@ -3469,12 +3482,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="11">
         <v>7</v>
       </c>
       <c r="B41" s="98" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>82</v>
@@ -3483,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="11">
         <v>7</v>
       </c>
@@ -3497,7 +3510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="11">
         <v>8</v>
       </c>
@@ -3514,7 +3527,7 @@
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="11">
         <v>8</v>
       </c>
@@ -3531,7 +3544,7 @@
       <c r="F44" s="47"/>
       <c r="G44" s="47"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="11">
         <v>9</v>
       </c>
@@ -3548,7 +3561,7 @@
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="11">
         <v>9</v>
       </c>
@@ -3565,7 +3578,7 @@
       <c r="F46" s="47"/>
       <c r="G46" s="47"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="16">
       <c r="A47" s="11">
         <v>9</v>
       </c>
@@ -3584,7 +3597,7 @@
       </c>
       <c r="G47" s="47"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="11">
         <v>10</v>
       </c>
@@ -3601,7 +3614,7 @@
       <c r="F48" s="97"/>
       <c r="G48" s="47"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="11">
         <v>10</v>
       </c>
@@ -3618,7 +3631,7 @@
       <c r="F49" s="97"/>
       <c r="G49" s="47"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="11">
         <v>10</v>
       </c>
@@ -3635,7 +3648,7 @@
       <c r="F50" s="97"/>
       <c r="G50" s="47"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16">
       <c r="A51" s="11">
         <v>11</v>
       </c>
@@ -3654,7 +3667,7 @@
       </c>
       <c r="G51" s="47"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="11">
         <v>11</v>
       </c>
@@ -3671,7 +3684,7 @@
       <c r="F52" s="97"/>
       <c r="G52" s="47"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="11">
         <v>11</v>
       </c>
@@ -3688,7 +3701,7 @@
       <c r="F53" s="97"/>
       <c r="G53" s="47"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="16">
       <c r="A54" s="11">
         <v>11</v>
       </c>
@@ -3707,7 +3720,7 @@
       </c>
       <c r="G54" s="47"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="22">
         <v>12</v>
       </c>
@@ -3722,7 +3735,7 @@
       <c r="F55" s="97"/>
       <c r="G55" s="47"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="11">
         <v>12</v>
       </c>
@@ -3739,7 +3752,7 @@
       <c r="F56" s="97"/>
       <c r="G56" s="47"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="22">
         <v>13</v>
       </c>
@@ -3756,7 +3769,7 @@
       <c r="F57" s="97"/>
       <c r="G57" s="47"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16">
       <c r="A58" s="22">
         <v>13</v>
       </c>
@@ -3775,7 +3788,7 @@
       </c>
       <c r="G58" s="47"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="22">
         <v>13</v>
       </c>
@@ -3792,7 +3805,7 @@
       <c r="F59" s="47"/>
       <c r="G59" s="47"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="11">
         <v>14</v>
       </c>
@@ -3809,7 +3822,7 @@
       <c r="F60" s="47"/>
       <c r="G60" s="47"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="11">
         <v>14</v>
       </c>
@@ -3826,7 +3839,7 @@
       <c r="F61" s="47"/>
       <c r="G61" s="47"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="11">
         <v>15</v>
       </c>
@@ -3845,7 +3858,7 @@
       <c r="F62" s="48"/>
       <c r="G62" s="48"/>
     </row>
-    <row r="63" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="18" customFormat="1">
       <c r="A63" s="11">
         <v>15</v>
       </c>
@@ -3868,7 +3881,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="17"/>
     </row>
-    <row r="64" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="18" customFormat="1">
       <c r="A64" s="11">
         <v>15</v>
       </c>
@@ -3888,7 +3901,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65" s="11">
         <v>15</v>
       </c>
@@ -3908,7 +3921,7 @@
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22">
       <c r="A66" s="11">
         <v>17</v>
       </c>
@@ -3925,7 +3938,7 @@
       <c r="F66" s="47"/>
       <c r="G66" s="47"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22">
       <c r="A67" s="11">
         <v>17</v>
       </c>
@@ -3942,7 +3955,7 @@
       <c r="F67" s="47"/>
       <c r="G67" s="47"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22">
       <c r="A68" s="11">
         <v>17</v>
       </c>
@@ -3959,7 +3972,7 @@
       <c r="F68" s="47"/>
       <c r="G68" s="47"/>
     </row>
-    <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" s="8" customFormat="1">
       <c r="A69" s="11">
         <v>18</v>
       </c>
@@ -3988,7 +4001,7 @@
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
     </row>
-    <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" s="8" customFormat="1">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -4009,7 +4022,7 @@
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
     </row>
-    <row r="71" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" s="8" customFormat="1">
       <c r="A71" s="11"/>
       <c r="E71" s="46"/>
       <c r="F71" s="46"/>
@@ -4027,7 +4040,7 @@
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
     </row>
-    <row r="72" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" s="8" customFormat="1">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -4048,7 +4061,7 @@
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
     </row>
-    <row r="73" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" s="8" customFormat="1">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -4069,7 +4082,7 @@
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
     </row>
-    <row r="74" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" s="8" customFormat="1">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -4090,7 +4103,7 @@
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
     </row>
-    <row r="75" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" s="8" customFormat="1">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -4111,7 +4124,7 @@
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
     </row>
-    <row r="76" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" s="8" customFormat="1">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -4132,7 +4145,7 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
     </row>
-    <row r="77" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" s="8" customFormat="1">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -4153,7 +4166,7 @@
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
     </row>
-    <row r="78" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" s="8" customFormat="1">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -4174,7 +4187,7 @@
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
     </row>
-    <row r="79" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" s="8" customFormat="1">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -4195,7 +4208,7 @@
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
     </row>
-    <row r="80" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" s="8" customFormat="1">
       <c r="A80" s="11"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -4218,7 +4231,7 @@
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
     </row>
-    <row r="81" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" s="8" customFormat="1">
       <c r="A81" s="11"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4239,7 +4252,7 @@
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
     </row>
-    <row r="82" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" s="8" customFormat="1">
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4262,7 +4275,7 @@
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
     </row>
-    <row r="83" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" s="8" customFormat="1">
       <c r="A83" s="11"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4285,7 +4298,7 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
     </row>
-    <row r="84" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" s="8" customFormat="1">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4308,7 +4321,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
     </row>
-    <row r="85" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" s="8" customFormat="1">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4331,7 +4344,7 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
     </row>
-    <row r="86" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" s="8" customFormat="1">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4354,7 +4367,7 @@
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
     </row>
-    <row r="87" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" s="8" customFormat="1">
       <c r="A87" s="11"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4377,7 +4390,7 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
     </row>
-    <row r="88" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" s="8" customFormat="1">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4400,7 +4413,7 @@
       <c r="U88" s="7"/>
       <c r="V88" s="7"/>
     </row>
-    <row r="89" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" s="8" customFormat="1">
       <c r="A89" s="11"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4423,7 +4436,7 @@
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
     </row>
-    <row r="90" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" s="8" customFormat="1">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4444,13 +4457,13 @@
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22">
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22">
       <c r="A92" s="24"/>
       <c r="B92" s="25"/>
     </row>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/MATH315/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C129AB2A-11CB-D848-A99F-6EFC5A578476}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E65D0B3-2EFE-4D76-96EF-7195DC6B2B64}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -19,11 +19,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$91</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="186">
   <si>
     <t>Finals Week</t>
   </si>
@@ -345,11 +350,6 @@
   </si>
   <si>
     <t>Veterans Day -  Campus closed</t>
-  </si>
-  <si>
-    <t>Logistic Regression
-Model building
-Open work day</t>
   </si>
   <si>
     <t>Foundations for Inference
@@ -649,10 +649,6 @@
 Introduce how to use `dplyr` to calculate grouped summary statistics. </t>
   </si>
   <si>
-    <t>Bivariate Graphics Assignment [[HTML]](hw/hw06_biv_graphing.html) [[PDF]](hw/hw06_biv_graphing.pdf)  (Due Sun 9/30 ) (PR Due Tue 10/2)
-Problem Set 2.8, 2.10 [BBL] (Due Sun 9/30 )</t>
-  </si>
-  <si>
     <t xml:space="preserve">Introduction of probability by means of exploding kittens. </t>
   </si>
   <si>
@@ -672,22 +668,6 @@
 Read instructions for first poster prep assignment
 Print out and take the sample exam. 
 Watch the PDS video 10 before Friday</t>
-  </si>
-  <si>
-    <t>OI Video on the [[CLT]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=lsCc_pS3O28) (5 min)
-OI Video on [[Confidence Intervals]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=FUaXoKdCre4) (6 min)
-OI Video on [[Hypothesis testing]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=NVbPE1_Cbx8) (8 min)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PDS video 11](http://passiondrivenstatistics.com/2016/05/11/r-chapter-11/) 
-[PDS video 12](http://passiondrivenstatistics.com/2016/06/29/r-chapter-12/) </t>
-  </si>
-  <si>
-    <t>PDS [[Correlation]](https://www.youtube.com/watch?v=qBwjKfytls8&amp;list=PLDEF0B9CBD27AD37E&amp;index=60) video</t>
-  </si>
-  <si>
-    <t>Poster Prep Stage I (Draft Due Sun 10/7 ) (PR Due Tue 10/9 ) (Final due Thu 10/11 )
-Optional Analyzing Exam Errors  (Due Fri 10/26 )</t>
   </si>
   <si>
     <t>[PDS Video 10](http://passiondrivenstatistics.com/2015/07/15/chapter-10/)
@@ -729,16 +709,6 @@
 Poster work time</t>
   </si>
   <si>
-    <t>Study Design
-Multiple Regression
-Categorical Predictors</t>
-  </si>
-  <si>
-    <t>No School
-Confounders
-Logistic Regression</t>
-  </si>
-  <si>
     <t>Poster Prep Stage III (Draft Due 11/29 ) (PR Due 12/1 )(Final Due 12/3 )</t>
   </si>
   <si>
@@ -764,16 +734,10 @@
     <t>PS 7.1, 7.3 [BBL] (Due Sun 10/28 )</t>
   </si>
   <si>
-    <t>**RAT on Hypothesis Testing**</t>
-  </si>
-  <si>
     <t>Bivariate Inference Assignment  [[HTML]](hw/hw08_bivariate_inference.html) [[PDF]](hw/hw08_bivariate_inference.pdf) (Due Mon 10/29 )</t>
   </si>
   <si>
     <t>Moderation assignment [[HTML]](hw/hw09_moderation.html) [[PDF]](hw/hw09_moderation.pdf) (Due Tue 11/6 )</t>
-  </si>
-  <si>
-    <t>Regression Assignment [[HTML]](hw/hw10_regression.html) [[PDF]](hw/hw10_regression.pdf)(Due Tue  11/27)</t>
   </si>
   <si>
     <t>**RAT on Foundations for Inference**
@@ -785,10 +749,68 @@
     <t>**RAT** on Linear Regression</t>
   </si>
   <si>
-    <t>**RAT** on Confounding</t>
-  </si>
-  <si>
     <t>**RAT** on Study Design</t>
+  </si>
+  <si>
+    <t>Open work dayModel building
+Open work day</t>
+  </si>
+  <si>
+    <t>No School
+Logistic Regression
+Categorical predictors</t>
+  </si>
+  <si>
+    <t>RAT on categorical variables</t>
+  </si>
+  <si>
+    <t>Study Design
+Multiple Regression
+Confounders</t>
+  </si>
+  <si>
+    <t>**RAT on choosing appropriate Bivariate Analysis**</t>
+  </si>
+  <si>
+    <t>Poster Prep Stage I (Draft Due Sun 10/7 ) (PR Due Tue 10/9 ) (Final Due Thu 10/11 )
+Optional Analyzing Exam Errors  (Due Fri 10/26 )</t>
+  </si>
+  <si>
+    <t>Bivariate Graphics Assignment [[HTML]](hw/hw06_biv_graphing.html) [[PDF]](hw/hw06_biv_graphing.pdf)  (Due Sun 9/30 ) (PR Due Tue 10/2 )
+Problem Set 2.8, 2.10 [BBL] (Due Sun 9/30 )</t>
+  </si>
+  <si>
+    <t>Regression Assignment [[HTML]](hw/hw10_regression.html) [[PDF]](hw/hw10_regression.pdf)(Due Tue  11/27 )</t>
+  </si>
+  <si>
+    <t>[AS notes on MLR (Ch 6)](https://norcalbiostat.github.io/AppliedStatistics_notes/multiple-linear-regression.html)
+[AS notes on Confounding Ch 7.5](https://norcalbiostat.github.io/AppliedStatistics_notes/confounding.html)</t>
+  </si>
+  <si>
+    <t>[PDS Video 18](http://passiondrivenstatistics.com/2018/06/08/chapter-18-writing-for-your-poster-presentation/)</t>
+  </si>
+  <si>
+    <t>PDS Video 17 - start at 43 minutes for Logistic Regression
+[AS notes binary outcomes (8.2) and categorical predictors (7.1)](https://norcalbiostat.github.io/AppliedStatistics_notes/binary-data.html)</t>
+  </si>
+  <si>
+    <t>[AS notes on Stratification (7.2) and Moderation (7.3)](https://norcalbiostat.github.io/AppliedStatistics_notes/stratification.html)
+PDS Video 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PDS video 11 on ANOVA](http://passiondrivenstatistics.com/2016/05/11/r-chapter-11/) 
+</t>
+  </si>
+  <si>
+    <t>[PDS video 12](http://passiondrivenstatistics.com/2016/06/29/r-chapter-12/) on Chi-square test of equal proportions
+PDS video on [[Correlation]](https://www.youtube.com/watch?v=qBwjKfytls8&amp;list=PLDEF0B9CBD27AD37E&amp;index=60) video
+[AS Notes Ch 5](https://norcalbiostat.github.io/AppliedStatistics_notes/simple-linear-regression.html)</t>
+  </si>
+  <si>
+    <t>Shiny Ed apps for learning distributions https://www2.stat.duke.edu/~mc301/shinyed/
+OI Video on the [[CLT]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=lsCc_pS3O28) (5 min)
+OI Video on [[Confidence Intervals]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=FUaXoKdCre4) (6 min)
+OI Video on [[Hypothesis testing]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=NVbPE1_Cbx8) (8 min)</t>
   </si>
 </sst>
 </file>
@@ -798,7 +820,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1218,7 +1240,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1380,9 +1402,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1889,24 +1908,24 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="38" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="45.83203125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="47.625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="45.875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="44" customWidth="1"/>
     <col min="8" max="9" width="38" style="44" customWidth="1"/>
     <col min="10" max="10" width="46.5" style="44" customWidth="1"/>
-    <col min="11" max="16384" width="14.83203125" style="38"/>
+    <col min="11" max="16384" width="14.875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
@@ -1938,106 +1957,106 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="86" customFormat="1" ht="409.6">
-      <c r="A2" s="82">
+    <row r="2" spans="1:11" s="85" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="81">
         <v>1</v>
       </c>
-      <c r="B2" s="83">
+      <c r="B2" s="82">
         <v>41877</v>
       </c>
-      <c r="C2" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="84" t="s">
+      <c r="E2" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="G2" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" s="84"/>
-    </row>
-    <row r="3" spans="1:11" ht="240">
-      <c r="A3" s="82">
+      <c r="I2" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="83"/>
+    </row>
+    <row r="3" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A3" s="81">
         <v>2</v>
       </c>
-      <c r="B3" s="83">
+      <c r="B3" s="82">
         <f t="shared" ref="B3:B18" si="0">B2+7</f>
         <v>41884</v>
       </c>
-      <c r="C3" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="87" t="s">
+      <c r="D3" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" s="88" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="256">
-      <c r="A4" s="82">
+      <c r="H3" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="A4" s="81">
         <v>3</v>
       </c>
-      <c r="B4" s="83">
+      <c r="B4" s="82">
         <f t="shared" si="0"/>
         <v>41891</v>
       </c>
-      <c r="C4" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="84" t="s">
+      <c r="C4" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="88" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="320">
+      <c r="J4" s="87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -2046,31 +2065,31 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="80" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="160">
+    </row>
+    <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -2079,31 +2098,31 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="80" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="160">
+      <c r="J6" s="79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>6</v>
       </c>
@@ -2112,31 +2131,31 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" s="80" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="365">
+        <v>149</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -2145,31 +2164,31 @@
         <v>41919</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J8" s="80" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="96">
+        <v>156</v>
+      </c>
+      <c r="J8" s="79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -2178,23 +2197,23 @@
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="80" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="48">
+      <c r="J9" s="79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -2203,23 +2222,23 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J10" s="71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="48">
+        <v>169</v>
+      </c>
+      <c r="J10" s="79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -2228,19 +2247,21 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="80" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="48">
+      <c r="J11" s="79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>11</v>
       </c>
@@ -2249,21 +2270,23 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="71" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="48">
+      <c r="J12" s="79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>12</v>
       </c>
@@ -2272,23 +2295,25 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="G13" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" s="79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43">
         <f t="shared" si="0"/>
@@ -2301,9 +2326,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="72"/>
-    </row>
-    <row r="15" spans="1:11" ht="48">
+      <c r="J14" s="71"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>13</v>
       </c>
@@ -2312,7 +2337,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2320,11 +2345,11 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="80" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="48">
+      <c r="J15" s="79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>14</v>
       </c>
@@ -2333,19 +2358,21 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="80" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="48">
+      <c r="J16" s="79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>15</v>
       </c>
@@ -2362,11 +2389,11 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="80" t="s">
+      <c r="J17" s="79" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="32">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>0</v>
       </c>
@@ -2397,23 +2424,23 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="17"/>
-    <col min="2" max="2" width="32.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="19"/>
+    <col min="1" max="1" width="7.625" style="17"/>
+    <col min="2" max="2" width="32.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="19"/>
     <col min="5" max="5" width="10.5" style="46" customWidth="1"/>
-    <col min="6" max="7" width="7.6640625" style="46" customWidth="1"/>
+    <col min="6" max="7" width="7.625" style="46" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="10" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="8"/>
-    <col min="11" max="11" width="4.6640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="7.6640625" style="7"/>
+    <col min="10" max="10" width="7.625" style="8"/>
+    <col min="11" max="11" width="4.625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="7.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" thickBot="1">
+    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2472,7 +2499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="17" thickTop="1">
+    <row r="2" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -2524,7 +2551,7 @@
         <v>3.0837004405286344E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16">
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.1000000000000001</v>
       </c>
@@ -2582,7 +2609,7 @@
         <v>0.21806167400881057</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1.2</v>
       </c>
@@ -2640,7 +2667,7 @@
         <v>4.405286343612335E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1.3</v>
       </c>
@@ -2688,7 +2715,7 @@
         <v>6.8281938325991193E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1.4</v>
       </c>
@@ -2746,7 +2773,7 @@
         <v>2.2026431718061675E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1.5</v>
       </c>
@@ -2804,7 +2831,7 @@
         <v>0.38546255506607929</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="17" thickBot="1">
+    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>1.6</v>
       </c>
@@ -2858,7 +2885,7 @@
         <v>0.23127753303964757</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16" thickBot="1">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>2.1</v>
       </c>
@@ -2890,7 +2917,7 @@
       </c>
       <c r="V9" s="17"/>
     </row>
-    <row r="10" spans="1:22" ht="16" thickTop="1">
+    <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2.2000000000000002</v>
       </c>
@@ -2910,7 +2937,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2.2999999999999998</v>
       </c>
@@ -2930,7 +2957,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2.4</v>
       </c>
@@ -2950,7 +2977,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="16">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2.5</v>
       </c>
@@ -2973,7 +3000,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="16" thickBot="1">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>2.6</v>
       </c>
@@ -2993,7 +3020,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>3.1</v>
       </c>
@@ -3009,15 +3036,15 @@
       <c r="E15" s="46">
         <v>41893</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="99" t="s">
+      <c r="H15" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="99"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="I15" s="98"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>3.2</v>
       </c>
@@ -3033,15 +3060,15 @@
       <c r="E16" s="46">
         <v>41897</v>
       </c>
-      <c r="G16" s="73" t="s">
+      <c r="G16" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="100" t="s">
+      <c r="H16" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="100"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" s="99"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>3.3</v>
       </c>
@@ -3057,15 +3084,15 @@
       <c r="E17" s="47">
         <v>41897</v>
       </c>
-      <c r="G17" s="73" t="s">
+      <c r="G17" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="101" t="s">
+      <c r="H17" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="101"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="100"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>3.4</v>
       </c>
@@ -3081,15 +3108,15 @@
       <c r="E18" s="46">
         <v>41897</v>
       </c>
-      <c r="G18" s="73" t="s">
+      <c r="G18" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="102" t="s">
+      <c r="H18" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="102"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="101"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>3.5</v>
       </c>
@@ -3105,36 +3132,36 @@
       <c r="E19" s="46">
         <v>41897</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="103" t="s">
+      <c r="H19" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="103"/>
-    </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1">
+      <c r="I19" s="102"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>3.6</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="77" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="21">
         <v>4</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="73">
         <v>41899</v>
       </c>
-      <c r="G20" s="73" t="s">
+      <c r="G20" s="72" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>4.0999999999999996</v>
       </c>
@@ -3150,16 +3177,16 @@
       <c r="E21" s="46">
         <v>41898</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>4.2</v>
       </c>
-      <c r="B22" s="79" t="s">
-        <v>128</v>
+      <c r="B22" s="78" t="s">
+        <v>127</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>8</v>
@@ -3173,16 +3200,16 @@
       <c r="F22" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>4.3</v>
       </c>
-      <c r="B23" s="89" t="s">
-        <v>141</v>
+      <c r="B23" s="88" t="s">
+        <v>140</v>
       </c>
       <c r="C23" s="56" t="s">
         <v>28</v>
@@ -3194,16 +3221,16 @@
         <v>41906</v>
       </c>
       <c r="F23" s="68"/>
-      <c r="G23" s="92" t="s">
+      <c r="G23" s="91" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B24" s="76" t="s">
-        <v>116</v>
+      <c r="B24" s="75" t="s">
+        <v>115</v>
       </c>
       <c r="C24" s="55" t="s">
         <v>15</v>
@@ -3214,32 +3241,32 @@
       <c r="E24" s="46">
         <v>41904</v>
       </c>
-      <c r="G24" s="81" t="s">
+      <c r="G24" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>4.5</v>
       </c>
-      <c r="B25" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="78" t="s">
+      <c r="B25" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="77" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="21">
         <v>4</v>
       </c>
-      <c r="E25" s="74">
+      <c r="E25" s="73">
         <v>41906</v>
       </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="91" t="s">
+      <c r="F25" s="73"/>
+      <c r="G25" s="90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>5.0999999999999996</v>
       </c>
@@ -3255,11 +3282,11 @@
       <c r="E26" s="46">
         <v>41905</v>
       </c>
-      <c r="G26" s="95" t="s">
+      <c r="G26" s="94" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>5.2</v>
       </c>
@@ -3275,16 +3302,16 @@
       <c r="E27" s="46">
         <v>41911</v>
       </c>
-      <c r="G27" s="92" t="s">
+      <c r="G27" s="91" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>5.3</v>
       </c>
-      <c r="B28" s="89" t="s">
-        <v>142</v>
+      <c r="B28" s="88" t="s">
+        <v>141</v>
       </c>
       <c r="C28" s="58" t="s">
         <v>8</v>
@@ -3295,32 +3322,32 @@
       <c r="E28" s="46">
         <v>41911</v>
       </c>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="94" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16" thickBot="1">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>5.4</v>
       </c>
-      <c r="B29" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="78" t="s">
+      <c r="B29" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="77" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="21">
         <v>4</v>
       </c>
-      <c r="E29" s="74">
+      <c r="E29" s="73">
         <v>41913</v>
       </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="94" t="s">
+      <c r="F29" s="73"/>
+      <c r="G29" s="93" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>6</v>
       </c>
@@ -3337,7 +3364,7 @@
         <v>41914</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>6</v>
       </c>
@@ -3351,7 +3378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>6</v>
       </c>
@@ -3363,7 +3390,7 @@
       </c>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>6</v>
       </c>
@@ -3375,7 +3402,7 @@
       </c>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>6</v>
       </c>
@@ -3392,7 +3419,7 @@
         <v>41918</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>6</v>
       </c>
@@ -3411,7 +3438,7 @@
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>7</v>
       </c>
@@ -3428,7 +3455,7 @@
         <v>41921</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>7</v>
       </c>
@@ -3442,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>7</v>
       </c>
@@ -3454,7 +3481,7 @@
       </c>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>7</v>
       </c>
@@ -3468,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>7</v>
       </c>
@@ -3482,12 +3509,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>7</v>
       </c>
-      <c r="B41" s="98" t="s">
-        <v>171</v>
+      <c r="B41" s="97" t="s">
+        <v>163</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>82</v>
@@ -3496,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>7</v>
       </c>
@@ -3510,7 +3537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>8</v>
       </c>
@@ -3527,7 +3554,7 @@
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>8</v>
       </c>
@@ -3544,7 +3571,7 @@
       <c r="F44" s="47"/>
       <c r="G44" s="47"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>9</v>
       </c>
@@ -3561,7 +3588,7 @@
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>9</v>
       </c>
@@ -3578,7 +3605,7 @@
       <c r="F46" s="47"/>
       <c r="G46" s="47"/>
     </row>
-    <row r="47" spans="1:7" ht="16">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>9</v>
       </c>
@@ -3592,12 +3619,12 @@
         <v>15</v>
       </c>
       <c r="E47" s="47"/>
-      <c r="F47" s="96" t="s">
+      <c r="F47" s="95" t="s">
         <v>97</v>
       </c>
       <c r="G47" s="47"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>10</v>
       </c>
@@ -3611,10 +3638,10 @@
         <v>2</v>
       </c>
       <c r="E48" s="47"/>
-      <c r="F48" s="97"/>
+      <c r="F48" s="96"/>
       <c r="G48" s="47"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>10</v>
       </c>
@@ -3628,10 +3655,10 @@
         <v>6</v>
       </c>
       <c r="E49" s="47"/>
-      <c r="F49" s="97"/>
+      <c r="F49" s="96"/>
       <c r="G49" s="47"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>10</v>
       </c>
@@ -3645,10 +3672,10 @@
         <v>2</v>
       </c>
       <c r="E50" s="47"/>
-      <c r="F50" s="97"/>
+      <c r="F50" s="96"/>
       <c r="G50" s="47"/>
     </row>
-    <row r="51" spans="1:11" ht="16">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>11</v>
       </c>
@@ -3662,12 +3689,12 @@
         <v>20</v>
       </c>
       <c r="E51" s="47"/>
-      <c r="F51" s="96" t="s">
+      <c r="F51" s="95" t="s">
         <v>97</v>
       </c>
       <c r="G51" s="47"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>11</v>
       </c>
@@ -3681,10 +3708,10 @@
         <v>2</v>
       </c>
       <c r="E52" s="47"/>
-      <c r="F52" s="97"/>
+      <c r="F52" s="96"/>
       <c r="G52" s="47"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>11</v>
       </c>
@@ -3698,10 +3725,10 @@
         <v>4</v>
       </c>
       <c r="E53" s="47"/>
-      <c r="F53" s="97"/>
+      <c r="F53" s="96"/>
       <c r="G53" s="47"/>
     </row>
-    <row r="54" spans="1:11" ht="16">
+    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>11</v>
       </c>
@@ -3715,12 +3742,12 @@
         <v>15</v>
       </c>
       <c r="E54" s="47"/>
-      <c r="F54" s="96" t="s">
+      <c r="F54" s="95" t="s">
         <v>97</v>
       </c>
       <c r="G54" s="47"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>12</v>
       </c>
@@ -3732,10 +3759,10 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="47"/>
-      <c r="F55" s="97"/>
+      <c r="F55" s="96"/>
       <c r="G55" s="47"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>12</v>
       </c>
@@ -3749,10 +3776,10 @@
         <v>15</v>
       </c>
       <c r="E56" s="47"/>
-      <c r="F56" s="97"/>
+      <c r="F56" s="96"/>
       <c r="G56" s="47"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>13</v>
       </c>
@@ -3766,10 +3793,10 @@
         <v>2</v>
       </c>
       <c r="E57" s="47"/>
-      <c r="F57" s="97"/>
+      <c r="F57" s="96"/>
       <c r="G57" s="47"/>
     </row>
-    <row r="58" spans="1:11" ht="16">
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>13</v>
       </c>
@@ -3783,12 +3810,12 @@
         <v>20</v>
       </c>
       <c r="E58" s="47"/>
-      <c r="F58" s="96" t="s">
+      <c r="F58" s="95" t="s">
         <v>97</v>
       </c>
       <c r="G58" s="47"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>13</v>
       </c>
@@ -3805,7 +3832,7 @@
       <c r="F59" s="47"/>
       <c r="G59" s="47"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>14</v>
       </c>
@@ -3822,7 +3849,7 @@
       <c r="F60" s="47"/>
       <c r="G60" s="47"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>14</v>
       </c>
@@ -3839,7 +3866,7 @@
       <c r="F61" s="47"/>
       <c r="G61" s="47"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>15</v>
       </c>
@@ -3858,7 +3885,7 @@
       <c r="F62" s="48"/>
       <c r="G62" s="48"/>
     </row>
-    <row r="63" spans="1:11" s="18" customFormat="1">
+    <row r="63" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>15</v>
       </c>
@@ -3881,7 +3908,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="17"/>
     </row>
-    <row r="64" spans="1:11" s="18" customFormat="1">
+    <row r="64" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>15</v>
       </c>
@@ -3901,7 +3928,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>15</v>
       </c>
@@ -3921,7 +3948,7 @@
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>17</v>
       </c>
@@ -3938,7 +3965,7 @@
       <c r="F66" s="47"/>
       <c r="G66" s="47"/>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>17</v>
       </c>
@@ -3955,7 +3982,7 @@
       <c r="F67" s="47"/>
       <c r="G67" s="47"/>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>17</v>
       </c>
@@ -3972,7 +3999,7 @@
       <c r="F68" s="47"/>
       <c r="G68" s="47"/>
     </row>
-    <row r="69" spans="1:22" s="8" customFormat="1">
+    <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>18</v>
       </c>
@@ -4001,7 +4028,7 @@
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
     </row>
-    <row r="70" spans="1:22" s="8" customFormat="1">
+    <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -4022,7 +4049,7 @@
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
     </row>
-    <row r="71" spans="1:22" s="8" customFormat="1">
+    <row r="71" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="E71" s="46"/>
       <c r="F71" s="46"/>
@@ -4040,7 +4067,7 @@
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
     </row>
-    <row r="72" spans="1:22" s="8" customFormat="1">
+    <row r="72" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -4061,7 +4088,7 @@
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
     </row>
-    <row r="73" spans="1:22" s="8" customFormat="1">
+    <row r="73" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -4082,7 +4109,7 @@
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
     </row>
-    <row r="74" spans="1:22" s="8" customFormat="1">
+    <row r="74" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -4103,7 +4130,7 @@
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
     </row>
-    <row r="75" spans="1:22" s="8" customFormat="1">
+    <row r="75" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -4124,7 +4151,7 @@
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
     </row>
-    <row r="76" spans="1:22" s="8" customFormat="1">
+    <row r="76" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -4145,7 +4172,7 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
     </row>
-    <row r="77" spans="1:22" s="8" customFormat="1">
+    <row r="77" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -4166,7 +4193,7 @@
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
     </row>
-    <row r="78" spans="1:22" s="8" customFormat="1">
+    <row r="78" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -4187,7 +4214,7 @@
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
     </row>
-    <row r="79" spans="1:22" s="8" customFormat="1">
+    <row r="79" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -4208,7 +4235,7 @@
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
     </row>
-    <row r="80" spans="1:22" s="8" customFormat="1">
+    <row r="80" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -4231,7 +4258,7 @@
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
     </row>
-    <row r="81" spans="1:22" s="8" customFormat="1">
+    <row r="81" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4252,7 +4279,7 @@
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
     </row>
-    <row r="82" spans="1:22" s="8" customFormat="1">
+    <row r="82" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4275,7 +4302,7 @@
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
     </row>
-    <row r="83" spans="1:22" s="8" customFormat="1">
+    <row r="83" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4298,7 +4325,7 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
     </row>
-    <row r="84" spans="1:22" s="8" customFormat="1">
+    <row r="84" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4321,7 +4348,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
     </row>
-    <row r="85" spans="1:22" s="8" customFormat="1">
+    <row r="85" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4344,7 +4371,7 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
     </row>
-    <row r="86" spans="1:22" s="8" customFormat="1">
+    <row r="86" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4367,7 +4394,7 @@
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
     </row>
-    <row r="87" spans="1:22" s="8" customFormat="1">
+    <row r="87" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4390,7 +4417,7 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
     </row>
-    <row r="88" spans="1:22" s="8" customFormat="1">
+    <row r="88" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4413,7 +4440,7 @@
       <c r="U88" s="7"/>
       <c r="V88" s="7"/>
     </row>
-    <row r="89" spans="1:22" s="8" customFormat="1">
+    <row r="89" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4436,7 +4463,7 @@
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
     </row>
-    <row r="90" spans="1:22" s="8" customFormat="1">
+    <row r="90" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4457,13 +4484,13 @@
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13"/>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="24"/>
       <c r="B92" s="25"/>
     </row>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E65D0B3-2EFE-4D76-96EF-7195DC6B2B64}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$91</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="188">
   <si>
     <t>Finals Week</t>
   </si>
@@ -664,12 +663,6 @@
 </t>
   </si>
   <si>
-    <t>Read lectue notes on writing about empirical research
-Read instructions for first poster prep assignment
-Print out and take the sample exam. 
-Watch the PDS video 10 before Friday</t>
-  </si>
-  <si>
     <t>[PDS Video 10](http://passiondrivenstatistics.com/2015/07/15/chapter-10/)
 Lecture notes on [writing empirical research](https://norcalbiostat.github.io/MATH315/notes.html)
 Sample Exam [[PDF]](reading/sample_exam_1.pdf)
@@ -678,21 +671,6 @@
   <si>
     <t>Identify one binary and one continuous variable in your data set of interest. 
 Come prepared with summary statistics for each (n, # missing values, #yes, mean, sd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate a point estimate on a data set
-Describe the behavior of a point estimate as sample size increases
-Construct and interpret a confidence interval
-Calculate and explain what the Margin of Error is
-Calculate and explain what the standard error of the mean is, and explain how it is different from a standard deviation
-Explain what can make the width of a confidence interval larger or smaller
-Conduct a full 5 step hypothesis test
-Explain the differnece between practical and statistical significance
-Explain the concept of p-hacking
-</t>
-  </si>
-  <si>
-    <t>Go through a full 5 step hypothesis is</t>
   </si>
   <si>
     <t>Start the foundations worksheet
@@ -752,10 +730,6 @@
     <t>**RAT** on Study Design</t>
   </si>
   <si>
-    <t>Open work dayModel building
-Open work day</t>
-  </si>
-  <si>
     <t>No School
 Logistic Regression
 Categorical predictors</t>
@@ -796,10 +770,6 @@
   <si>
     <t>[AS notes on Stratification (7.2) and Moderation (7.3)](https://norcalbiostat.github.io/AppliedStatistics_notes/stratification.html)
 PDS Video 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PDS video 11 on ANOVA](http://passiondrivenstatistics.com/2016/05/11/r-chapter-11/) 
-</t>
   </si>
   <si>
     <t>[PDS video 12](http://passiondrivenstatistics.com/2016/06/29/r-chapter-12/) on Chi-square test of equal proportions
@@ -812,11 +782,53 @@
 OI Video on [[Confidence Intervals]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=FUaXoKdCre4) (6 min)
 OI Video on [[Hypothesis testing]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=NVbPE1_Cbx8) (8 min)</t>
   </si>
+  <si>
+    <t>Open work day
+Model building
+Open work day</t>
+  </si>
+  <si>
+    <t>Read lecture notes on writing about empirical research
+Read instructions for first poster prep assignment
+Print out and take the sample exam. 
+Watch the PDS video 10 before Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go through a full 5 step hypothesis. 
+Finish the foundations worksheet. </t>
+  </si>
+  <si>
+    <t>Explain the difference between practical and statistical significance
+Distinguish between a Type I and Type II error
+Explain the concept of p-hacking
+Conduct a hypothesis test in R
+Identify an appropriate analysis depending on the data types in question
+Conduct and interpret a two-sample T-test
+Conduct and interpret an ANOVA</t>
+  </si>
+  <si>
+    <t>[PDS video 11 on ANOVA](http://passiondrivenstatistics.com/2016/05/11/r-chapter-11/) 
+[Course packet chapter 5 and 6](reading/RAD_course_notes.pdf)</t>
+  </si>
+  <si>
+    <t>Read CN 6.2 &amp; 6.3 before Monday
+Read the instructions for the Bivariate inference assignment
+Watch the PDS video on ANOVA and read CN 6.4 before Friday</t>
+  </si>
+  <si>
+    <t>Calculate a point estimate on a data set
+Describe the behavior of a point estimate as sample size increases
+Construct and interpret a confidence interval
+Calculate and explain the Margin of Error
+Calculate and explain what the standard error of the mean is, and explain how it is different from a standard deviation
+Explain what can make the width of a confidence interval larger or smaller
+Conduct a full 5 step hypothesis test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
@@ -1563,10 +1575,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Percent 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 2" xfId="51"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Percent 2" xfId="52"/>
+    <cellStyle name="Percent 3" xfId="81"/>
     <cellStyle name="Total" xfId="78" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1903,12 +1915,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,105 +2069,105 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+      <c r="A5" s="81">
         <v>4</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="82">
         <f>B4+7</f>
         <v>41898</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="87" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
+      <c r="A6" s="81">
         <v>5</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="82">
         <f t="shared" si="0"/>
         <v>41905</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="79" t="s">
-        <v>177</v>
+      <c r="J6" s="87" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
+      <c r="A7" s="81">
         <v>6</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="82">
         <f t="shared" si="0"/>
         <v>41912</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="J7" s="79" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="360" x14ac:dyDescent="0.25">
+      <c r="J7" s="87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -2167,28 +2179,28 @@
         <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -2199,18 +2211,22 @@
       <c r="C9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="79" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -2227,15 +2243,15 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J10" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2247,18 +2263,18 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="79" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -2270,20 +2286,20 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -2295,22 +2311,22 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G13" s="70" t="s">
         <v>101</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J13" s="79" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2328,7 +2344,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="71"/>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>13</v>
       </c>
@@ -2337,7 +2353,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2346,7 +2362,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="79" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2358,18 +2374,18 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2417,7 +2433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -3514,7 +3530,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="97" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>82</v>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B4D9A6-4195-4303-B02E-882900A6D9BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$91</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="195">
   <si>
     <t>Finals Week</t>
   </si>
@@ -724,9 +725,6 @@
 Define the margin of error</t>
   </si>
   <si>
-    <t>**RAT** on Linear Regression</t>
-  </si>
-  <si>
     <t>**RAT** on Study Design</t>
   </si>
   <si>
@@ -824,11 +822,46 @@
 Explain what can make the width of a confidence interval larger or smaller
 Conduct a full 5 step hypothesis test</t>
   </si>
+  <si>
+    <t>Conduct and interpret a chi-squared test of association
+Calculate a linear regression equation and interpret the coefficients
+Conduct and interpret a test of correlation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch the assigned PDS Videos on correlation and tests for equal proportions
+Complete the T-Test and ANOVA questions in the Homework
+Review the AS Notebook on Simple Linear Regression
+</t>
+  </si>
+  <si>
+    <t>How to use the chi-squared distribution to test if the proportion of an event is equally likely across multiple groups</t>
+  </si>
+  <si>
+    <t>Assessing simple correlation between two quantitative variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**RAT** on Linear Regression
+What is "best" about the best fit line? 
+Why is it called the least squares line? 
+How do you interpret the slope and intercept of this line? </t>
+  </si>
+  <si>
+    <t>Open work day to finish the Bivarate inference homework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multivariable analysis - How does a third variable modify an existing relationship between a response and explanatory variable? </t>
+  </si>
+  <si>
+    <t>Exam 2 - Choosing appropriate inference
+interpreting results in context of the problem
+conducting hypothesis testing
+Calculating and interpreting confidence intervals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
@@ -1252,7 +1285,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1353,9 +1386,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1575,10 +1605,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Percent 2" xfId="52"/>
-    <cellStyle name="Percent 3" xfId="81"/>
+    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Percent 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
     <cellStyle name="Total" xfId="78" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1915,12 +1945,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,12 +1958,12 @@
     <col min="1" max="1" width="8.125" style="38" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="38" customWidth="1"/>
     <col min="3" max="3" width="33.625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="47.625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="45.875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="44" customWidth="1"/>
-    <col min="8" max="9" width="38" style="44" customWidth="1"/>
-    <col min="10" max="10" width="46.5" style="44" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="47.625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="45.875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="43" customWidth="1"/>
+    <col min="8" max="9" width="38" style="43" customWidth="1"/>
+    <col min="10" max="10" width="46.5" style="43" customWidth="1"/>
     <col min="11" max="16384" width="14.875" style="38"/>
   </cols>
   <sheetData>
@@ -1969,296 +1999,304 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="85" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="81">
+    <row r="2" spans="1:11" s="84" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80">
         <v>1</v>
       </c>
-      <c r="B2" s="82">
+      <c r="B2" s="81">
         <v>41877</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="83"/>
-    </row>
-    <row r="3" spans="1:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="A3" s="81">
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="1:11" ht="225" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80">
         <v>2</v>
       </c>
-      <c r="B3" s="82">
+      <c r="B3" s="81">
         <f t="shared" ref="B3:B18" si="0">B2+7</f>
         <v>41884</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="86" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="A4" s="81">
+    <row r="4" spans="1:11" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80">
         <v>3</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="81">
         <f t="shared" si="0"/>
         <v>41891</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="86" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="300" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
+    <row r="5" spans="1:11" ht="300" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="80">
         <v>4</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="81">
         <f>B4+7</f>
         <v>41898</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="81">
+    <row r="6" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="80">
         <v>5</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="81">
         <f t="shared" si="0"/>
         <v>41905</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="87" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="J6" s="86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="80">
         <v>6</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="81">
         <f t="shared" si="0"/>
         <v>41912</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="83" t="s">
+      <c r="E7" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="J7" s="87" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="270" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+      <c r="J7" s="86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="270" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="80">
         <v>7</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="81">
         <f t="shared" si="0"/>
         <v>41919</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J8" s="79" t="s">
+      <c r="I8" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="86" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="A9" s="80">
         <v>8</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="81">
         <f t="shared" si="0"/>
         <v>41926</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="79" t="s">
+      <c r="G9" s="82"/>
+      <c r="H9" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="82"/>
+      <c r="J9" s="86" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="40">
         <v>9</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="39">
         <f t="shared" si="0"/>
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="78" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
         <v>10</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="39">
         <f t="shared" si="0"/>
         <v>41940</v>
       </c>
@@ -2268,70 +2306,76 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" s="78" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="40">
         <v>11</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="39">
         <f t="shared" si="0"/>
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="78" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
+      <c r="A13" s="40">
         <v>12</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="39">
         <f t="shared" si="0"/>
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="69" t="s">
         <v>101</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" s="79" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+      <c r="J13" s="78" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42">
         <f t="shared" si="0"/>
         <v>41961</v>
       </c>
@@ -2342,18 +2386,18 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="71"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="40">
         <v>13</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="39">
         <f t="shared" si="0"/>
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2361,15 +2405,15 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="79" t="s">
+      <c r="J15" s="78" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="40">
         <v>14</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="39">
         <f t="shared" si="0"/>
         <v>41975</v>
       </c>
@@ -2379,20 +2423,20 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="79" t="s">
+      <c r="J16" s="78" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
+      <c r="A17" s="40">
         <v>15</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="39">
         <f t="shared" si="0"/>
         <v>41982</v>
       </c>
@@ -2405,15 +2449,15 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="79" t="s">
+      <c r="J17" s="78" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="39">
         <f t="shared" si="0"/>
         <v>41989</v>
       </c>
@@ -2433,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -2446,8 +2490,8 @@
     <col min="2" max="2" width="32.125" style="18" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="19"/>
-    <col min="5" max="5" width="10.5" style="46" customWidth="1"/>
-    <col min="6" max="7" width="7.625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="45" customWidth="1"/>
+    <col min="6" max="7" width="7.625" style="45" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="10" style="8" customWidth="1"/>
     <col min="10" max="10" width="7.625" style="8"/>
@@ -2574,19 +2618,19 @@
       <c r="B3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="13">
         <v>2</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>41881</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="63" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="8">
@@ -2638,10 +2682,10 @@
       <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>41879</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="51" t="s">
         <v>88</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -2696,10 +2740,10 @@
       <c r="D5" s="13">
         <v>3</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>41883</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="51" t="s">
         <v>88</v>
       </c>
       <c r="J5" s="14"/>
@@ -2744,10 +2788,10 @@
       <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>41883</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="51" t="s">
         <v>88</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2793,19 +2837,19 @@
       <c r="A7" s="11">
         <v>1.5</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="13">
         <v>5</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>41883</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="50" t="s">
         <v>88</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2851,22 +2895,22 @@
       <c r="A8" s="20">
         <v>1.6</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>82</v>
       </c>
       <c r="D8" s="21">
         <v>2.5</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>41883</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="62" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="8">
@@ -2914,10 +2958,10 @@
       <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>41886</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="51" t="s">
         <v>88</v>
       </c>
       <c r="I9" s="6">
@@ -2946,10 +2990,10 @@
       <c r="D10" s="13">
         <v>1</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>41890</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2960,16 +3004,16 @@
       <c r="B11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="13">
         <v>5</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>41890</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2980,16 +3024,16 @@
       <c r="B12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="49" t="s">
         <v>82</v>
       </c>
       <c r="D12" s="13">
         <v>3</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>41890</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2997,22 +3041,22 @@
       <c r="A13" s="11">
         <v>2.5</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>41890</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3020,19 +3064,19 @@
       <c r="A14" s="20">
         <v>2.6</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="21">
         <v>4</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>41892</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3049,16 +3093,16 @@
       <c r="D15" s="13">
         <v>2</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <v>41893</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="98" t="s">
+      <c r="H15" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="98"/>
+      <c r="I15" s="97"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -3073,16 +3117,16 @@
       <c r="D16" s="13">
         <v>2</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <v>41897</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="99" t="s">
+      <c r="H16" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="99"/>
+      <c r="I16" s="98"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -3097,16 +3141,16 @@
       <c r="D17" s="13">
         <v>1</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="46">
         <v>41897</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="100" t="s">
+      <c r="H17" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="100"/>
+      <c r="I17" s="99"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -3115,65 +3159,65 @@
       <c r="B18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="49" t="s">
         <v>82</v>
       </c>
       <c r="D18" s="13">
         <v>2</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="45">
         <v>41897</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="101" t="s">
+      <c r="H18" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="101"/>
+      <c r="I18" s="100"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>3.5</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="13">
         <v>10</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="45">
         <v>41897</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="69" t="s">
+      <c r="F19" s="73"/>
+      <c r="G19" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="102" t="s">
+      <c r="H19" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="102"/>
+      <c r="I19" s="101"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>3.6</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="76" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="21">
         <v>4</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="72">
         <v>41899</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="71" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3190,10 +3234,10 @@
       <c r="D21" s="13">
         <v>2</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="45">
         <v>41898</v>
       </c>
-      <c r="G21" s="80" t="s">
+      <c r="G21" s="79" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3201,22 +3245,22 @@
       <c r="A22" s="11">
         <v>4.2</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="13">
         <v>5</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="45">
         <v>41904</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="80" t="s">
+      <c r="G22" s="79" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3224,20 +3268,20 @@
       <c r="A23" s="11">
         <v>4.3</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="55" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="13">
         <v>4</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="45">
         <v>41906</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="91" t="s">
+      <c r="F23" s="67"/>
+      <c r="G23" s="90" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3245,19 +3289,19 @@
       <c r="A24" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="13">
         <v>15</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="45">
         <v>41904</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="G24" s="79" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3265,20 +3309,20 @@
       <c r="A25" s="20">
         <v>4.5</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="76" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="21">
         <v>4</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="72">
         <v>41906</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="90" t="s">
+      <c r="F25" s="72"/>
+      <c r="G25" s="89" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3295,10 +3339,10 @@
       <c r="D26" s="13">
         <v>2</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="45">
         <v>41905</v>
       </c>
-      <c r="G26" s="94" t="s">
+      <c r="G26" s="93" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3315,10 +3359,10 @@
       <c r="D27" s="13">
         <v>2</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="45">
         <v>41911</v>
       </c>
-      <c r="G27" s="91" t="s">
+      <c r="G27" s="90" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3326,19 +3370,19 @@
       <c r="A28" s="11">
         <v>5.3</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="13">
         <v>5</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="45">
         <v>41911</v>
       </c>
-      <c r="G28" s="94" t="s">
+      <c r="G28" s="93" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3346,20 +3390,20 @@
       <c r="A29" s="20">
         <v>5.4</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="76" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="21">
         <v>4</v>
       </c>
-      <c r="E29" s="73">
+      <c r="E29" s="72">
         <v>41913</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="93" t="s">
+      <c r="F29" s="72"/>
+      <c r="G29" s="92" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3376,7 +3420,7 @@
       <c r="D30" s="13">
         <v>50</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="45">
         <v>41914</v>
       </c>
     </row>
@@ -3398,10 +3442,10 @@
       <c r="A32" s="11">
         <v>6</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="60" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="13"/>
@@ -3410,10 +3454,10 @@
       <c r="A33" s="11">
         <v>6</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="65" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="13"/>
@@ -3425,13 +3469,13 @@
       <c r="B34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="60" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="13">
         <v>20</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="45">
         <v>41918</v>
       </c>
     </row>
@@ -3442,17 +3486,17 @@
       <c r="B35" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="65" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="13">
         <v>4</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="46">
         <v>41920</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
@@ -3467,7 +3511,7 @@
       <c r="D36" s="13">
         <v>2</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="45">
         <v>41921</v>
       </c>
     </row>
@@ -3529,7 +3573,7 @@
       <c r="A41" s="11">
         <v>7</v>
       </c>
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="96" t="s">
         <v>160</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -3546,7 +3590,7 @@
       <c r="B42" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="13">
@@ -3566,9 +3610,9 @@
       <c r="D43" s="13">
         <v>2</v>
       </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
@@ -3583,9 +3627,9 @@
       <c r="D44" s="13">
         <v>50</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
@@ -3600,9 +3644,9 @@
       <c r="D45" s="13">
         <v>2</v>
       </c>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
@@ -3617,9 +3661,9 @@
       <c r="D46" s="13">
         <v>1</v>
       </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
@@ -3628,17 +3672,17 @@
       <c r="B47" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="13">
         <v>15</v>
       </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="95" t="s">
+      <c r="E47" s="46"/>
+      <c r="F47" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="47"/>
+      <c r="G47" s="46"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
@@ -3653,9 +3697,9 @@
       <c r="D48" s="13">
         <v>2</v>
       </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="47"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="46"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
@@ -3664,15 +3708,15 @@
       <c r="B49" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="49" t="s">
         <v>82</v>
       </c>
       <c r="D49" s="13">
         <v>6</v>
       </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="47"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="46"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
@@ -3687,9 +3731,9 @@
       <c r="D50" s="13">
         <v>2</v>
       </c>
-      <c r="E50" s="47"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="47"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="46"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
@@ -3698,17 +3742,17 @@
       <c r="B51" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="60" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="13">
         <v>20</v>
       </c>
-      <c r="E51" s="47"/>
-      <c r="F51" s="95" t="s">
+      <c r="E51" s="46"/>
+      <c r="F51" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="47"/>
+      <c r="G51" s="46"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
@@ -3723,9 +3767,9 @@
       <c r="D52" s="13">
         <v>2</v>
       </c>
-      <c r="E52" s="47"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="47"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="46"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
@@ -3734,15 +3778,15 @@
       <c r="B53" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="65" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="13">
         <v>4</v>
       </c>
-      <c r="E53" s="47"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="47"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="46"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
@@ -3751,17 +3795,17 @@
       <c r="B54" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="13">
         <v>15</v>
       </c>
-      <c r="E54" s="47"/>
-      <c r="F54" s="95" t="s">
+      <c r="E54" s="46"/>
+      <c r="F54" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="G54" s="47"/>
+      <c r="G54" s="46"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
@@ -3774,9 +3818,9 @@
         <v>13</v>
       </c>
       <c r="D55" s="13"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="47"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="46"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
@@ -3785,15 +3829,15 @@
       <c r="B56" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="13">
         <v>15</v>
       </c>
-      <c r="E56" s="47"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="47"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="46"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
@@ -3808,9 +3852,9 @@
       <c r="D57" s="13">
         <v>2</v>
       </c>
-      <c r="E57" s="47"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="47"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="46"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
@@ -3819,17 +3863,17 @@
       <c r="B58" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="61" t="s">
+      <c r="C58" s="60" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="13">
         <v>20</v>
       </c>
-      <c r="E58" s="47"/>
-      <c r="F58" s="95" t="s">
+      <c r="E58" s="46"/>
+      <c r="F58" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="G58" s="47"/>
+      <c r="G58" s="46"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
@@ -3838,15 +3882,15 @@
       <c r="B59" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="65" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="13">
         <v>4</v>
       </c>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
@@ -3855,15 +3899,15 @@
       <c r="B60" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="13">
         <v>10</v>
       </c>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
@@ -3872,15 +3916,15 @@
       <c r="B61" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="65" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="13">
         <v>2</v>
       </c>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
@@ -3889,17 +3933,17 @@
       <c r="B62" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="13">
         <v>20</v>
       </c>
-      <c r="E62" s="48">
+      <c r="E62" s="47">
         <v>41986</v>
       </c>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
     </row>
     <row r="63" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
@@ -3908,17 +3952,17 @@
       <c r="B63" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="66" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="13">
         <v>5</v>
       </c>
-      <c r="E63" s="48">
+      <c r="E63" s="47">
         <v>41988</v>
       </c>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
       <c r="H63" s="7"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -3937,9 +3981,9 @@
       <c r="D64" s="13">
         <v>5</v>
       </c>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
@@ -3957,9 +4001,9 @@
       <c r="D65" s="13">
         <v>5</v>
       </c>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
       <c r="H65" s="18"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
@@ -3977,9 +4021,9 @@
       <c r="D66" s="13">
         <v>50</v>
       </c>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
@@ -3994,9 +4038,9 @@
       <c r="D67" s="13">
         <v>2</v>
       </c>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
@@ -4011,9 +4055,9 @@
       <c r="D68" s="13">
         <v>1</v>
       </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
     </row>
     <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
@@ -4028,9 +4072,9 @@
       <c r="D69" s="13">
         <v>10</v>
       </c>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
       <c r="H69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -4049,9 +4093,9 @@
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="13"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
       <c r="H70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -4067,9 +4111,9 @@
     </row>
     <row r="71" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
       <c r="H71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
@@ -4088,9 +4132,9 @@
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="13"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
       <c r="H72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -4109,9 +4153,9 @@
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="13"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
       <c r="H73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
@@ -4130,9 +4174,9 @@
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
       <c r="H74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -4151,9 +4195,9 @@
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="13"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
       <c r="H75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -4172,9 +4216,9 @@
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="13"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
       <c r="H76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -4193,9 +4237,9 @@
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="13"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
       <c r="H77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -4214,9 +4258,9 @@
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
       <c r="H78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -4235,9 +4279,9 @@
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="13"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
       <c r="H79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
@@ -4256,9 +4300,9 @@
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="13"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
@@ -4279,9 +4323,9 @@
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="13"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
       <c r="H81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
@@ -4300,9 +4344,9 @@
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="13"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -4323,9 +4367,9 @@
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="13"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -4346,9 +4390,9 @@
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="13"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -4369,9 +4413,9 @@
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="13"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -4392,9 +4436,9 @@
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="13"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -4415,9 +4459,9 @@
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="13"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
@@ -4438,9 +4482,9 @@
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
@@ -4461,9 +4505,9 @@
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="13"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="45"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
@@ -4484,9 +4528,9 @@
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="13"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
       <c r="H90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B4D9A6-4195-4303-B02E-882900A6D9BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$91</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="197">
   <si>
     <t>Finals Week</t>
   </si>
@@ -770,11 +769,6 @@
 PDS Video 14</t>
   </si>
   <si>
-    <t>[PDS video 12](http://passiondrivenstatistics.com/2016/06/29/r-chapter-12/) on Chi-square test of equal proportions
-PDS video on [[Correlation]](https://www.youtube.com/watch?v=qBwjKfytls8&amp;list=PLDEF0B9CBD27AD37E&amp;index=60) video
-[AS Notes Ch 5](https://norcalbiostat.github.io/AppliedStatistics_notes/simple-linear-regression.html)</t>
-  </si>
-  <si>
     <t>Shiny Ed apps for learning distributions https://www2.stat.duke.edu/~mc301/shinyed/
 OI Video on the [[CLT]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=lsCc_pS3O28) (5 min)
 OI Video on [[Confidence Intervals]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=FUaXoKdCre4) (6 min)
@@ -857,11 +851,26 @@
 conducting hypothesis testing
 Calculating and interpreting confidence intervals</t>
   </si>
+  <si>
+    <t>[PDS video 12](http://passiondrivenstatistics.com/2016/06/29/r-chapter-12/) on Chi-square test of equal proportions
+PDS videos on [[Correlation]](https://www.youtube.com/playlist?list=PL8nC8L7kjElfc0OjshBv3JXKiqltgh1Ca) Code is in SAS but content is still relevant.
+[AS Notes Ch 5](https://norcalbiostat.github.io/AppliedStatistics_notes/simple-linear-regression.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define Moderation and identify when third variable is a moderator. </t>
+  </si>
+  <si>
+    <t>Finish the Bivariate infernece assignment
+Finish all pending online homeworks in BBL and DataCamp
+Make sure your course packet is fully filled out. 
+Attend the virtual review session, come prepared with questions
+Get your Exam 1 Error corrections completed and checked off by a tutor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
@@ -1605,10 +1614,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Percent 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 2" xfId="51"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Percent 2" xfId="52"/>
+    <cellStyle name="Percent 3" xfId="81"/>
     <cellStyle name="Total" xfId="78" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1945,12 +1954,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,7 +2188,7 @@
         <v>110</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" s="82" t="s">
         <v>152</v>
@@ -2209,13 +2218,13 @@
         <v>102</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>153</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>154</v>
@@ -2224,7 +2233,7 @@
         <v>165</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J8" s="86" t="s">
         <v>161</v>
@@ -2242,13 +2251,13 @@
         <v>103</v>
       </c>
       <c r="D9" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="82" t="s">
         <v>183</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>184</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="82" t="s">
@@ -2259,7 +2268,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>9</v>
       </c>
@@ -2271,28 +2280,28 @@
         <v>117</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="J10" s="78" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>10</v>
       </c>
@@ -2303,19 +2312,23 @@
       <c r="C11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>177</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="J11" s="78" t="s">
         <v>158</v>
@@ -2397,7 +2410,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2477,7 +2490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32209C80-841F-4116-9BD0-FACCD9BDE982}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$91</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="199">
   <si>
     <t>Finals Week</t>
   </si>
@@ -342,10 +343,6 @@
     <t>Final Review
 Poster Presentations
 Poster Presentations</t>
-  </si>
-  <si>
-    <t>Final posters as printed (Due Tue 12/11 )
-Final poster scoring [Link] (Due Sun 12/16 )</t>
   </si>
   <si>
     <t>Veterans Day -  Campus closed</t>
@@ -679,19 +676,9 @@
 Define sampling distributions, and standard errors</t>
   </si>
   <si>
-    <t>Poster Draft (Due Fri 12/7 )(PR Due Sun 12/9 )</t>
-  </si>
-  <si>
     <t>Poster Design
 Poster work time
 Poster work time</t>
-  </si>
-  <si>
-    <t>Poster Prep Stage III (Draft Due 11/29 ) (PR Due 12/1 )(Final Due 12/3 )</t>
-  </si>
-  <si>
-    <t>Poster prep stage II (Due Wed 10/31 ) (PR Due Fri 11/2 )(Final Due Sun 11/4 )
-Optional Analyzing Exam Errors  (Due Fri 11/30 )</t>
   </si>
   <si>
     <t>Open work day - Finish Bivariate inference
@@ -773,11 +760,6 @@
 OI Video on the [[CLT]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=lsCc_pS3O28) (5 min)
 OI Video on [[Confidence Intervals]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=FUaXoKdCre4) (6 min)
 OI Video on [[Hypothesis testing]](https://www.youtube.com/watch?list=PLkIselvEzpM7Pjo94m1e7J5jkIZkbQAl4&amp;v=NVbPE1_Cbx8) (8 min)</t>
-  </si>
-  <si>
-    <t>Open work day
-Model building
-Open work day</t>
   </si>
   <si>
     <t>Read lecture notes on writing about empirical research
@@ -860,17 +842,48 @@
     <t xml:space="preserve">Define Moderation and identify when third variable is a moderator. </t>
   </si>
   <si>
+    <t>Poster Prep Stage III (Draft Due Thu 11/29 ) (PR Due Sat 12/1 )(Final Due Mon 12/3 )</t>
+  </si>
+  <si>
+    <t>Assessing Model Fit
+Model Building strategies and techniques
+Open work day</t>
+  </si>
+  <si>
     <t>Finish the Bivariate infernece assignment
+Watch the PDS Video 14 on Moderation before Wednesday
 Finish all pending online homeworks in BBL and DataCamp
-Make sure your course packet is fully filled out. 
-Attend the virtual review session, come prepared with questions
+Make sure your course packet is fully filled out.
+Download and work through the review problems posted in Slack 
+Attend the virtual review session (Tue Night), come prepared with questions
 Get your Exam 1 Error corrections completed and checked off by a tutor</t>
+  </si>
+  <si>
+    <t>Final Exam: Friday 12/21 8am</t>
+  </si>
+  <si>
+    <t>Post Assessments: R &amp; Metacognition (Due Fri 12/21 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final posters as printed (Due Tue 12/11 )
+Team Evaluation (Due Fri 12/14 )
+Final poster scoring [Link] (Due Sun 12/16 )
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster prep stage II (Due Wed 10/31 ) (PR Due Fri 11/2 )(Final Due Sun 11/4 )
+Optional Analyzing Exam Errors  (Due Fri 11/30 )
+</t>
+  </si>
+  <si>
+    <t>Poster Draft (Due Fri 12/7 )(PR Due Sun 12/9 )
+Build your own exam questions [[HTML]]() [[PDF]]()(Due Sat 12/8 )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
@@ -1294,7 +1307,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1534,6 +1547,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -1614,10 +1633,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Percent 2" xfId="52"/>
-    <cellStyle name="Percent 3" xfId="81"/>
+    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Percent 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
     <cellStyle name="Total" xfId="78" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1954,12 +1973,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,28 +2035,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="82" t="s">
         <v>86</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" s="82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I2" s="82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2" s="82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" s="82"/>
     </row>
@@ -2050,28 +2069,28 @@
         <v>41884</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="85" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J3" s="86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="240" hidden="1" x14ac:dyDescent="0.25">
@@ -2083,28 +2102,28 @@
         <v>41891</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="82" t="s">
-        <v>112</v>
-      </c>
       <c r="J4" s="86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="300" hidden="1" x14ac:dyDescent="0.25">
@@ -2116,28 +2135,28 @@
         <v>41898</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="82" t="s">
-        <v>139</v>
-      </c>
       <c r="G5" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="82" t="s">
+      <c r="J5" s="86" t="s">
         <v>136</v>
-      </c>
-      <c r="J5" s="86" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
@@ -2149,28 +2168,28 @@
         <v>41905</v>
       </c>
       <c r="C6" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="E6" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>145</v>
-      </c>
       <c r="J6" s="86" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -2182,28 +2201,28 @@
         <v>41912</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F7" s="82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H7" s="82" t="s">
         <v>48</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J7" s="86" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="270" hidden="1" x14ac:dyDescent="0.25">
@@ -2215,28 +2234,28 @@
         <v>41919</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E8" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="82" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="82" t="s">
-        <v>154</v>
-      </c>
       <c r="H8" s="82" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J8" s="86" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="195" x14ac:dyDescent="0.25">
@@ -2248,60 +2267,60 @@
         <v>41926</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="82" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I9" s="82"/>
       <c r="J9" s="86" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="80">
         <v>9</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="81">
         <f t="shared" si="0"/>
         <v>41933</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="C10" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" s="78" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="G10" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="I10" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="J10" s="86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>10</v>
       </c>
@@ -2310,28 +2329,28 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J11" s="78" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -2343,20 +2362,20 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="78" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -2368,22 +2387,22 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J13" s="78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2401,7 +2420,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="70"/>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>13</v>
       </c>
@@ -2410,7 +2429,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2419,7 +2438,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="78" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2431,21 +2450,21 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J16" s="103" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>15</v>
       </c>
@@ -2462,8 +2481,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="78" t="s">
-        <v>100</v>
+      <c r="J17" s="103" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2474,14 +2493,18 @@
         <f t="shared" si="0"/>
         <v>41989</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="102" t="s">
+        <v>194</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="103" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2490,11 +2513,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3259,7 +3282,7 @@
         <v>4.2</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="57" t="s">
         <v>8</v>
@@ -3282,7 +3305,7 @@
         <v>4.3</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="55" t="s">
         <v>28</v>
@@ -3303,7 +3326,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="54" t="s">
         <v>15</v>
@@ -3323,7 +3346,7 @@
         <v>4.5</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="76" t="s">
         <v>28</v>
@@ -3384,7 +3407,7 @@
         <v>5.3</v>
       </c>
       <c r="B28" s="87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="57" t="s">
         <v>8</v>
@@ -3404,7 +3427,7 @@
         <v>5.4</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="76" t="s">
         <v>28</v>
@@ -3587,7 +3610,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>82</v>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/MATH315/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32209C80-841F-4116-9BD0-FACCD9BDE982}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44EB896-B1EA-D140-BCD9-EE23423EE51D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -19,16 +19,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$91</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="198">
   <si>
     <t>Finals Week</t>
   </si>
@@ -702,9 +697,6 @@
     <t>Bivariate Inference Assignment  [[HTML]](hw/hw08_bivariate_inference.html) [[PDF]](hw/hw08_bivariate_inference.pdf) (Due Mon 10/29 )</t>
   </si>
   <si>
-    <t>Moderation assignment [[HTML]](hw/hw09_moderation.html) [[PDF]](hw/hw09_moderation.pdf) (Due Tue 11/6 )</t>
-  </si>
-  <si>
     <t>**RAT on Foundations for Inference**
 How is an interval estimate different from a point estimate? 
 How is an interval estimate created?
@@ -750,10 +742,6 @@
   <si>
     <t>PDS Video 17 - start at 43 minutes for Logistic Regression
 [AS notes binary outcomes (8.2) and categorical predictors (7.1)](https://norcalbiostat.github.io/AppliedStatistics_notes/binary-data.html)</t>
-  </si>
-  <si>
-    <t>[AS notes on Stratification (7.2) and Moderation (7.3)](https://norcalbiostat.github.io/AppliedStatistics_notes/stratification.html)
-PDS Video 14</t>
   </si>
   <si>
     <t>Shiny Ed apps for learning distributions https://www2.stat.duke.edu/~mc301/shinyed/
@@ -871,13 +859,19 @@
 </t>
   </si>
   <si>
+    <t>Poster Draft (Due Fri 12/7 )(PR Due Sun 12/9 )
+Build your own exam questions [[HTML]]() [[PDF]]()(Due Sat 12/8 )</t>
+  </si>
+  <si>
+    <t>[AS notes on Stratification (7.2) and Moderation (7.3)](https://norcalbiostat.github.io/AppliedStatistics_notes/stratification.html)
+PDS Video 14
+Additional [Lecture notes on Moderation](lecture/lec05_moderation.html)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poster prep stage II (Due Wed 10/31 ) (PR Due Fri 11/2 )(Final Due Sun 11/4 )
+Moderation assignment [[HTML]](hw/hw09_moderation.html) [[PDF]](hw/hw09_moderation.pdf) (Due Tue 11/6 )
 Optional Analyzing Exam Errors  (Due Fri 11/30 )
 </t>
-  </si>
-  <si>
-    <t>Poster Draft (Due Fri 12/7 )(PR Due Sun 12/9 )
-Build your own exam questions [[HTML]]() [[PDF]]()(Due Sat 12/8 )</t>
   </si>
 </sst>
 </file>
@@ -1533,6 +1527,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1547,12 +1547,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -1976,26 +1970,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="38" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="47.625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="45.875" style="43" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="43" customWidth="1"/>
     <col min="8" max="9" width="38" style="43" customWidth="1"/>
     <col min="10" max="10" width="46.5" style="43" customWidth="1"/>
-    <col min="11" max="16384" width="14.875" style="38"/>
+    <col min="11" max="16384" width="14.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
@@ -2027,7 +2021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="84" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="84" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="80">
         <v>1</v>
       </c>
@@ -2060,7 +2054,7 @@
       </c>
       <c r="K2" s="82"/>
     </row>
-    <row r="3" spans="1:11" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="80">
         <v>2</v>
       </c>
@@ -2093,7 +2087,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="80">
         <v>3</v>
       </c>
@@ -2126,7 +2120,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="320" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="80">
         <v>4</v>
       </c>
@@ -2159,7 +2153,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="80">
         <v>5</v>
       </c>
@@ -2189,10 +2183,10 @@
         <v>144</v>
       </c>
       <c r="J6" s="86" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="80">
         <v>6</v>
       </c>
@@ -2207,7 +2201,7 @@
         <v>109</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F7" s="82" t="s">
         <v>151</v>
@@ -2222,10 +2216,10 @@
         <v>148</v>
       </c>
       <c r="J7" s="86" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="270" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="80">
         <v>7</v>
       </c>
@@ -2237,28 +2231,28 @@
         <v>101</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>152</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>153</v>
       </c>
       <c r="H8" s="82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J8" s="86" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="208" x14ac:dyDescent="0.2">
       <c r="A9" s="80">
         <v>8</v>
       </c>
@@ -2270,24 +2264,24 @@
         <v>102</v>
       </c>
       <c r="D9" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="82" t="s">
-        <v>179</v>
-      </c>
       <c r="F9" s="82" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I9" s="82"/>
       <c r="J9" s="86" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="160" x14ac:dyDescent="0.2">
       <c r="A10" s="80">
         <v>9</v>
       </c>
@@ -2299,28 +2293,28 @@
         <v>116</v>
       </c>
       <c r="D10" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="H10" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="82" t="s">
+      <c r="I10" s="82" t="s">
         <v>183</v>
-      </c>
-      <c r="H10" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="I10" s="82" t="s">
-        <v>185</v>
       </c>
       <c r="J10" s="86" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="160" x14ac:dyDescent="0.2">
       <c r="A11" s="40">
         <v>10</v>
       </c>
@@ -2332,28 +2326,28 @@
         <v>155</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="J11" s="78" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="40">
         <v>11</v>
       </c>
@@ -2362,23 +2356,23 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="78" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="40">
         <v>12</v>
       </c>
@@ -2387,25 +2381,23 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G13" s="69" t="s">
         <v>100</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J13" s="78" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="J13" s="78"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <f t="shared" si="0"/>
@@ -2420,7 +2412,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="70"/>
     </row>
-    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="40">
         <v>13</v>
       </c>
@@ -2429,7 +2421,7 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2438,10 +2430,10 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="78" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="40">
         <v>14</v>
       </c>
@@ -2455,16 +2447,16 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="103" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J16" s="98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="40">
         <v>15</v>
       </c>
@@ -2481,11 +2473,11 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="103" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J17" s="98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>0</v>
       </c>
@@ -2493,8 +2485,8 @@
         <f t="shared" si="0"/>
         <v>41989</v>
       </c>
-      <c r="C18" s="102" t="s">
-        <v>194</v>
+      <c r="C18" s="97" t="s">
+        <v>192</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2502,8 +2494,8 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="103" t="s">
-        <v>195</v>
+      <c r="J18" s="98" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2520,23 +2512,23 @@
       <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="17"/>
-    <col min="2" max="2" width="32.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="19"/>
+    <col min="1" max="1" width="7.6640625" style="17"/>
+    <col min="2" max="2" width="32.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="19"/>
     <col min="5" max="5" width="10.5" style="45" customWidth="1"/>
-    <col min="6" max="7" width="7.625" style="45" customWidth="1"/>
+    <col min="6" max="7" width="7.6640625" style="45" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="10" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="8"/>
-    <col min="11" max="11" width="4.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="7.625" style="7"/>
+    <col min="10" max="10" width="7.6640625" style="8"/>
+    <col min="11" max="11" width="4.6640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="7.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2595,7 +2587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -2647,7 +2639,7 @@
         <v>3.0837004405286344E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1.1000000000000001</v>
       </c>
@@ -2705,7 +2697,7 @@
         <v>0.21806167400881057</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1.2</v>
       </c>
@@ -2763,7 +2755,7 @@
         <v>4.405286343612335E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>1.3</v>
       </c>
@@ -2811,7 +2803,7 @@
         <v>6.8281938325991193E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>1.4</v>
       </c>
@@ -2869,7 +2861,7 @@
         <v>2.2026431718061675E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>1.5</v>
       </c>
@@ -2927,7 +2919,7 @@
         <v>0.38546255506607929</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>1.6</v>
       </c>
@@ -2981,7 +2973,7 @@
         <v>0.23127753303964757</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2.1</v>
       </c>
@@ -3013,7 +3005,7 @@
       </c>
       <c r="V9" s="17"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>2.2000000000000002</v>
       </c>
@@ -3033,7 +3025,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>2.2999999999999998</v>
       </c>
@@ -3053,7 +3045,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>2.4</v>
       </c>
@@ -3073,7 +3065,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>2.5</v>
       </c>
@@ -3096,7 +3088,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>2.6</v>
       </c>
@@ -3116,7 +3108,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>3.1</v>
       </c>
@@ -3135,12 +3127,12 @@
       <c r="G15" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="97" t="s">
+      <c r="H15" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="97"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I15" s="99"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>3.2</v>
       </c>
@@ -3159,12 +3151,12 @@
       <c r="G16" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="98" t="s">
+      <c r="H16" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="98"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="100"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>3.3</v>
       </c>
@@ -3183,12 +3175,12 @@
       <c r="G17" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="99" t="s">
+      <c r="H17" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="99"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="101"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>3.4</v>
       </c>
@@ -3207,12 +3199,12 @@
       <c r="G18" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="100" t="s">
+      <c r="H18" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="100"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="102"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>3.5</v>
       </c>
@@ -3232,12 +3224,12 @@
       <c r="G19" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="101" t="s">
+      <c r="H19" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="101"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="103"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>3.6</v>
       </c>
@@ -3257,7 +3249,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>4.0999999999999996</v>
       </c>
@@ -3277,7 +3269,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>4.2</v>
       </c>
@@ -3300,7 +3292,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>4.3</v>
       </c>
@@ -3321,7 +3313,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>4.4000000000000004</v>
       </c>
@@ -3341,7 +3333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>4.5</v>
       </c>
@@ -3362,7 +3354,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>5.0999999999999996</v>
       </c>
@@ -3382,7 +3374,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>5.2</v>
       </c>
@@ -3402,7 +3394,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>5.3</v>
       </c>
@@ -3422,7 +3414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>5.4</v>
       </c>
@@ -3443,7 +3435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>6</v>
       </c>
@@ -3460,7 +3452,7 @@
         <v>41914</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>6</v>
       </c>
@@ -3474,7 +3466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>6</v>
       </c>
@@ -3486,7 +3478,7 @@
       </c>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>6</v>
       </c>
@@ -3498,7 +3490,7 @@
       </c>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>6</v>
       </c>
@@ -3515,7 +3507,7 @@
         <v>41918</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>6</v>
       </c>
@@ -3534,7 +3526,7 @@
       <c r="F35" s="46"/>
       <c r="G35" s="46"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>7</v>
       </c>
@@ -3551,7 +3543,7 @@
         <v>41921</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>7</v>
       </c>
@@ -3565,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>7</v>
       </c>
@@ -3577,7 +3569,7 @@
       </c>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>7</v>
       </c>
@@ -3591,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>7</v>
       </c>
@@ -3605,7 +3597,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>7</v>
       </c>
@@ -3619,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>7</v>
       </c>
@@ -3633,7 +3625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>8</v>
       </c>
@@ -3650,7 +3642,7 @@
       <c r="F43" s="46"/>
       <c r="G43" s="46"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>8</v>
       </c>
@@ -3667,7 +3659,7 @@
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>9</v>
       </c>
@@ -3684,7 +3676,7 @@
       <c r="F45" s="46"/>
       <c r="G45" s="46"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>9</v>
       </c>
@@ -3701,7 +3693,7 @@
       <c r="F46" s="46"/>
       <c r="G46" s="46"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>9</v>
       </c>
@@ -3720,7 +3712,7 @@
       </c>
       <c r="G47" s="46"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>10</v>
       </c>
@@ -3737,7 +3729,7 @@
       <c r="F48" s="95"/>
       <c r="G48" s="46"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>10</v>
       </c>
@@ -3754,7 +3746,7 @@
       <c r="F49" s="95"/>
       <c r="G49" s="46"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>10</v>
       </c>
@@ -3771,7 +3763,7 @@
       <c r="F50" s="95"/>
       <c r="G50" s="46"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>11</v>
       </c>
@@ -3790,7 +3782,7 @@
       </c>
       <c r="G51" s="46"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>11</v>
       </c>
@@ -3807,7 +3799,7 @@
       <c r="F52" s="95"/>
       <c r="G52" s="46"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>11</v>
       </c>
@@ -3824,7 +3816,7 @@
       <c r="F53" s="95"/>
       <c r="G53" s="46"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>11</v>
       </c>
@@ -3843,7 +3835,7 @@
       </c>
       <c r="G54" s="46"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
         <v>12</v>
       </c>
@@ -3858,7 +3850,7 @@
       <c r="F55" s="95"/>
       <c r="G55" s="46"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>12</v>
       </c>
@@ -3875,7 +3867,7 @@
       <c r="F56" s="95"/>
       <c r="G56" s="46"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="22">
         <v>13</v>
       </c>
@@ -3892,7 +3884,7 @@
       <c r="F57" s="95"/>
       <c r="G57" s="46"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="22">
         <v>13</v>
       </c>
@@ -3911,7 +3903,7 @@
       </c>
       <c r="G58" s="46"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="22">
         <v>13</v>
       </c>
@@ -3928,7 +3920,7 @@
       <c r="F59" s="46"/>
       <c r="G59" s="46"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>14</v>
       </c>
@@ -3945,7 +3937,7 @@
       <c r="F60" s="46"/>
       <c r="G60" s="46"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>14</v>
       </c>
@@ -3962,7 +3954,7 @@
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>15</v>
       </c>
@@ -3981,7 +3973,7 @@
       <c r="F62" s="47"/>
       <c r="G62" s="47"/>
     </row>
-    <row r="63" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>15</v>
       </c>
@@ -4004,7 +3996,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="17"/>
     </row>
-    <row r="64" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>15</v>
       </c>
@@ -4024,7 +4016,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>15</v>
       </c>
@@ -4044,7 +4036,7 @@
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>17</v>
       </c>
@@ -4061,7 +4053,7 @@
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>17</v>
       </c>
@@ -4078,7 +4070,7 @@
       <c r="F67" s="46"/>
       <c r="G67" s="46"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>17</v>
       </c>
@@ -4095,7 +4087,7 @@
       <c r="F68" s="46"/>
       <c r="G68" s="46"/>
     </row>
-    <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>18</v>
       </c>
@@ -4124,7 +4116,7 @@
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
     </row>
-    <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -4145,7 +4137,7 @@
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
     </row>
-    <row r="71" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
       <c r="E71" s="45"/>
       <c r="F71" s="45"/>
@@ -4163,7 +4155,7 @@
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
     </row>
-    <row r="72" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -4184,7 +4176,7 @@
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
     </row>
-    <row r="73" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -4205,7 +4197,7 @@
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
     </row>
-    <row r="74" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -4226,7 +4218,7 @@
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
     </row>
-    <row r="75" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -4247,7 +4239,7 @@
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
     </row>
-    <row r="76" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -4268,7 +4260,7 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
     </row>
-    <row r="77" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -4289,7 +4281,7 @@
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
     </row>
-    <row r="78" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -4310,7 +4302,7 @@
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
     </row>
-    <row r="79" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -4331,7 +4323,7 @@
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
     </row>
-    <row r="80" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -4354,7 +4346,7 @@
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
     </row>
-    <row r="81" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4375,7 +4367,7 @@
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
     </row>
-    <row r="82" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4398,7 +4390,7 @@
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
     </row>
-    <row r="83" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4421,7 +4413,7 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
     </row>
-    <row r="84" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4444,7 +4436,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
     </row>
-    <row r="85" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4467,7 +4459,7 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
     </row>
-    <row r="86" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4490,7 +4482,7 @@
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
     </row>
-    <row r="87" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4513,7 +4505,7 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
     </row>
-    <row r="88" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4536,7 +4528,7 @@
       <c r="U88" s="7"/>
       <c r="V88" s="7"/>
     </row>
-    <row r="89" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4559,7 +4551,7 @@
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
     </row>
-    <row r="90" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4580,13 +4572,13 @@
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="24"/>
       <c r="B92" s="25"/>
     </row>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/MATH315/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44EB896-B1EA-D140-BCD9-EE23423EE51D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519194FF-407D-484F-BFD8-41F16C9D8177}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -19,11 +19,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$91</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="208">
   <si>
     <t>Finals Week</t>
   </si>
@@ -703,17 +708,11 @@
 Define the margin of error</t>
   </si>
   <si>
-    <t>**RAT** on Study Design</t>
-  </si>
-  <si>
     <t>No School
 Logistic Regression
 Categorical predictors</t>
   </si>
   <si>
-    <t>RAT on categorical variables</t>
-  </si>
-  <si>
     <t>Study Design
 Multiple Regression
 Confounders</t>
@@ -731,10 +730,6 @@
   </si>
   <si>
     <t>Regression Assignment [[HTML]](hw/hw10_regression.html) [[PDF]](hw/hw10_regression.pdf)(Due Tue  11/27 )</t>
-  </si>
-  <si>
-    <t>[AS notes on MLR (Ch 6)](https://norcalbiostat.github.io/AppliedStatistics_notes/multiple-linear-regression.html)
-[AS notes on Confounding Ch 7.5](https://norcalbiostat.github.io/AppliedStatistics_notes/confounding.html)</t>
   </si>
   <si>
     <t>[PDS Video 18](http://passiondrivenstatistics.com/2018/06/08/chapter-18-writing-for-your-poster-presentation/)</t>
@@ -822,15 +817,7 @@
 Calculating and interpreting confidence intervals</t>
   </si>
   <si>
-    <t>[PDS video 12](http://passiondrivenstatistics.com/2016/06/29/r-chapter-12/) on Chi-square test of equal proportions
-PDS videos on [[Correlation]](https://www.youtube.com/playlist?list=PL8nC8L7kjElfc0OjshBv3JXKiqltgh1Ca) Code is in SAS but content is still relevant.
-[AS Notes Ch 5](https://norcalbiostat.github.io/AppliedStatistics_notes/simple-linear-regression.html)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Define Moderation and identify when third variable is a moderator. </t>
-  </si>
-  <si>
-    <t>Poster Prep Stage III (Draft Due Thu 11/29 ) (PR Due Sat 12/1 )(Final Due Mon 12/3 )</t>
   </si>
   <si>
     <t>Assessing Model Fit
@@ -853,25 +840,87 @@
     <t>Post Assessments: R &amp; Metacognition (Due Fri 12/21 )</t>
   </si>
   <si>
-    <t xml:space="preserve">Final posters as printed (Due Tue 12/11 )
+    <t>Poster prep stage II (Due Wed 10/31 ) (PR Due Fri 11/2 )(Final Due Sun 11/4 )
+Moderation assignment [[HTML]](hw/hw09_moderation.html) [[PDF]](hw/hw09_moderation.pdf) (Due Tue 11/6 )
+Optional Analyzing Exam Errors  (Due Fri 11/30 )</t>
+  </si>
+  <si>
+    <t>Final posters as printed (Due Tue 12/11 )
 Team Evaluation (Due Fri 12/14 )
-Final poster scoring [Link] (Due Sun 12/16 )
-</t>
+Final poster scoring [Link] (Due Sun 12/16 )</t>
+  </si>
+  <si>
+    <t>Poster Prep Stage III (Draft Due Thu 11/29 ) (PR Due Sat 12/1 ) (Final Due Mon 12/3 )</t>
   </si>
   <si>
     <t>Poster Draft (Due Fri 12/7 )(PR Due Sun 12/9 )
-Build your own exam questions [[HTML]]() [[PDF]]()(Due Sat 12/8 )</t>
-  </si>
-  <si>
-    <t>[AS notes on Stratification (7.2) and Moderation (7.3)](https://norcalbiostat.github.io/AppliedStatistics_notes/stratification.html)
-PDS Video 14
+Build your own exam questions [[HTML]]() [[PDF]]() (Due Sat 12/8 )</t>
+  </si>
+  <si>
+    <t>AS Notes Section 7.7  [model selection](https://norcalbiostat.github.io/AppliedStatistics_notes/comparing-between-models.html)</t>
+  </si>
+  <si>
+    <t>[AS notes on Moderation (7.3)](https://norcalbiostat.github.io/AppliedStatistics_notes/moderation.html)
+[PDS Video 14](http://passiondrivenstatistics.com/2016/08/20/r-chapter-14/)
 Additional [Lecture notes on Moderation](lecture/lec05_moderation.html)</t>
   </si>
   <si>
-    <t xml:space="preserve">Poster prep stage II (Due Wed 10/31 ) (PR Due Fri 11/2 )(Final Due Sun 11/4 )
-Moderation assignment [[HTML]](hw/hw09_moderation.html) [[PDF]](hw/hw09_moderation.pdf) (Due Tue 11/6 )
-Optional Analyzing Exam Errors  (Due Fri 11/30 )
-</t>
+    <t>Identify the difference between an observational study and an experiment
+Distinguish between the population and a sample
+Explain why causal conclusions can't be made from an observational study</t>
+  </si>
+  <si>
+    <t>Look at the weekly overview to see what we're covering each day and do the reading for that content prior to that day</t>
+  </si>
+  <si>
+    <t>[PDS video 12](http://passiondrivenstatistics.com/2016/06/29/r-chapter-12/) on Chi-square test of equal proportions
+PDS videos on [[Correlation]](https://www.youtube.com/playlist?list=PL8nC8L7kjElfc0OjshBv3JXKiqltgh1Ca) Code is in SAS but content is still relevant.
+[AS Notes Ch 5](https://norcalbiostat.github.io/AppliedStatistics_notes/simple-linear-regression.html)
+[Course packet chapter 7](reading/RAD_course_notes.pdf)</t>
+  </si>
+  <si>
+    <t>Course Packet Chapter 1 (study design), and (7.3-7.5) linear model predictions, model fit, effect of outliers
+PDS [Video 17](http://passiondrivenstatistics.com/2016/10/06/r-chapter-17/) on Multiple Regression and Study design
+[AS notes on MLR (Ch 6](https://norcalbiostat.github.io/AppliedStatistics_notes/multiple-linear-regression.html)
+[AS notes on Confounding Ch 7.5](https://norcalbiostat.github.io/AppliedStatistics_notes/confounding.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final thoughts on linear regression models (model fit, predictions, outliers)
+What makes a sample representative? 
+How does observational studies different than experiments? </t>
+  </si>
+  <si>
+    <t>Fit a model on a binary outcome
+Compare the difference between an ANOVA and a model with categorical variables</t>
+  </si>
+  <si>
+    <t>Finish the regression assignment up to logistic regression. 
+Watch the video and read lecture notes on corresponding topics</t>
+  </si>
+  <si>
+    <t>Build several competing models and use various measures of model fit to compare between models
+Identify when a model has structural problems</t>
+  </si>
+  <si>
+    <t>How to design an informative poster to tell an analysis story</t>
+  </si>
+  <si>
+    <t>Confounding: when the addition of a third variable fully explains the relationship between two other variables. 
+How to tell between a moderator, a confounder, and a covariate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is "linear" about a generalized linear model? 
+How do we model a non-continuous outcome variable? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**RAT on categorical variables**
+Linear models with categorical variables == ANOVA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing multiple regression models mathematically
+Multiple regression as additional partitioning of variance
+Why can't we just throw the whole kitchen sink in the model? 
+How do we tell when a model fits well. </t>
   </si>
 </sst>
 </file>
@@ -1970,26 +2019,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="38" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="45.83203125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="47.625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="45.875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="43" customWidth="1"/>
     <col min="8" max="9" width="38" style="43" customWidth="1"/>
     <col min="10" max="10" width="46.5" style="43" customWidth="1"/>
-    <col min="11" max="16384" width="14.83203125" style="38"/>
+    <col min="11" max="16384" width="14.875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
@@ -2021,7 +2070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="84" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="84" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="80">
         <v>1</v>
       </c>
@@ -2054,7 +2103,7 @@
       </c>
       <c r="K2" s="82"/>
     </row>
-    <row r="3" spans="1:11" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80">
         <v>2</v>
       </c>
@@ -2087,7 +2136,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="80">
         <v>3</v>
       </c>
@@ -2120,7 +2169,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="320" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="80">
         <v>4</v>
       </c>
@@ -2153,7 +2202,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80">
         <v>5</v>
       </c>
@@ -2183,10 +2232,10 @@
         <v>144</v>
       </c>
       <c r="J6" s="86" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="160" hidden="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80">
         <v>6</v>
       </c>
@@ -2201,7 +2250,7 @@
         <v>109</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F7" s="82" t="s">
         <v>151</v>
@@ -2216,10 +2265,10 @@
         <v>148</v>
       </c>
       <c r="J7" s="86" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="272" hidden="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80">
         <v>7</v>
       </c>
@@ -2231,13 +2280,13 @@
         <v>101</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>152</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>153</v>
@@ -2246,13 +2295,13 @@
         <v>160</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J8" s="86" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="208" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="80">
         <v>8</v>
       </c>
@@ -2264,24 +2313,24 @@
         <v>102</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I9" s="82"/>
       <c r="J9" s="86" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="80">
         <v>9</v>
       </c>
@@ -2293,28 +2342,28 @@
         <v>116</v>
       </c>
       <c r="D10" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="I10" s="82" t="s">
         <v>180</v>
-      </c>
-      <c r="F10" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="H10" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="I10" s="82" t="s">
-        <v>183</v>
       </c>
       <c r="J10" s="86" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>10</v>
       </c>
@@ -2326,28 +2375,28 @@
         <v>155</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J11" s="78" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>11</v>
       </c>
@@ -2356,23 +2405,31 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="J12" s="78" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>12</v>
       </c>
@@ -2381,23 +2438,29 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G13" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="I13" s="1" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="J13" s="78"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <f t="shared" si="0"/>
@@ -2412,7 +2475,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="70"/>
     </row>
-    <row r="15" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>13</v>
       </c>
@@ -2421,19 +2484,23 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="78" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>14</v>
       </c>
@@ -2444,19 +2511,21 @@
       <c r="C16" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="98" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>15</v>
       </c>
@@ -2474,10 +2543,10 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="98" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>0</v>
       </c>
@@ -2486,7 +2555,7 @@
         <v>41989</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2495,7 +2564,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="98" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2512,23 +2581,23 @@
       <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="17"/>
-    <col min="2" max="2" width="32.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="19"/>
+    <col min="1" max="1" width="7.625" style="17"/>
+    <col min="2" max="2" width="32.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="19"/>
     <col min="5" max="5" width="10.5" style="45" customWidth="1"/>
-    <col min="6" max="7" width="7.6640625" style="45" customWidth="1"/>
+    <col min="6" max="7" width="7.625" style="45" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="10" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="8"/>
-    <col min="11" max="11" width="4.6640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="7.6640625" style="7"/>
+    <col min="10" max="10" width="7.625" style="8"/>
+    <col min="11" max="11" width="4.625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="7.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2587,7 +2656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -2639,7 +2708,7 @@
         <v>3.0837004405286344E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.1000000000000001</v>
       </c>
@@ -2697,7 +2766,7 @@
         <v>0.21806167400881057</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1.2</v>
       </c>
@@ -2755,7 +2824,7 @@
         <v>4.405286343612335E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1.3</v>
       </c>
@@ -2803,7 +2872,7 @@
         <v>6.8281938325991193E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1.4</v>
       </c>
@@ -2861,7 +2930,7 @@
         <v>2.2026431718061675E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1.5</v>
       </c>
@@ -2919,7 +2988,7 @@
         <v>0.38546255506607929</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>1.6</v>
       </c>
@@ -2973,7 +3042,7 @@
         <v>0.23127753303964757</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>2.1</v>
       </c>
@@ -3005,7 +3074,7 @@
       </c>
       <c r="V9" s="17"/>
     </row>
-    <row r="10" spans="1:22" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2.2000000000000002</v>
       </c>
@@ -3025,7 +3094,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2.2999999999999998</v>
       </c>
@@ -3045,7 +3114,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2.4</v>
       </c>
@@ -3065,7 +3134,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2.5</v>
       </c>
@@ -3088,7 +3157,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>2.6</v>
       </c>
@@ -3108,7 +3177,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>3.1</v>
       </c>
@@ -3132,7 +3201,7 @@
       </c>
       <c r="I15" s="99"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>3.2</v>
       </c>
@@ -3156,7 +3225,7 @@
       </c>
       <c r="I16" s="100"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>3.3</v>
       </c>
@@ -3180,7 +3249,7 @@
       </c>
       <c r="I17" s="101"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>3.4</v>
       </c>
@@ -3204,7 +3273,7 @@
       </c>
       <c r="I18" s="102"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>3.5</v>
       </c>
@@ -3229,7 +3298,7 @@
       </c>
       <c r="I19" s="103"/>
     </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>3.6</v>
       </c>
@@ -3249,7 +3318,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>4.0999999999999996</v>
       </c>
@@ -3269,7 +3338,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>4.2</v>
       </c>
@@ -3292,7 +3361,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>4.3</v>
       </c>
@@ -3313,7 +3382,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>4.4000000000000004</v>
       </c>
@@ -3333,7 +3402,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>4.5</v>
       </c>
@@ -3354,7 +3423,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>5.0999999999999996</v>
       </c>
@@ -3374,7 +3443,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>5.2</v>
       </c>
@@ -3394,7 +3463,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>5.3</v>
       </c>
@@ -3414,7 +3483,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>5.4</v>
       </c>
@@ -3435,7 +3504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>6</v>
       </c>
@@ -3452,7 +3521,7 @@
         <v>41914</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>6</v>
       </c>
@@ -3466,7 +3535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>6</v>
       </c>
@@ -3478,7 +3547,7 @@
       </c>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>6</v>
       </c>
@@ -3490,7 +3559,7 @@
       </c>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>6</v>
       </c>
@@ -3507,7 +3576,7 @@
         <v>41918</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>6</v>
       </c>
@@ -3526,7 +3595,7 @@
       <c r="F35" s="46"/>
       <c r="G35" s="46"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>7</v>
       </c>
@@ -3543,7 +3612,7 @@
         <v>41921</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>7</v>
       </c>
@@ -3557,7 +3626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>7</v>
       </c>
@@ -3569,7 +3638,7 @@
       </c>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>7</v>
       </c>
@@ -3583,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>7</v>
       </c>
@@ -3597,7 +3666,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>7</v>
       </c>
@@ -3611,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>7</v>
       </c>
@@ -3625,7 +3694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>8</v>
       </c>
@@ -3642,7 +3711,7 @@
       <c r="F43" s="46"/>
       <c r="G43" s="46"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>8</v>
       </c>
@@ -3659,7 +3728,7 @@
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>9</v>
       </c>
@@ -3676,7 +3745,7 @@
       <c r="F45" s="46"/>
       <c r="G45" s="46"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>9</v>
       </c>
@@ -3693,7 +3762,7 @@
       <c r="F46" s="46"/>
       <c r="G46" s="46"/>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>9</v>
       </c>
@@ -3712,7 +3781,7 @@
       </c>
       <c r="G47" s="46"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>10</v>
       </c>
@@ -3729,7 +3798,7 @@
       <c r="F48" s="95"/>
       <c r="G48" s="46"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>10</v>
       </c>
@@ -3746,7 +3815,7 @@
       <c r="F49" s="95"/>
       <c r="G49" s="46"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>10</v>
       </c>
@@ -3763,7 +3832,7 @@
       <c r="F50" s="95"/>
       <c r="G50" s="46"/>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>11</v>
       </c>
@@ -3782,7 +3851,7 @@
       </c>
       <c r="G51" s="46"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>11</v>
       </c>
@@ -3799,7 +3868,7 @@
       <c r="F52" s="95"/>
       <c r="G52" s="46"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>11</v>
       </c>
@@ -3816,7 +3885,7 @@
       <c r="F53" s="95"/>
       <c r="G53" s="46"/>
     </row>
-    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>11</v>
       </c>
@@ -3835,7 +3904,7 @@
       </c>
       <c r="G54" s="46"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>12</v>
       </c>
@@ -3850,7 +3919,7 @@
       <c r="F55" s="95"/>
       <c r="G55" s="46"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>12</v>
       </c>
@@ -3867,7 +3936,7 @@
       <c r="F56" s="95"/>
       <c r="G56" s="46"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>13</v>
       </c>
@@ -3884,7 +3953,7 @@
       <c r="F57" s="95"/>
       <c r="G57" s="46"/>
     </row>
-    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>13</v>
       </c>
@@ -3903,7 +3972,7 @@
       </c>
       <c r="G58" s="46"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>13</v>
       </c>
@@ -3920,7 +3989,7 @@
       <c r="F59" s="46"/>
       <c r="G59" s="46"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>14</v>
       </c>
@@ -3937,7 +4006,7 @@
       <c r="F60" s="46"/>
       <c r="G60" s="46"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>14</v>
       </c>
@@ -3954,7 +4023,7 @@
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>15</v>
       </c>
@@ -3973,7 +4042,7 @@
       <c r="F62" s="47"/>
       <c r="G62" s="47"/>
     </row>
-    <row r="63" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>15</v>
       </c>
@@ -3996,7 +4065,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="17"/>
     </row>
-    <row r="64" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>15</v>
       </c>
@@ -4016,7 +4085,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>15</v>
       </c>
@@ -4036,7 +4105,7 @@
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>17</v>
       </c>
@@ -4053,7 +4122,7 @@
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>17</v>
       </c>
@@ -4070,7 +4139,7 @@
       <c r="F67" s="46"/>
       <c r="G67" s="46"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>17</v>
       </c>
@@ -4087,7 +4156,7 @@
       <c r="F68" s="46"/>
       <c r="G68" s="46"/>
     </row>
-    <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>18</v>
       </c>
@@ -4116,7 +4185,7 @@
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
     </row>
-    <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -4137,7 +4206,7 @@
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
     </row>
-    <row r="71" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="E71" s="45"/>
       <c r="F71" s="45"/>
@@ -4155,7 +4224,7 @@
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
     </row>
-    <row r="72" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -4176,7 +4245,7 @@
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
     </row>
-    <row r="73" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -4197,7 +4266,7 @@
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
     </row>
-    <row r="74" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -4218,7 +4287,7 @@
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
     </row>
-    <row r="75" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -4239,7 +4308,7 @@
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
     </row>
-    <row r="76" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -4260,7 +4329,7 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
     </row>
-    <row r="77" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -4281,7 +4350,7 @@
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
     </row>
-    <row r="78" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -4302,7 +4371,7 @@
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
     </row>
-    <row r="79" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -4323,7 +4392,7 @@
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
     </row>
-    <row r="80" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -4346,7 +4415,7 @@
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
     </row>
-    <row r="81" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4367,7 +4436,7 @@
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
     </row>
-    <row r="82" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4390,7 +4459,7 @@
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
     </row>
-    <row r="83" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4413,7 +4482,7 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
     </row>
-    <row r="84" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4436,7 +4505,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
     </row>
-    <row r="85" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4459,7 +4528,7 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
     </row>
-    <row r="86" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4482,7 +4551,7 @@
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
     </row>
-    <row r="87" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4505,7 +4574,7 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
     </row>
-    <row r="88" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4528,7 +4597,7 @@
       <c r="U88" s="7"/>
       <c r="V88" s="7"/>
     </row>
-    <row r="89" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4551,7 +4620,7 @@
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
     </row>
-    <row r="90" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4572,13 +4641,13 @@
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="24"/>
       <c r="B92" s="25"/>
     </row>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519194FF-407D-484F-BFD8-41F16C9D8177}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E56D8A-4EC2-49B8-AD7A-66A4D72D1C25}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,9 +729,6 @@
 Problem Set 2.8, 2.10 [BBL] (Due Sun 9/30 )</t>
   </si>
   <si>
-    <t>Regression Assignment [[HTML]](hw/hw10_regression.html) [[PDF]](hw/hw10_regression.pdf)(Due Tue  11/27 )</t>
-  </si>
-  <si>
     <t>[PDS Video 18](http://passiondrivenstatistics.com/2018/06/08/chapter-18-writing-for-your-poster-presentation/)</t>
   </si>
   <si>
@@ -840,11 +837,6 @@
     <t>Post Assessments: R &amp; Metacognition (Due Fri 12/21 )</t>
   </si>
   <si>
-    <t>Poster prep stage II (Due Wed 10/31 ) (PR Due Fri 11/2 )(Final Due Sun 11/4 )
-Moderation assignment [[HTML]](hw/hw09_moderation.html) [[PDF]](hw/hw09_moderation.pdf) (Due Tue 11/6 )
-Optional Analyzing Exam Errors  (Due Fri 11/30 )</t>
-  </si>
-  <si>
     <t>Final posters as printed (Due Tue 12/11 )
 Team Evaluation (Due Fri 12/14 )
 Final poster scoring [Link] (Due Sun 12/16 )</t>
@@ -921,6 +913,14 @@
 Multiple regression as additional partitioning of variance
 Why can't we just throw the whole kitchen sink in the model? 
 How do we tell when a model fits well. </t>
+  </si>
+  <si>
+    <t>Regression Assignment [[HTML]](hw/hw10_regression.html) [[PDF]](hw/hw10_regression.pdf) (Due Tue  11/27 )</t>
+  </si>
+  <si>
+    <t>Poster prep stage II (Due Wed 10/31 ) (PR Due Fri 11/2 ) (Final Due Sun 11/4 )
+Moderation assignment [[HTML]](hw/hw09_moderation.html) [[PDF]](hw/hw09_moderation.pdf) (Due Tue 11/6 )
+Optional Analyzing Exam Errors  (Due Fri 11/30 )</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2021,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,7 +2250,7 @@
         <v>109</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" s="82" t="s">
         <v>151</v>
@@ -2280,13 +2280,13 @@
         <v>101</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>152</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>153</v>
@@ -2295,7 +2295,7 @@
         <v>160</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J8" s="86" t="s">
         <v>157</v>
@@ -2313,13 +2313,13 @@
         <v>102</v>
       </c>
       <c r="D9" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="82" t="s">
         <v>172</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>173</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="82" t="s">
@@ -2342,22 +2342,22 @@
         <v>116</v>
       </c>
       <c r="D10" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="F10" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="82" t="s">
+      <c r="H10" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="I10" s="82" t="s">
         <v>179</v>
-      </c>
-      <c r="I10" s="82" t="s">
-        <v>180</v>
       </c>
       <c r="J10" s="86" t="s">
         <v>158</v>
@@ -2375,25 +2375,25 @@
         <v>155</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="J11" s="78" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -2408,25 +2408,25 @@
         <v>162</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J12" s="78" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2441,22 +2441,22 @@
         <v>161</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" s="69" t="s">
         <v>100</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J13" s="78"/>
     </row>
@@ -2484,20 +2484,20 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2512,17 +2512,17 @@
         <v>154</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2555,7 +2555,7 @@
         <v>41989</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2564,7 +2564,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E56D8A-4EC2-49B8-AD7A-66A4D72D1C25}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2C622F-F456-4B16-B2A0-56F4002FBA6A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="208">
   <si>
     <t>Finals Week</t>
   </si>
@@ -708,16 +708,6 @@
 Define the margin of error</t>
   </si>
   <si>
-    <t>No School
-Logistic Regression
-Categorical predictors</t>
-  </si>
-  <si>
-    <t>Study Design
-Multiple Regression
-Confounders</t>
-  </si>
-  <si>
     <t>**RAT on choosing appropriate Bivariate Analysis**</t>
   </si>
   <si>
@@ -730,10 +720,6 @@
   </si>
   <si>
     <t>[PDS Video 18](http://passiondrivenstatistics.com/2018/06/08/chapter-18-writing-for-your-poster-presentation/)</t>
-  </si>
-  <si>
-    <t>PDS Video 17 - start at 43 minutes for Logistic Regression
-[AS notes binary outcomes (8.2) and categorical predictors (7.1)](https://norcalbiostat.github.io/AppliedStatistics_notes/binary-data.html)</t>
   </si>
   <si>
     <t>Shiny Ed apps for learning distributions https://www2.stat.duke.edu/~mc301/shinyed/
@@ -871,56 +857,69 @@
 [Course packet chapter 7](reading/RAD_course_notes.pdf)</t>
   </si>
   <si>
+    <t xml:space="preserve">Final thoughts on linear regression models (model fit, predictions, outliers)
+What makes a sample representative? 
+How does observational studies different than experiments? </t>
+  </si>
+  <si>
+    <t>Fit a model on a binary outcome
+Compare the difference between an ANOVA and a model with categorical variables</t>
+  </si>
+  <si>
+    <t>Finish the regression assignment up to logistic regression. 
+Watch the video and read lecture notes on corresponding topics</t>
+  </si>
+  <si>
+    <t>Build several competing models and use various measures of model fit to compare between models
+Identify when a model has structural problems</t>
+  </si>
+  <si>
+    <t>How to design an informative poster to tell an analysis story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is "linear" about a generalized linear model? 
+How do we model a non-continuous outcome variable? </t>
+  </si>
+  <si>
+    <t>Regression Assignment [[HTML]](hw/hw10_regression.html) [[PDF]](hw/hw10_regression.pdf) (Due Tue  11/27 )</t>
+  </si>
+  <si>
+    <t>Poster prep stage II (Due Wed 10/31 ) (PR Due Fri 11/2 ) (Final Due Sun 11/4 )
+Moderation assignment [[HTML]](hw/hw09_moderation.html) [[PDF]](hw/hw09_moderation.pdf) (Due Tue 11/6 )
+Optional Analyzing Exam Errors  (Due Fri 11/30 )</t>
+  </si>
+  <si>
+    <t>Fall Break</t>
+  </si>
+  <si>
+    <t>No School
+Logistic Regression</t>
+  </si>
+  <si>
+    <t>Study Design
+Multiple Linear Regression
+Confounding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to write multiple regression models mathematically
+How to interpret multiple regression coefficients
+How to interpret categorical predictors
+</t>
+  </si>
+  <si>
     <t>Course Packet Chapter 1 (study design), and (7.3-7.5) linear model predictions, model fit, effect of outliers
 PDS [Video 17](http://passiondrivenstatistics.com/2016/10/06/r-chapter-17/) on Multiple Regression and Study design
 [AS notes on MLR (Ch 6](https://norcalbiostat.github.io/AppliedStatistics_notes/multiple-linear-regression.html)
-[AS notes on Confounding Ch 7.5](https://norcalbiostat.github.io/AppliedStatistics_notes/confounding.html)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final thoughts on linear regression models (model fit, predictions, outliers)
-What makes a sample representative? 
-How does observational studies different than experiments? </t>
-  </si>
-  <si>
-    <t>Fit a model on a binary outcome
-Compare the difference between an ANOVA and a model with categorical variables</t>
-  </si>
-  <si>
-    <t>Finish the regression assignment up to logistic regression. 
-Watch the video and read lecture notes on corresponding topics</t>
-  </si>
-  <si>
-    <t>Build several competing models and use various measures of model fit to compare between models
-Identify when a model has structural problems</t>
-  </si>
-  <si>
-    <t>How to design an informative poster to tell an analysis story</t>
+[AS notes on model building (Ch 7)](https://norcalbiostat.github.io/AppliedStatistics_notes/confounding.html)</t>
+  </si>
+  <si>
+    <t>PDS Video 17 - start at 43 minutes for Logistic Regression
+[AS notes on generalized linear models)](https://norcalbiostat.github.io/AppliedStatistics_notes/glm.html)</t>
   </si>
   <si>
     <t>Confounding: when the addition of a third variable fully explains the relationship between two other variables. 
-How to tell between a moderator, a confounder, and a covariate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is "linear" about a generalized linear model? 
-How do we model a non-continuous outcome variable? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">**RAT on categorical variables**
-Linear models with categorical variables == ANOVA. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Writing multiple regression models mathematically
-Multiple regression as additional partitioning of variance
-Why can't we just throw the whole kitchen sink in the model? 
-How do we tell when a model fits well. </t>
-  </si>
-  <si>
-    <t>Regression Assignment [[HTML]](hw/hw10_regression.html) [[PDF]](hw/hw10_regression.pdf) (Due Tue  11/27 )</t>
-  </si>
-  <si>
-    <t>Poster prep stage II (Due Wed 10/31 ) (PR Due Fri 11/2 ) (Final Due Sun 11/4 )
-Moderation assignment [[HTML]](hw/hw09_moderation.html) [[PDF]](hw/hw09_moderation.pdf) (Due Tue 11/6 )
-Optional Analyzing Exam Errors  (Due Fri 11/30 )</t>
+How to tell between a moderator, a confounder, and a covariate
+Interacation models for dealing with moderators</t>
   </si>
 </sst>
 </file>
@@ -930,9 +929,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1268,123 +1274,123 @@
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="77" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="78" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="81" applyFont="1" applyAlignment="1">
@@ -1396,34 +1402,34 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="81" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,170 +1438,173 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -2019,9 +2028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2241,7 @@
         <v>144</v>
       </c>
       <c r="J6" s="86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -2250,7 +2259,7 @@
         <v>109</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F7" s="82" t="s">
         <v>151</v>
@@ -2265,7 +2274,7 @@
         <v>148</v>
       </c>
       <c r="J7" s="86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="270" hidden="1" x14ac:dyDescent="0.25">
@@ -2280,13 +2289,13 @@
         <v>101</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>152</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>153</v>
@@ -2295,13 +2304,13 @@
         <v>160</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J8" s="86" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80">
         <v>8</v>
       </c>
@@ -2313,24 +2322,24 @@
         <v>102</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I9" s="82"/>
       <c r="J9" s="86" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="80">
         <v>9</v>
       </c>
@@ -2342,58 +2351,58 @@
         <v>116</v>
       </c>
       <c r="D10" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="I10" s="82" t="s">
         <v>176</v>
-      </c>
-      <c r="F10" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="82" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="82" t="s">
-        <v>178</v>
-      </c>
-      <c r="I10" s="82" t="s">
-        <v>179</v>
       </c>
       <c r="J10" s="86" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+    <row r="11" spans="1:11" s="84" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="80">
         <v>10</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="81">
         <f t="shared" si="0"/>
         <v>41940</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="D11" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="E11" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="J11" s="78" t="s">
-        <v>207</v>
+      <c r="F11" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="86" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -2405,31 +2414,31 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J12" s="78" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>12</v>
       </c>
@@ -2438,26 +2447,24 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="G13" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="H13" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2466,7 +2473,9 @@
         <f t="shared" si="0"/>
         <v>41961</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2484,20 +2493,20 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="78" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2512,17 +2521,17 @@
         <v>154</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2543,7 +2552,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2555,7 +2564,7 @@
         <v>41989</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2564,7 +2573,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="98" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2C622F-F456-4B16-B2A0-56F4002FBA6A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB9746-EDA5-4A8E-AD55-6920BD657DF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$91</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="213">
   <si>
     <t>Finals Week</t>
   </si>
@@ -338,11 +339,6 @@
   </si>
   <si>
     <t>in used, % based</t>
-  </si>
-  <si>
-    <t>Final Review
-Poster Presentations
-Poster Presentations</t>
   </si>
   <si>
     <t>Veterans Day -  Campus closed</t>
@@ -676,11 +672,6 @@
 Define sampling distributions, and standard errors</t>
   </si>
   <si>
-    <t>Poster Design
-Poster work time
-Poster work time</t>
-  </si>
-  <si>
     <t>Open work day - Finish Bivariate inference
 Moderation
 Exam 2</t>
@@ -803,11 +794,6 @@
     <t xml:space="preserve">Define Moderation and identify when third variable is a moderator. </t>
   </si>
   <si>
-    <t>Assessing Model Fit
-Model Building strategies and techniques
-Open work day</t>
-  </si>
-  <si>
     <t>Finish the Bivariate infernece assignment
 Watch the PDS Video 14 on Moderation before Wednesday
 Finish all pending online homeworks in BBL and DataCamp
@@ -817,27 +803,6 @@
 Get your Exam 1 Error corrections completed and checked off by a tutor</t>
   </si>
   <si>
-    <t>Final Exam: Friday 12/21 8am</t>
-  </si>
-  <si>
-    <t>Post Assessments: R &amp; Metacognition (Due Fri 12/21 )</t>
-  </si>
-  <si>
-    <t>Final posters as printed (Due Tue 12/11 )
-Team Evaluation (Due Fri 12/14 )
-Final poster scoring [Link] (Due Sun 12/16 )</t>
-  </si>
-  <si>
-    <t>Poster Prep Stage III (Draft Due Thu 11/29 ) (PR Due Sat 12/1 ) (Final Due Mon 12/3 )</t>
-  </si>
-  <si>
-    <t>Poster Draft (Due Fri 12/7 )(PR Due Sun 12/9 )
-Build your own exam questions [[HTML]]() [[PDF]]() (Due Sat 12/8 )</t>
-  </si>
-  <si>
-    <t>AS Notes Section 7.7  [model selection](https://norcalbiostat.github.io/AppliedStatistics_notes/comparing-between-models.html)</t>
-  </si>
-  <si>
     <t>[AS notes on Moderation (7.3)](https://norcalbiostat.github.io/AppliedStatistics_notes/moderation.html)
 [PDS Video 14](http://passiondrivenstatistics.com/2016/08/20/r-chapter-14/)
 Additional [Lecture notes on Moderation](lecture/lec05_moderation.html)</t>
@@ -862,26 +827,11 @@
 How does observational studies different than experiments? </t>
   </si>
   <si>
-    <t>Fit a model on a binary outcome
-Compare the difference between an ANOVA and a model with categorical variables</t>
-  </si>
-  <si>
-    <t>Finish the regression assignment up to logistic regression. 
-Watch the video and read lecture notes on corresponding topics</t>
-  </si>
-  <si>
     <t>Build several competing models and use various measures of model fit to compare between models
 Identify when a model has structural problems</t>
   </si>
   <si>
     <t>How to design an informative poster to tell an analysis story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is "linear" about a generalized linear model? 
-How do we model a non-continuous outcome variable? </t>
-  </si>
-  <si>
-    <t>Regression Assignment [[HTML]](hw/hw10_regression.html) [[PDF]](hw/hw10_regression.pdf) (Due Tue  11/27 )</t>
   </si>
   <si>
     <t>Poster prep stage II (Due Wed 10/31 ) (PR Due Fri 11/2 ) (Final Due Sun 11/4 )
@@ -890,15 +840,6 @@
   </si>
   <si>
     <t>Fall Break</t>
-  </si>
-  <si>
-    <t>No School
-Logistic Regression</t>
-  </si>
-  <si>
-    <t>Study Design
-Multiple Linear Regression
-Confounding</t>
   </si>
   <si>
     <t xml:space="preserve">How to write multiple regression models mathematically
@@ -913,13 +854,105 @@
 [AS notes on model building (Ch 7)](https://norcalbiostat.github.io/AppliedStatistics_notes/confounding.html)</t>
   </si>
   <si>
+    <t>Final Exam: Friday 12/21 8-10am</t>
+  </si>
+  <si>
+    <t>Poster Prep Stage III  (Due Sun 12/9 )</t>
+  </si>
+  <si>
+    <t>Poster Design
+Poster Design
+Open work time</t>
+  </si>
+  <si>
+    <t>Assessing Model Fit and testing categorical predictors
+Model Building strategies and techniques
+Open work day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Open Intro 8.2: Model Selection
+</t>
+  </si>
+  <si>
+    <t>Read Open Intro 8.4: Intro to Logistic Regression
+Watch lecture video in Slack on Categorical variables and multiple regression
+Watch PDS Videos</t>
+  </si>
+  <si>
+    <t>Study Design
+Multiple Linear Regression
+Campus Closed</t>
+  </si>
+  <si>
+    <t>Regression Assignment [[HTML]](hw/hw10_regression.html) [[PDF]](hw/hw10_regression.pdf) (Due Thu  12/6 )</t>
+  </si>
+  <si>
+    <t>Campus Closed due to CampFire</t>
+  </si>
+  <si>
+    <t>Review, recap, reorient
+Logistic regression
+Interaction models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final poster scoring [[Google Form]](https://goo.gl/forms/PiVYBJsoTTcDY01h1) (Due Sun 12/21 )
+Post Assessments about learning R[[link]](https://goo.gl/forms/EuVcSJNb1QhBgMo12) (Due Fri 12/21 )
+Post Metacognition assessment [[link]](https://goo.gl/forms/xCovcIc1AV7Hsx2b2) (Due Fri 12/21 )
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster Draft (Due Fri 12/14 ) (PR Due Sun 12/16 )
+Take home final exam (Due Fri 12/21 ) 
+Final posters as printed [BBL] (Due Tue 12/20 )
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recaping regression models
+- quantitative outcome
+- predictors can be any data type
+- purpose of modeling (explanatory vs predictive)
+- interpretation of continuous/categorical predictors
+</t>
+  </si>
+  <si>
+    <t>Fit a model on a binary outcome
+Interpret regression coefficients from a multiple regression model
+Interpret an Odds Ratio
+Interpret the coefficient for an interaction model</t>
+  </si>
+  <si>
+    <t>Creating and interpreting interaction models</t>
+  </si>
+  <si>
+    <t>**RAT** on Logistic Regression
+What is "linear" about a generalized linear model? 
+What is the logistic function? 
+How do you calculate an Odds Ratio
+How do you interpret an Odds Ratio</t>
+  </si>
+  <si>
+    <t>AS Notes Section 7.7  [model selection](https://norcalbiostat.github.io/AppliedStatistics_notes/comparing-between-models.html)
+OI Section 8.2</t>
+  </si>
+  <si>
     <t>PDS Video 17 - start at 43 minutes for Logistic Regression
-[AS notes on generalized linear models)](https://norcalbiostat.github.io/AppliedStatistics_notes/glm.html)</t>
-  </si>
-  <si>
-    <t>Confounding: when the addition of a third variable fully explains the relationship between two other variables. 
-How to tell between a moderator, a confounder, and a covariate
-Interacation models for dealing with moderators</t>
+[AS notes on generalized linear models)](https://norcalbiostat.github.io/AppliedStatistics_notes/glm.html)
+OI Section 8.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measures of model fit (R2, AIC, BIC)
+Testing multiple variables via ANOVA
+</t>
+  </si>
+  <si>
+    <t>Variable selection
+How to tell when your model is unstable (mathematically)</t>
+  </si>
+  <si>
+    <t>open work day</t>
+  </si>
+  <si>
+    <t>Watch PDS Video</t>
   </si>
 </sst>
 </file>
@@ -929,9 +962,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1274,123 +1314,123 @@
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="77" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="77" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="78" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="81" applyFont="1" applyAlignment="1">
@@ -1402,34 +1442,34 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="81" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="4" xfId="79" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1438,173 +1478,173 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="80" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="18" borderId="0" xfId="80" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="80" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -2028,9 +2068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,28 +2127,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="82" t="s">
         <v>86</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" s="82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J2" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K2" s="82"/>
     </row>
@@ -2121,28 +2161,28 @@
         <v>41884</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="85" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I3" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J3" s="86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="240" hidden="1" x14ac:dyDescent="0.25">
@@ -2154,28 +2194,28 @@
         <v>41891</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="82" t="s">
-        <v>111</v>
-      </c>
       <c r="J4" s="86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="300" hidden="1" x14ac:dyDescent="0.25">
@@ -2187,28 +2227,28 @@
         <v>41898</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="82" t="s">
-        <v>138</v>
-      </c>
       <c r="G5" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="82" t="s">
+      <c r="J5" s="86" t="s">
         <v>135</v>
-      </c>
-      <c r="J5" s="86" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -2220,28 +2260,28 @@
         <v>41905</v>
       </c>
       <c r="C6" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="E6" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>144</v>
-      </c>
       <c r="J6" s="86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -2253,28 +2293,28 @@
         <v>41912</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F7" s="82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" s="82" t="s">
         <v>48</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J7" s="86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="270" hidden="1" x14ac:dyDescent="0.25">
@@ -2286,28 +2326,28 @@
         <v>41919</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E8" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="H8" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="H8" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>167</v>
-      </c>
       <c r="J8" s="86" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
@@ -2319,24 +2359,24 @@
         <v>41926</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="82" t="s">
-        <v>170</v>
-      </c>
       <c r="F9" s="82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I9" s="82"/>
       <c r="J9" s="86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
@@ -2348,28 +2388,28 @@
         <v>41933</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="H10" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="82" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" s="82" t="s">
+      <c r="I10" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="H10" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="I10" s="82" t="s">
-        <v>176</v>
-      </c>
       <c r="J10" s="86" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -2381,28 +2421,28 @@
         <v>41940</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11" s="82" t="s">
-        <v>189</v>
-      </c>
       <c r="G11" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="82" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11" s="82" t="s">
-        <v>179</v>
-      </c>
       <c r="J11" s="86" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -2414,31 +2454,29 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="78" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>12</v>
       </c>
@@ -2447,23 +2485,15 @@
         <v>41954</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="104" t="s">
-        <v>198</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H13" s="98"/>
       <c r="I13" s="1"/>
       <c r="J13" s="78"/>
     </row>
@@ -2474,7 +2504,7 @@
         <v>41961</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2484,7 +2514,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="70"/>
     </row>
-    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>13</v>
       </c>
@@ -2493,23 +2523,29 @@
         <v>41968</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="78" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H15" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="78"/>
+    </row>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>14</v>
       </c>
@@ -2517,24 +2553,32 @@
         <f t="shared" si="0"/>
         <v>41975</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>154</v>
+      <c r="C16" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="98" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J16" s="78" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>15</v>
       </c>
@@ -2543,19 +2587,25 @@
         <v>41982</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="98" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J17" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2614,7 @@
         <v>41989</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2572,8 +2622,8 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="98" t="s">
-        <v>184</v>
+      <c r="J18" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2586,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,7 +2737,7 @@
       </c>
       <c r="J2" s="14">
         <f t="shared" ref="J2:J8" si="0">I2/$I$9</f>
-        <v>7.5156576200417533E-2</v>
+        <v>7.7087794432548179E-2</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>24</v>
@@ -2745,7 +2795,7 @@
       </c>
       <c r="J3" s="14">
         <f t="shared" si="0"/>
-        <v>0.15031315240083507</v>
+        <v>0.15417558886509636</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>8</v>
@@ -2799,11 +2849,11 @@
       </c>
       <c r="I4" s="8">
         <f>SUMIF($C$2:$C$83,H4,$D$2:$D$83)</f>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>0.13987473903966596</v>
+        <v>0.1284796573875803</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>28</v>
@@ -2905,11 +2955,11 @@
       </c>
       <c r="I6" s="8">
         <f>SUMIF($C$2:$C$83,H6,$D$2:$D$83)</f>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="0"/>
-        <v>6.0542797494780795E-2</v>
+        <v>5.1391862955032119E-2</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>13</v>
@@ -2967,7 +3017,7 @@
       </c>
       <c r="J7" s="14">
         <f t="shared" si="0"/>
-        <v>0.31315240083507306</v>
+        <v>0.32119914346895073</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>14</v>
@@ -3025,7 +3075,7 @@
       </c>
       <c r="J8" s="14">
         <f t="shared" si="0"/>
-        <v>0.26096033402922758</v>
+        <v>0.26766595289079231</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>15</v>
@@ -3072,7 +3122,7 @@
       </c>
       <c r="I9" s="6">
         <f>SUM(I2:I8)</f>
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="M9" s="8">
         <v>405</v>
@@ -3205,10 +3255,10 @@
       <c r="G15" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="99" t="s">
+      <c r="H15" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="99"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -3229,10 +3279,10 @@
       <c r="G16" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="100" t="s">
+      <c r="H16" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="100"/>
+      <c r="I16" s="101"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -3253,10 +3303,10 @@
       <c r="G17" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="101" t="s">
+      <c r="H17" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="101"/>
+      <c r="I17" s="102"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -3277,10 +3327,10 @@
       <c r="G18" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="102" t="s">
+      <c r="H18" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="102"/>
+      <c r="I18" s="103"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
@@ -3302,10 +3352,10 @@
       <c r="G19" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="103" t="s">
+      <c r="H19" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="103"/>
+      <c r="I19" s="104"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
@@ -3352,7 +3402,7 @@
         <v>4.2</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="57" t="s">
         <v>8</v>
@@ -3375,7 +3425,7 @@
         <v>4.3</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="55" t="s">
         <v>28</v>
@@ -3396,7 +3446,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="54" t="s">
         <v>15</v>
@@ -3416,7 +3466,7 @@
         <v>4.5</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="76" t="s">
         <v>28</v>
@@ -3477,7 +3527,7 @@
         <v>5.3</v>
       </c>
       <c r="B28" s="87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" s="57" t="s">
         <v>8</v>
@@ -3497,7 +3547,7 @@
         <v>5.4</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="76" t="s">
         <v>28</v>
@@ -3680,7 +3730,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>82</v>
@@ -3941,7 +3991,9 @@
       <c r="D56" s="13">
         <v>15</v>
       </c>
-      <c r="E56" s="46"/>
+      <c r="E56" s="46">
+        <v>41978</v>
+      </c>
       <c r="F56" s="95"/>
       <c r="G56" s="46"/>
     </row>
@@ -3958,7 +4010,9 @@
       <c r="D57" s="13">
         <v>2</v>
       </c>
-      <c r="E57" s="46"/>
+      <c r="E57" s="46">
+        <v>41970</v>
+      </c>
       <c r="F57" s="95"/>
       <c r="G57" s="46"/>
     </row>
@@ -3975,7 +4029,9 @@
       <c r="D58" s="13">
         <v>20</v>
       </c>
-      <c r="E58" s="46"/>
+      <c r="E58" s="46">
+        <v>41981</v>
+      </c>
       <c r="F58" s="94" t="s">
         <v>97</v>
       </c>
@@ -3991,9 +4047,7 @@
       <c r="C59" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="13">
-        <v>4</v>
-      </c>
+      <c r="D59" s="13"/>
       <c r="E59" s="46"/>
       <c r="F59" s="46"/>
       <c r="G59" s="46"/>
@@ -4011,7 +4065,9 @@
       <c r="D60" s="13">
         <v>10</v>
       </c>
-      <c r="E60" s="46"/>
+      <c r="E60" s="46">
+        <v>41986</v>
+      </c>
       <c r="F60" s="46"/>
       <c r="G60" s="46"/>
     </row>
@@ -4026,9 +4082,11 @@
         <v>28</v>
       </c>
       <c r="D61" s="13">
-        <v>2</v>
-      </c>
-      <c r="E61" s="46"/>
+        <v>4</v>
+      </c>
+      <c r="E61" s="46">
+        <v>41988</v>
+      </c>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
     </row>
@@ -4046,7 +4104,7 @@
         <v>20</v>
       </c>
       <c r="E62" s="47">
-        <v>41986</v>
+        <v>41993</v>
       </c>
       <c r="F62" s="47"/>
       <c r="G62" s="47"/>
@@ -4065,7 +4123,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="47">
-        <v>41988</v>
+        <v>41993</v>
       </c>
       <c r="F63" s="47"/>
       <c r="G63" s="47"/>
@@ -4084,9 +4142,7 @@
       <c r="C64" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="13">
-        <v>5</v>
-      </c>
+      <c r="D64" s="13"/>
       <c r="E64" s="46"/>
       <c r="F64" s="46"/>
       <c r="G64" s="46"/>
@@ -4104,9 +4160,7 @@
       <c r="C65" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="13">
-        <v>5</v>
-      </c>
+      <c r="D65" s="13"/>
       <c r="E65" s="46"/>
       <c r="F65" s="46"/>
       <c r="G65" s="46"/>
@@ -4127,7 +4181,9 @@
       <c r="D66" s="13">
         <v>50</v>
       </c>
-      <c r="E66" s="46"/>
+      <c r="E66" s="46">
+        <v>41993</v>
+      </c>
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
     </row>
@@ -4144,7 +4200,9 @@
       <c r="D67" s="13">
         <v>2</v>
       </c>
-      <c r="E67" s="46"/>
+      <c r="E67" s="46">
+        <v>41993</v>
+      </c>
       <c r="F67" s="46"/>
       <c r="G67" s="46"/>
     </row>
@@ -4161,7 +4219,9 @@
       <c r="D68" s="13">
         <v>1</v>
       </c>
-      <c r="E68" s="46"/>
+      <c r="E68" s="46">
+        <v>41993</v>
+      </c>
       <c r="F68" s="46"/>
       <c r="G68" s="46"/>
     </row>
@@ -4661,7 +4721,7 @@
       <c r="B92" s="25"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G92">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G92">
     <sortCondition ref="A2:A92"/>
   </sortState>
   <mergeCells count="5">

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB9746-EDA5-4A8E-AD55-6920BD657DF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="5" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$91</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -895,18 +894,6 @@
 Interaction models</t>
   </si>
   <si>
-    <t xml:space="preserve">Final poster scoring [[Google Form]](https://goo.gl/forms/PiVYBJsoTTcDY01h1) (Due Sun 12/21 )
-Post Assessments about learning R[[link]](https://goo.gl/forms/EuVcSJNb1QhBgMo12) (Due Fri 12/21 )
-Post Metacognition assessment [[link]](https://goo.gl/forms/xCovcIc1AV7Hsx2b2) (Due Fri 12/21 )
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poster Draft (Due Fri 12/14 ) (PR Due Sun 12/16 )
-Take home final exam (Due Fri 12/21 ) 
-Final posters as printed [BBL] (Due Tue 12/20 )
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recaping regression models
 - quantitative outcome
 - predictors can be any data type
@@ -954,11 +941,21 @@
   <si>
     <t>Watch PDS Video</t>
   </si>
+  <si>
+    <t>Final poster scoring [[Google Form]](https://goo.gl/forms/PiVYBJsoTTcDY01h1) (Due Sun 12/21 )
+Post Assessments about learning R[[link]](https://goo.gl/forms/EuVcSJNb1QhBgMo12) (Due Fri 12/21 )
+Post Metacognition assessment [[link]](https://goo.gl/forms/xCovcIc1AV7Hsx2b2) (Due Fri 12/21 )</t>
+  </si>
+  <si>
+    <t>Poster Draft (Due Fri 12/14 ) (PR Due Sun 12/16 )
+Take home final exam (Due Fri 12/21 ) 
+Final posters as printed [BBL] (Due Thu 12/20 )</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
@@ -1725,10 +1722,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Percent 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 2" xfId="51"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Percent 2" xfId="52"/>
+    <cellStyle name="Percent 3" xfId="81"/>
     <cellStyle name="Total" xfId="78" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2065,12 +2062,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,22 +2523,22 @@
         <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="99" t="s">
         <v>203</v>
-      </c>
-      <c r="H15" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="I15" s="99" t="s">
-        <v>205</v>
       </c>
       <c r="J15" s="78"/>
     </row>
@@ -2563,22 +2560,22 @@
         <v>195</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="J16" s="78" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>15</v>
       </c>
@@ -2593,7 +2590,7 @@
         <v>186</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>162</v>
@@ -2602,10 +2599,10 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>0</v>
       </c>
@@ -2623,7 +2620,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2633,10 +2630,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
@@ -4721,7 +4718,7 @@
       <c r="B92" s="25"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G92">
+  <sortState ref="A2:G92">
     <sortCondition ref="A2:A92"/>
   </sortState>
   <mergeCells count="5">

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A8E95-CE81-4D42-8430-CE22BBEC1023}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C80E5-32E2-4A85-AADB-E2B82FD78E2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="8" r:id="rId1"/>
-    <sheet name="fall schedule" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId2"/>
+    <sheet name="fall schedule" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$D$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$D$89</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="322">
   <si>
     <t>Finals Week</t>
   </si>
@@ -120,9 +121,6 @@
     <t>Written</t>
   </si>
   <si>
-    <t>RAT: Logistics</t>
-  </si>
-  <si>
     <t>Participation</t>
   </si>
   <si>
@@ -133,9 +131,6 @@
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>RAT: Data types</t>
   </si>
   <si>
     <t>PS 2.2: Identifying Data</t>
@@ -918,9 +913,6 @@
     <t>Quiz</t>
   </si>
   <si>
-    <t>First Markdown File</t>
-  </si>
-  <si>
     <t>Community Coding &amp; OH</t>
   </si>
   <si>
@@ -1057,10 +1049,6 @@
 Creating research questions</t>
   </si>
   <si>
-    <t>Data architecture and entry
-Writing and refining your research question</t>
-  </si>
-  <si>
     <t>Data cleaning &amp; recoding</t>
   </si>
   <si>
@@ -1081,49 +1069,9 @@
 Hypothesis Testing</t>
   </si>
   <si>
-    <t>[PDS video 2](http://passiondrivenstatistics.com/2015/06/02/chapter-2-draft-version/)
-Course Packet (CP) section 2.1
-Open Intro (OI) Section 1.2
-[Collaborative R notes: Importing data into R](https://hackmd.io/Ue0ojg6xRWC4fP3Xg3Tveg)
-[Conducting a peer review](https://norcalbiostat.github.io/MATH315/project.html)
-Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)</t>
-  </si>
-  <si>
     <t>Fill out [this form](https://goo.gl/forms/qLBv2jMF6fBv3BTR2) to help me set my OH (Due Thu 1/24 )
 R Markdown test file (in class)
 hw01 Orientation [[HTML]](hw/hw01_orientation.html)[[PDF]](hw/hw01_orientation.pdf)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Syllabus](https://norcalbiostat.github.io/MATH315/syllabus_315_f18.html)
-Create and compile a test markdown document. 
-[[PDS video 1]](http://passiondrivenstatistics.com/2015/05/20/chapter-01-course-introduction/) </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Watch PDS Video 2 and 3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Course Packet (CP) section 2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Schedule a time outside of class to work with your analysis partner on a weekly basis. 
-</t>
-    </r>
   </si>
   <si>
     <t>Read the Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)  
@@ -1226,21 +1174,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>Introduction to the instructor, class structure, materials, requirements, expectations and resources. 
-Blackboard usage (grading)
-Online materials (data camp, google drive, website)
-Physical materials (course notes, textbook)
-New collaboration tools (hack, slack)
-Learning Techniques (metacognition, RAT, error assessments, peer reviews)
-Support structures (tutoring, community coding, slack, TA, OH, Math 130)
-Readiness Assurance Test (RAT) on class logistics
-Introduction to the semester long project
-Form support groups and analysis pairs - start to discuss what research topics you want to analyze
-I want all 4 members of a group to be analyzing different research questions from the same data set
-Learn how to use RStudio to do and turn in homework (test markdown file, hw1 template)
-Write down questions about class logistics and structure [[Google Form]](https://goo.gl/forms/T1aDys2sFeLlsk2A3)</t>
   </si>
   <si>
     <r>
@@ -1274,6 +1207,299 @@
   <si>
     <t>Discussion</t>
   </si>
+  <si>
+    <t xml:space="preserve">Dead Week </t>
+  </si>
+  <si>
+    <t>Study Design
+Multiple Linear Regression</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watch PDS Video 2 and 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Read course Packet (CP) section 1.1  and fill in answers for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Schedule a time outside of class to work with your analysis partner on a weekly basis. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>PDS video 2
+Course Packet (CP) section 2.1
+[Conducting a peer review](https://norcalbiostat.github.io/MATH315/project.html)
+Applied Stats Course Notes [Chapter 1.0.1](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)</t>
+  </si>
+  <si>
+    <t>[Syllabus](https://norcalbiostat.github.io/MATH315/syllabus_315_f18.html)
+Create and compile a test markdown document. 
+PDS video 1</t>
+  </si>
+  <si>
+    <t>Population and samples, 
+Data architecture and entry
+Writing and refining your research question</t>
+  </si>
+  <si>
+    <t>Introduction to the instructor, class structure, materials, requirements, expectations and resources. 
+Blackboard usage (grading)
+Online materials (data camp, R studio server, google drive, website)
+Physical materials (course notes, textbook)
+New collaboration tools (slack)
+Learning Techniques (metacognition, error assessments, peer reviews)
+Support structures (tutoring, community coding, slack, TA, OH, Math 130)
+Introduction to the semester long project
+Form support groups and analysis pairs - start to discuss what research topics you want to analyze
+I want all 4 members of a group to be analyzing different research questions from the same data set
+Learn how to use RStudio to do and turn in homework (test markdown file, hw1 template)
+Write down questions about class logistics and structure [[Google Form]](https://goo.gl/forms/T1aDys2sFeLlsk2A3)</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>PDS Video</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Course Packet</t>
+  </si>
+  <si>
+    <t>Other Notes</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Codebooks</t>
+  </si>
+  <si>
+    <t>Literature review</t>
+  </si>
+  <si>
+    <t>Writing about empirical research</t>
+  </si>
+  <si>
+    <t>Working with data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data management </t>
+  </si>
+  <si>
+    <t>Univariate graphing</t>
+  </si>
+  <si>
+    <t>Bivariate graphing</t>
+  </si>
+  <si>
+    <t>Hypothesis testing</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Chi-squared</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Moderation</t>
+  </si>
+  <si>
+    <t>Causation</t>
+  </si>
+  <si>
+    <t>Research plan outline</t>
+  </si>
+  <si>
+    <t>Make account with R Studio cloud</t>
+  </si>
+  <si>
+    <t>Pop vs Sample</t>
+  </si>
+  <si>
+    <t>My Video</t>
+  </si>
+  <si>
+    <t>Make accounts</t>
+  </si>
+  <si>
+    <t>Data structure &amp; types</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>hw08_bivariate_inference</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>hw01_orientation</t>
+  </si>
+  <si>
+    <t>hw02_codebook</t>
+  </si>
+  <si>
+    <t>hw03_citation</t>
+  </si>
+  <si>
+    <t>hw04_data_management</t>
+  </si>
+  <si>
+    <t>hw05_univ_graphing</t>
+  </si>
+  <si>
+    <t>hw06_biv_graphing</t>
+  </si>
+  <si>
+    <t>hw07_foundations</t>
+  </si>
+  <si>
+    <t>hw09_moderation</t>
+  </si>
+  <si>
+    <t>hw10_regression</t>
+  </si>
+  <si>
+    <t>EDA: Stage II</t>
+  </si>
+  <si>
+    <t>Inferential Analysis: Stage III</t>
+  </si>
+  <si>
+    <t>Setting up the story: Stage I</t>
+  </si>
+  <si>
+    <t>Poster Draft</t>
+  </si>
+  <si>
+    <t>Final Poster</t>
+  </si>
+  <si>
+    <t>Midterm</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Model building</t>
+  </si>
+  <si>
+    <t>2.1, 2.2</t>
+  </si>
+  <si>
+    <t>Foundations for Inference</t>
+  </si>
+  <si>
+    <t>4.8, 4.9, 5</t>
+  </si>
+  <si>
+    <t>Probability &amp; Distributions</t>
+  </si>
+  <si>
+    <t>4.1-4.7</t>
+  </si>
+  <si>
+    <t>Simple Linear Regression</t>
+  </si>
+  <si>
+    <t>Timed Quiz</t>
+  </si>
+  <si>
+    <t>BBL Quiz</t>
+  </si>
+  <si>
+    <t>Explanatory vs Response</t>
+  </si>
+  <si>
+    <t>2.4, 2.5, 2.7</t>
+  </si>
+  <si>
+    <t>2.8, 2.9</t>
+  </si>
+  <si>
+    <t>3.1, 3.2</t>
+  </si>
+  <si>
+    <t>4.1, 4.2, 4.4</t>
+  </si>
+  <si>
+    <t>prod data, 2.2, 1.5</t>
+  </si>
+  <si>
+    <t>OI Intro to R</t>
+  </si>
+  <si>
+    <t>OI Intro to Data</t>
+  </si>
+  <si>
+    <t>Data Camp: OI: Intro to R</t>
+  </si>
+  <si>
+    <t>DC Intro to R</t>
+  </si>
+  <si>
+    <t>Data Camp: Intro to R [Ch1]</t>
+  </si>
+  <si>
+    <t>Data Camp OI: Intro to Data</t>
+  </si>
+  <si>
+    <t>1 samp HT, hyp testing II</t>
+  </si>
+  <si>
+    <t>hw</t>
+  </si>
+  <si>
+    <t>14 (38 min)</t>
+  </si>
+  <si>
+    <t>14 (20 min)</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>14 (43 min)</t>
+  </si>
+  <si>
+    <t>Confounding and Multiple Regression</t>
+  </si>
+  <si>
+    <t>Walk through in class loading their data in.</t>
+  </si>
+  <si>
+    <t>Multiple Regression
+Confounding
+Logistic regression
+Interaction terms
+Categorical terms</t>
+  </si>
 </sst>
 </file>
 
@@ -1282,7 +1508,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1475,6 +1701,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1550,7 +1797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1596,8 +1843,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="82">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1680,8 +1936,9 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1885,8 +2142,30 @@
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="82" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="82">
+  <cellStyles count="83">
     <cellStyle name="20% - Accent6" xfId="79" builtinId="50"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1926,6 +2205,7 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 2" xfId="77" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="82" builtinId="18"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2305,11 +2585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBDFB77-8F8A-4840-8916-D6924239BDF7}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2605,7 @@
     <col min="9" max="16384" width="14.875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
@@ -2345,13 +2625,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="62" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="62" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="59">
         <v>1</v>
       </c>
@@ -2359,26 +2639,25 @@
         <v>42024</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="H2" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" s="62" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="62" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="59">
         <v>2</v>
       </c>
@@ -2387,25 +2666,25 @@
         <v>42031</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="62" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="62" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A4" s="59">
         <v>3</v>
       </c>
@@ -2414,25 +2693,25 @@
         <v>42038</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="62" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="62" customFormat="1" ht="360" x14ac:dyDescent="0.25">
       <c r="A5" s="59">
         <v>4</v>
       </c>
@@ -2441,25 +2720,25 @@
         <v>42045</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="62" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="62" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="59">
         <v>5</v>
       </c>
@@ -2468,25 +2747,25 @@
         <v>42052</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="62" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="62" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <v>6</v>
       </c>
@@ -2495,25 +2774,25 @@
         <v>42059</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="62" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="62" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>7</v>
       </c>
@@ -2522,25 +2801,25 @@
         <v>42066</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>8</v>
       </c>
@@ -2549,7 +2828,7 @@
         <v>42073</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D9" s="89"/>
       <c r="E9" s="89"/>
@@ -2557,7 +2836,7 @@
       <c r="G9" s="89"/>
       <c r="H9" s="90"/>
     </row>
-    <row r="10" spans="1:9" s="62" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="62" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>9</v>
       </c>
@@ -2566,25 +2845,25 @@
         <v>42080</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="62" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="62" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>10</v>
       </c>
@@ -2593,25 +2872,25 @@
         <v>42087</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="62" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="62" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
         <v>11</v>
       </c>
@@ -2621,22 +2900,22 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="62" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="62" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="59">
         <v>12</v>
       </c>
@@ -2645,48 +2924,48 @@
         <v>42101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="62" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="62" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
       <c r="B14" s="60">
         <f t="shared" si="0"/>
         <v>42108</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H14" s="64"/>
     </row>
-    <row r="15" spans="1:9" s="62" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="62" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
         <v>13</v>
       </c>
@@ -2695,25 +2974,25 @@
         <v>42115</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="62" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="62" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="59">
         <v>14</v>
       </c>
@@ -2722,20 +3001,20 @@
         <v>42122</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -2746,6 +3025,9 @@
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
+      <c r="C17" s="62" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="18" spans="1:8" s="62" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
@@ -2756,14 +3038,14 @@
         <v>42136</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -2991,12 +3273,613 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DC1812-FD5C-4C2B-9AB5-275F99A8591F}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="92"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="92" customWidth="1"/>
+    <col min="4" max="5" width="13.875" style="92" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="92" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="92" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="92" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="92" customWidth="1"/>
+    <col min="10" max="10" width="28.75" style="92" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="92" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" s="91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="92">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="J2" s="93" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="92">
+        <v>1.2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="92">
+        <v>2.1</v>
+      </c>
+      <c r="D3" s="92">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="92">
+        <v>1.3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="95">
+        <v>7</v>
+      </c>
+      <c r="D4" s="92">
+        <v>1.2</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" s="93"/>
+      <c r="J4" s="93"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="92">
+        <v>1.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="92">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D5" s="92">
+        <v>1.3</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>310</v>
+      </c>
+      <c r="H5" s="93"/>
+      <c r="J5" s="94" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="92">
+        <v>2.1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="92">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6" s="93" t="s">
+        <v>277</v>
+      </c>
+      <c r="J6" s="92" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="92">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="92">
+        <v>3</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="96">
+        <v>3.1</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="96">
+        <v>4</v>
+      </c>
+      <c r="D8" s="96"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" s="98"/>
+      <c r="J8" s="95" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>308</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>272</v>
+      </c>
+      <c r="J9" s="92" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="92">
+        <v>3.2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="92">
+        <v>5</v>
+      </c>
+      <c r="D10" s="92">
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="93" t="s">
+        <v>279</v>
+      </c>
+      <c r="I10" s="92" t="s">
+        <v>272</v>
+      </c>
+      <c r="J10" s="92" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="92">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="92">
+        <v>6</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="G11" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" s="93" t="s">
+        <v>280</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" s="92" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="92">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="92">
+        <v>7</v>
+      </c>
+      <c r="D12" s="92">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>303</v>
+      </c>
+      <c r="G12" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="93" t="s">
+        <v>281</v>
+      </c>
+      <c r="I12" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" s="92" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="92">
+        <v>6.1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="92">
+        <v>8</v>
+      </c>
+      <c r="D13" s="92">
+        <v>3</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>304</v>
+      </c>
+      <c r="H13" s="93"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="92">
+        <v>6.2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="92">
+        <v>8</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>305</v>
+      </c>
+      <c r="H14" s="93"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="92">
+        <v>7.1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="92">
+        <v>8</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="92" t="s">
+        <v>313</v>
+      </c>
+      <c r="G15" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" s="93" t="s">
+        <v>282</v>
+      </c>
+      <c r="J15" s="92" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="92">
+        <v>7.2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="93"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="92">
+        <v>9.1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="92">
+        <v>9</v>
+      </c>
+      <c r="D17" s="92">
+        <v>6.2</v>
+      </c>
+      <c r="F17" s="92">
+        <v>6.6</v>
+      </c>
+      <c r="G17" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H17" s="93" t="s">
+        <v>274</v>
+      </c>
+      <c r="I17" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="J17" s="92" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="92">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="92">
+        <v>10</v>
+      </c>
+      <c r="D18" s="92">
+        <v>6.3</v>
+      </c>
+      <c r="G18" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="93"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="92">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="92">
+        <v>11</v>
+      </c>
+      <c r="D19" s="92">
+        <v>6.4</v>
+      </c>
+      <c r="F19" s="92">
+        <v>7.1</v>
+      </c>
+      <c r="G19" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H19" s="93"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="92">
+        <v>9.4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" s="92">
+        <v>6.5</v>
+      </c>
+      <c r="F20" s="92">
+        <v>7.3</v>
+      </c>
+      <c r="G20" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H20" s="93"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="92">
+        <v>12</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="93" t="s">
+        <v>283</v>
+      </c>
+      <c r="I21" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="J21" s="92" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="92">
+        <v>13</v>
+      </c>
+      <c r="H22" s="93"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>315</v>
+      </c>
+      <c r="G23" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="93" t="s">
+        <v>284</v>
+      </c>
+      <c r="I23" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="J23" s="92" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" s="92" t="s">
+        <v>318</v>
+      </c>
+      <c r="H24" s="93"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" s="93"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H27" s="93"/>
+      <c r="I27" s="92" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="I28" s="92" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="I29" s="92" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="92">
+        <v>15</v>
+      </c>
+      <c r="E31" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="I31" s="92" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="92">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="92">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD49"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,28 +3936,28 @@
         <v>41877</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K2" s="1"/>
     </row>
@@ -3087,28 +3970,28 @@
         <v>41884</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G3" s="63" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J3" s="64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="62" customFormat="1" ht="240" x14ac:dyDescent="0.25">
@@ -3120,28 +4003,28 @@
         <v>41891</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J4" s="64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="62" customFormat="1" ht="300" x14ac:dyDescent="0.25">
@@ -3153,31 +4036,31 @@
         <v>41898</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="64" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="62" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" s="62" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="59">
         <v>5</v>
       </c>
@@ -3186,28 +4069,28 @@
         <v>41905</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="J6" s="64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="62" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -3219,31 +4102,31 @@
         <v>41912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="62" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="62" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>7</v>
       </c>
@@ -3252,28 +4135,28 @@
         <v>41919</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="J8" s="64" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="62" customFormat="1" ht="195" x14ac:dyDescent="0.25">
@@ -3285,24 +4168,24 @@
         <v>41926</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="62" customFormat="1" ht="180" x14ac:dyDescent="0.25">
@@ -3314,31 +4197,31 @@
         <v>41933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="J10" s="64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="62" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="62" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>10</v>
       </c>
@@ -3347,28 +4230,28 @@
         <v>41940</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="J11" s="64" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="62" customFormat="1" ht="165" x14ac:dyDescent="0.25">
@@ -3380,26 +4263,26 @@
         <v>41947</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -3411,13 +4294,13 @@
         <v>41954</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H13" s="57"/>
       <c r="I13" s="1"/>
@@ -3430,7 +4313,7 @@
         <v>41961</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3449,25 +4332,25 @@
         <v>41968</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="58" t="s">
         <v>186</v>
-      </c>
-      <c r="H15" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="I15" s="58" t="s">
-        <v>188</v>
       </c>
       <c r="J15" s="64"/>
     </row>
@@ -3480,28 +4363,28 @@
         <v>41975</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="J16" s="64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="62" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3513,22 +4396,22 @@
         <v>41982</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="62" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -3540,7 +4423,7 @@
         <v>41989</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3549,7 +4432,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -3837,12 +4720,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y92"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,10 +4760,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>9</v>
@@ -3931,23 +4814,23 @@
     </row>
     <row r="2" spans="1:25" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>8</v>
+        <v>1.3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>26</v>
       </c>
       <c r="D2" s="11">
         <v>2</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H2" s="6">
-        <f>SUMIF($C$2:$C$83,G2,$D$2:$D$83)</f>
+        <f>SUMIF($C$2:$C$81,G2,$D$2:$D$81)</f>
         <v>36</v>
       </c>
       <c r="I2" s="12">
@@ -3955,7 +4838,7 @@
         <v>8.8452088452088448E-2</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L2" s="6">
         <v>36</v>
@@ -3994,28 +4877,28 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="75" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="44"/>
       <c r="G3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="6">
-        <f>SUMIF($C$2:$C$83,G3,$D$2:$D$83)</f>
-        <v>57</v>
+        <f>SUMIF($C$2:$C$81,G3,$D$2:$D$81)</f>
+        <v>55</v>
       </c>
       <c r="I3" s="12">
         <f>H3/$L$9</f>
-        <v>0.14004914004914004</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>8</v>
@@ -4057,23 +4940,23 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>27</v>
+        <v>1.5</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="F4" s="44"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="43"/>
       <c r="G4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="6">
-        <f>SUMIF($C$2:$C$83,G4,$D$2:$D$83)</f>
+        <f>SUMIF($C$2:$C$81,G4,$D$2:$D$81)</f>
         <v>76</v>
       </c>
       <c r="I4" s="12">
@@ -4081,7 +4964,7 @@
         <v>0.18673218673218672</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="6">
         <v>50</v>
@@ -4091,7 +4974,7 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4" s="7">
         <v>40</v>
@@ -4100,7 +4983,7 @@
         <v>9.8765432098765427E-2</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T4" s="24">
         <v>25</v>
@@ -4109,7 +4992,7 @@
         <v>5.4945054945054944E-2</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X4" s="8">
         <v>20</v>
@@ -4118,20 +5001,20 @@
         <v>4.405286343612335E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="44"/>
+    <row r="5" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="43"/>
       <c r="G5" s="16"/>
       <c r="I5" s="12"/>
       <c r="K5" s="16"/>
@@ -4139,7 +5022,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="7">
         <v>26</v>
@@ -4157,7 +5040,7 @@
         <v>2.197802197802198E-2</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X5" s="8">
         <v>32</v>
@@ -4167,29 +5050,21 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="11">
-        <v>5</v>
-      </c>
-      <c r="F6" s="43"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="11"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="6">
-        <f>SUMIF($C$2:$C$83,G6,$D$2:$D$83)</f>
-        <v>29</v>
+        <f>SUMIF($C$2:$C$81,G6,$D$2:$D$81)</f>
+        <v>27</v>
       </c>
       <c r="I6" s="12">
         <f>H6/$L$9</f>
-        <v>7.125307125307126E-2</v>
+        <v>6.6339066339066333E-2</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>13</v>
@@ -4229,25 +5104,25 @@
         <v>2.2026431718061675E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
-        <v>1.6</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="F7" s="43"/>
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="44"/>
       <c r="G7" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="6">
-        <f>SUMIF($C$2:$C$83,G7,$D$2:$D$83)</f>
+        <f>SUMIF($C$2:$C$81,G7,$D$2:$D$81)</f>
         <v>150</v>
       </c>
       <c r="I7" s="12">
@@ -4294,23 +5169,23 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="75" t="s">
-        <v>13</v>
+      <c r="C8" s="84" t="s">
+        <v>198</v>
       </c>
       <c r="D8" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="6">
-        <f>SUMIF($C$2:$C$83,G8,$D$2:$D$83)</f>
+        <f>SUMIF($C$2:$C$81,G8,$D$2:$D$81)</f>
         <v>135</v>
       </c>
       <c r="I8" s="12">
@@ -4353,22 +5228,22 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>200</v>
+      <c r="C9" s="84" t="s">
+        <v>198</v>
       </c>
       <c r="D9" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="16"/>
       <c r="H9" s="4">
         <f>SUM(H2:H8)</f>
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="4">
@@ -4387,90 +5262,91 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>200</v>
+        <v>2.5</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" s="44"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="11">
-        <v>3</v>
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="19">
+        <v>4</v>
       </c>
       <c r="F11" s="44"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>15</v>
+        <v>3.1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="11">
-        <v>10</v>
-      </c>
-      <c r="F12" s="44"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
-        <v>2.6</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="19">
-        <v>4</v>
-      </c>
-      <c r="F13" s="44"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>198</v>
       </c>
       <c r="D14" s="11">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E14" s="40"/>
       <c r="F14" s="50"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>200</v>
+        <v>34</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>198</v>
       </c>
       <c r="D15" s="11">
         <v>2</v>
@@ -4481,233 +5357,230 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>200</v>
+        <v>3.5</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>15</v>
       </c>
       <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="50"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="48"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2</v>
-      </c>
-      <c r="F17" s="50"/>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="19">
+        <v>4</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>15</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>13</v>
       </c>
       <c r="D18" s="11">
-        <v>10</v>
-      </c>
-      <c r="F18" s="48"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>3.6</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="19">
-        <v>4</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="11">
+        <v>5</v>
       </c>
       <c r="E19" s="40"/>
-      <c r="F19" s="67"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="75" t="s">
-        <v>13</v>
+        <v>4.3</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" s="40"/>
-      <c r="F20" s="68"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>8</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="68"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>4.3</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="11">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="19">
         <v>4</v>
       </c>
       <c r="E22" s="40"/>
-      <c r="F22" s="69"/>
+      <c r="F22" s="68"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B23" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>15</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>13</v>
       </c>
       <c r="D23" s="11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E23" s="40"/>
-      <c r="F23" s="68"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>4.5</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="19">
-        <v>4</v>
+      <c r="F23" s="70"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2</v>
       </c>
       <c r="E24" s="40"/>
-      <c r="F24" s="68"/>
+      <c r="F24" s="69"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>13</v>
+        <v>5.3</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="D25" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="70"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>5.2</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="11">
-        <v>2</v>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
+        <v>5.4</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="19">
+        <v>4</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="69"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <v>5.3</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="D27" s="11">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="E27" s="40"/>
-      <c r="F27" s="70"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
-        <v>5.4</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="19">
-        <v>4</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="69"/>
+      <c r="F27" s="40"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>6</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="11">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>6</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="11">
-        <v>75</v>
-      </c>
+      <c r="B29" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
     </row>
@@ -4715,27 +5588,29 @@
       <c r="A30" s="9">
         <v>6</v>
       </c>
-      <c r="B30" s="71" t="s">
-        <v>204</v>
+      <c r="B30" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="82" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>6</v>
       </c>
-      <c r="B31" s="71" t="s">
-        <v>207</v>
+      <c r="B31" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="D31" s="11">
+        <v>4</v>
+      </c>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
     </row>
@@ -4744,59 +5619,57 @@
         <v>6</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="82" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>198</v>
       </c>
       <c r="D32" s="11">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
-        <v>6</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="78" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>8</v>
       </c>
       <c r="D33" s="11">
-        <v>4</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>200</v>
+        <v>44</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>13</v>
       </c>
       <c r="D34" s="11">
         <v>2</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>7</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>8</v>
+      <c r="B35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>198</v>
       </c>
       <c r="D35" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4806,12 +5679,10 @@
       <c r="B36" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="11">
-        <v>2</v>
-      </c>
+      <c r="C36" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
@@ -4821,10 +5692,10 @@
         <v>47</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D37" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4835,19 +5706,21 @@
         <v>48</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="11"/>
+        <v>198</v>
+      </c>
+      <c r="D38" s="11">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>7</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>49</v>
+      <c r="B39" s="56" t="s">
+        <v>137</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D39" s="11">
         <v>1</v>
@@ -4855,46 +5728,50 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>200</v>
+        <v>49</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>13</v>
       </c>
       <c r="D40" s="11">
-        <v>2.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
-        <v>7</v>
-      </c>
-      <c r="B41" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>200</v>
+        <v>9</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="D41" s="11">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
-        <v>8</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="75" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B42" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="78" t="s">
+        <v>26</v>
       </c>
       <c r="D42" s="11">
-        <v>2</v>
-      </c>
-      <c r="E42" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="E42" s="41"/>
       <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4902,13 +5779,13 @@
         <v>9</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>8</v>
+        <v>50</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>13</v>
       </c>
       <c r="D43" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E43" s="41"/>
       <c r="F43" s="40"/>
@@ -4917,21 +5794,21 @@
       <c r="A44" s="9">
         <v>9</v>
       </c>
-      <c r="B44" s="71" t="s">
-        <v>206</v>
-      </c>
-      <c r="C44" s="78" t="s">
-        <v>27</v>
+      <c r="B44" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>198</v>
       </c>
       <c r="D44" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44" s="41"/>
       <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>52</v>
@@ -4947,16 +5824,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="47" t="s">
-        <v>200</v>
+      <c r="C46" s="84" t="s">
+        <v>198</v>
       </c>
       <c r="D46" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E46" s="41"/>
       <c r="F46" s="40"/>
@@ -4968,8 +5845,8 @@
       <c r="B47" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="75" t="s">
-        <v>13</v>
+      <c r="C47" s="47" t="s">
+        <v>198</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
@@ -4979,32 +5856,32 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
+        <v>11</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="11">
         <v>10</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" s="11">
-        <v>6</v>
       </c>
       <c r="E48" s="41"/>
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
-        <v>10</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>200</v>
+        <v>11</v>
+      </c>
+      <c r="B49" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="78" t="s">
+        <v>26</v>
       </c>
       <c r="D49" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" s="41"/>
       <c r="F49" s="40"/>
@@ -5014,13 +5891,13 @@
         <v>11</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="C50" s="75" t="s">
+        <v>13</v>
       </c>
       <c r="D50" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E50" s="41"/>
       <c r="F50" s="40"/>
@@ -5029,11 +5906,11 @@
       <c r="A51" s="9">
         <v>11</v>
       </c>
-      <c r="B51" s="71" t="s">
-        <v>206</v>
+      <c r="B51" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C51" s="78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" s="11">
         <v>4</v>
@@ -5046,93 +5923,93 @@
         <v>11</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="75" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="C52" s="82" t="s">
+        <v>15</v>
       </c>
       <c r="D52" s="11">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E52" s="41"/>
       <c r="F52" s="40"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
-        <v>11</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="78" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="D53" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E53" s="41"/>
       <c r="F53" s="40"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
-        <v>11</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="82" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B54" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="78" t="s">
+        <v>26</v>
       </c>
       <c r="D54" s="11">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E54" s="41"/>
       <c r="F54" s="40"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+      <c r="A55" s="20">
         <v>12</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="C55" s="76" t="s">
+        <v>13</v>
       </c>
       <c r="D55" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E55" s="41"/>
       <c r="F55" s="40"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
-        <v>12</v>
-      </c>
-      <c r="B56" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="C56" s="78" t="s">
-        <v>27</v>
+      <c r="A56" s="20">
+        <v>13</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="76" t="s">
+        <v>13</v>
       </c>
       <c r="D56" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56" s="41"/>
       <c r="F56" s="40"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="76" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="C57" s="78" t="s">
+        <v>26</v>
       </c>
       <c r="D57" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="40"/>
@@ -5142,26 +6019,26 @@
         <v>13</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="76" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="C58" s="82" t="s">
+        <v>15</v>
       </c>
       <c r="D58" s="11">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E58" s="41"/>
       <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="20">
-        <v>13</v>
+      <c r="A59" s="9">
+        <v>14</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C59" s="78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="11">
         <v>4</v>
@@ -5170,96 +6047,96 @@
       <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="20">
-        <v>13</v>
+      <c r="A60" s="9">
+        <v>14</v>
       </c>
       <c r="B60" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="82" t="s">
+      <c r="C60" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E60" s="41"/>
       <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
-        <v>14</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="78" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="75" t="s">
+        <v>13</v>
       </c>
       <c r="D61" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E61" s="41"/>
-      <c r="F61" s="40"/>
+      <c r="F61" s="41"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="83" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="C62" s="79" t="s">
+        <v>26</v>
       </c>
       <c r="D62" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E62" s="41"/>
-      <c r="F62" s="40"/>
+      <c r="F62" s="41"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>15</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="11">
-        <v>5</v>
-      </c>
+      <c r="B63" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="11"/>
       <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
+      <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>15</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="79" t="s">
-        <v>27</v>
+      <c r="B64" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="83" t="s">
+        <v>15</v>
       </c>
       <c r="D64" s="11">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
+      <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
-        <v>15</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="11">
+        <v>75</v>
+      </c>
       <c r="E65" s="41"/>
       <c r="F65" s="40"/>
       <c r="G65" s="5"/>
@@ -5269,16 +6146,16 @@
     </row>
     <row r="66" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="83" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="C66" s="78" t="s">
+        <v>26</v>
       </c>
       <c r="D66" s="11">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="40"/>
@@ -5291,13 +6168,13 @@
         <v>17</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>14</v>
+        <v>71</v>
+      </c>
+      <c r="C67" s="75" t="s">
+        <v>13</v>
       </c>
       <c r="D67" s="11">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E67" s="41"/>
       <c r="F67" s="40"/>
@@ -5307,64 +6184,52 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C68" s="78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D68" s="11">
-        <v>2</v>
-      </c>
-      <c r="E68" s="41"/>
-      <c r="F68" s="40"/>
+        <v>10</v>
+      </c>
+      <c r="E68" s="42"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
-        <v>17</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="11">
-        <v>1</v>
-      </c>
-      <c r="E69" s="41"/>
-      <c r="F69" s="40"/>
+        <v>18</v>
+      </c>
+      <c r="B69" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="88">
+        <v>4</v>
+      </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>18</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>71</v>
+      <c r="B70" s="71" t="s">
+        <v>200</v>
       </c>
       <c r="C70" s="78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" s="11">
-        <v>10</v>
-      </c>
-      <c r="E70" s="42"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="71" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
-        <v>18</v>
-      </c>
-      <c r="B71" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="88">
-        <v>4</v>
-      </c>
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="39"/>
       <c r="F71" s="39"/>
       <c r="G71" s="5"/>
@@ -5381,18 +6246,10 @@
       <c r="U71" s="5"/>
     </row>
     <row r="72" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
-        <v>18</v>
-      </c>
-      <c r="B72" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="11">
-        <v>5</v>
-      </c>
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="39"/>
       <c r="F72" s="39"/>
       <c r="G72" s="5"/>
@@ -5453,8 +6310,8 @@
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="11"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
       <c r="G75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -5473,8 +6330,8 @@
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="11"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
       <c r="G76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -5513,8 +6370,8 @@
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
       <c r="G78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -5533,8 +6390,8 @@
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="11"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
       <c r="G79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
@@ -5765,10 +6622,10 @@
       <c r="U89" s="5"/>
     </row>
     <row r="90" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="11"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="17"/>
       <c r="E90" s="39"/>
       <c r="F90" s="39"/>
       <c r="G90" s="5"/>
@@ -5787,10 +6644,10 @@
       <c r="U90" s="5"/>
     </row>
     <row r="91" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="11"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="17"/>
       <c r="E91" s="39"/>
       <c r="F91" s="39"/>
       <c r="G91" s="5"/>
@@ -5806,13 +6663,9 @@
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
-      <c r="B92" s="23"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
-    <sortCondition ref="A2:A96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
+    <sortCondition ref="A2:A94"/>
   </sortState>
   <conditionalFormatting sqref="M2:M8">
     <cfRule type="dataBar" priority="3">

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C80E5-32E2-4A85-AADB-E2B82FD78E2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5680EE25-00A1-437C-8739-0A1252679F45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="328">
   <si>
     <t>Finals Week</t>
   </si>
@@ -1350,9 +1350,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>PR</t>
-  </si>
-  <si>
     <t>hw08_bivariate_inference</t>
   </si>
   <si>
@@ -1428,9 +1425,6 @@
     <t>Simple Linear Regression</t>
   </si>
   <si>
-    <t>Timed Quiz</t>
-  </si>
-  <si>
     <t>BBL Quiz</t>
   </si>
   <si>
@@ -1476,16 +1470,7 @@
     <t>hw</t>
   </si>
   <si>
-    <t>14 (38 min)</t>
-  </si>
-  <si>
-    <t>14 (20 min)</t>
-  </si>
-  <si>
     <t>Logistic Regression</t>
-  </si>
-  <si>
-    <t>14 (43 min)</t>
   </si>
   <si>
     <t>Confounding and Multiple Regression</t>
@@ -1499,6 +1484,39 @@
 Logistic regression
 Interaction terms
 Categorical terms</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Peer Review</t>
+  </si>
+  <si>
+    <t>Poster prep Stage II</t>
+  </si>
+  <si>
+    <t>Poster prep Stage III</t>
+  </si>
+  <si>
+    <t>Poster prep Stage I</t>
+  </si>
+  <si>
+    <t>T-test</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
   </si>
 </sst>
 </file>
@@ -1938,7 +1956,7 @@
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2162,6 +2180,24 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="5" xfId="82" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2890,7 +2926,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="62" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="62" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
         <v>11</v>
       </c>
@@ -2915,7 +2951,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="62" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="62" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="59">
         <v>12</v>
       </c>
@@ -2949,7 +2985,7 @@
         <v>42108</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>185</v>
@@ -3274,22 +3310,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DC1812-FD5C-4C2B-9AB5-275F99A8591F}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="92"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="92" customWidth="1"/>
-    <col min="4" max="5" width="13.875" style="92" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="92" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="92" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="92" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="100" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="92" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="92" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="92" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="92" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="92" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="92" customWidth="1"/>
     <col min="10" max="10" width="28.75" style="92" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3300,26 +3337,26 @@
       <c r="B1" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="99" t="s">
         <v>248</v>
       </c>
       <c r="D1" s="91" t="s">
         <v>250</v>
       </c>
       <c r="E1" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="91" t="s">
         <v>251</v>
-      </c>
-      <c r="F1" s="91" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="91" t="s">
-        <v>299</v>
-      </c>
-      <c r="H1" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="91" t="s">
-        <v>273</v>
       </c>
       <c r="J1" s="91" t="s">
         <v>29</v>
@@ -3335,11 +3372,11 @@
       <c r="D2" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="F2" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="92" t="s">
         <v>269</v>
-      </c>
-      <c r="H2" s="93" t="s">
-        <v>270</v>
       </c>
       <c r="J2" s="93" t="s">
         <v>267</v>
@@ -3352,17 +3389,20 @@
       <c r="B3" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="92">
-        <v>2.1</v>
-      </c>
-      <c r="D3" s="92">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F3" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="H3" s="93" t="s">
-        <v>276</v>
+      <c r="C3" s="100" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>304</v>
       </c>
       <c r="J3" s="93"/>
     </row>
@@ -3371,18 +3411,21 @@
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" s="95">
+        <v>299</v>
+      </c>
+      <c r="C4" s="101">
         <v>7</v>
       </c>
       <c r="D4" s="92">
         <v>1.2</v>
       </c>
-      <c r="F4" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="H4" s="93"/>
+      <c r="E4" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="93"/>
+      <c r="H4" s="92" t="s">
+        <v>304</v>
+      </c>
       <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3392,18 +3435,21 @@
       <c r="B5" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="92">
-        <v>2.2000000000000002</v>
+      <c r="C5" s="100" t="s">
+        <v>317</v>
       </c>
       <c r="D5" s="92">
         <v>1.3</v>
       </c>
-      <c r="F5" s="92" t="s">
-        <v>310</v>
-      </c>
-      <c r="H5" s="93"/>
+      <c r="E5" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="93"/>
+      <c r="H5" s="92" t="s">
+        <v>308</v>
+      </c>
       <c r="J5" s="94" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3413,17 +3459,20 @@
       <c r="B6" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="92">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F6" s="92" t="s">
+      <c r="C6" s="100" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>305</v>
+      </c>
+      <c r="J6" s="92" t="s">
         <v>307</v>
-      </c>
-      <c r="H6" s="93" t="s">
-        <v>277</v>
-      </c>
-      <c r="J6" s="92" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3433,17 +3482,14 @@
       <c r="B7" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="100">
         <v>3</v>
       </c>
       <c r="E7" s="92" t="s">
-        <v>272</v>
-      </c>
-      <c r="G7" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H7" s="93" t="s">
-        <v>278</v>
+        <v>274</v>
+      </c>
+      <c r="F7" s="93" t="s">
+        <v>277</v>
       </c>
       <c r="I7" s="92" t="s">
         <v>272</v>
@@ -3456,18 +3502,18 @@
       <c r="B8" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C8" s="96">
+      <c r="C8" s="102">
         <v>4</v>
       </c>
       <c r="D8" s="96"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96" t="s">
-        <v>275</v>
-      </c>
-      <c r="H8" s="98"/>
-      <c r="J8" s="95" t="s">
-        <v>320</v>
+      <c r="E8" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="F8" s="98"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="104" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3475,22 +3521,22 @@
         <v>255</v>
       </c>
       <c r="E9" s="92" t="s">
-        <v>272</v>
-      </c>
-      <c r="F9" s="92" t="s">
-        <v>308</v>
+        <v>274</v>
+      </c>
+      <c r="F9" s="93" t="s">
+        <v>266</v>
       </c>
       <c r="G9" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>266</v>
+        <v>274</v>
+      </c>
+      <c r="H9" s="92" t="s">
+        <v>306</v>
       </c>
       <c r="I9" s="92" t="s">
         <v>272</v>
       </c>
       <c r="J9" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3500,356 +3546,389 @@
       <c r="B10" t="s">
         <v>257</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="100">
         <v>5</v>
       </c>
       <c r="D10" s="92">
         <v>1.4</v>
       </c>
-      <c r="G10" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H10" s="93" t="s">
-        <v>279</v>
+      <c r="E10" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>278</v>
       </c>
       <c r="I10" s="92" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J10" s="92" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="92">
-        <v>4</v>
-      </c>
       <c r="B11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="92">
-        <v>6</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>302</v>
+        <v>286</v>
+      </c>
+      <c r="F11" s="93" t="s">
+        <v>324</v>
       </c>
       <c r="G11" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H11" s="93" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="I11" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="J11" s="92" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="92">
-        <v>7</v>
-      </c>
-      <c r="D12" s="92">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F12" s="92" t="s">
-        <v>303</v>
-      </c>
-      <c r="G12" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H12" s="93" t="s">
-        <v>281</v>
-      </c>
-      <c r="I12" s="92" t="s">
-        <v>275</v>
+        <v>258</v>
+      </c>
+      <c r="C12" s="100">
+        <v>6</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="92" t="s">
+        <v>300</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="92">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="92">
-        <v>8</v>
-      </c>
-      <c r="D13" s="92">
-        <v>3</v>
-      </c>
-      <c r="F13" s="92" t="s">
-        <v>304</v>
-      </c>
-      <c r="H13" s="93"/>
+        <v>259</v>
+      </c>
+      <c r="C13" s="100">
+        <v>7</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="93" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>301</v>
+      </c>
+      <c r="J13" s="92" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="92">
-        <v>6.2</v>
-      </c>
       <c r="B14" t="s">
-        <v>294</v>
-      </c>
-      <c r="C14" s="92">
-        <v>8</v>
-      </c>
-      <c r="D14" s="92" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F14" s="92" t="s">
-        <v>305</v>
-      </c>
-      <c r="H14" s="93"/>
+        <v>322</v>
+      </c>
+      <c r="G14" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="I14" s="92" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="92">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="92">
+        <v>295</v>
+      </c>
+      <c r="C15" s="100">
         <v>8</v>
       </c>
-      <c r="D15" s="92" t="s">
-        <v>295</v>
-      </c>
-      <c r="F15" s="92" t="s">
-        <v>313</v>
-      </c>
-      <c r="G15" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H15" s="93" t="s">
-        <v>282</v>
-      </c>
-      <c r="J15" s="92" t="s">
-        <v>314</v>
+      <c r="D15" s="92">
+        <v>3</v>
+      </c>
+      <c r="F15" s="93"/>
+      <c r="H15" s="92" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="92">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="B16" t="s">
-        <v>290</v>
-      </c>
-      <c r="H16" s="93"/>
+        <v>293</v>
+      </c>
+      <c r="C16" s="100">
+        <v>8</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" s="93"/>
+      <c r="H16" s="92" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="92">
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
       <c r="B17" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="92">
-        <v>9</v>
-      </c>
-      <c r="D17" s="92">
-        <v>6.2</v>
-      </c>
-      <c r="F17" s="92">
-        <v>6.6</v>
-      </c>
-      <c r="G17" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H17" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="100">
+        <v>8</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="I17" s="92" t="s">
-        <v>275</v>
+      <c r="F17" s="93" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="92" t="s">
+        <v>311</v>
       </c>
       <c r="J17" s="92" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="92">
-        <v>9.1999999999999993</v>
+        <v>7.2</v>
       </c>
       <c r="B18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" s="92">
-        <v>10</v>
-      </c>
-      <c r="D18" s="92">
-        <v>6.3</v>
-      </c>
-      <c r="G18" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H18" s="93"/>
+        <v>289</v>
+      </c>
+      <c r="F18" s="93"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="92">
-        <v>9.3000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="B19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="92">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="D19" s="92">
-        <v>6.4</v>
-      </c>
-      <c r="F19" s="92">
-        <v>7.1</v>
-      </c>
-      <c r="G19" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H19" s="93"/>
+        <v>6.1</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="92">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="100">
+        <v>9</v>
+      </c>
+      <c r="D20" s="92">
+        <v>6.2</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" s="92">
+        <v>6.6</v>
+      </c>
+      <c r="J20" s="92" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="92">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="100">
+        <v>10</v>
+      </c>
+      <c r="D21" s="92">
+        <v>6.3</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21" s="93"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="92">
         <v>9.4</v>
       </c>
-      <c r="B20" t="s">
-        <v>298</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>316</v>
-      </c>
-      <c r="D20" s="92">
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="100">
+        <v>11</v>
+      </c>
+      <c r="D22" s="92">
+        <v>6.4</v>
+      </c>
+      <c r="E22" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" s="93"/>
+      <c r="H22" s="92">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="92">
+        <v>9.5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="92">
         <v>6.5</v>
       </c>
-      <c r="F20" s="92">
+      <c r="E23" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" s="93"/>
+      <c r="H23" s="92">
         <v>7.3</v>
-      </c>
-      <c r="G20" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H20" s="93"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>264</v>
-      </c>
-      <c r="C21" s="92">
-        <v>12</v>
-      </c>
-      <c r="G21" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H21" s="93" t="s">
-        <v>283</v>
-      </c>
-      <c r="I21" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="J21" s="92" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="92">
-        <v>13</v>
-      </c>
-      <c r="H22" s="93"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>319</v>
-      </c>
-      <c r="C23" s="92" t="s">
-        <v>315</v>
-      </c>
-      <c r="G23" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H23" s="93" t="s">
-        <v>284</v>
-      </c>
-      <c r="I23" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="J23" s="92" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>317</v>
-      </c>
-      <c r="C24" s="92" t="s">
-        <v>318</v>
-      </c>
-      <c r="H24" s="93"/>
+        <v>264</v>
+      </c>
+      <c r="C24" s="100">
+        <v>12</v>
+      </c>
+      <c r="D24" s="92">
+        <v>7</v>
+      </c>
+      <c r="E24" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" s="93" t="s">
+        <v>282</v>
+      </c>
+      <c r="J24" s="92" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>292</v>
-      </c>
-      <c r="E25" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H25" s="93"/>
+        <v>285</v>
+      </c>
+      <c r="F25" s="92" t="s">
+        <v>323</v>
+      </c>
+      <c r="G25" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="I25" s="92" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="100">
+        <v>13</v>
+      </c>
+      <c r="D26" s="92">
+        <v>8</v>
+      </c>
+      <c r="F26" s="93"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>287</v>
+        <v>314</v>
+      </c>
+      <c r="C27" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="92">
+        <v>8.1</v>
       </c>
       <c r="E27" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H27" s="93"/>
-      <c r="I27" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="F27" s="93" t="s">
+        <v>283</v>
+      </c>
+      <c r="J27" s="92" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>285</v>
-      </c>
-      <c r="E28" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="I28" s="92" t="s">
-        <v>275</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C28" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>326</v>
+      </c>
+      <c r="F28" s="93"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>286</v>
-      </c>
-      <c r="E29" s="92" t="s">
-        <v>275</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>327</v>
+      </c>
+      <c r="F29" s="93"/>
       <c r="I29" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="92">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="100">
+        <v>15</v>
+      </c>
+      <c r="G30" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="I30" s="92" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="92">
+        <v>16</v>
+      </c>
       <c r="B31" t="s">
         <v>288</v>
       </c>
-      <c r="C31" s="92">
-        <v>15</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="I31" s="92" t="s">
-        <v>275</v>
+      <c r="G31" s="92" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3857,15 +3936,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="92">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3877,7 +3948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -4060,7 +4131,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="62" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="62" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="59">
         <v>5</v>
       </c>
@@ -4126,7 +4197,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="62" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="62" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>7</v>
       </c>

--- a/schedule_315.xlsx
+++ b/schedule_315.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5680EE25-00A1-437C-8739-0A1252679F45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="schedule" sheetId="8" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId2"/>
+    <sheet name="topic_overview" sheetId="9" r:id="rId1"/>
+    <sheet name="wk_details" sheetId="8" r:id="rId2"/>
     <sheet name="fall schedule" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="points" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$D$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">points!$A$1:$D$89</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="329">
   <si>
     <t>Finals Week</t>
   </si>
@@ -1395,9 +1394,6 @@
     <t>Poster Draft</t>
   </si>
   <si>
-    <t>Final Poster</t>
-  </si>
-  <si>
     <t>Midterm</t>
   </si>
   <si>
@@ -1518,11 +1514,17 @@
   <si>
     <t>8.3</t>
   </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Poster Presentation</t>
+  </si>
 </sst>
 </file>
